--- a/output/Total_time_range_data/四川省/南充市_学习考察.xlsx
+++ b/output/Total_time_range_data/四川省/南充市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4414 +436,4830 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>237</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>县公安局赴峨眉山市蒲江县公安机关考察交流学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/bmdt/202312/t20231204_1906980.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['为进一步提升基层基础工作效能，学习借鉴先进经验和做法，11月6日，副县长、公安局局长唐环宇带队赴峨眉山市局、浦江县局考察交流学习。副政委任永艺，部分警种、派出所相关负责人参加。', '考察组先后深入峨眉山市局名山派出所、蒲江县局实地观摩学习，通过听取介绍、现场互动、座谈会等方式，详细了解了“枫桥式派出所”创建、基层基础建设等方面工作先进经验和做法，就“一网考”、“一标三实”及社区警务等工作进行了深入细致的交流，并就下一步建立长期友好交流合作机制提出意见建议。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>237</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>南部县县委常委副县长朱城带队赴浙江省瑞安市考察学习千万工程先进经验</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/qxyw/bmdt/t_1858555.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['南部县：县委常委、副县长朱城带队赴浙江省瑞安市考察学习“千万工程”先进经验-南部县人民政府', '2003年6月5日，时任浙江省委书记习近平亲自谋划、亲自部署、亲自推动“千村示范、万村整治”工程。20年来，浙江省委、省政府持续推进“千万工程”，从“千村示范、万村整治”到“千村精品、万村美丽”，再到“千村未来、万村共富”，持续迭代升级，“千万工程”造就了浙江万千美丽乡村、造福了万千农民群众。', '为进一步深化东西部协作，学习借鉴浙江现代农业发展、农村人居环境整治、基层社会治理等方面的先进经验，加快推进南部县宜居宜业和美乡村建设，7月25日至26日，县委常委、副县长朱城带领县农业农村局、县乡村振兴局等单位赴浙江省瑞安市考察学习“千万工程”先进经验，瑞安市农业农村局局长张翔同志陪同考察。', '听取介绍，观看宣传片，参观党群服务中心、文化礼堂、老年活动中心、农户庭院，与当地党员干部群众亲切交', '，全面了解党建引领、人居环境整治、乡村规划建设、基层社会治理、生态惠民富民、农旅融合发展、特色产业振兴、城乡一体化发展等方面的先进经验和做法。', '朱城强调，要以此次考察学习为契机，用心看、用心学，对照浙江“千万工程”经验，找准南部县的差距和不足，谋划好推动工作的具体举措。要深刻践行“绿水青山就是金山银山”的理念，始终坚持绿色发展，抓好农村人居环境整治和美丽乡村建设。要加快推进乡村产业振兴，切实开展粮油、晚熟柑橘等现代农业园区、“一村一品”示范村镇、产业强镇等创建工作，培育壮大龙头企业，促进产业提档升级。要充分挖掘乡村自然生态和文化资源，发展休闲农业、乡村旅游和农村电商。要大力实施农业品牌培育工程，创响“升钟福果”区域公用品牌和企业自主品牌，提升农业品牌影响力和市场竞争力。要大力发展新型农村集体经济，创新运用“五型”集体经济发展模式，鼓励地域相邻、资源相连、产业相近的村集体经济组织开展合作经营。要持续加强乡村治理，学好用好新时代“枫桥经验”，完善村民自治，落实“七公开一曝光”制度，大力弘扬社会主义核心价值观，持续推动移风易俗，传承发扬农村优秀传统文化，丰富乡村文化生活。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>237</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>县水务局赴仪陇水务局考察学习乡村水务工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/bmdt/202312/t20231228_1921555.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['考察组一行先后前往仪陇县河西自来水厂、江东自来水厂、思德水库等地进行参观学习，详细了解了仪陇县乡村水务的发展状况以及全县城乡供水的模式。随后，双方召开了工作交流座谈会，就创建乡村水务成立平台公司过程中遇到的困难及解决方法经验进行了深入交流。', '通过此次学习考察，不仅营造了蓬仪两地水利主管部门良好的互助共建氛围，还对如何推动乡村水务工作有了新的认识，提升了我县乡村水务工作发展水平。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>237</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市政协主席会议召开</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-05-30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/xwdt/ncyw/202405/t20240530_1977839.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['5月29日上午，政协第七届南充市委员会第三十五次主席会议召开。市政协主席廖伦志主持会议并讲话。', '会议听取了市政协相关专委会外出学习考察情况汇报。会议指出，市政协专委会外出学习考察，目的明确、准备充分、过程扎实，既看到了差距，也拓宽了视野，更取到了“真经”。相关专委会要认真做好考察成果的消化吸收，充分借鉴、吸纳考察地区在发展制造业、优化营商环境、推进农业农村现代化等方面的先进经验做法，紧密结合南充发展实际，针对有关工作存在的问题和差距，提出有见地、有价值、有深度、可操作的意见和建议，为市委科学决策提供有效参考，为南充高质量发展贡献政协更大力量。', '会议审议并通过了《政协南充市委员会委员履职考核办法》《关于新设立市政协委员工作站、委员会客厅的建议方案》。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>237</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>资阳市政务服务和大数据管理局一行来南考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwfwglj/xwdt/bmxx/202307/t20230725_1852103.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['7月24日下午，资阳市政务服务和大数据管理局党组书记、局长张宇声一行5人来南充考察学习政务服务工作，市政务服务管理局主要领导陪同考察。', '考察组一行先后对南充12345便民服务热线、政务服务、公共资源交易、“一网监”平台建设等工作进行参观学习。', '张宇声表示，南充政务服务、公共资源交易等工作形成了许多好的经验和做法，特别是“一网监”平台完整构建了工程项目全生命周期的监管模型，值得资阳借鉴和学习。希望今后双方进一步加强沟通交流，共同推动两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>237</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>南部县县委常委副县长朱城带队赴浙江省瑞安市考察学习千万工程先进经验</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/nyncj/xwdt/xsqdt/202308/t20230809_1858562.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['南部县：县委常委、副县长朱城带队赴浙江省瑞安市考察学习“千万工程”先进经验-南充市农业农村局', '年6月5日，时任浙江省委书记习近平亲自谋划、亲自部署、亲自推动“千村示范、万村整治”工程。20年来，浙江省委、省政府持续推进“千万工程”，从“千村示范、万村整治”到“千村精品、万村美丽”，再到“千村未来、万村共富”，持续迭代升级，“千万工程”造就了浙江万千美丽乡村、造福了万千农民群众。', '为进一步深化东西部协作，学习借鉴浙江现代农业发展、农村人居环境整治、基层社会治理等方面的先进经验，加快推进南部县宜居宜业和美乡村建设，7月25日至26日，县委常委、副县长朱城带领县农业农村局、县乡村振兴局等单位赴浙江省瑞安市考察学习“千万工程”先进经验，瑞安市农业农村局局长张翔同志陪同考察。', '盛夏时节，走进瑞安乡村，阡陌村舍间，小桥流水，浓浓绿意，勾勒出一幅生态宜居的美丽图景。考察组一行先后深入瑞安市莘塍街道滨海十万亩都市田园新天地，塘下镇陈岙村，桐浦镇大路村、黎明村，每到一处考察组成员认真听取介绍，观看宣传片，参观党群服务中心、文化礼堂、老年活动中心、农户庭院，与当地党员干部群众亲切交流，全面了解党建引领、人居环境整治、乡村规划建设、基层社会治理、生态惠民富民、农旅融合发展、特色产业振兴、城乡一体化发展等方面的先进经验和做法。', '现场学习考察结束后，中共南部县委常委、副县长朱城同志在瑞安市农业农村局主持召开学习考察工作座谈会并作总结讲话，瑞安市农业农村局局长张翔向考察组详细介绍瑞安市“千村示范、万村整治”工程推进情况及典型经验，考察团成员、南部县农业农村局局长何会同志感触良多，表示将以本次考察学习为契机，认真学习借鉴、消化吸收浙江“千万工程”经验，将学习成果转化为推动工作的强大动力，双方就共同关心关注的问题进行互动交流。', '朱城强调，要以此次考察学习为契机，用心看、用心学，对照浙江“千万工程”经验，找淮南部县的差距和不足，谋划好推动工作的具体举措。要深刻践行绿水青山就是金山银山的理念，始终坚持绿色发展，抓好农村人居环境整治和美丽乡村建设。要加快推进乡村产业振兴，切实开展粮油、晚熟柑橘等现代农业园区、“一村一品”示范村镇、产业强镇等创建工作，培育壮大龙头企业，促进产业提档升级。要充分挖掘乡村自然生态和文化资源，发展休闲农业、乡村旅游和农村电商。要大力实施农业品牌培育工程，创响“升钟福果”区域公用品牌和企业自主品牌，提升农业品牌影响力和市场竞争力。要大力发展新型农村集体经济，创新运用“五型”集体经济发展模式，鼓励地域相邻、资源相连、产业相近的村集体经济组织开展合作经营。要持续加强乡村治理，学好用好新时代“枫桥经验”，完善村民自治，落实“七公开一曝光”制度，大力弘扬社会主义核心价值观，持续推动移风易俗，传承发扬农村优秀传统文化，丰富乡村文化生活。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>237</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>仪陇县考察团来蓬安考察交流</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/payw/202401/t20240111_1926823.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['考察团一行先后前往南充佳美食品工业有限公司和四川中兆永烨半导体有限公司，详细听取了企业生产经营情况汇报，并察看了生产车间内的生产场景，详细了解了企业产品、技术工艺、市场销售等情况。', '考察中，考察团对蓬安工业经济发展的良好态势给予高度评价。大家表示，通过此次考察，深切感受到蓬安工业发展思路清晰，特别是传统产业通过提档升级、技改扩能焕发了新的活力，新兴产业快速发展，前景十分广阔，工业经济发展取得良好成效。仪陇将以此次考察交流为契机，认真梳理此次考察中的经验做法，学习借鉴有关举措，努力实现工业经济更好更快发展。希望双方进一步加强沟通交流，深化学习互鉴，共同推动经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>237</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>区委常委会会议召开研究了这些事项</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/xwdt/qxyw/t_1882811.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['10月13日上午，中共南充市顺庆区委七届常委会第90次会议召开，传达学习习近平总书记在浙江考察和在山东枣庄考察时的重要指示精神；传达学习习近平总书记在中共中央政治局第八次集体学习时的重要讲话精神；传达学习习近平总书记对宣传思想文化工作作出的重要指示及全国宣传思想文化工作会议精神；传达学习2023年省田长制林长制暨省总河长全体会议精神，研究我区贯彻意见。区委书记蒲鹏程主持会议并讲话。', '会议指出，习近平总书记在浙江和在山东枣庄考察期间的系列重要讲话和作出的系列重要指示，对干好顺庆工作同样具有重要指导意义。全区各级各部门要深刻把握习近平总书记关于科技创新、共同富裕、深化改革开放、加强社会治理、建设中华民族现代文明、坚持和加强党的全面领导、加强和改进党的建设等方面的重要要求，紧扣主题教育，聚焦顺庆发展实际，不断推动各项工作干在实处、走在前列。', '会议指出，全区各级各部门要深刻领会习近平总书记关于对外开放系列讲话的丰富内涵和精神实质，深刻认识其历史必然性，把握其规律性，以高水平开放促进顺庆经济社会高质量发展。要按照“抓平台强载体”的理念，发挥平台先行作用，加快南充高新区创建国家高新区进程，突出项目牵引，全面推进重大产业发展平台建设提升，为创造更大规模、更高水平、更强竞争力的对外开放空间奠定坚实基础。要按照“抓服务优环境”的理念，持续深化“放管服”改革，纵深推进“一窗综办”“一网通办”改革，深入开展县级领导“三包”活动，扎实推进“暖心扶企”行动，着力打造开放层次更高、营商环境更优、辐射作用更强的开放新高地。', '会议强调，习近平总书记关于宣传思想文化工作的重要指示，为我们做好新时代新征程宣传思想文化工作提供了强大思想武器和科学行动指南。全区各级各部门要深刻认识习近平文化思想的重大意义，坚决抓好学习领会，自觉贯彻落实到宣传思想文化工作各方面和全过程，为担负起新的文化使命提供坚强政治保证。要深刻把握宣传思想文化工作面临的新形势新任务新要求，不断巩固壮大主流思想舆论，广泛践行社会主义核心价值观，深度挖掘顺庆文化IP内涵，坚决有效防范化解意识形态风险，持续加强党对宣传思想文化工作的全面领导，不断增强做好宣传思想文化工作能力本领。', '会议强调，全区各级各部门要坚决贯彻落实党中央和省委、市委关于田长制、林长制、河湖长制相关文件、会议精神，全力把耕地资源、森林资源、水资源保护好、管理好、利用好，为推动顺庆经济社会高质量发展筑牢生态屏障、厚植绿色本底。要严格落实任务要求，加快推进高标准农田建设，统筹做好全域全程农机化推进工作，以“长牙齿”的硬措施守好沃野良田；要以“零容忍”的硬态度护好青山林草，聚焦森林草原防灭火、生态安全管护等重点工作，常态化开展巡林督查，严厉打击毁林毁草、滥伐林木、毁绿损绿等违法行为，确保林更丰、草更绿、景更美；要以严到底的硬要求治好江河湖泊，建立健全河库管护机制，综合实施水环境治理，有效改善水环境质量，推动水环境质量持续向好。要牢固树立“一盘棋”思想，进一步加强组织领导，注重统筹协调，落实工作责任，确保工作落到实处、取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>237</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>蒲鹏程奋力推进新型工业化再造一个顺庆工业</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/xwdt/qxyw/202402/t20240227_1942909.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['2月26日，顺庆区新型工业化推进大会暨“再造一个顺庆工业”誓师动员大会召开，区委书记蒲鹏程出席会议并讲话。他强调，要深入学习贯彻习近平总书记关于新型工业化的重要论述和对四川工作系列重要指示精神，认真贯彻落实党中央和省委、市委关于新型工业化的重大部署，坚持工业兴区坚定制造强区不动摇，举全区之力再造一个“顺庆工业”。', '日，顺庆区新型工业化推进大会暨“再造一个顺庆工业”誓师动员大会召开，区委书记蒲鹏程出席会议并讲话。他强调，要深入学习贯彻习近平总书记关于新型工业化的重要论述和对四川工作系列重要指示精神，认真贯彻落实党中央和省委、市委关于新型工业化的重大部署，坚持工业兴区坚定制造强区不动摇，举全区之力再造一个“顺庆工业”。', '蒲鹏程指出，要正确看待工业经济的地位和作用，坚定把工业兴区、制造强区的大旗举得更高。加快推动新型工业化是贯彻党中央和省委、市委决策部署的必然要求，是再创顺庆工业辉煌、顺应经济发展规律、引领各行各业发展的必然要求。我们必须站在全局和战略的高度，深刻认识工业经济的地位和作用，深刻认识工业高质量发展的重大意义，深刻把握现代化发展对新型工业化的更高要求，坚定推动党中央和省委、市委关于工业特别是制造业发展的重大部署在顺庆落地落实，在南充建设成渝地区先进制造业集聚区的生动实践中干在先、走在前。', '蒲鹏程指出，要清醒认识顺庆工业发展态势，坚定把工业兴区、制造强区的决心下得更足。要在肯定成绩成效中坚定信心。近年来，我们扎实推动工业高质量发展，产业规模持续壮大，市场主体活力迸发，集聚发展态势良好，动能转换步伐加快，取得了明显成效。要在正视短板差距中保持清醒。我区工业发展正处于夯基垒土、立柱架梁的打基础阶段，对标对表省内外先进地区，工业发展还存在不少问题短板和薄弱环节，必须高度重视，深入研究加以解决。要在明确目标任务中增强干劲。市委对顺庆工业发展寄予厚望，提出了工业发展要求“十条”，我们必须坚决落实、坚决达成、坚决确保，努力实现“争创国家级、培育百千亿、突破零上市”奋斗目标。', '蒲鹏程强调，要聚焦重点任务精准发力，坚定把工业兴区、制造强区的措施抓得更实。推进新型工业化、再造一个顺庆工业，是一项复杂的系统工程。会上印发的系列文件，明确了攻坚突破的时间表、路线图、任务书，各相关单位要对号入座、主动认领、细化举措，突出抓园区、强载体，抓招引、强后劲，抓企业、强集群，抓项目、强支撑，抓服务、强保障“五抓五强”，切实做到一项一项抓攻坚，一个一个求突破，确保一步一步把蓝图变为现实。', '蒲鹏程要求，要积极营造良好发展氛围，坚定把工业兴区、制造强区的保障筑得更牢。要进一步加强组织保障，压实责任，整合力量，健全机制，确保合力攻坚。要进一步加强要素保障。要强化土地、金融、人才保障。要进一步加强作风保障，满怀忧患、满怀激情、满怀执着抓工业。', '蒲鹏程要求，希望广大在顺企业家朋友要有家国情怀的“大胸襟”，做有追求、有情怀、有担当的企业家。要有搏击商海的“大智慧”，打造百年老店、争做龙头老大、擦亮企业产品和企业家的金字招牌。要有创新创造的“大胆识”，在创业中生存发展、在创新中行稳致远、在创造中勇攀高峰。要有坚守正道的“大境界”，让扬正气、守正义、走正道成为顺庆企业家的靓丽名片。要有饮水思源的“大情怀”，共同把顺庆建设好、发展好、维护好。', '会议分两个阶段进行。当天上午，蒲鹏程、唐粼波率部分与会同志先后前往嘉陵区、高坪区参观考察学习。下午召开会议，会上宣读了《关于表扬2023年度顺庆区优秀工业企业、纳税大户和优秀民营企业家的通报》，与会领导为获奖企业代表颁奖；企业代表、区级相关部门作了发言。', '年度顺庆区优秀工业企业、纳税大户和优秀民营企业家的通报》，与会领导为获奖企业代表颁奖；企业代表、区级相关部门作了发言。', '区委、区人大常委会、区政府、区政协、区人武部、区人民法院、区人民检察院、南充高新区有关领导，区级相关部门、乡镇（街道）主要负责同志，驻区金融机构、通讯三大运营商，部分区属医院、学校，重点工业企业家代表，商协会、乡友、重点客商代表参加考察或会议。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>237</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市政协主席会议召开</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/xwdt/ncyw/202306/t20230627_1837824.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['6月25日下午，政协第七届南充市委员会第二十一次主席会议召开。市政协主席廖伦志主持会议并讲话。', '会议指出，各委室外出学习考察很扎实，对考察对象进行了全面了解，对经验做法进行了认真总结，对如何解决问题进行了深入思考，做到了“带着问题出门，带着收获而归”。', '会议强调，外出学习考察，选题一定要准，要将方向把握好，做到有的放矢；一定要把好的经验做法学回来，实现学有所获；一定要注重形成成果，通过学习总结和归纳分析，为党委中心工作提出针对性意见建议，并促成成果转化落地，以此不断提升政协工作在中心大局中的贡献率。', '市政协副主席王晓贤、傅宗洪、王翠花、杨雄、文剑英、王瑜，市政协秘书长陈勇出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>237</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>锦屏镇召开赴江苏苏州考察学习交流座谈会</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/xzdt/202309/t20230919_1873155.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['在锦屏镇东门社区会议室内，锦屏镇就赴江苏苏州考察学习一行召开座谈交流会，镇党政班子成员、农业服务中心、党政办、乡村振兴办、各村（社区）支部书记等40余人参加会议。', '锦屏镇分管乡村振兴副镇长、镇农业服务中心主任率部分村（社区）支部书记代表一行10人赴江苏省苏州市吴中区吴侬企业等地考察学习，学习当地壮大镇村集体经济的方式、发展产业助农增收的先进经验，结合锦屏实际消化吸收后助推全镇吹响乡村振兴冲锋号。', '座谈会上，镇分管乡村振兴副镇长就本次考察学习感受进行总结发言，他提出，通过实地考察学习，我们深深地感受到当地的干部干劲足、理念新，他们的精神面貌、创新思维、实干精神都值得我们学习，特别是吴侬产业专合社的经营发展模式给我们感触很深。一是产业园业主的种植模式值得借鉴。合作社采取茶叶及果树套栽的模式，很好的提高了光能利用率和土地利用率，同时达到了月月有花开、季季有果采。二是农户之间的合作模式值得借鉴。业主流转全家外出农户及村集体的土地，对茶树进行规模化种植经营，并对其他农户进行技术指导，同时业主对农户进行托底收购，从而做到了整村规模化经营。', '随后，参与考察学习的村（社区）书记结合本村实际，就考察学习感受及如何壮大镇村集体经济进行了逐一发言。', '最后，镇党委书记强调，镇村干部要充分吸纳本次考察学习的先进经验，将先进经验融入到实际工作中。一是栽好梧桐树，引来金凤凰。进一步完善基础设施，创优发展环境，为招引有实力的业主奠定坚实基础。二是立足自身实际，探索发展之路。结合我镇实际情况，着力培育发展优势明显、布局合理、配套完备的特色产业。三是完善相关机制，营造良好环境。在村规民约、土地规范流转、产业园经营管理方式等方面建章立制，构造最适宜的产业发展环境。四是维护一方稳定，保护一方平安。防范化解各类风险隐患，切实维护镇域生产生活和谐稳定，促进各项工作落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>237</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>宜宾市高县县人大常委会副主任李光均考察团一行到仪陇县考察学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/bmdt/202401/t20240122_1931126.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['2024年1月18日，宜宾市高县县人大常委会副主任李光均考察团一行到省四星级蚕桑现代农业园区、省三星级稻药现代农业园区、市星级双胜粮油现代农业园区考察学习城乡融合发展暨现代农业园区建设工作。', '在考察学习途中，李光均副主任指出，仪陇县现代农业产业园区发挥产区独特优势，以发展品质农业为主线，以全程监管为保障，提升产品综合生产和营销能力，完善相关建设机制和体系，很有价值、值得学习。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>237</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>航空港经开区管委会学习考察成都人力资源服务产业园</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/zsyz/xmxx/202404/t20240430_1967595.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为充分发挥市场在实现人才流动中的主渠道作用，学习借鉴外地人力资源服务产业园建设、运营先进经验，拓展中国柔都国际人才港建设思路。近日，航空港经开区党工委副书记、纪工委书记石宇一行赴学习考察。', '考察组一行现场参观了产业园各功能服务区，学习了解川内其他区县数字人才市场建设运营情况。深入园区入驻企业就新业态用工、职业教育培训等方面进行走访调研，并就产业园建设一些具体问题与产业园相关负责人进行了全面深入的交流。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>237</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>付小军赴巴中市平昌县开展学习考察活动</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-12-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.langzhong.gov.cn/xwdt/gzdt/202312/t20231227_1920298.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['在学习考察中，付小军前往平昌县华油中蓝零散天然气上载项目现场，深入项目一线详细了解项目建设过程及生产运营情况等。现场考察后，付小军一行还同企业及平昌县政府相关部门进行座谈，就项目立项、安评、环评等具体事项进行深入学习交流，为阆中发展规划零散天然气上载相关能源项目积累了宝贵经验。', '市政府办、油气办、发改局、商经局、应急局、自规局、生态环境局等相关单位分管负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>237</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>阆中市退役军人事务局组织人员赴峨眉山市三台县考察学习军休工作</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.langzhong.gov.cn/xwdt/gzdt/202305/t20230506_1819044.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平总书记关于退役军人工作重要论述，推进新时代新征程军休工作高质量发展，进一步加强军休工作学习交流，借鉴先进经验。近日，阆中市退役军人事务局党组书记、局长余波带领军休所工作人员、部分军休干部赴峨眉山市、三台县考察学习军休工作。', '考察学习组一行先后来到峨眉山市军休所、三台县军休所进行了实地参观学习，参观了医养结合示范点建设、军休食堂、军休荣誉室、党员活动室、军休综合活动场所、军休图书室、多功能会议室等场所。', '在随后召开的座谈会上，三台县军休所党支部书记龙毅、峨眉山市军休所所长盖俊芳详细介绍了近年来在落实好军休干部“两个待遇”、开展军休服务管理的工作情况和主要做法，双方就如何更好开展军休服务管理工作、推进军休服务管理标准化建设等问题进行了深入探讨和交流。', '余波在座谈交流时表示，三台县、峨眉山市军休工作的经验做法，让我们深受启发，通过参观交流，既开阔了视野，又拓宽了思路。阆中军休所将认真学习两地的先进经验，对标找差距、抬高标准、创新创优，奋力推进阆中军休工作高质量发展，着力提升军休人员的归属感、获得感和荣誉感。', '阆中市军休所所长袁兰表示，将以此次参观交流活动为契机，在今后的工作中进一步加强沟通联系、深化交流学习，相互借鉴好的经验做法，达到共同学习进步、共同提高工作的目的，共同推进军休服务水平迈向新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>237</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>阳光市监市局赴甘肃考察学习医疗器械监管工作</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/scjdglj/xwdt/bmxx/202403/t20240308_1948380.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['近日，市局党组成员、药品安全总监许永波带队赴甘肃省天水市、陇南市考察学习医疗器械UDI唯一标识监管工作。本次考察学习旨在进一步贯彻落实《医疗器械监督管理条例》《医疗器械经营质量管理规范》，创新监管模式，提升监管效能，加强医疗器械全生命周期管理，为公众提供更加安全高效的用械环境。', '考察人员与天水市市场监管局、陇南市市场监管局进行了座谈交流，观看了医疗器械UDI监管平台演示，实地考察学习了两市的经营企业和医疗机构开展医疗器械唯一标识的工作情况。', '通过学习，对两市如何开展医疗器械UDI建设工作的具体做法进行了充分了解，也掌握了两市在推动工作中遇到的困难和解决对策，为南充市在医疗器械UDI智慧监管建设工作顺利进展将起到积极有效的推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>高标准农田建设如何提质升级唐方春带队赴眉山大英取经</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-06-10</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/payw/t_1832473.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['6月9日，县委书记唐方春带领蓬安相关领导干部，赴眉山大英等地，就高标准农田建设如何提质升级向当地“问计”取经。', '风吹稻浪，万物生长。唐方春一行走进眉山市东坡区太和镇永丰村，目之所及皆是风景：延伸至公路边的稻田绿意葱茏，高铁从高架桥上呼啸而过，游客乘坐公交车来到田边，穿行阡陌间观光拍照；农田里，农户正抢抓农时忙耕种……一幅农忙画卷在眼前徐徐展开。', '永丰村地处我省首个国家级现代农业园区——四川省眉山市东坡区现代农业产业园的核心区，有耕地6320亩，其中水稻种植面积5760亩；全村土地流转率超过96%，是全省标准化程度最高的高标准农田示范样板之一。', '据悉，《眉山市东坡区永丰片区“天府粮仓”核心区建设专项规划》明确，当地将聚焦完善农业空间保护体系，推进耕地挖潜增量，推进高标准农田建设等目标，提升种粮组织化、社会化程度，增强种业和科技支撑能力，建设新时代更高水平的“天府粮仓”样本。', '唐方春一行还深入遂宁市大英县回马镇文武村、大英县隆盛镇土门垭村，通过实地察看、听取讲解等形式，详细了解当地在高标准农田建设方面所积累的成功做法。', '每到一处，唐方春一行就高标准农田建设如何提质升级与当地党委、政府主要负责人进行深入交流和探讨，并对两地在高标准农田建设工作取得的显著成效和取得的成功经验给予了高度评价。', '唐方春要求，要以此次考察学习为契机，切实把学习考察的好经验好做法转化为推动蓬安高质量发展的强大动力和实际成效。要有敢想、敢干、敢闯、敢试、敢为人先的开拓创新精神，抓规划引领，抓示范引领，抓组织引领，力争将蓬安整区域推进高标准农田建设试点工作成为四川示范、全国标杆。', '县领导蒋鹏程、苟耄，县直有关单位、部分乡镇主要负责同志及我县整县推进高标准农田建设工作的相关人员参加了这次活动。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>237</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>县商务经信局外出考察学习农产品批发市场建设经营暨大米精深加工品牌创建</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/bmdt/202308/t20230815_1860020.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为完善我县农业社会化服务产业链，做好农产品批发市场建设经营和大米精深加工品牌创建。', '日，县商务经信局、县农业农村局、德懋农发公司赴重庆市、湖南省、山东省多地考察学习。', '考察组一行赴湖南南县学习助农米业下的南县稻虾米品牌建设及全产业链发展，参观助农米业的大米加工厂和旗下集团第三产业园。实地考察湖南长沙红星农产品批发市场，并与红星公司代表人座谈学习农批市场发展经验。', '实地考察山东省寿光蔬菜研发中心，寿光蔬菜交易园，质检中心，电子交易中心。深入考察调研寿光交易园规划建设方案，数字化交易平台运营状况，订单农业运营情况。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>237</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>开展学习交流活动奋力谱写乡村振兴新篇章</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-10-31</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/qxyw/xzdt/202210/t20221031_1741052.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['为全面学习贯彻党的二十大精神，全面推进乡村振兴，巩固拓展脱贫攻坚成果，扎实推动乡村产业、人才、文化、生态、组织振兴，10月19日至21日，南部县双峰乡寨山村村干部、致富带头人和小学教师代表等一行15人赴', '为全面学习贯彻党的二十大精神，全面推进乡村振兴，巩固拓展脱贫攻坚成果，扎实推动乡村产业、人才、文化、生态、组织振兴，', '大地震的惨烈灾情、回顾中国共产党带领全国军民众志成城抗震救灾的伟大壮举，感受了一次别开生面的理想信念教育和爱国主义教育。', '党建活动中心、党建广场，了解五会村乡村振兴发展历程和取得的成就，以及在产业发展、精神文明建设、基础设施建设等方面特色经验做法。随后，实地考察了蔬菜大棚基地、民宿建设和原野牧歌田园综合体建设项目，与五会村党支部书记、村干部等深入交流，详细了解村集体公司化运作、土地流转、与企业合作经营模式、运营效益收益、发展现状和未来规划等情况，对五会村“三变改革”和“五村实践”发展有了进一步理解，对党支部引领发展壮大村集体经济有了更深的认识。', '党建活动中心、党建广场，了解五会村乡村振兴发展历程和取得的成就，以及在产业发展、精神文明建设、基础设施建设等方面特色经验做法。随后，实地考察了蔬菜大棚基地、民宿建设和原野牧歌田园综合体建设项目，与五会村党支部书记、村干部等深入交流，详细了解村集体公司化运作、土地流转、与企业合作经营模式、运营效益收益、发展现状和未来规划等情况，对五会村', '双峰小学教育教学水平，丰富乡村语言文化生活。通过观摩课堂教学，丰富了基层教师教学技巧，拓展了教学思路和课堂管理方法。学习结束后，召开', '，就如何促进中华经典文化在乡村浸润传播，传承弘扬中华优秀语言文化，提升语言文化素养，更好服务乡村振兴战略实施和双峰小学建设进行深入交流研讨。', '表示，本次考察学习活动通过“一路看、一路学、一路议”的方式，学习安排合理、内容丰富、日程紧凑，开阔了眼界，学到了宝贵经验，找到了差距，明确了奋斗的目标。在今后的工作中将用更加务实的工作举措，把乡村振兴各项工作抓实抓细，抓出成效，以更高的要求、更有效的措施做好乡村振兴各项工作，推动考察学习成果落地生根、开花结果，把']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>237</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>南充市林业局参加赴重庆考察学习油茶产业</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/lyj/xwdt/bmxx/202307/t20230719_1848879.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['，近日，南充市林业局参加省林草局组织的赴重庆考察学习。本次考察学习由省林草局数字林草与科技处', '种苗配置、栽植技术、管护等方面相关情况。考察学习组认为两县油茶发展经验和模式值得学习、借鉴，川渝两地油茶发展大有合作空间', '酉阳县、秀山县是重庆市油茶中心产区，群众历来有种植油茶的传统习惯，产业发展基础良好，油茶资源优势突出。目前两县发展油茶约50万亩，年产油茶苗木2300万株，', '酉阳县、秀山县是重庆市油茶中心产区，群众历来有种植油茶的传统习惯，产业发展基础良好，油茶资源优势突出。目前两县发展油茶约']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>237</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>王春艳带队赴遂宁市考察学习建筑业高质量发展工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zjj/xwdt/bmxx/202405/t20240516_1971916.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['为探索建筑业发展新思路、新方法，切实推动我市建筑业高质量发展，5月15日上午，市住房和城乡建设局党委书记、局长王春艳带队赴遂宁市考察学习建筑业高质量发展工作。市住房和城乡建设局党委委员、总工程师杜健，建管科、审批科和四川省第十五建筑有限公司有关同志参加考察学习。', '考察学习组实地参观了遂宁高新区南片区棚户区改造建设项目，与遂宁市住房和城乡建设局及当地建筑企业进行了深入交流座谈，详细了解了遂宁市在促进建筑业转型升级、支持企业做大做强、获得施工总承包特级资质等方面的经验、做法，并就企业资质升级、装配式建筑推广等工作进行了深入探讨。', '王春艳表示，近年来，遂宁市建筑业发展势头迅猛、亮点纷呈、成效明显，是南充学习的标杆。此次考察学习收获颇丰、受益匪浅，将以此次考察学习为契机，积极借鉴新理念、好做法，切实把学习结果应用到实践中，进一步推动南充建筑业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>237</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>访邻寻思路交流促协作</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/rsj/xwdt/bmxx/202304/t20230426_1815267.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['4月19日，营山县人社系统学习考察组一行赴仪陇县考察学习高级技工学校创建、特色劳务品牌培育和就业创业等工作方面的先进经验。', '考察组一行深入仪陇县高级技工学校，考察学习了高级技工学校创建的软硬件资料，现场观摩了技能大师工作室、产教融合实训基地运行情况，讨论研究了仪陇县高级技工学校项目建设的阶段性成效和未来发展方向。', '随后组织召开了座谈会，就高级技工学校办学、劳务品牌创建与职业能力建设相结合、就业创业新方式、校企合作模式进行了深入探讨和交流。通过学习，大家纷纷表示，要学习借鉴仪陇县好经验、好做法，进一步加强交流，虚心学习、自我查摆、找准差距、理出思路、补齐短板，真正把学到的经验用到日常工作中去，积极推动我县高级技工学校创建、劳务品牌培育、就业创业等各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>237</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>南充市税务市居保局赴达州市开展学习考察</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/rsj/xwdt/bmxx/202304/t20230414_1809285.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为深入贯彻落实省第十二次党代会精神和市委、市政府关于南充一达州组团培育川东北省域经济副中心的总体部署，推进两地城乡居保协同、快速、高质量发展。4月12日，市税务局、市城乡居保局组建学习考察组，由市税务局党组成员、总会计师任劲松，市居保局局长赵来强带队，前往达州市学习考察城乡居保基金征管工作。', '学习考察以集中座谈的方式进行，考察组认真听取了达州市在基金征管、市级统筹、政策宣传、风险防控、资格认证等方面的做法和成效。随后双方围绕基金征收渠道建设、部门协作、考核考评、基层平台建设等方面的工作展开交流讨论。', '交流期间，南充市居保局和达州市居保局签订了居保专项工作协议，就建立长效合作机制、生存认证协作、争取省局政策、数据共享、基金风险共商共防等方面达成共识，共同推动两地城乡居保协作走深走实。', '学习考察组成员对达州市税务局、居保局的各项工作给予了充分肯定和高度评价，深受启发，表示将以此次学习考察为契机，结合自身实际，切实把学习考察成果转化为推进工作的具体举措，希望兄弟市加强联系沟通、互学共进，推进两地城乡居保工作高质量发展迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>237</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>外出学习取真经深化调研促发展市税务局市居保局赴巴中开展学习考察居保征管工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/rsj/xwdt/bmxx/202304/t20230414_1809408.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['外出学习取真经 深化调研促发展 ——市税务局、市居保局赴巴中开展学习考察 居保征管工作-南充市人力资源和社会保障局', '外出学习取真经 深化调研促发展 ——市税务局、市居保局赴巴中开展学习考察 居保征管工作', '4月11日，南充市税务局、南充市城乡居保局组建考察组，由市税务局党组成员、总会计师任劲松，市居保局局长赵来强带队，前往巴中市学习考察城乡居保基金征管工作。', '学习考察以集中座谈的方式进行，考察组认真听取了巴中市在基金征管、市级统筹、制度建设、风险防控、参保扩面等方面的经验做法和成效。随后双方围绕基金征收渠道建设、社银合作、部门协作、考核考评、基层平台建设等方面的工作展开交流讨论，现场交流学习的氛围浓厚热烈。', '此次外出学习考察，学习了巴中先进经验，凝聚了发展共识，铆足了工作干劲，为南充税务、居保在后续工作开展提供了有效借鉴。考察组成员表示将以此次学习考察为契机，借鉴他山之石，找准自身定位，结合工作实际，切实推进我市税务、城乡居保工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>237</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>遂宁市考察组赴我市学习考察差别化停车收费工作</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/fgw/xwdt/bmxx/202302/t20230203_1774376.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['2月2日，遂宁市发展改革委、市公安局交警支队、市发展投资集团、遂发美天科技有限公司等有关单位组成的学习考察组专程赴我市考察学习差别化停车收费工作。我委召集市自然资源规划局、市城管执法局、市公安局交警支队、顺庆区发展改革局等单位相关单位人员召开两市差别化停车收费工作交流座谈会，委党组成员、总工程师蔡宗逾主持会议。', '座谈会上，我市相关部门人员介绍了南充停车收费管理现状、差别化停车收费工作推进机制、定价方案内容及程序、工作推进情况及智慧化停车平台建设、城市停车管理等相关情况。遂宁市学习考察组认为，南充推进差别化停车收费工作领导重视、高位推动；部门分工明确、责任到位；收费政策制定合理，相关配套措施有力、值得学习借鉴。', '蔡宗逾表示，遂宁是南充毗邻城市，城市间政策协同是成渝双城经济圈建设应有之义，欢迎遂宁市领导来南充交流包括差别化停车收费在内的城市管理工作经验，希望双方进一步加强交流合作，']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>237</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>东西协作山海同行南部县科技和数字化协作组赴瑞安市考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/qxyw/bmdt/202309/t20230913_1871212.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['9月8日，南部县东西部协作科技和数字化协作组赴浙江省温州市瑞安市考察学习，此次考察学习旨在加强两地科技和数字化部门协作配合，学习东部地区科技和数字化改革先行经验成果，助力南部工业企业在科技创新和数字化改革方面探索可行路径。', '鉴于南部县工业主导产业是以机械制造为首的汽车汽配产业，瑞安市科技部门精心谋划，带领考察组先后参观了', '等在机械制造行业领域具有重要影响力的企业，瑞立集团更是作为汽车汽配行业的先行者，在汽配行业具有举足轻重的地位。随后两地部门以及行业专家进行了深入沟通，瑞安市科技部门对南部在汽车汽配科技建设方面提出了针对性的指导意见，并明确了两地部门在科技方面协作细节，定期开展交流合作，为南部企业创新发展谋篇布局。', '在瑞安市经信部门带领下，考察组来到了东新科技园，参观了华为（浙南）工业互联网创新中心，瑞安市经信局方科长介绍，自', '2021年华为工业互联网中心成立以来，已与当地1400多家企业开展上云合作，在数字化驱动企业转型升级方面取得丰硕成果。随后两地经信部门开展座谈交流，深入探讨了传统行业转型升级方面的困难和举措，对南部县工业产业数字化转型具有重要指导意义，后续两地经信部门将继续合作，建立数字化交流合作平台，邀请数字化改造行业专家不定期到南部授课，以最新的理念驱动南部传统行业数字化转型升级。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>237</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>局党组成员副局长蒙兴甫带队赴资阳市考察学习精神卫生项目</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/mzj/xwdt/bmxx/202306/t20230606_1829961.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为进一步落实省民政厅党组成员、机关党委书记张晓玲一行到蓬安调研指示精神，加快推进项目建设，6月1日，市民政局党组成员、副局长蒙兴甫带领规划财务科、蓬安县民政局相关人员到资阳市考察学习精神卫生项目。', '学习考察组参观了资阳市精神病医院，并座谈交流，资阳市民政局和精神病医院从项目包装、资金争取、项目运营等方面作了详细介绍，蓬安县民政局局长母海涛就项目运营、机构人员等方面进行了详细咨询、了解。考察组一行还参观了资阳市民政福利园。', '考察学习结束后，大家一致认为资阳市精神卫生项目建设得很好，在政策运用、资金争取、项目运营等方面的好做法、好经验都值得学习、借鉴。下一步，将解放思想，取长补短，在加快项目建设的同时，尽快编制项目运营和人员配备工作方案，争取得到党委、政府的大力支持，尽早发挥精神卫生项目的社会效益。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>237</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>广元市来我县考察学习紧密型县域医共体建设工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/ylyw/t_1971366.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['5月13日，广元市副市长刘素英率考察组来我县考察学习紧密型县域医共体建设工作。副市长欧阳梅，县委副书记、县长赵云强出席座谈会。', '考察组一行先后来到县总医院医疗中心院区和妇儿院区，实地参观学习县总医院在医共体管理运行模式和分院管理运营的经验，并就紧密型县域医共体组织构架、建设思路、信息化建设、人员调配、绩效考核、医保支付改革等工作进行深入探讨交流。', '座谈会上，双方就医共体建设工作取得的经验及遇到的困难进行相互交流学习。考察组认为，加快建设紧密型县域医共体是全面提升区域医疗服务能力和服务体系整体效能的重要途径，仪陇在南充先行先试，积极担当作为，高标准高质量推动了县域医共体建设，体现了仪陇干事创业良好的精神面貌。同时在顶层设计上体现了仪陇大手笔、大作为，探索了医改新路径。广元将积极借鉴仪陇好的经验和做法，根据广元各区县实际，因地制宜加快医共体建设。希望广元、仪陇两地能够加强交流学习与合作，共同深化医共体建设，为两地人民提供更加优质的卫生健康服务。', '欧阳梅对考察组一行的到来表示热烈欢迎。希望两地今后要加强交流、相互学习，进一步深化学科组团建设和医技人才流动，做到优势互补，共同进步，推动两地医疗卫生事业共同发展。', '赵云强表示，紧密型县域医共体建设是近年来卫生健康的重点工作，仪陇将以此次考察为契机，进一步完善医共体体制机制建设，强化医技人才下沉，进一步加强与广元各兄弟区县的沟通交流，相互学习帮助，共同进步，让紧密型县域医共体建设真正惠民、便民、利民。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>237</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>蓬安县综合行政执法局关于县委第二巡察组巡察反馈意见集中整改进展情况的通报</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/tzgg/202401/t20240123_1931808.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['牢巡察整改第一责任人责任，对反馈的问题认真组织研究、牵头制定整改方案，时常跟踪调度，推动整改工作有力有序开展，县委第二巡察组巡察反馈', '严格落实县委巡察工作领导小组对巡察工作的总体要求，严守政治纪律和政治规矩，以坚决的态度、严格的标准、有力的措施，切实扛起巡察整改主体责任。', '巡察整改期间，召开专题民主生活会，从五个方面剖析存在的问题、产生问题的原因和下一步努力的方向，党委班子之间开展批评和自我批评，起到了相互监督、相互促进的作用，推动局党委高效开展工作。', '根据《整改方案》，对问题整改措施多次进行研究部署。坚持即知即改、立行立改、全面整改。对照巡察整改责任分解表，建立了整改落实台账，认真对照存在的问题，实时跟进，完成一件，', '局党委和驻住建纪检监察组常态化开展巡察整改情况检查，对问题复杂的，帮助协调解决；整改推进迟缓的，对整改责任单位、责任人进行批评；对敷衍整改的，进行通报批评，并责令立即改正，确保问题整改工作高质量推进。同时，', '）学习习近平总书记关于城市管理重要论述不够到位。近年来，局党委对习近平总书记关于“城市管理”方面的重要论述未组织开展学习。对今年出版的《习近平关于城市工作论述摘编》局党委没有征订，也没有组织学习。', '方面的重要论述未组织开展学习。对今年出版的《习近平关于城市工作论述摘编》局党委没有征订，也没有组织学习。', '一是严格落实会前学法制度，常态化在局党委会、中心组会议前开展对习近平总书记关于“城市管理”方面重要论述的学习，及时掌握党和国家指示要求，确保认真按照最新要求抓好工作落实。二是征订《习近平关于城市工作论述摘编》等指导性书籍，并组织了专题学习。', '方面重要论述的学习，及时掌握党和国家指示要求，确保认真按照最新要求抓好工作落实。二是征订《习近平关于城市工作论述摘编》等指导性书籍，并组织了专题学习。', '）理论学习不够深入。在学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神上流于形式，学习原文原著不够，仅仅只是纲领式、标题式学习，领悟其精神实质有较大差距。对重要论述、重要文件未组织干部职工进行讨论，也未结合工作实际提出贯彻意见。', '整改情况：一是多次组织传达学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神，征订《习近平著作选读》《习近平新时代中国特色社会主义思想学习纲要》等原著书籍，局党委带头学习，领会掌握基本精神、基本内容、基本要求，并做到学而信、学而思、学而行。二是对重要指示精神、关于经济社会发展等部分重要会议、文件，组织干部职工进行学习讨论，并结合我局工作实际，提出具体实施意见。', '）理论中心组学习内容不全面。近两年来，对全面深化改革、推动经济高质量发展等方面内容学习较少。没有坚持会前学法制度，2022年没有组织学习城市管理方面的重要法律法规。', '）理论中心组学习内容不全面。近两年来，对全面深化改革、推动经济高质量发展等方面内容学习较少。没有坚持会前学法制度，', '整改情况：一是已将全面深化改革、推动经济高质量发展等学习内容纳入中心组学习。二是落实会前学法制度，将城市管理方面的重要法律法规常态化纳入会议学习。', '）推进“城市大提质”攻坚行动不够有力。按照十四届县委五次全会通过的“实施八大攻坚行动建设”的决议，局党委没有对“城市大提质”攻坚行动组织研究，没有结合工作职能职责制定工作举措。', '研究。并结合当前创建工作实际，制定工作方案，对我局各项工作进行全面梳理和提升，确保县委、县政府各项决策部署落地落实。', '）执行党委议事规则不到位。①主要领导执行末位表态制不到位，如2022年1月5日（两次会议）、2022年3月9日党委主要领导均是第一个进行表态发言。②大额资金无党委会研究记录。如2022年，2万元以上的大额资金支出有52笔，均无“三重一大”集体研究的会议记录。局机关及下属事业单位未建立健全“三重一大”决策事项制度。', '2022年1月5日（两次会议）、2022年3月9日党委会会议记录进行更正。补齐大额办公经费等资金支出党委会研究记录。', '是局党委再次学习“三重一大”制度，确保大额资金支出、人事任免等重要事项均纳入党委会讨论研究。', '）总揽全局作用发挥不充分。在统筹推进县、乡综合行政执法工作上有短板，局党委对乡镇的综合行政执法工作进行业务指导偏少，虽建立了联席会议制度，但落实不够到位，也未进行监督检查。', '一是配合县司法局等单位推进综合行政执法队伍建设。二是对乡镇综合行政执法工作开展常态化人员培训、业务指导和监督检查。', '）意识形态工作氛围不够浓厚。宣传教育工作的方法、形式、途径单一，在创新宣传内容、宣传方式等方面还有差距，对工作人员培训不够，适应新形势的能力偏弱。阵地建设有待进一步加强。网上舆论斗争和专项清理行动开展力度有待加强。', '对相关工作人员进行了业务知识培训，熟悉了新的宣传方法、形式，不断创新宣传内容、宣传方式等。二是将意识形态工作作为中心组、党委会等重要学习内容，强化阵地建设。三是落实专人负责网上舆论斗争和专项清理等工作，做到及时发现、及时处理，不断提升人民群众对城市管理工作的满意度。', '）未严格落实意识形态工作检查考核制度。如在2022年班子成员的述职报告中，部分班子成员未将意识形态工作列入述职报告。', '一是提高对意识形态工作的思想认识，落实专人负责，局领导和机关负责同志加强对下属单位意识形态工作常态化检查，确保常抓不懈。二是班子成员常态化开展意识形态知识学习，并将意识形态工作', '）工作作风不细致。如当前夏季正值用电高峰，抚琴广场、相如文化广场的路灯在天色未黑时已经点亮，增加了城市用电负担，没有根据实际情况进行调整。', '整改情况：一是建立了《城区市政光亮管理制度》，组织相关人员进行了学习，并落实人员责任。根据季节变换，', '合理调整户外灯光开启时间，防止造成资源浪费，力争做到既保障市民出行，又节约能源。二是常态化加强市政公用设施巡查，做到及时发现问题、及时进行调整并解决。', '）财务收支管理不规范。①大额现金支付。违规使用大额现金支付款项。如2022年3月，出纳使用库存现金支付差旅费4.54万元。②库存现金过大。2022年3月16日10#凭证支王玉霞借备用金64500元，出纳大额借现金。县环境卫生服务中心出纳周庭峰借现金未及时处理账务，截至2022年2月累计借款60000元，至2022年底未处理该笔账务。③支付方式不合规。如县城市综合执法大队2020年7月支购办公用品2500元，本应转入到经销商账户，却转入到职工祝梵个人账户中。', '，提升了系统财务人员业务知识水平，规范了单位财务制度。二是针对借现金未及时处理账务的问题，已改正。三是对', '办公用品费用转至个人账户的问题，对相关财务人员和当事人进行了批评教育，并且提出明确要求，防止类似问题发生。', '）财务审批把关不严。①差旅费报销审批不严，公杂费应减半未减半报销。如县城市公用事业服务中心梁路平2021年10月29日到南充车管所办理业务报销差旅费350元，公杂费未减半。职工出差学习未附考察学习文件，如县城市公用事业服务中心支付2019年3月8日朱莉、刘英、刘刚等12人到南部考察学习差旅费1800元，无考察学习文件通知。②公务用车租赁不规范。租赁本单位职工车辆下乡，县综合行政执法局2020年下乡扶贫租用职工个人私车66次，支租车费6600元。③报销附件不齐全。如2020年12月支购执法服装39094元，无领用明细；2022年5月支档案资料费1888元，未附协议。④报销票据不规范。如县城市综合执法大队2022年6月造册发放腊制品点劳务费80000元，没有附正式的劳务费发票。', '报销差旅费，未附考察学习文件的，已要求补齐。三是严格按照要求规范公务用车，严禁租用单位职工个人车辆下乡。四是', '）考核约束不到位。局党委每月对环卫作业机构的工作情况虽进行了考核，并且作出了经济处罚，但效果欠佳。对第三方作业机构监管缺乏相应的措施，没有严格的退出机制等。', '定期听取环卫服务中心关于考核工作的汇报，压实环卫服务中心的监管考核责任。二是修订完善考核管理办法，加强对考核人员管理，针对长期服务质量不佳、服务不达标的公司，严格落实退出机制。', '局党委不断加强思想理论学习，提高对党建工作的重视，党委会定期召开专题会议研究党建工作。二是在研究党建工作的同时，要结合自身工作实际，推动业务工作的开展，确保以党建工作推动各项业务工作再上新台阶。', '）主体责任落实不到位。局党委没有将党风廉政建设工作与日常工作同安排、同部署、同落实，党委的主体责任未压实。党委班子成员对各自分管范围内的党风廉政建设和反腐败工作未进行研究部署，也没有开展督促检查。', '整改情况：一是局党委组织专题研究，明确党委班子成员党风廉政建设工作责任，并就具体抓好工作落实提出要求。二是日常安排工作时，将党风廉政建设工作与业务工作同安排、同部署、同落实。三是党委班子组织分管股室、单位', '）“廉政风险点”排查不到位。对城管系统的廉政风险防控没有认真研判，防控举措没有根据工作和形势的变化及时调整，廉政风险点排查没有落到实处。内控制度不够健全，对下属单位重点领域如财务管理、车辆管理、工程管理、人员聘用管理等方面风险点重视不够。', '排查不到位。对城管系统的廉政风险防控没有认真研判，防控举措没有根据工作和形势的变化及时调整，廉政风险点排查没有落到实处。内控制度不够健全，对下属单位重点领域如财务管理、车辆管理、工程管理、人员聘用管理等方面风险点重视不够。', '一是专题安排部署各单位、各股室研判廉政风险点，报局分管领导组织研究，制定防范措施，能整改的及时整改，不能立即整改的，长期坚持整改，并做好日常防范。二是健全内控制度，对财务、车辆、工程、人员聘用等管理提出具体有效监管方式，并督促抓好落实。三是加强干部职工思想教育，提升自我警醒意识，坚决防止出现廉政风险问题。', '）日常教育不到位。日常开展廉政警示教育不深不实，传导压力不够，如2022年7月至2023年3月职工会议记录没有开展警示教育的记录，2023年1月至3月仅有一次传达上级纪委全会精神。2022年以来，没有对职工进行开展专门的法纪知识教育，日常监管缺位，干部职工纪法意识不强。', '年以来，没有对职工进行开展专门的法纪知识教育，日常监管缺位，干部职工纪法意识不强。', '明确要求，每个月至少传达学习一次廉政警示教育相关文件精神，尤其是节假日等重要时间节点。定期组织干部职工参观法纪教育基地，增强干部职工法纪意识，筑牢', '虽然整改工作取得阶段性成效，但离县委、县政府要求和群众期待还有一定差距，还有一些难点问题需要进一步合力攻坚、着力解决', '始终把党的政治建设摆在首位，把绝对忠诚作为首要政治原则、政治本色和政治品质，坚持以习近平新时代中国特色社会主义思想为指导', '新时代党的建设总要求，严格落实新时代党的组织路线，压紧压实党建工作责任制，不断提升党建水平。认真履行全面从严治党政治责任、第一责任和', '，严格落实中央八项规定精神及其实施细则，筑牢拒腐防变的思想道德防线，营造风清气正的良好政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>237</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>县经信商务科技局组织企业赴苏州学习考察</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/bmdt/202406/t20240627_1987454.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['苏州学习考察活动，本次活动旨在学习苏州先进企业的运营模式、创新模式，交流先进制造业发展经验做法，进一步提升我县中小企业创新能力，助力企业转型升级。', '本次学习活动采用理论学习与实地考察相结合的方式开展。通过数字化转型理论学习，加深企业代表对数字化转型趋势、挑战以及解决方案等方面更深层次的了解和认识，帮助企业提振数字化转型信心。', '通过实地参观科沃斯机器人、太湖雪、格兰富水泵、汇川技术等知名企业工厂，企业代表们亲眼目睹了苏州先进制造业的高水平和高效率，感受到了科技创新的魅力，反响热烈。旌上智能科技企业代表表示，苏州之行让我们醍醐灌顶，企业只有不断投入研发，推出满足市场需求且独具特色的产品或服务，才能在激烈的市场竞争中脱颖而出。', '接下来，我局将继续加大对中小企业的扶持力度，为企业提供更多的学习交流机会，帮助企业提升创新能力和市场竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>237</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>区委书记陈多平率队赴盐亭县考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/xwdt/gpxw/202403/t20240318_1951424.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['日下午，高坪区委书记陈多平率队前往盐亭县，考察学习文旅产业融合、现代农业发展等先进经验，进一步深化交流互鉴，促进务实合作，携手共创高质量发展新局面。盐亭县委书记何长鹰陪同考察。', '考察团一行首先来到华夏母亲嫘祖国家纪念园，大家一路看、一路听、一路议，畅谈观摩感受，交流心得体会，实地感受悠久深厚的中华母亲文化、孝道文化和丝绸文明。考察团表示要认真学习盐亭在产业发展、项目推进等方面的好经验、好做法，结合自身实际进行思考，加快把学习考察成果转化为推动工作的强大动力和有力举措，不断开创高坪各项事业发展的新局面。', '随后，考察团前往西部水产现代农业园区，开展座谈会，交流学习双方文旅产业融合发展经验。交流中，陈多平说，盐亭素有“华夏母亲之都、世界丝绸之源”美誉，嫘祖文化、岐伯文化、文同文化、字库文化、红色文化等在此交相辉映，文化厚重、产业兴旺，前景广阔。华夏母亲嫘祖国家纪念园荣获“中国华侨国际文化交流基地”“海峡两岸交流基地”等荣誉，进一步提升了盐亭文旅品牌的知名度、美誉度和影响力，彰显出盐亭县大思路、大气魄、大手笔发展文旅产业的决心信心，工作思路和创新举措值得学习借鉴。此次考察是带着学习来，带着交流来、带着合作来，希望双方持续加强沟通交流，相互借鉴经验做法，在丝绸文化传承弘扬、资源互推互介、旅游产品开发等方面深化合作，实现互惠互利、共同发展。', '陈多平说，高坪区作为南充主城三区之一、大城门户所在，是南充推进“五区建设”的主战场、主力军，要在“五区”建设中走在前、作贡献。当前，全区上下正深入践行南充市委“五新”工作要求，加快打造现代产业示范区、乡村振兴示范区、生态宜居示范区，为建设“大城门户、森林城市、活力高坪”注入新的活力。下一步，高坪将紧紧围绕嘉陵江文化、丝绸文化，立足国际视野，对照国家标准，打造具有“国家气场、巴蜀气派、山水气质”的中国嘉陵江博物馆，推动嘉陵江文化、丝绸文化成为经济发展、产业升级的新动能。', '何长鹰说，高坪与盐亭山水相依、文化相连、人文相济，两地有着同样悠久的历史根源、丰富的文化遗存、厚重的文化积淀，更坚定着共同的目标、共同的理想和共同的追求。高坪与盐亭合作有基础、有空间、有未来，希望双方抢抓成渝地区双城经济圈建设等战略机遇，持续加强沟通了解，全面整合资源优势，聚焦文旅产业融合、现代农业发展等领域，探索开展更全方位、更深层次、更宽领域、更加紧密的合作，努力取得更多务实的合作成果。', '高坪区领导陈海荣、邓颖晴参加考察，盐亭县领导黄丽琴、谷业非陪同考察，高坪区、盐亭县有关部门及企业负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>237</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>水利厅赴宁夏考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/swj/xwdt/hyjj/t_1975828.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['5月15-16日，水利厅党组书记、厅长郭亨孝率队赴宁夏考察学习城乡水务一体化和水权水价改革工作。他强调，要深入贯彻落实习近平总书记“节水优先、空间均衡、系统治理、两手发力”治水思路，聚焦农业灌溉用水和城乡居民用水“两大目标”，立足四川实际，找差距、强弱项，以水权水价改革为动力源，以科技创新为增长极，全面构建新时代县域城乡水务一体化新格局。', '考察学习组一行先后深入青铜峡灌区河西总干渠唐正闸、秦汉渠管理处、利通区现代化灌区信息中心、“互联网+城乡供水”管理服务平台、水利调度中心等点位，考察学习宁夏引黄灌区供用水管理、现代化灌区建设、农业水价综合改革、农业用水管理体制改革、“互联网＋城乡供水”示范建设、水资源调度信息化建设等情况。', '郭亨孝指出，宁夏在用水权改革、现代化灌区建设、“互联网＋城乡供水”等方面取得了显著成效，我们要认真学习借鉴宁夏先进经验、典型做法，将考察学习成果转化为四川水利高质量发展的有效路径和务实举措，奋力推动治水兴川再上新台阶。一要学习先进。四川近3年在乡村水务百县建设、水利“5+1”基础工作、水权水价改革方面取得了显著成效，但在深化农业水价综合改革推动现代化灌区建设、信息化成果运用、农村供水管理等方面仍与部分先进地区有差距。二要锚定方向。坚定不移推进县域城乡水务一体化，聚焦两大目标，推进平原丘区集中连片规模化网络化、“三州”和盆周山区分布式水源规范化标准化人饮供水“两种模式”，持续深化水权水价改革，加快灌溉管网化和运行管理信息化，全方位提升县域城乡供水保障能力。三要真抓实干。以试点示范为抓手，大力推进水权水价改革，通过特许经营权交易和水权交易等渠道，引导金融和社会资本投参与灌区运行管理，提升灌区现代化管理水平和服务能力；持续推进乡村水务百县、百乡、百村建设，着力抓好平原丘区规模化供水和高原山区“分布式”水源规范化供水，全面提升我省农村自来水普及率、规模化供水率，加快构建城乡一体化、网络化供水保障体系。', '宁夏自治区水利厅党组成员、副厅长麦山陪同考察学习。厅二级巡视员孙小铭、刘锐，有关市水利（水务）局、厅机关有关处室、厅直属有关单位负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>237</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>蓬安二中与南部中学开展一对一托管帮扶</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/zwgk/zdlygk/ywjy/202401/t20240112_1927287.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['虚心奔赴，就教于方家；子所雅言，执礼以倾授。为落实国家、省、市关于“县域普通高中发展提升行动计划”的精神和安排部署，进一步提升办学水平，蓬安县第二中学与南部中学结成“一对一”托管帮扶友好单位。', '日上午，蓬安二中党委书记姚妍岑带领班子成员及骨干教师赴南部中学开展县中托管帮扶交流活动。', '蓬安二中与南部中学托管帮扶签约仪式在南部中学举行。南部中学党委书记张晓彬、校长张横率班子成员出席仪式，与学习考察团全体成员共同见证这一重要时刻。此次签约标志着两校开启了托管帮扶、合作交流的新航程，两校将不断深化务实合作，积极推进管理服务、教育教学的改革创新，为地区县域高中办学质量的提升做出新的贡献，为蓬安二中教育高质量发展注入新鲜血液。签约仪式上，南部中学负责人表示，学校将坚决落实好托管帮扶工作，根据蓬安二中的校情学情、办学愿景，有重点、有目标、有实效地开展托管帮扶工作。', '签约仪式结束后，宾主双方召开了座谈交流会。会上，张晓彬代表南部中学对蓬安二中领导老师一行表示热烈欢迎，并深情回顾了学校与蓬安二中的友好交往历史和良好的合作基础，分享了学校发展历史、办学成就、管理机制、人才培养、生本课堂构建等基本情况，并表示将与蓬安二中精诚合作、携手努力，力争两校帮扶托管工作取得实效。', '姚妍岑代表蓬安二中对南部中学的真情帮扶表示诚挚感谢，并简介了学校艰苦创业、奋力推进各项事业跨越式发展的历程。她表示，蓬安二中将虚心求教、不断学习，积极主动对接，做好托管帮扶工作，希望通过与南部中学携手合作，着力提高学校办学质量，早日成功创建省二级示范性普通高中。', '带着对生本课堂的憧憬，蓬安二中学习考察团成员兴致勃勃地走进了南部中学课堂，零距离感受了中国县域百强中学课堂的精巧和氛围。考察团成员惊叹于名校科组集体的智慧，讶异于教师课堂的完美诠释。课堂上既创新、合作，又自我、个性，最吸引人的是落到实处的精巧。一线教师“润物细无声”，将教育教学工作做得细、做得实，从而实现了学生和老师的共同发展，促进了学校教育教学水平的提升。', '带着对生本课堂的憧憬，蓬安二中学习考察团成员兴致勃勃地走进了南部中学课堂，零距离感受了中国县域百强中学课堂的精巧和氛围。考察团成员惊叹于名校科组集体的智慧，讶异于教师课堂的完美诠释。课堂上既创新、合作，又自我、个性，最吸引人的是落到实处的精巧。一线教师', '深度的学习考察活动，是一次温暖的牵手，是一个提升的过程，更是一场情谊对话。蓬安二中学习考察团对南部中学的管理服务和教育教学理念表示十分认同，并期待双方能够常来常往，精诚合作，以促自我提升，为推动学校教育教学高质量发展寻得源头活水。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>237</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>尹成平主持召开县委常委会扩大会议</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/qxyw/nbyw/202406/t20240614_1983092.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['日，县委书记、县长尹成平主持召开县委常委会（扩大）会议，传达学习贯彻习近平总书记在山东考察时关于党纪学习教育的重要讲话和省委、市委警示教育会议精神，市委七届十次全会精神等。审定有关事项。县委副书记张晓波出席会议。', '会议传达学习贯彻了习近平总书记在山东考察时关于党纪学习教育的重要讲话和省委、市委警示教育会议精神。', '会议指出，习近平总书记高度重视党纪学习教育，在山东考察时特别强调，要精心组织、扎实推动、务求实效。各级党组织要深化思想认识，把开展警示教育作为开展党纪学习教育的重要举措，坚持分层分类精准“滴灌”，引导广大党员干部时刻绷紧纪律之弦；要抓实警示教育，结合实际挖掘警示教育资源，抓好以案促学、以案说纪，教育引导党员干部以典型案例为“镜”，深入对照剖析、反躬自省，从中受到警醒、汲取教训，切实增强学纪、知纪、明纪、守纪的政治自觉、思想自觉、行动自觉；要认真履职尽责，各级党委（党组）书记要坚决扛起全面从严治党政治责任，切实履行第一责任人责任，班子成员要切实履行“一岗双责”，层层传导压力，严抓严管、齐抓共管，共同把全面从严治党推向纵深。', '传达学习贯彻省、市安委会2024年第二次全体成员会议暨第二季度安全生产工作会议精神时，会议要求，各级各部门要树牢底线思维、极限思维，克服麻痹侥幸心理，以“时时放心不下”的责任感，全力抓好安全生产各项工作。要细化工作举措，抓好排查整治，抓好防汛工作，抓好地灾防治。要强化督导检查，把责任和压力真正传递到最小工作单元，对安全工作掌握不明不白、落实不严不实、隐患排查不深不细、整改不清不楚的，从严追责问责，坚决维护人民群众生命财产安全，为南部经济社会高质量发展营造安全稳定环境。', '传达学习贯彻中国共产党南充市第七届委员会第十次全体会议精神时，会议强调，6月12日，市委七届十次全会圆满完成各项任务，胜利闭幕。全会审议通过了《中共南充市委关于加快建成省域经济副中心奋力谱写现代化南充建设新篇章的决定》《中共南充市委关于深入贯彻落实党中央和省委决策部署加快培育新质生产力推动高质量发展的决定》，鲜明提出现代化南充建设的“1558”工作思路，充分体现了市委主动服务国家战略全局和全省发展大局的责任担当，彰显了市委一张蓝图绘到底、持之以恒抓落实的战略定力，为南充做好各项工作提供了科学指导和方向指引。全县上下要深刻领会全会精神，迅速掀起学习宣传贯彻市委全会精神热潮，切实把思想和行动统一到市委决策部署上来。要精准把握部署要求，结合自身实际，找准工作切入点和着力点，细化工作举措，全力抓好工业发展，做强农业特色产业，推动服务业提质增效，持续深化改革开放，持续增进民生福祉，防范化解重大风险，并要切实抓好经济运行、项目建设、招商引资、生态环保等当前工作，推动市委全会精神落地见效。', '6月12日，市委七届十次全会圆满完成各项任务，胜利闭幕。全会审议通过了《中共南充市委关于加快建成省域经济副中心奋力谱写现代化南充建设新篇章的决定》《中共南充市委关于深入贯彻落实党中央和省委决策部署加快培育新质生产力推动高质量发展的决定》，', '会议传达学习贯彻了5月27日中共中央政治局会议精神，中省市社会工作部部长、信访局局长座谈会议精神，全省、全市“一站式”矛盾纠纷多元化解平台建设推进会精神等。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>237</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>市医疗保障局赴河北学习考察并进京汇报对接工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/ylbzj/xwdt/bmxx/202307/t20230721_1850836.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['省医疗保障局一级巡视员杨俊带领南充市、乐山市医疗保障局及省医疗保障局医药价格与招标采购处、省药械招标采购服务中心相关人员，', '赴河北省学习考察了药械招标采购工作，并赴国家医疗保障局汇报了药械采购、医药价格改革、国家区域医疗中心建设等工作。', '考察组一行学习考察了河北省药械招标采购挂网工作，与河北省医疗保障局党组书记、局长赵新喜，党组成员、副局长高栋梁等举行了座谈，双方围绕药械集采、招标挂网、医保监管、信用评价、平台管理、货款结算等进行了深入交流。河北省医疗保障局详细介绍了药品挂网工作主要做法、基本原则、挂网流程和工作经验。考察组人员纷纷表示，河北省药品采购挂网工作，党委、政府高度重视，工作开展成效明显，值得学习借鉴。', '在国家医疗保障局，杨俊向国家医疗保障局党组成员、副局长施子海及价格招采司、价格招采指导中心负责同志等汇报了药械采购工作开展情况、存在问题及下步打算，市医疗保障局党组书记、局长任洁平汇报了我市国家区域医疗中心建设和县域紧密型医共体建设推进情况，国家医疗保障局相关领导就下步工作作出了指示、明确了方向。', '考察组还赴以岭药业考察了中药研发、生产、流通、使用、集采、价格等情况，详细了解了中成药及中药配方颗粒规范采购挂网等工作。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>237</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>市人大常委会党组扩大会议召开</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/xwdt/ncyw/202404/t20240429_1967007.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['4月28日，市人大常委会党组书记、主任潘国华主持召开市七届人大常委会党组（扩大）会议。', '市人大常委会党组副书记、副主任熊建春，市人大常委会党组成员、副主任沈一凡、温桂彪、杨积义，市人大常委会党组成员、秘书长宋先佐出席会议。', '会议传达学习了习近平总书记在2024年春季学期中央党校（国家行政学院）中青年干部培训班开班之际作出的重要指示精神；传达学习了习近平总书记在湖南考察时和在新时代推动中部地区崛起座谈会上的重要讲话精神；传达学习了习近平总书记在重庆考察时和在新时代推动西部大开发座谈会上的重要讲话精神，并研究贯彻意见。会议听取了提请人事任免情况。', '会议指出，市人大常委会机关要紧扣习近平总书记“五个自觉”的重要要求，在政治立场上保持坚韧定力，在管理培养上秉持宽严相济，在作风建设上坚持勤勉务实，着力打造政治坚定、纪律严明、业务过硬、作风优良的人大干部队伍。', '会议指出，习近平总书记的重要讲话为新时代推动中部地区崛起和西部大开发指明了前进方向，提供了根本遵循。要切实提高政治站位，深刻把握丰富内涵，紧密结合工作实际，不断开创人大工作新局面。要牢固树立一盘棋思想，自觉在发展大局中主动作为；要不断坚持一体化贯彻，自觉在履职尽责中担当作为；要持续拧好一股绳推进，自觉在强化自身建设中展现作为，为加快建成省域经济副中心、奋力谱写现代化南充建设新篇章持续贡献人大力量。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>237</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>区政府召开七届第次常务会议</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/zwgk/wgk/jggk/cwhy/t_1957356.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['3月29日下午，顺庆区委副书记、区政府区长唐粼波主持召开七届区政府第63次常务会议，传达学习习近平总书记在湖南考察时的重要指示和在新时代推动中部地区崛起座谈会上的重要讲话精神，研究贯彻意见。', '会议要求，要提高政治站位，认真学习领会习近平总书记在湖南考察时的重要指示和在新时代推动中部地区崛起座谈会上的重要讲话精神，准确把握核心要义，主动服务和融入新发展格局，紧密结合顺庆实际，对标对标、不折不扣抓好推进落实，奋力谱写中国式现代化顺庆新篇章。', '会议强调，要始终坚持高质量发展不动摇，坚持改革创新、求真务实，加强科技创新和产业创新深度融合，积极培育和发展新质生产力，加快构建以先进制造业为骨干的现代化产业体系。要坚决扛牢耕地保护政治责任，始终把耕地保护作为自然资源管理的首要任务，狠抓耕地保护责任落实，坚决遏制“非农化”、有效防止“非粮化”，持续推进高标准农田建设，量质并重，全力做好耕地保护和建设任务，坚决守住耕地保护红线和粮食安全底线。要深刻领会关于更好担负新的文化使命的重要要求，保护好、运用好红色资源，推进文化和旅游融合发展，在展现时代新风貌的同时培育形成更多产业增长点。要进一步巩固拓展学习贯彻习近平新时代中国特色社会主义思想主题教育成果，把学习成果转化到抓发展、保稳定、促改革上来，建立健全以学铸魂、以学增智、以学正风、以学促干长效机制，用主题教育焕发的热情和干劲推动各项工作实现开门红、决战全年胜。', '区委常委、副区长陈崛，副区长张益萍、刘向阳、宋敏、何杰出席。区委常委、组织部部长李波，区人大常委会副主任贺频、区政协副主席杨小虎列席。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>237</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>全省方志工作动态巴中市委党史地方志办公室到泸州考察交流党史地方志工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/xwdt/ztzl/ncfzfznc/gzdt_23413/zsdt/202405/t20240520_1973072.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['【全省方志工作动态】巴中市委党史地方志办公室到泸州考察交流党史地方志工作-南充市人民政府', '5月14日至15日，巴中市委党史地方志办公室副主任蹇黎明一行赴泸州考察交流党史地方志工作。泸州市委党史研究室（市地方志工作办公室）副主任周琴、纳溪区党史办公室（区志办公室）主任李春文陪同考察。', '考察组先后参观了四渡赤水教育馆、护国战争博物馆、市博物馆、泸顺起义纪念馆和朱德旧居陈列馆。在四渡赤水教育馆，考察组深入了解了四渡赤水战役的历史背景、历史过程和重大意义，学习如何把党的光辉历史与当前党纪学习教育相结合。在市博物馆，考察组详细了解了史志资料收集、整理、展陈以及文化传承方面的经验和做法，并就展陈布局、展陈形式、人员管理等进行了讨论。在护国战争博物馆、朱德旧居陈列馆和泸顺起义纪念馆，考察组通过重温革命历程，缅怀革命先烈丰功伟绩，接受了一次深刻的思想洗礼。', '考察过程中，双方就扶贫志、图志、年鉴等书籍编纂的组织架构、工作机制、资料收集、内容纂写等进行了深入交流，并互赠了《泸州市镇村志略》《天府粮仓·泸州“土特产”》《巴中文旅康养图志》等史志书籍。双方表示，通过此次相互交流、互学互鉴，拓宽了工作思路，进一步坚定了“大史志”观，双方将以此次考察交流为契机，加强两地史志工作交流合作，共同推动党史地方志事业繁荣发展，为传承红色基因、赓续红色血脉、弘扬中华优秀传统文化贡献史志力量。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>237</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>南充市组织各县市区民政局赴遂宁市大英县考察学习乡村著名行动</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/mzj/xwdt/bmxx/202312/t20231221_1917083.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['南充市组织各县（市、区）民政局赴遂宁市大英县考察学习“乡村著名行动”-南充市民政局', '如何建立地名文化传承保护基金、地名赋能乡村振兴、强化部门联动、资源整合、发动志愿者力量、地名工作', '学习考察组一行通过对遂宁市大英县经验的学习，明确了地名工作的方向和目标，掌握了工作方法，对因地制宜做好地名工作增添了力量和信心。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>237</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>河舒镇希望的田野绘新图</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/xzdt/202402/t20240222_1941474.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['为巩固和提高粮食生产能力、保障国家粮食安全，推动藏粮于地、藏粮于技战略实施，河舒镇驰而不息，有序推进高标准农田建设，促进农业提质增效。', '提高认识，高度重视。河舒镇召开部门会议和村社会议，积极部署，上传下达，理清目标任务，统一规划布局，形成合力聚力。确立政府主导、支部主推、农民主体的基本原则，按照“路成行、渠成网、旱能灌、涝能排”的标准，让更多“粮田”变成“良田”，夯实农业“耕”基，助推农业增产、农民增收。', '2024年2月19日，河舒镇组织部分领导班子成员、镇高标办、施工单位、狮坪村和小板桥村支部书记，到巴中市恩阳区柳林镇考察学习当地高标准农田建设成果和“农旅”结合发展经验。当地利用区位交通、绿色生态等优势，发展乡村休闲度假、民宿客栈、生态农庄、生态康养等，推动农业园区化、规模化、现代化发展。通过学习开阔了视野，拓展了工作思路，对规划要求有了更深刻的理解。', '河舒镇成立镇高标办，划分技术组、项目组、督导组、后勤组，安排专人对接村社，明确责任分工。落细落实日常监督管理责任，紧盯重点区域求实效，以改田改土、路沟渠为重点，切实摸清问题，建立整改台账，督促整改落实，逐条对账销号，从严从实推进高标准农田建设。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>237</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>嘉陵区党政考察团来我县考察学习工业发展城市管理等工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.yingshan.gov.cn/xwdt/qxyw/t_1964303.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['4月19日，嘉陵区党政考察团来我县考察学习工业发展、城市管理等工作。嘉陵区委副书记、区长张全杰，营山县委副书记、县长孔北川参加活动。', '座谈会上，双方围绕升规入统、招商引资、工业经济运行、城市管理等工作进行了充分交流。', '考察团对我县工业发展、城市管理等工作给予了充分肯定。考察团表示，近年来，营山工业产业发展迅速，城市管理井然有序，在园区建设、招商引资、服务企业、优化营商环境、城市精细化管理、信息化建设等方面的先进理念和工作方法值得学习借鉴，此次考察学习收获颇丰。同时希望今后双方进一步深化交流互鉴、优势互补、合作互惠，共同谱写出双方合作交流崭新篇章。', '孔北川代表县委、县政府对嘉陵区党政考察团的到来表示欢迎，她表示，嘉陵区工业经济发展良好，经济社会蓬勃发展，希望借此机会，相互交流、相互学习，把好的经验、好的做法留下，共同推动两地经济社会发展再上新台阶、新水平。', '座谈会前，考察团还先后前往中其盛科技有限公司、阀门产业园、川北电缆有限责任公司、优籁特电子有限公司、邦蓝环保有限公司等地，详细了解了我县工业产业发展、工业经济运行、城市管理等工作情况。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>237</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>南部县市场监督管理局组织召开传达学习习近平总书记在四川考察重要讲话和省委常委会会议精神专题会议</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/qxyw/bmdt/202308/t20230801_1857054.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['南部县市场监督管理局组织召开传达学习习近平总书记在四川考察重要讲话和省委常委会会议精神专题会议-南部县人民政府', '南部县市场监督管理局组织召开传达学习习近平总书记在四川考察重要讲话和省委常委会会议精神专题会议', '日下午，县市场监管局组织召开专题会议，传达学习习近平总书记在四川考察时的重要讲话和省委常委会会议精神，局领导班子和各股室负责人参加会议。', '任军强调，习近平总书记这次来川视察作出的重要指示，是习近平新时代中国特色社会主义思想“四川篇”的最新发展，是对新时代治蜀兴川事业发展最权威最深刻最有力的科学指引。全局上下要准确把握其丰富内涵、核心要义和实践要求，与党的二十大精神一体学习领会、贯彻落实，用以统揽市场监管各项工作。', '全局干部职工要提高政治站位，把学习贯彻习近平总书记来川视察重要指示精神作为当前和今后一个时期的重要政治任务，切实用习近平总书记来川视察重要指示精神武装头脑、指导实践，推动南部市场监管工作高质量发展。', '各级各单位要紧盯全年目标任务，明确工作重点，细化举措、鼓足干劲、奋力冲刺，全力以赴完成目标任务，推动南部市场监管工作再上新台阶。', '各单位要将学习贯彻习近平总书记重要讲话精神和我局正在开展的“干部能力提升大讲堂”常态化学习相结合，提高思想站位、精心统筹谋划，一体推进理论和实践学习，确保主题教育各项任务落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>237</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>云南红河州住建局来我局考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/fgj/xwdt/bmxx/202310/t20231025_1886986.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['月19日，云南省红河州住建局党组成员、副局长李贻河带队，红河州各县（市）住建、房管、街道等物业、维修资金管理相关人员赴我局考察学习。我局局党委委员、副局长贾剑带领局物管科、维管中心等相关科室陪同交流和实地考察。', '考察组一行先参观了我局维修资金管理中心办事大厅，观摩我市维修资金管理系统具体功能演示，深入了解我市维修资金专户银行选择和开户情况，资金保值增值的主要做法和经验，同时考察学习了我市维修资金使用流程和具体申报资料、维修项目价格审核、维修质量控制、施工企业选择等经验。', '考察组一行实地参观了嘉陵区南湖·凯旋广场小区，详细了解了小区从“无人管”变“有人理”的治理过程，对小区以建强党组织“动力轴”为中心，以因地制宜利用闲置架空层打造成“七彩”民生服务综合体、完善小区管理制度和建立联动机制、充分发挥志愿者作用搭建共建共治平台、推动服务下沉小区的方式提升物业服务为“四轮”的治理模式给予了充分肯定和高度赞扬。', '在座谈交流中，我局详细介绍了物业管理制度建设、物业管理行政执法、矛盾纠纷调解和党建引领基层治理等基本情况，双方领导就社区社会服务工作和物业管理融合经验、政府职能部门对物业管理的分工和责任区分等方面的工作进行了深入的交流与探讨。李贻河对我局的热情接待表示了衷心的感谢。考察组认为，通过此次交', '力。贾剑认为，在接下来的工作中，大家应该相互学习、相互借鉴，不断创新，将先进的理念、丰富的经验、创新的思想转化为工作的动力，共同开创物业管理和维修资金管理工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>237</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>阆中开展知识产权宣传周活动</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/scjdglj/ztzl/clxd/202404/t20240429_1967182.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['为全面提升社会公众尊重和保护知识产权的意识，加强全市知识产权保护和运用宣传教育，近日，阆中市市场监督管理局围绕“知识产权转化运用 促进高质量发展”2024全国知识产权宣传周主题，开展了系列形式多样、内容丰富的宣传活动。', '集中宣传，多措并举营造活动氛围。线上线下集中宣传，线上利用微信公众号、微信群推送知识产权法律制度、知识产权典型案例、知识产权宣传海报等相关内容。线下，在中心城区户外大屏、出租车LED屏滚动播放知识产权公益宣传标语、知识产权短视频，同时制作宣传海报、发放宣传资料等，加强宣传引导。宣传期间，制作户外广告牌12个，发放宣传资料300余份。', '贴近群众，纵深推进知识产权保护。活动以座谈、实地走访的形式进行，送法、送服务进园区、进企业、进学校。一是深入园区调研，与园区管理人员探讨园区知识产权保护的规划与发展，并着手准备新设立一个知识产权服务工作站。二是深入重点企业宣讲，开展知识产权普法政策宣传、知识产权服务、品牌培育指导，推动扶持政策落地见效。活动期间，为企业提供指导服务4次，为企业答疑解惑6次，落实企业政策扶持资金28.7万元，鼓励10家企业进入品牌培育库，推荐3家企业参加全国商标博览会。三是深入校园教学，以学生研学活动为契机，带领师生走进知识产权研学基地，通过观看知识产权保护公益视频和基础知识趣味动画，在轻松愉悦的氛围中普及知识产权基础知识，同时鼓励并协助学校申报知识产权示范学校。', '他山之石，考察学习提升工作效能。该局分管知识产权的副局长带领相关股室负责人及园区相关负责人到德阳、绵阳、成都三地学习考察知识产权工作。与郫都区市监局、绵竹市市监局相关人员进行了交流座谈，交流研讨工作中的痛点难点、特色亮点。现场参观了德阳市知识产权服务中心，就服务中心的建设运营、人才培养、业务开展等进行交流探讨。此次考察活动，既学习到了先进的工作经验，又充分认识到了工作的差距与不足，既开阔了思路，又增强了信心。', '铁拳出击，联合执法形成监管合力。联合公安局、宣传部、版权局就群众关切的食品、药品、图书、儿童玩具等领域进行联合执法检查，严查商标侵权、假冒专利、侵犯著作权等违法违规行为，同时，对从业人员进行知识产权相关法律法规宣讲，引导他们尊重知识产权，维护市场秩序。此次联合执法，检查经营主体30余户，对不合规的经营行为现场责令整改5户。', '保护知识产权就是保护创新，促进知识产权高质量转化运用就是促进高质量发展，阆中市市场监督管理局将在知识产权宣传、优化知识产权管理和服务水平，激发企业创新活力上持续发力，为培育阆中新质生产力赋能。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>237</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>保护知识产权就是保护创新阆中市市场监督管理局开展知识产权保护宣传周活动</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.langzhong.gov.cn/xwdt/gzdt/202404/t20240426_1966172.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['为全面提升社会公众尊重和保护知识产权的意识，加强全市知识产权保护和运用宣传教育，近日，阆中市市场监督管理局围绕', '“知识产权转化运用 促进高质量发展”2024全国知识产权宣传周主题，开展了系列形式多样、内容丰富的宣传活动。', '线上线下集中宣传，线上利用微信公众号、微信群推送知识产权法律制度、知识产权典型案例、知识产权宣传海报等相关内容。线下，在中心城区户外大屏、出租车', 'LED屏滚动播放知识产权公益宣传标语、知识产权短视频，同时制作宣传海报、发放宣传资料等，加强宣传引导。宣传期间，制作户外广告牌12个，发放宣传资料300余份。', '，与园区管理人员探讨园区知识产权保护的规划与发展，并着手准备新设立一个知识产权服务工作站。二是深入重点企业', '，开展知识产权普法政策宣传、知识产权服务、品牌培育指导，推动扶持政策落地见效。活动期间，为企业提供指导服务', '，以学生研学活动为契机，带领师生走进知识产权研学基地，通过观看知识产权保护公益视频和基础知识趣味动画，在轻松愉悦的氛围中普及知识产权基础知识', '该局分管知识产权的副局长带领相关股室负责人及园区相关负责人到德阳、绵阳、成都三地学习考察知识产权工作。与郫都区市监局、绵竹市市监局相关人员进行了交流座谈，交流研讨工作中的痛点难点、特色亮点。现场参观了德阳市知识产权服务中心，就服务中心的建设运营、人才培养、业务开展等进行交流探讨。此次考察活动，既学习到了先进的工作经验，又充分认识到了工作的差距与不足，既开阔了思路，又增强了信心。', '联合公安局、宣传部、版权局就群众关切的食品、药品、图书、儿童玩具等领域进行联合执法检查，严查商标侵权、假冒专利、侵犯著作权等违法违规行为，同时，对从业人员进行知识产权相关法律法规宣讲，引导他们尊重知识产权，维护市场秩序。此次联合执法，检查经营主体']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>237</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>四川省首届热线技能大赛启动</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-06-25</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwfwglj/12345rx/rxdt_6250/202306/t20230625_1836779.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为深入贯彻落实党的二十大精神，更好践行以人民为中心的发展思想，提升全省12345政务服务便民热线的专业技能与服务水平，省大数据中心、省直机关工委、人力资源社会保障厅、省总工会、团省委、省妇联6部门联合举办四川省首届12345政务服务便民热线技能大赛。', '大赛以“践行党的二十大 谱写热线新篇章”为主题，坚持“以赛代练、以赛促训、以赛促建”的办赛原则，组织省本级和21个市（州）的12345热线从业人员参赛，综合考察参赛选手政治综合理论、民生实事相关专业知识和操作实务等。', '大赛分为初赛、复赛、决赛三个阶段，于6月15日正式启动，持续至9月中旬，各参赛单位通过集中培训、线上直播课等形式开展全员学习，在本地进行初赛选拔，选送队伍参加全省统一复赛，再由复赛选拔10支优胜队伍进入决赛角逐。决赛设置了团队综合奖、个人综合和单项奖等奖项。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>237</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>关于营山县人民政府关于公布我县第一批历史建筑保护名录的通知的解读</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.yingshan.gov.cn/zwgk/zcjd/t_1869530.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['关于《营山县人民政府关于公布我县第一批历史建筑保护名录的通知》的解读-营山县人民政府', '2023年8月29日，营山县人民政府印发《营山县人民政府关于公布我县第一批历史建筑保护名录的通知》（营府发〔2023〕12号），我县于式枚故居、文华楼、翰林苑、红军广场、人民公社、星火镇中教学楼、景福寺、佛尔寺、天主教堂、营山中学五四乙楼10处建筑列入第一批历史建筑保护名录。现将相关内容解读如下：', '历史建筑，是指经城市、县人民政府确定公布的具有一定保护价值，能够反映历史风貌和地方特色，未公布为文物保护单位，也未登记为不可移动文物的建筑物、构筑物。', '历史建筑是重要的文化遗产资源，是助推我县发展的靓丽名片，更是不可再生的宝贵资源。按照《住房和城乡建设部办公厅 关于进一步加强历史文化街区和历史建筑保护工作的通知》（建办科〔2021〕2号）要求，我县通过辖区摸排、研究讨论、专家评审、征求业主单位和公众意见、公开公示，县政府公布确定了我县第一批历史建筑名录。', '。位于营山县朗池街道天章路北侧，修建于明洪武年间。2020年按照修旧如旧的原则，将保留的正堂进行修缮，按历史记载的川东民居四合院的建筑风貌扩建复原厢房、二堂、朝门廊房和桅杆等。该故居历史久远，建筑特色鲜明，文化底蕴深厚，与历史名人于式枚相关联，具有纪念、教育等历史文化意义。', '（二）文华楼。位于营山县翠屏公园内。2001年，县人民政府决定将翠屏山建成文化公园，并在山顶建一塔楼，作为县城的标志性建筑。该楼坐东向西，九级八角，通高56米。三十六级台阶', '亭，寓意“四县合一为营山”（营山境内宋以前置安固、绥安、宕渠、朗池四县，宋元时先后合并为营山），四亭外围砌以雕花石廊。“文华楼”意为通过此楼的内外设施展示营山千多年来深厚的文化底蕴和悠久的文明历史，以彰显营山人文历史之繁荣昌盛、兴旺发达。', '史背景是红色基因。在营山县进士文化旅游景区翰林苑百岁红军王定国专题展展厅，背景墙上“一生为国奉献，信念百年不移”12个大字格外醒目。背景墙前，一尊头戴八角军帽、身穿红军军装的王老半身铜像静静地安放在展台上，下方标注着1913—2020字样。百岁红军王定国专题展展厅共分五个展区，分别是：革命蜕变获新生、初心所向长征路、革命伴侣谱赞歌、初心不改在暮年、荣光百年铸辉煌……讲述红军长征爬雪山、过草地的故事，讲述革命先烈流血牺牲、艰苦奋斗', '（四）红军广场。位于营山县滨河北路东段，为纪念为新中国的解放事业作出重大贡献的营山儿女，传承红色文化，营山县委、县政府决定建红军纪念广场，并把广场南侧的钢筋混凝土拱桥命名为红军桥。“铭记历史、激励后人”是规划设计红军桥、红军纪念广场的初衷。', '（五）人民公社。位于营山县回龙镇龙坝村村委会对面，20世纪60年代，知识青年响应党的号召参加“上山下乡”活动来到龙坝村，为了解决知识青年的住宿问题，龙坝村党支部经多次研究后决定，以记工分等形式修建住房，于1973年初开始筹备，1974年底竣工，', '建筑面积644平方米。知青是生在新中国、长在红旗下、听党话、跟党走、吃苦耐劳的一代人，到农村、到边疆，到祖国最艰苦、最需要的地方，传播城市文明，推进科学种田的一代人；知青是献身于祖国现代化建设的一代人。知青到艰苦的地方经受了磨砺，得到了锻炼', '和考验，因这种举世特殊的经历而产生了独特的中国知青精神。为了弘扬知青精神 ，留存知青生活。2017年营山县人民政府投资500万元在龙坝村原知青居住房屋改建成知青文化博物馆并打造周边环境，统称龙坝村知青文化特色小镇，以记录知青名人、记忆知青生活、纪念知青文化为主题，现有知青广场、人民公社、游客中心等，建筑面积5000平方米，博物馆收集各类知青生活中藏品160件/套，展出藏品150件/套，展览面积160平方米，让人们留存历史印记与岁月，大力宣传知青精神：坚守初心，秉承人民情怀；勇于担当，敢于举旗；领路攻坚克难，战胜各种挑战和挫折，具有突出的历史文化价值。', '（六）星火镇中教学楼。1960年8月，在营山县委领导下，通过平调“八一幼儿园”和原吃大锅饭时的一个居民点，营山观音初级中学（营山星火初级中学校前身）建立。招收一个初中班，学生55人。另加1958年附设在星火小学的三个初中班，共计学生200余人。学制三年。经南充专署任命，毛厚学担任首任校长。当时，教职工配额为12人，因校舍困难，还租用了社员房屋一通供部分教职工居住。当时仅学校拥有5－6亩地的农场，当年决定在原农场上修建一座教学办公综合用房。1961年由于国民经济困难进行相应调整', '，观音初级中学停止招生。到1963年9月学校复课时，经全体师生艰苦奋斗，一座占地400平方米，建筑面积747平方米，上下两层，砖木结构，走道式组合形式的苏式建筑（内廊式教室6间，其他用房6间）已经落成，用于师生办公学习，后于2009年更名为聚贤楼。', '（七）景福寺。位于营山太蓬山（今营山太蓬乡境内）顶峰，距县城50余公里，其山状若海中篷莱，史称绥山。古时仙道云集，洞府幽深，有周初葛由飞仙桥，唐初尔朱洞之栖真岩等迹。唐僖宗文德元年（888年）始建普济寺，继于昭宗景福元年（892年）进行扩建，更名景福寺。距今1135年，为川北著名古刹，香火鼎盛，尤以农历二月、六月、九月庙会，香客每年达数万余人。80年代初，落实宗教政策，当地善男信女自动捐资，在景福寺旧址上修建了观音殿，塑佛朝拜。1995年3月，营山县人民政府报经市宗教局批准，正式', '开放，直至今日。近年来，逐步扩建，征地50亩，现已建成山门、大雄宝殿、天王殿、观音殿、伽蓝殿，五观堂等，重现昔日庄严的道场。', '（八）佛尔寺。位于营山县芙蓉山，地处县城中心东北方向约3公里处，省道S204以东，营佛环线环绕其中，交通便利。佛尔寺（原称芙蓉庙）始建于唐朝中期，经历代信教群众的扩建，曾经一度规模宏大、香火鼎盛。后因战争、政治等原因，寺院主体建筑于1958年被拆。2010年，经普陀山惟海法师及信众发心，为满足县城及周边佛教信众过宗教生活的需要，南充市民族宗教事务局于2011年2月17日（南民宗〔2011〕6号）批准佛尔寺为佛教活动固定处所。佛尔寺占地52.8亩，目前，佛尔寺已完成法堂和西厢房主体', '（九）天主教堂。清朝光绪甲午年间在县城正西街购置民房改建天主堂一座。于一九九四年四月响应政府旧城改造，主动拆迁，在城南火车站附近现景阳大道273号得政府划拨土地1222.14平方米。1997年11月18日动工修建新的天主教教堂。整体建筑风格为中西结合式，因地制宜设地下室，前厅等附属房屋。钟楼最高处距地面27米。建筑面积687.92平方米。于1999年10月竣工投入使用。于2017年整体内外翻新装饰。', '木结构楼的苏式建筑样，是营山县至今保留完好仍在使用的历史遗留建筑之一。70年栉风沐雨，历经修缮，整体建筑风貌得以完整保留，前中共中央总书记、前川北行政公署主任胡耀邦同志在此考察学校办学，前解放军副总参谋长何其宗、中国科学院院士张国榉等一批知名校友在这里就读。即将实现百年跨越的营山中学，缩影着营山近代百年的办学史，这栋二层苏式小楼根植营中传承不息的红色基因，沉淀着无数营中学子的青春记忆，是营中教育嬗变发展', '的历史符号和营山崇文兴教的重要历史凭证。保护好五四乙楼这栋历史建筑，对追溯研究营山教育发展史、营中办学史具有价值；对砥砺教育初心、根植历史底蕴、张扬时代精神、引领营山教育事业高质量发展具有重要意义。', '具备下列条件之一，未公布为文物保护单位，也未登记为不可移动文物的建筑物、构筑物等，经城市、县人民政府确定公布，可以确定为历史建筑；']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>237</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>赵云强带队赴浙江温州龙湾区考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/ylyw/t_1847332.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['日，县委副书记、县长赵云强带领我县党政代表团赴浙江省温州市龙湾区考察，进一步拓展东西部协作领域、深化协作内容，实现互利互惠，全力推动龙湾仪陇协作更上一层楼。龙湾区委副书记、区长夏禹桨陪同考察。', '代表团一行先后来到龙湾中学、国科温州研究院、中国眼谷等地，考察先进教育、生命健康产业发展、创新产业链发展等情况。考察中，代表团成员纷纷表示，龙湾区的创新引领，战略性新兴产业培育，构建起创新资源集聚、创新成果转化的科创体系，实现创新发展、高质量发展，值得仪陇好好学习借鉴。', '随后召开的座谈会上，赵云强代表仪陇县委、县政府对龙湾区的对口帮助表示真诚的感谢。赵云强表示，通过实地参观考察，对龙湾区建设的大气魄、工作的大格局、取得的大效果深有感触。自龙湾与仪陇东西部协作结对以来，高点站位，精心谋划，全力推进，既送来了项目资金，又送来了干部人才，更有先进理念，让老区人民倍感温暖；在协作项目上，仪陇抢抓东西部协作战略机遇，依托龙湾产业、人才、技术、市场等优势，立足实际、精准对接、取长补短，已建成现代农业产业园、东西部协作工业园、德乡慢村民宿园等产业项目。同时，仪陇通过龙湾搭建的农产品销售平台，线上线下销售农特产品超2.3亿元。赵云强表示，龙湾是沿海发达地区，先进的管理理念、积极的工作方式、良好的发展效果都是我们前进的标杆，龙湾仪陇更要共同努力搭建发展平台，在人才培育、产业发展等方面深度合作，共同构建“聚焦协作、优势互补、长期合作、实现共赢”的新格局。', '座谈会上，夏禹桨对仪陇党政代表团的到来表示热烈的欢迎。他表示，近年来，龙湾随着交通路网的不断完善，工业、科技创新、城市环境都得到了长足的发展，仪陇龙湾将进一步拉近距离，紧抓发展机遇，不断优化合作交流机制，加强互通互动，凝聚更多的智慧力量，形成更多的共识共鸣，特别是在人才培养、干部培训、农产品销售等方面加强合作，建立更有效的合作平台，实现对口帮助。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>237</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>眉山市来营考察学习省级安全发展示范城市创建工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.yingshan.gov.cn/zwgk/fdzdgknr/yjgl/yjdt/t_1803597.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['3月28日上午，眉山市应急管理局副局长张帆一行赴我县学习考察省级安全发展示范城市创建工作，县应急管理局局长伍袁志、副局长孙晨陪同考察。', '考察组一行先就省级安全发展示范城市创建工作与我县进行了交流座谈。会上，考察组观看了《三力营山 安全发展》示范城市创建专题片，县应急局副局长孙晨就省级安全发展示范城市工作思路、创建历程及建成情况进行详细介绍。会上，局长伍袁志就创建工作心得与考察组进行深入交流。他指出，营山县委、县政府高度重视省级安全发展示范城市创建工作，自2020年启动创建以来，县委、县政府高位推动，强化保障，围绕指标落实各项工作措施，稳扎稳打，有序推进，圆满通过省市现场综合评议。', '会后，考察组一行现场观摩了营山县城市应急管理综合应用平台，深入县城S204国道天胜大酒店110kV营山站、南运集团营山分公司、营山红光小学、营山安全文化主题公园进行实地调研，详细了解我县省级安全发展示范城市创建成效。', '考察组对营山县推进城市安全发展工作成效给予充分肯定，表示将借鉴营山县在创建省级安全发展示范城市方面的好经验、好做法，拓展工作思路，创新工作模式，努力推动眉山市城市安全治理水平迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>237</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>江安县来我区参观学习公共文化服务体系建设</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/xwdt/gpxw/t_1843135.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['6月9日，宜宾市2023年第一期中青年干部培训班关于构建公共文化服务体系调研组一行9人到我区考察学习公共文化服务体系建设工作，江安县委常委、宣传部部长白静带队，南充市高坪区委常委、组织部部长陈海荣，高坪区文广旅局党组成员、副局长符高飞等陪同参观。', '调研组一行参观了文化馆、美术馆、黄辉文化园、璞缘文化大院、走马镇姜家祠村文化室等我区公共文化服务阵地，并就五级公共文化服务体系情况，尤其是各文化阵地基本情况、群众文化情况、服务特色等内容进行交流讨论。', '随后，就公共文化服务体系建设召开了座谈会，进行了深入交流学习。对高坪区公共文化服务体系所取得的成绩高度赞扬，表示高坪区公共文化工作亮点纷呈，值得学习借鉴，也拓宽了今后公共文化工作思路。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>237</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>四川农业大学导师团到顺庆帮扶指导头雁学员</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/zwgk/zdlygk/xczx/202307/t20230725_1851797.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['7月23日，四川农业大学“头雁”导师孔凡磊、林东川带队与顺庆“头雁”学员会面，深入每位“头雁”的产业基地进行实地走访、现场指导。', '日，四川农业大学“头雁”导师孔凡磊、林东川带队与顺庆“头雁”学员会面，深入每位“头雁”的产业基地进行实地走访、现场指导。', '“夏季高温少雨，可把旋耕播种机的刀拆下来，不把土地旋耕得太深，这样可保存土地一定的水分，让高粱、水稻出苗率更高……”两位导师先后前往顺庆区檬太园生态农场、李家镇新桥村集体经济联合社、幸福怡家农旅融合家庭农场、顺庆区顺风农机专业合作社等基地，实地踏访、座谈答疑，对杨永淑、张林杰、庞智群、任杨四位“头雁”学员在生产、加工、管理、销售等环节存在的问题，进行多方面、全方位的帮扶指导。导师们尽心尽力指导，“头雁”学员也珍惜这一难得机会，将所遇难题一一抛出，专心聆听导师解答并与之进行深入交流。', '夏季高温少雨，可把旋耕播种机的刀拆下来，不把土地旋耕得太深，这样可保存土地一定的水分，让高粱、水稻出苗率更高……”两位导师先后前往顺庆区檬太园生态农场、李家镇新桥村集体经济联合社、幸福怡家农旅融合家庭农场、顺庆区顺风农机专业合作社等基地，实地踏访、座谈答疑，对杨永淑、张林杰、庞智群、任杨四位“头雁”学员在生产、加工、管理、销售等环节存在的问题，进行多方面、全方位的帮扶指导。导师们尽心尽力指导，“头雁”学员也珍惜这一难得机会，将所遇难题一一抛出，专心聆听导师解答并与之进行深入交流。', '“两位导师拓宽了我们的眼界，进一步丰富了我们的农业知识，也让我们更加坚定了要带动家乡富起来、带动乡亲富起来的信念。”顺庆区顺风农机专业合作社负责人任杨表示。', '两位导师拓宽了我们的眼界，进一步丰富了我们的农业知识，也让我们更加坚定了要带动家乡富起来、带动乡亲富起来的信念。”顺庆区顺风农机专业合作社负责人任杨表示。', '据了解，本次帮扶指导是2022年四川省乡村产业振兴带头人培育“头雁”项目（以下简称“头雁”项目）的一部分。2022年4月，农业农村部和财政部联合印发《乡村产业振兴带头人培育“头雁”项目实施方案》，提出用5年时间培育一支乡村产业振兴带头人“头雁”队伍，带动全国新型农业经营主体形成“雁阵”，夯实乡村产业振兴人才基础。“头雁”项目采取“四个一”培育模式，即：累计一个月集中授课、一学期线上学习、一系列考察互访、一名导师帮扶指导，对带头人开展为期1年的定制化、体验式、孵化型培育。', '月，农业农村部和财政部联合印发《乡村产业振兴带头人培育“头雁”项目实施方案》，提出用', '年时间培育一支乡村产业振兴带头人“头雁”队伍，带动全国新型农业经营主体形成“雁阵”，夯实乡村产业振兴人才基础。“头雁”项目采取“四个一”培育模式，即：累计一个月集中授课、一学期线上学习、一系列考察互访、一名导师帮扶指导，对带头人开展为期', '四川农业大学帮扶指导活动旨在借助“一个团队导师帮扶”实现“多对一”的人才孵化指导，进一步对“头雁”进行技术、知识、资源赋能，通过搭建学校、专家、“头雁”之间的交流沟通纽带，充分发挥四川省各地区位优势及资源禀赋，筑牢人才孵化的一线阵地。', '四川农业大学与中国农业大学作为本次“头雁”项目的培育机构，已成功培育1000名“头雁”。参训学员均通过了个人申请、县级申报、市级推荐、省级甄选、部级备案的层层筛选与逐级审核，是地方主导产业中干得好、有潜力、能带动的乡村振兴带头人。在人才孵化期内，学校将通过导师团队，持续为“头雁”提供线上咨询及线下指导，充分赋能人才发展、全力助推产业升级，为乡村振兴献力。', '名“头雁”。参训学员均通过了个人申请、县级申报、市级推荐、省级甄选、部级备案的层层筛选与逐级审核，是地方主导产业中干得好、有潜力、能带动的乡村振兴带头人。在人才孵化期内，学校将通过导师团队，持续为“头雁”提供线上咨询及线下指导，充分赋能人才发展、全力助推产业升级，为乡村振兴献力。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>237</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>蓬安县政府常务会议传达学习习近平总书记在加强荒漠化综合防治和推进三北等重点生态工程建设座谈会上的讲话精神</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/bmdt/t_1851495.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['蓬安：县政府常务会议传达学习习近平总书记在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的讲话精神', '近日，蓬安县政府常务会议专题传达学习了习近平总书记在内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的讲话精神。', '会议指出，各级各部门要认真学习贯彻习近平总书记有关加强荒漠化综合防治和推进“三北”等重点生态工程的重要讲话精神，忠实践行习近平生态文明思想，', '对标抓好落实，压实工作责任，全力打好蓝天、碧水、净土保卫战，确保全县生态环境质量持续向好；要']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>237</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>南充市高坪区年度嘉陵江英才工程和人才兴区战略人才引进公告</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/xwdt/tzgg/bmgg/202308/t20230803_1857622.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['日前取得符合岗位条件要求的毕业证书、学位证书等证书；其他报考人员必须在报名时取得符合岗位条件要求的专业技术职称和资格证书。未在规定时间内取得并提供相应证书的，取消资格，责任由报考人员自负。', '．具有中华人民共和国国籍，遵守国家法律法规，品行端正，有良好的职业道德，爱岗敬业，事业心和责任感强；', '．高坪区域外的在编在职报考人员，须征得服务地用人单位及其主管部门书面同意，并提供书面证明材料；委培、定向毕业生，须征得原委培、定向单位及主管部门书面同意，并提供书面证明材料；', '．具备本公告具体招聘岗位要求的条件和资格。其中，报考人员本人有效的毕业证书所载学历和所获专业名称，应与报考岗位的', '执行。国外、境外留学人员报考的，出具教育部相关国（境）外学历学位认证书原件及复印件（如留学期间所学专业与报考岗位国内的专业名称不一致的，由招聘单位或主管部门通过省级教育行政部门、相关高校或省以上相关科研机构等第三方对其留学所学专业进行认定，认定与招聘专业为相似专业的可视为专业资格条件合格）。', '．按照中共中央办公厅、国务院办公厅《关于加快推进失信被执行人信用监督、警示和惩戒机制建设的意见》规定，由人民法院通过司法程序认定的失信被执行人；', '．南充市机关事业单位在编人员不在“嘉陵江英才工程”引才范围内；高坪区机关事业单位在编人员不在“人才兴区”战略引才范围内。', '用人单位主管部门对报考人员的报名资料进行审查，初审通过的人员才能进入现场复审环节。初审工作完成后，初审通过人员名单在高坪区人民政府官网公布，不再另行通知，请报考人员及时关注并按要求做好资格复审准备工作。', '。初审通过的人员由本人携带报名资料原件到南充市高坪区高端人才服务中心进行现场复审。地址：南充市高坪区蓝天路航空港科技创新中心', '现场复审时，不能按要求提供上述材料或未按时进行资格审查的，视为主动放弃。资格审查贯穿引进工作全过程，报考人员应如实提供自己的真实信息，发现弄虚作假及舞弊行为的，取消参考资格，已被聘用的予以解聘。', '综合采用笔试、结构化面试、现场答辩、技能测试等方式，分行业、分领域测试报考人员的专业知识水平、业务素质、工作能力或者操作能力等。对区委党校的资格审查合格人员采取讲课方式进行，对教育事业单位的资格审查合格人员采取讲课与现场答辩或技能测试等方式进行，对其他非教育事业单位的资格审查合格人员采用结构化面试方式进行。', '号）文件要求，结合高坪区事业单位实际，本次考核招聘招引人才开考比例（有效报考人数与招聘岗位的招聘人数之比）不低于', '，若仍未达到，则取消该岗位考核计划。若因岗位取消，按照自愿的原则，已经报考的人员也可以调剂到其他符合条件的岗位。', '比例的，则先采取笔试的办法确定面试入围人员，笔试内容按教育、卫生、其他三类行业分别确定。根据笔试成绩从高到低按有效报考人数与招聘岗位名额', '的比例确定面试入围人员，笔试成绩不计入考试总成绩，只作为确定面试入围人员的依据，笔试时间和地点另行通知。如某招聘岗位有效报考人数与招聘岗位名额低于或等于', '面试时间和地点以《准考证》为准。报考人员凭本人有效身份证原件和《准考证》参加面试。领取《准考证》时间和地点在高坪区人民政府官网公布。', '个工作日内由高坪区委组织部（区委人才办）、高坪区人力资源和社会保障局在高坪区人民政府网进行公示。', '按照面试成绩由高到低等额确定体检人选。如最后一名入围体检人员考核成绩出现并列影响取舍时，则通过加试（面试）的方式确定入围体检人员，加试工作由高坪区委组织部、高坪区人力资源和社会保障局共同组织。', '学校教师体检的项目和标准参照《四川省申请认定教师资格人员体检办法》《关于进一步规范入学和就业体检项目维护乙肝表面抗原携带者入学和就业权利的通知》和《关于对怀孕考生参加体检有关问题的复函》（国公考录函〔', '其他人员体检标准参照人力资源和社会保障部、国家卫生计生委、国家公务员局《关于修订〈公务员录用体检通用标准（试行）〉及〈公务员录用体检操作手册（试行）〉有关内容的通知》（人社部发〔', '号）、《关于进一步规范入学和就业体检项目维护乙肝表面抗原携带者入学和就业权利的通知》（人社部发〔', '公告发布后至本次公招实施体检时，如国家出台新的体检规定，按照新规定执行。体检所产生的一切费用由进入体检人员本人承担。', '体检在二级甲等及以上综合性医院进行。体检时间、集合地点及人员名单于体检前在高坪区人民政府网上公布，体检人员凭本人有效身份证和准考证参加体检。', '次，只复检对体检结论有影响的项目。体检结论以复检结果为准。体检不合格者，取消考察资格。因体检不合格或自动放弃出现空额的，在报考同一岗位进入面试人员中，按面试成绩由高到低的顺序依次递补（如体检递补人员出现成绩并列，则采用本条第', '体检合格人员确定为考察对象。考察小组采取多种形式对考察对象的政治思想、道德品质、能力素质、学习和工作表现、遵纪守法、廉洁自律、社会关系以及是否需要回避等方面的情况进行全面考察。对考察中取消资格以及通过考察的人员自动放弃出现的空额，不再递补。', '个工作日，公示期间接受社会举报。举报者应以真实姓名实事求是地反映问题，并提供必要的调查线索。公示结束后，没有反映问题或反映问题但不影响聘用的，办理聘用手续；对反映有严重问题的暂缓聘用，经查实不符合考聘条件的不予聘用。公示后出现缺额不再递补。', '事业单位所有岗位均属编制内刚性引进。引进的高层次人才，符合条件的提供一次性补贴、入住人才公寓、子女入学等相关待遇，具体内容和待遇标准以区委、区政府正式文件为准。', '人才招引工作严格遵守公开、平等、竞争、择优的原则，主动接受社会及纪检监察部门的全程监督。对违反规定、弄虚作假选聘的人员一经查实，取消选聘资格，并对相关人员按照规定严肃处理。', '本《公告》未尽事宜，由中共南充市高坪区委组织部（区委人才办）、高坪区人力资源和社会保障局负责解释。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>237</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>走出去转思路拓视野义路镇组织外出考察学习</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/xzdt/202404/t20240428_1966873.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['对标先进、问计取经，学习推动工作的“窍门”，将先进经验、创新思路用在农村人居环境整治、乡村产业振兴和现代农业园区建设等重点工作中，进一步开阔镇村干部视野，拓宽乡村振兴思路，提振干事创业精神。', '，将先进经验、创新思路用在农村人居环境整治、乡村产业振兴和现代农业园区建设等重点工作中，进一步开阔镇村干部视野，拓宽乡村振兴思路，提振干事创业精神。', '考察团一行先后来到先后到南部万年、伏虎和我县双胜等乡镇，通过实地察看、听取介绍、座谈交流等方式，详细了解环境综合治理、现代产业园区和现代粮油园区建设的先进经验做法。', '他们一路行一路学，边听边看、边思考边总结。通过对标学习人居环境整治先进做法、发展规划特色思路、乡村振兴产业发展成功经验，考察团成员纷纷表示在学习和交流中看到了自身的差距和不足，回去后将进一步创新思路举措、强化责任担当，真正把参观学习成果转化为干事创业的强大动力和履职尽责的实际成效。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>237</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>西充县关于开展年度建筑系列中初级职称评审工作的通知</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.xichong.gov.cn/xwdt/tzgg/202311/t20231102_1893075.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['为做好2023年度建设工程系列中（初）级专业技术职称任职资格评审工作，根据《四川省住房和城乡建设厅 四川省人力资源和社会保障厅关于印发〈四川省建设工程技术人员职称申报评审基本条件〉的通知》（川建行规', '年度建设工程系列中（初）级专业技术职称任职资格评审工作，根据《四川省住房和城乡建设厅 四川省人力资源和社会保障厅关于印发〈四川省建设工程技术人员职称申报评审基本条件〉的通知》（川建行规', '3号）和《四川省人力资源和社会保障厅关于印发〈四川省高技能人才与专业技术人才职业发展贯通实施方案〉的通知》（川人社发〔2021〕61号）等文件精神，现将申报评审有关事项通知如下：', '号）和《四川省人力资源和社会保障厅关于印发〈四川省高技能人才与专业技术人才职业发展贯通实施方案〉的通知》（川人社发〔', '凡在全县各类企事业单位（含非公有制经济组织、社会组织）从事建筑工程专业技术（管理）工作，符合申报条件的在职在岗人员（含自由职业者）。离退休人员、公务员和参照公务员法管理的事业单位工作人员，不得申报参加职称评审。', '建设工程职称专业：建筑设计、城市设计、建筑美术设计、城乡建设规划、工程测量、岩土工程、房屋建筑结构工程、建筑装饰装修工程、白蚁防治工程、消防工程、给排水工程、燃气工程、建筑电气与智能化工程、暖通空调工程、机械设备安装、市政道路桥梁工程、城市轨道交通工程、景观园林工程、环境卫生工程、建筑材料、工程造价、工程管理。', '3.遵守单位规章制度和生产操作规程，热爱本职工作,认真履行岗位职责，申报前规定任职年限的年度考核结果均为称职（合格）以上；未建立考核机制的民营企业，由专业技术人员所在单位逐年提供履职情况书面说明。', '认真履行岗位职责，申报前规定任职年限的年度考核结果均为称职（合格）以上；未建立考核机制的民营企业，由专业技术人员所在单位逐年提供履职情况书面说明。', '（1）受到党纪、政务处分或因犯罪受到刑事处罚的专业技术人员，在影响（处罚）期内不得申报。', '）受到党纪、政务处分或因犯罪受到刑事处罚的专业技术人员，在影响（处罚）期内不得申报。', '（2）申报人员须对所提交的全部材料真实性负责，在申报评审各阶段发现学历、资历、业绩等弄虚作假，或剽窃他人论文、技术成果等失信行为的，实行“一票否决”，取消评审资格，失信人将被记入南充市建设工程系列中（初）级职称申报评审诚信档案，从次年起3年内不得申报。', '）申报人员须对所提交的全部材料真实性负责，在申报评审各阶段发现学历、资历、业绩等弄虚作假，或剽窃他人论文、技术成果等失信行为的，实行', '，取消评审资格，失信人将被记入南充市建设工程系列中（初）级职称申报评审诚信档案，从次年起', '（3）在建设工程质量安全事故或生产经营等活动中造成人员伤亡或重大经济损失，受到相关部门处罚的责任人，在影响（处罚）期内不得申报。', '）在建设工程质量安全事故或生产经营等活动中造成人员伤亡或重大经济损失，受到相关部门处罚的责任人，在影响（处罚）期内不得申报。', '（4）申报前规定任职年限的年度考核每出现1次年度考核结果为基本称职（基本合格）及以下者，延迟1年申报。', '具备大学专科、中等职业学校毕业学历，在建设工程技术岗位上见习1年期满，经考察合格；', '技工院校全日制预备技师（技师）、高级工班、中级工班毕业，在建设工程技术技能岗位上见习1年期满，经考察合格。', '技工院校全日制预备技师（技师）、高级工班、中级工班毕业，在建设工程技术技能岗位上见习', '技工院校全日制预备技师（技师）毕业，在建设工程技术技能岗位见习1年期满，经考察合格；', '获得高级工职业资格或职业技能等级后从事建设工程技术技能工作满2年，可申报评审相应专业助理工程师。', '具备大学本科学历，或学士学位，或大学专科学历，取得助理工程师职称后，从事建设工程技术工作满4年；', '具备大学本科学历，或学士学位，或大学专科学历，取得助理工程师职称后，从事建设工程技术工作满', '技工院校全日制预备技师（技师）毕业，取得助理工程师职称后，从事建设工程技术技能工作满4年；', '技工院校全日制预备技师（技师）毕业，取得助理工程师职称后，从事建设工程技术技能工作满', '技工院校全日制高级工班毕业，取得助理工程师职称后，从事建设工程技术技能工作满4年;', '获得技师职业资格或职业技能等级后从事建设工程技术技能工作满3年，可申报评审相应专业工程师。', '（3）具有独立完成一般性技术工作的实际能力，能处理本专业范围内一般性技术难题；具备一定的工程技术分析、判断、总结能力，能够撰写技术报告；', '）具有独立完成一般性技术工作的实际能力，能处理本专业范围内一般性技术难题；具备一定的工程技术分析、判断、总结能力，能够撰写技术报告；', '（1）熟练掌握并能够灵活运用本专业基础理论知识和专业技术知识；熟悉有关法律、法规和政策；掌握本专业技术（操作）标准、规范、规程；了解本专业新技术、新工艺、新设备、新材料的现状和发展趋势；', '）熟练掌握并能够灵活运用本专业基础理论知识和专业技术知识；熟悉有关法律、法规和政策；掌握本专业技术（操作）标准、规范、规程；了解本专业新技术、新工艺、新设备、新材料的现状和发展趋势；', '（2）具有独立承担较复杂建设工程项目、解决本专业范围内较复杂技术问题的能力；具备一定的工程技术研究、分析、判断、综合、总结能力，能够撰写解决较复杂技术问题的研究成果或技术报告；', '）具有独立承担较复杂建设工程项目、解决本专业范围内较复杂技术问题的能力；具备一定的工程技术研究、分析、判断、综合、总结能力，能够撰写解决较复杂技术问题的研究成果或技术报告；', '⑤参与完成1项大型，或3项中型，或8项小型建设工程的项目管理、质量安全监督、工程监理、检测鉴定、工程造价过程技术咨询管理；参与完成6项大型或12项中型建设工程项目的工程造价、技术经济分析、招投标成果文件的编审；参与完成3项县级以上城乡建设规划，并已印发实施。', '项小型建设工程的项目管理、质量安全监督、工程监理、检测鉴定、工程造价过程技术咨询管理；参与完成', '⑥参与完成2项大型，或4项中型，或10项小型白蚁防治工程项目的施工、管理；参与完成4项大型，或8项中型，或12项小型供热、供气、供水、排水工程项目的施工、设施设备运行维护；参与完成1项大型，或2项中型，或3项小型环境卫生工程项目的施工、设施设备运行维护。', '⑦获得与本专业技术相关的1项发明专利或2项实用新型专利，并已取得了较高的经济和社会效益。', '⑧参与研制开发具有较高水平的新技术、新工艺、新设备、新材料1项以上并已推广应用，或推广应用具有较高水平的新技术、新工艺、新设备、新材料2项以上。', '⑨参与建设工程政策研究、技术咨询和管理服务工作，在为政府部门提供决策参考、组织科学管理、强化服务保障等方面业绩贡献突出，提出的意见建议被县级以上政府部门正式出台的3个以上政策文件采纳采用。', '参与建设工程政策研究、技术咨询和管理服务工作，在为政府部门提供决策参考、组织科学管理、强化服务保障等方面业绩贡献突出，提出的意见建议被县级以上政府部门正式出台的', '任现职期间，具有1篇以上由本人撰写、与申报专业一致、代表自身专业理论和技术水平的技术报告、课题研究报告、施工或调试报告、规划设计方案、案例分析报告等技术成果。', '篇以上由本人撰写、与申报专业一致、代表自身专业理论和技术水平的技术报告、课题研究报告、施工或调试报告、规划设计方案、案例分析报告等技术成果。', '任现职期间，符合下列条件之一，且年度考核均为称职（合格）以上的专业技术人才，可提前1年申报高一级职称：', '任现职期间，符合下列条件之一，且年度考核均为称职（合格）以上的专业技术人才，可提前', '2. “四大片区”外的专业技术人员参加“四大片区”服务满1年，或与“四大片区”企事业单位建立3年以上支援服务关系，或参加精准脱贫、乡村振兴工作，成绩突出，并受到省、市（州）、县（市、区）党委、政府及其部门表彰的。', '年以上支援服务关系，或参加精准脱贫、乡村振兴工作，成绩突出，并受到省、市（州）、县（市、区）党委、政府及其部门表彰的。', '在基层从事建设工程专业技术工作，且年度考核均为称职（合格）以上的专业技术人才，累计工作满15年的可降低一个学历等次申报评审中级职称。', '在基层从事建设工程专业技术工作，且年度考核均为称职（合格）以上的专业技术人才，累计工作满', '号）等文件要求，结合专业技术工作实际需要，参加继续教育，继续教育内容包括公需科目和专业科目。', '继续教育内容主要包括公需科目和专业科目学习。专业技术人员参加继续教育的时间，每年累计应不少于', '取得工程系列非建设工程专业职称人员，从事建设工程专业工作一定年限后，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业同级职称。初级、中级职称对应的工作年限分别为1、3年。', '取得工程系列非建设工程专业职称人员，从事建设工程专业工作一定年限后，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业同级职称。初级、中级职称对应的工作年限分别为', '已取得建设工程相关专业职称人员，从事建设工程其他专业工作满3年以上，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业相应层级职称，申报层级不高于已取得建设工程相关专业职称层级。取得建设工程多个职称专业的人员，申报高一级职称时，业绩成果和专业工作年限不合并计算。', '年以上，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业相应层级职称，申报层级不高于已取得建设工程相关专业职称层级。取得建设工程多个职称专业的人员，申报高一级职称时，业绩成果和专业工作年限不合并计算。', '从事建设工程专业技术工作，确有真才实学、成绩显著、贡献突出，具备下列条件之一的主要人员，可不受学历、资历、层级限制，破格申报评审工程师：', '（一）获得与本专业有关的省（部）级科技进步奖三等奖以上1项，或省（部）级技术发明奖三等奖以上1项，或四川省专利奖三等奖以上2项，或四川省专利奖创新创业奖2项。', '（四）完成工程建设省级工法1项；起草国家、行业、地方标准（规范、设计图集）1项，并已颁布实施。', '（五）获得与本专业有关的发明专利1项以上，经推广应用取得显著经济、社会效益，创造税收在500万元以上。', '（六）主持与本专业有关的省级科研项目（课题）2项以上，取得显著经济效益和社会效益，并累计实现税收100万元以上。', '四川省人力资源和社会保障厅关于印发〈四川省建设工程技术人员职称申报评审基本条件〉的通知》（川建行规', '1.初审复审：初级、中级申报人员材料由县住建局初审，初审合格者经分管领导签字并加盖公章后统一报县人社局复审；', '初审复审：初级、中级申报人员材料由县住建局初审，初审合格者经分管领导签字并加盖公章后统一报县人社局复审；', '2.评审公示：县人社局复审通过后，由县建筑系列中级职称评审委员会组织专家进行评审（初级职称也由该评委会评审）；县住建局和县人社局对通过人员名单进行线上线下“双线公示”，公示时间不少于5个工作日；', '评审公示：县人社局复审通过后，由县建筑系列中级职称评审委员会组织专家进行评审（初级职称也由该评委会评审）；县住建局和县人社局对通过人员名单进行线上线下“双线公示”，公示时间不少于', '3.审批出文：评审通过人员经公示无异议的，由县人社局审批出文，并进行数据归集上传人员信息及生成电子证书，不再发放纸质证书，个人电子证书由本人在人社部官网下载。', '审批出文：评审通过人员经公示无异议的，由县人社局审批出文，并进行数据归集上传人员信息及生成电子证书，不再发放纸质证书，个人电子证书由本人在人社部官网下载。', '1.填写《专业技术职务任职资格评审表》一式两份（附件1）；表中所有内容都要详细填写，特别是《评审表》封面“拟评审任职资格”一栏需注明评审专业规范名称，如：工程师（建筑设计）；“任现职前、后主要专业技术工作业绩登记”及“著作、论文及重要技术报告登记”栏等，要能准确体现申报者专业技术业绩和水平。', '）；表中所有内容都要详细填写，特别是《评审表》封面“拟评审任职资格”一栏需注明评审专业规范名称，如：工程师（建筑设计）；“任现职前、后主要专业技术工作业绩登记”及“著作、论文及重要技术报告登记”栏等，要能准确体现申报者专业技术业绩和水平。', '2.任期内个人政治思想与业务工作总结一式一份，应突出专业技术工作总结，须以一至二项能反映个人技术水平的工程为例（不少于2000字）。不得抄袭剽窃、出现雷同。', '任期内个人政治思想与业务工作总结一式一份，应突出专业技术工作总结，须以一至二项能反映个人技术水平的工程为例（不少于', '3.单位综合推荐材料一式一份（不少于1000字），应包括个人基本情况、业务工作能力、工作实绩、任期内各年度考核情况、推荐意见等。单位负责人审查后，须签署明确推荐意见、签字并加盖单位公章。', '字），应包括个人基本情况、业务工作能力、工作实绩、任期内各年度考核情况、推荐意见等。单位负责人审查后，须签署明确推荐意见、签字并加盖单位公章。', '4.身份证、学历证书、职称资格证书、专业考试合格证书（全国注册执业资格证书）、与单位签订的劳动合同及单位购买社保证明', '身份证、学历证书、职称资格证书、专业考试合格证书（全国注册执业资格证书）、与单位签订的劳动合同及单位购买社保证明', '5.任现职以来代表本人业务水平和工作实绩的论文、论著、 科研成果、 技术报告、课题研究报告、施工或调试报告、规划设计方案、案例分析报告等技术成果，查验原件，提交复印件一式一份。', '任现职以来代表本人业务水平和工作实绩的论文、论著、 科研成果、 技术报告、课题研究报告、施工或调试报告、规划设计方案、案例分析报告等技术成果，查验原件，提交复印件一式一份。', '6.任现职以来（近三年）的年度考核和任职届满考核表，查验原件，提交复印件一式一份（评审中级职称人员提供）。', '任现职以来（近三年）的年度考核和任职届满考核表，查验原件，提交复印件一式一份（评审中级职称人员提供）。', '7.提交现任专业技术职务聘任文件或证书（技术员晋升助理工程师、助理工程师晋升工程师需提供）、单位出具的专业技术工作业绩证明材料及申报人所在单位公示证明（附件2）原件各一式一份。', '提交现任专业技术职务聘任文件或证书（技术员晋升助理工程师、助理工程师晋升工程师需提供）、单位出具的专业技术工作业绩证明材料及申报人所在单位公示证明（附件', '9.查验《专业技术人员继续教育登记证书》等继续教育培训资料原件，提交复印件一式一份。', '10.提交《西充县建筑系列中（初）级职称申报信息表》（附件4，须粘贴申报人近期证件照）一式一份。', '11.提交《同行专家技术文件认定推荐表》（附件5）原件及同行专家高级工程师资格证书复印件各一式一份。', '坚持“谁审核谁负责，谁推荐谁负责”原则，用人单位和主管部门负责人须严格审查各种原件，特别是学历证书、专业技术职务资格证书及各类专业（理论）考试合格证或成绩单。报送的复印件必须由审核人签署“原件已审，此复印件与原件一致”、签名并加盖审查单位公章。', '1.申报评审所有材料须装入标准牛皮纸档案袋，一人一袋，封面贴上《西充县建筑工程系列中（初）级职称申报材料目录表》（附件6）。', '申报评审所有材料须装入标准牛皮纸档案袋，一人一袋，封面贴上《西充县建筑工程系列中（初）级职称申报材料目录表》（附件', '3.任期内个人政治思想与业务工作总结原件、单位综合推荐材料原件、与单位签订的聘用（劳动或劳务）合同复印件、单位出具的专业技术工作业绩证明材料复印件及代表本人业务水平和工作实绩的论文、论著等技术成果的复印件、年度考核复印件和任职届满考核表原件、提交现任专业技术聘任文件或证书原件、申报人所在单位公示证明原件、《专业技术人员继续教育登记证书》及继续教育培训资料复印件等材料按顺序装订成册。', '任期内个人政治思想与业务工作总结原件、单位综合推荐材料原件、与单位签订的聘用（劳动或劳务）合同复印件、单位出具的专业技术工作业绩证明材料复印件及代表本人业务水平和工作实绩的论文、论著等技术成果的复印件、年度考核复印件和任职届满考核表原件、提交现任专业技术聘任文件或证书原件、申报人所在单位公示证明原件、《专业技术人员继续教育登记证书》及继续教育培训资料复印件等材料按顺序装订成册。', '（一）为进一步深化我县职称评价机制改革、开展职称评审社会化工作试点，经县住建局请示、县职称改革工作领导小组同意，决定委托西充县建筑人才促进协会组建西充县建筑工程中级职称评审委员会，开展建筑系列中（初）级职称评审工作。评委会所有工作均由县住建局直接管理监督，同时受县人社局指导检查。', '（三）评审费标准按照《关于重新公布全省人力资源社会保障部门行政事业性收费的通知》（〔2022〕539号）等文件规定执行。', '（三）评审费标准按照《关于重新公布全省人力资源社会保障部门行政事业性收费的通知》（〔', '（四）凡评审未通过者，其所报材料除原件外不予退还，请用人单位和个人妥善保留相关材料。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>237</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>赵笙林蒸煮古技艺酿出新生活</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2024-05-07</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/payw/202405/t20240507_1968525.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['杨家镇返乡青年赵笙林，大学毕业后，回到家乡创业，学技术，酿美酒，让家乡的古法酿酒香飘全国，今天，让我们一起聚焦他的创业故事。', '走进相如涌泉古酒作坊，浓浓的酒香扑面而来。步入酿酒车间，相如涌泉古酒作坊主理人赵笙林正带领酿酒师傅有条不紊地开展酿酒工作。', '2019年，刚大学毕业的赵笙林回到家乡，立志闯出一番大事业，经过多方考察，他发现家乡的山泉水甘甜可口不仅适合饮用，更是酿酒的优质水源，于是在父亲的帮助下创立了蓬安县杨家镇相如涌泉古酒门市部，刻苦学习古法蒸煮技艺。', '创业初期，由于启动资金不足，赵笙林很是苦恼，幸好一次逢场天，恰逢县人才交流中心的工作人员在场镇宣传高校毕业生创业政策，了解到相关政策后，赵笙林立即申请了高校毕业生创业补贴和其他优惠政策。', '此后，赵笙林的古酒作坊逐渐步入正轨，如今，从相如涌泉古酒作坊生产出的酒销路已覆盖全国，并在山东、安徽、内蒙等多地批发，同时还在多个网络平台上架销售。', '近年来，县人才交流中心聚焦高校毕业生群体，为我县高校毕业生提供更加便捷高效的信息服务，有效推进了高校毕业生就业创业工作。据统计，2023年指导并支持15名高校毕业生成功创业，发放创业补贴15万元。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>237</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>顺庆举办侨谏顺庆主题沙龙共画为侨服务最大同心圆</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/xwdt/qxyw/202401/t20240124_1932328.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['岁寒逢新春，天涯共此时。1月23日下午，顺庆区归国华侨联合会“迎新春 连侨心 话发展”2024年顺庆侨界新春联谊会暨首期“侨谏顺庆”主题沙龙在西城街道解放街社区举行。南充市侨联党组成员、副主席沈波，顺庆区委副书记李小华出席。', '年顺庆侨界新春联谊会暨首期“侨谏顺庆”主题沙龙在西城街道解放街社区举行。南充市侨联党组成员、副主席沈波，顺庆区委副书记李小华出席。', '会议传达学习了市委七届九次全会、区委七届七次全会精神，通报了2023年区侨联工作情况及2024年工作谋划，邀请了法国华工暨留法勤工俭学生研究会会长杨光作“侨谏顺庆”主题沙龙专题讲座，并颁发了顺庆区留法勤工俭学运动宣讲团首席专家聘书。', '年工作谋划，邀请了法国华工暨留法勤工俭学生研究会会长杨光作“侨谏顺庆”主题沙龙专题讲座，并颁发了顺庆区留法勤工俭学运动宣讲团首席专家聘书。', '顺庆区委副书记李小华（左）为法国华工暨留法勤工俭学生研究会会长杨光（右）颁发顺庆区留法勤工俭学运动宣讲团首席专家聘书。', '会议强调，开展全区侨界“迎新春、连侨心、话发展”新春联谊会暨首期“侨谏顺庆”主题沙龙活动，既是区委、区政府对广大归侨侨眷的关心关怀和美好祝愿，也是为了凝聚起顺庆建设成渝地区双城经济圈高质量发展示范区的侨界合力。顺庆侨胞侨眷要进一步立足侨领资源，加强与省、市侨商会、知名企业、高校以及海内外知名侨领联系，积极发挥侨胞侨眷在招商引资、文化传播等方面信息优势，大力宣传顺庆、推介顺庆，推介更多的优秀企业来顺庆考察投资，助推顺庆经济社会高质量发展。全区各基层侨联组织要强化思想政治引领，努力加强自身建设，高标准开展侨务工作，切实提升为侨服务品质；要主动聚焦区委中心工作，团结利用好顺庆侨界代表最大公约数，画好顺庆侨界最大同心圆，在务实创新中开创顺庆侨联工作新局面。', '会议还就贯彻落实区委七届七次全会精神“汇聚侨心侨力侨智，共助顺庆高质量发展”进行了座谈研讨。会前，与会人员集中参观了西城街道解放街社区“侨胞之家”建设运营情况，并为侨胞侨属代表发放了“为侨服务卡”和新春慰问品。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>237</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>省公路局农建处考察爱路日活动筹备工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-05-11</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/qxyw/bmdt/202405/t20240511_1970560.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['4月15日，省公路局农建处处长任启东带队的考察组一行，到南部县考察“5.26”爱路日活动筹备工作。', '自定升路到升钟湖停车场，考察组对“5.26”爱路日活动车览线路、活动场地、养护技能观摩现场等筹备情况进行了全面考察。考察过程中，考察组成员针对培育交通新质生产力、推动公路高质量发展等主题，与南充市交通运输局和南部县交通运输局相关人员进行了深入探讨。同时，考察组对“5.26”爱路日活动相关筹备细节作出指示，要求南充市交通运输局全力推动，南部县交通运输局高效作为，按照活动主题要求精准发力、积极准备，将2024年度“5.26”爱路日活动办成一次展示交通发展新质生产力、体现公路养护质量全面提升的高品质交流学习活动。', '”爱路日活动车览线路、活动场地、养护技能观摩现场等筹备情况进行了全面考察。考察过程中，考察组成员针对培育交通新质生产力、推动公路高质量发展等主题，与南充市交通运输局和南部县交通运输局相关人员进行了深入探讨。同时，考察组对“', '”爱路日活动相关筹备细节作出指示，要求南充市交通运输局全力推动，南部县交通运输局高效作为，按照活动主题要求精准发力、积极准备，将', '”爱路日活动办成一次展示交通发展新质生产力、体现公路养护质量全面提升的高品质交流学习活动。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>237</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>十八届县政府第次常务会议召开</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2024-06-01</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/payw/202406/t20240603_1979422.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['5月30日下午，十八届县政府第75次常务会议召开，传达学习习近平总书记考察山东时的重要指示精神及有关文件精神，安排部署当前重点工作。县委副书记、县长邱跃峰主持会议并讲话。', '会议指出，习近平总书记考察山东时的重要指示，特别是在企业和专家座谈会的重要讲话，深刻回答了关于发展与改革的一系列重大理论和实践问题。各级各部门要深刻领会习近平总书记重要讲话的丰富内涵和实践要求，自觉把思想和行动统一到习近平总书记重要讲话精神上来，推动改革创新、加快发展，坚决确保实现“双过半”，为完成全年任务奠定坚实基础。', '会议要求，要认真学习领会《关于着力推进信访工作法治化的意见》精神，坚持运用法治思维和法治方式抓好信访工作，把依法履职、依法化解、依法治访和加强人文关怀落到实处，全力营造办事依法、遇事找法、解决问题用法的良好环境。要贯彻落实《关于加快推进新型工业化的实施方案》文件要求，抢抓中、省大抓新型工业化的机遇，围绕文件重点举措，结合蓬安工业发展实际和县委“工业大跨越”攻坚行动，深入思考研究蓬安新型工业化的总体思路、方法路径和关键举措，坚持内培和外引并重，加快推进蓬安现代化产业体系建设。', '会议强调，招商引资是推动县域经济高质量发展的重要引擎，各有关部门要全力加强与意向企业的沟通对接，把清单化跟踪协调、创造产业条件等举措落细落实，推动招引企业逐一争取落地、尽快做实见效。要按照县委、县政府安排部署，锚定全县经济运行目标抓调度，紧盯形势抓发展，过程督导抓效果，确保各项工作达标达效、争先进位。', '会议还组织学习了《四川省自然资源督察办法》，安排部署了迎接耕地保护和生态环境保护督察、防汛抗旱、地灾监测、工业拉练准备、高考中考筹备、以旧换新项目谋划、安全生产、党风廉政建设等重点工作，审议了其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>237</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>蒲鹏程主持召开区委常委会会议研究部署这些工作</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/xwdt/qxyw/t_1968128.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['4月30日上午，顺庆区委常委会召开会议，传达学习习近平总书记在重庆调研考察时的重要指示和在新时代推动西部大开发座谈会上的重要讲话精神，传达学习习近平总书记为第六批全国干部学习培训教材所作《序言》重要精神，传达学习全市推进新型工业化工作会议精神等，研究我区贯彻意见，部署当前重点工作。区委书记蒲鹏程主持会议并讲话。', '会议指出，习近平总书记的重要讲话，科学回答了新时代推动西部大开发的重大理论和实践问题，具有很强的政治性、思想性、指导性，为在更高起点上推动西部大开发指明了方向。全区上下要深入学习领会，对标贯彻落实，坚定不移大力实施“1353”发展战略，以实际行动积极参与加快建设西部陆海新通道，融入成渝地区双城经济圈建设。要发展壮大半导体零部件和电子信息、新能源汽车汽配“一特两主”产业，加快推动传统产业转型升级，推动新质生产力发展。要统筹处理好经济发展和生态环境保护的关系，坚决遏制“两高一低”项目盲目上马，大力引进一批绿色低污染企业，厚植高质量发展绿色本底。要提升招商引资质效，用好产业链招商机制，发挥好各类开放平台作用。要全力抓好社会治安、信访稳定、安全生产、防汛减灾等工作，坚决守住不发生系统性风险的底线。要全力推进乡村振兴“十大行动”，加大重点项目建设，持续巩固拓展城乡“十个一体化”，科学有效推进全域全程农业机械化，推动我区粮食生产水平质效再上新台阶。', '会议指出，习近平总书记为第六批全国干部学习培训教材所作的《序言》，深刻阐明了加强理论武装的重大意义、目标任务、实践要求、有效方法，是新征程全党大学习、干部大培训的动员令，是深入推进思想建党、理论强党的宣言书。要准确把握精神实质，学好用好培训教材，抓实抓好干部培训，增强广大党员干部适应新形势、应对新挑战、完成新任务的本领。', '会议强调，要坚决推动全市推进新型工业化工作会议精神在顺庆落地落实。要围绕“园区”抓提升，进一步加快园区和平台建设进度，理顺工作规则、议事规则，形成更加规范化、系统化管理体系，吸引更多优秀企业、优质项目入驻。要围绕“招引”抓服务，用好“3+2”产业链招商机制，加大招引力度，做好已签约项目、有投资意向项目、在谈项目后续对接，确保工作质效。要围绕“项目”抓保障，围着项目转、盯着项目干，做好未开工的项目保障工作，对已开工项目，严格按照进度要求，督促施工单位上足人力、机械，安全施工。要全面落实区级领导“包帮企业”等制度，持续深入开展好“大走访、大帮扶”活动，持续优化营商环境。', '就当前各项重点工作，会议要求，全区各级党组织和广大党员干部要切实把思想和行动统一到党中央和省委、市委决策部署上来，牢固树立“不干事是最大的错误，完不成任务是最大的风险”理念，扎实抓好“双过半”、项目建设、安全生产、环境保护、城市管理、“五经普”推进、防汛减灾、节日期间促消费和稳价保供、廉洁过节、值班值守、党纪学习教育等工作，笃定实干、加压奋进，不断开创各项事业发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>237</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>仪陇县赴重庆梁平泸州古蔺等地考察学习国家储备林建设工作</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/lyj/xwdt/bmxx/202304/t20230428_1816732.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['为学习借鉴省内外国家储备林项目谋划包装、规划落地及项目建设先进经验，加快启动我县国家储备林建设，4月11—13日，仪陇县人民政府副县长杨学勇率县政府办、县自规局、有关县属国企、农发行仪陇支行等相关负责人一行13人赴重庆梁平、泸州古蔺等地考察学习国家储备林建设工作。', '为学习借鉴省内外国家储备林项目谋划包装、规划落地及项目建设先进经验，加快启动我县国家储备林建设，', '日，仪陇县人民政府副县长杨学勇率县政府办、县自规局、有关县属国企、农发行仪陇支行等相关负责人一行', '在重庆梁平区，考察组现场观摩了蟠龙镇扈槽村、梁山街道云佛村、双桂湖国家储备林示范基地，重点考察了梁平区国家松材线虫病防治与马尾松林改培试点基地、现有林改培示范项目，详细了解了项目包装、林地流转及项目建设等工作开展情况。在泸州古蔺县，考察组重点调研了徐家林管护站国家储备林一期大径级材培育（集约人工林栽培、中幼林抚育间伐）情况、箭竹风力发电场森林康养项目规划，并就国储林建设过程中的一些体制机制、重点难点问题以及具体措施等方面进行了深入探讨和交流。在泸州叙永县，考察组先后参观了叙永镇金桂村现代林业油茶园区、四川乌蒙山雨阳油茶科技有限公司，重点考察了省级油茶采穗园、保障性苗圃基地以及龙凤加工厂，针对油茶产业园园区建设、全产业链建设以及油茶产业与国储林项目融合包装等工作进行了专题座谈。', '通过考察学习，考察组全面了解了相关区县国家储备林建设中的组织领导、工作机制、项目规划、工作举措等方面的成功做法，坚定了做好国家储备林建设工作的信心和决心。下一步，县自规局将结合仪陇发展需要，充分研究论证，加紧项目谋划包装，借鉴兄弟县区好经验，有计划、有步骤、有策略地统筹开展国储林项目申报、可研、融资及建设工作，为我县高质量建设国家储备林奠定扎实基础。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>237</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>赓续历史文脉谱写银晖华章厅机关退休厅级干部赴眉山开展主题教育学习实地研学</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/swj/xwdt/hyjj/t_1877267.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['赓续历史文脉 谱写银晖华章--厅机关退休厅级干部赴眉山开展主题教育学习实地研学-南充市水务局', '水利厅退休厅级干部持续深入学习贯彻习近平新时代中国特色社会主义思想，全面贯彻落实党的二十大精神和习近平总书记对四川工作系列重要指示精神。9月15日，水利厅党组成员、副厅长刘辉带领厅机关退休厅级干部30余人，沿着习近平总书记的四川足迹前往眉山市永丰村、三苏祠开展实地研学，切身感受党的创新理论的真理力量和实践伟力。', '沿着习近平总书记四川调研足迹，在永丰村近距离了解水稻、蔬菜、药材种植、高标准农田建设、农村污水处理、人居环境整治及乡村振兴有效衔接的特色亮点经验。认真聆听习近平总书记关于加强粮食生产、推动乡村振兴、打造新时代更高水平“天府粮仓”的重要指示精神。在三苏祠聆听了习近平总书记考察时的情况介绍，身临其境地感悟着习近平总书记关于传承中华优秀传统、坚定文化自信、坚定不移走中国特色社会主义道路、推动全社会注重家庭家教家风建设、涵养新时代共产党人的良好家风的重要指示精神。深刻了解“三苏”生平事迹、文学成就，现场研学“三苏”廉政事迹和家风传承，感悟“三苏”优良家风家训力量，感受中华文化的博大精深。进一步领悟了习近平总书记坚定文化自信、以人民为中心的家国情怀，尤其是“党员、干部特别是领导干部要清白做人、勤俭齐家、干净做事、廉洁从政，管好自己和家人，涵养新时代共产党人的良好家风。”的重要指示精神。', '大家一边认真聆听着讲解，一边轻声交流所思所悟，他们纷纷表示：重走习近平总书记走过的路，作为一名水利人尤感自豪。当前我省水利高质量发展突飞猛进，四川水利新篇章已然铺开，水利大发展基础在水，关键在干，关键在落实习近平总书记系列重要指示精神。要始终胸怀“国之大者”，坚持从全局谋划一域、以一域服务全局，不折不扣把总书记、党中央交办的大事要事一件一件落到实处。', '退休老干部们还表示：虽然退休了，依然心系水利发展，水利精神依然存在，面对新时期四川水利高质量发展任务，将按照“学思想、强党性、重实践、建新功”的总要求，立足水利发展实际，为新时期四川水利高质量发展贡献老同志的最大力量。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>237</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>中共蓬安县徐家镇党委关于县委第三巡察组巡察反馈意见集中整改进展情况的通报</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/tzgg/202401/t20240129_1934009.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['根据十四届县委第四轮巡察工作统一部署，2023年4月7日至6月10日，县委第三巡察组对徐家镇党委开展了常规巡察。2023年9月18日，县委第三巡察组召开了巡察意见反馈会。在为期3个月的集中整改期内，徐家镇党委切实履行巡察整改主体责任，把整改工作放到第一位来布置，提要求、作部署，对照反馈意见清单逐一督促落实、销号，确保各项整改任务如期完成。现将巡察集中整改进展情况通报如下：', '一是强化组织领导，履行主体责任。成立了由镇党委书记任组长，镇长任副组长，其他党委（政府）班子成员及各村（社区）支部书记为成员的巡察整改工作领导小组，党委书记认真履行巡察整改第一责任人职责，主动谋划，靠前指挥，重要工作亲自部署，重大问题亲自过问，重点环节亲自协调，带头抓好整改落实。', '二是细化整改措施，扎实有序推进。结合实际制定印发了《中共蓬安县徐家镇委员会关于印发〈县委第三巡察组巡察反馈意见整改方案〉的通知》（蓬徐委发〔2023〕117号），列出清单，建立台账，制定整改措施，明确了牵头领导、责任领导、责任部门、责任人，有具体的整改措施和整改时限，确保整改件件有着落、事事有结果。', '三是健全完善制度，建立长效机制。抓问题根源，把解决具体问题与普遍性问题，解决当前问题和长远问题有机结合起来，修订完善了《“三重一大”事项决策制度》《党委中心组学习制度》等12项制度，通过健全完善各项制度，建立整改长效工作机制，从制度上确保整改工作落实落细落到位。', '针对存在学习走过场现象的问题。一是修订完善了党委理论学习中心组和干部职工学习制度、学习方案，以制度形式规定了学习内容、方式、时间。二是严格执行学习制度、学习方案，按照方案要求，每月组织集中学习1次，印发个人自学清单1份。', '针对理论学习不深不透的问题。一是加强谋划，在制定学习制度、学习方案时根据业务工作需要实时增添学习内容和实践要求，做到了理论学习有深度，能够指导工作实践。二是根据学习情况，定期组织干部职工进行学习研讨交流，通过交流巩固学习成效，丰富学习手段。', '针对学用结合不够的问题。一是根据学习安排，各分管领导结合主题教育活动，深入联系部门、村（社区）开展了学习调研。二是结合学习调研情况和部门、村（社区）工作实际，有针对性地制定了学习和实践指导意见，督促相关部门和村（社区）严格落实，真正做到理论学习指导工作实践。', '2.关于“落实意识形态工作责任制不到位。未严格落实意识形态工作责任制，对意识形态工作的重要性认识不足，在执行过程中打折扣”问题。', '针对未按要求将意识形态工作纳入班子及班子成员述职报告的问题。一是2023年度考核中已将意识形态工作纳入班子及班子成员述职报告。二是班子成员认真履行“一岗双责”，结合分管工作，在党委理论中心组学习会上开展交流研讨，强化政治意识，提升运用党的创新理论指导工作实践的能力。三是制定了《徐家镇党委落实意识形态工作责任制专项检查反馈意见整改方案》（蓬徐委发〔2023〕99号），以制度压紧压实意识形态工作责任。', '针对落实党委中心组学习制度不规范的问题。一是规范落实了党委中心组学习制度，按要求深入开展学习讨论和互动交流，主要领导、领学人结合本镇传达学习贯彻意见。二是学习中心组成员结合工作实际撰写了学习心得、调研报告或者理论文章，把学习成果转化为有效的工作思路和举措。三是制定了《徐家镇党委理论学习中心组学习制度》规范了党委中心组学习。', '针对基础设施建设存在短板，道路、水利等基础设施建设与群众的需求还有较大差距，村与村之间的发展不均衡的问题。积极争取基础设施建设项目，并依托高标准农田建设大力改善青云等10个村基础设施条件。目前已为徐家镇白果湾村争取到产业公路建设项目资金10万元。后续镇乡村振兴和经发办将积极对接上级并大力争取基础设施建设项目。', '针对创新打造优势品牌办法不多的问题。在蓬池坝产业园和青云、黄坪等村率先启动电商平台，大力发展电商，通过线上平台、直播带货、微信等方式进行产品宣传、销售，打响镇域品牌、打开产品销路。', '针对落实安全生产责任制不到位的问题。一是通过村级广播、微信群、QQ群、进村入户等方式，深入开展宣传，进一步提升了全民安全生产意识。二是落实了安全管理“属地管理”“一对一”包保责任，压紧压实了安全生产责任。三是常态化开展了安全生产督查检查，并建立隐患台账，落实整改责任，及时将隐患整改到位。', '针对落实统战、政法工作不到位的问题。一是明确了统战、政法工作党委主体责任、党委书记“一把手”责任，分管领导各司其责，在分管领域加强了统战、政法工作安排部署。二是加强部门联动，在统战、政法工作的研究、部署、落实上加强部门沟通协作，形成工作合力。', '针对大额现金支付的问题。一是对无经办人员签字的报销票据，核实人员进行了补签，确保账务报销规范。二是制定了单位现金支付相关制度文件，明确大额支付必须转账或公务卡结算。三是组织财务人员加强了业务学习，做到熟悉财务管理相关制度，账务规范有序，分录正确。', '针对审核把关不严的问题。一是对账务报销中的错误及时予以纠正，并补充完善相关凭证，确保账务报销规范。二是组织财务人员进行了财务制度业务培训，提升了业务经办人员的业务能力和水平。', '针对未使用公务卡结算住宿费的问题。一是组织全镇干部职工办理了公务卡。二是组织全镇干部职工学习了公务卡管理和报销制度，督促干部职工后续规范使用公务卡进行结算并报销。', '针对固定资产采购程序不规范的问题。一是督促涉及村（社区）及时完善会议记录、询价资料、采购合同、销货清单、验收记录等采购程序资料。二是组织各村（社区）报账员进行了业务培训，做到熟悉采购流程、按程序进行报销。', '针对审签不规范的问题。一是对巡察反馈审签不规范的报销账务督促村（社区）完善了审签手续。二是举一反三对各村（社区）账务报销进行了自查并跟踪完成了整改。三是组织各村（社区）报账员进行了业务培训，督促其在后续账务报销时加强审核。', '针对履行“一岗双责”的意识还不够强的问题。一是制定了徐家镇全面从严治党、党风廉政建设和反腐败工作重要任务分工表，将工作责任落实到人；二是定期通过党委会、全镇干部大会研究部署党风廉政建设工作。', '针对党风廉政建设压力传导不够的问题。一是强化了党委全面从严治党主体责任，党委书记定期亲自安排部署党风廉政建设工作。二是各驻片领导对所辖村（社区）党风廉政建设进行了督导检查，党风廉政建设工作有序向纵深推进。', '针对存在村干部届中辞职的问题。一是各驻片领导深入联系村（社区）与干部进行谈心谈话，了解工作、生活困难，并及时介入为其排忧解难，消除干部的后顾之忧。二是加强了村（社区）常职干部的思想教育，让广大村（社区）干部树立起不断进取的工作理念，做到在工作中能担重担、勇担重担。三是及早谋划，加强后备干部的培养，定期组织后备干部进行学习，并对其思想动态、个人作风等全面考察，确保符合干部任职条件，避免因干部离职导致长期缺员情况的发生。', '针对干部培养持续性不够的问题。一是通过跟班学习、一对一结对帮扶丰富了干部的培养手段，增强了村（社区）干部的业务能力与业务水平。二是各驻片领导经常性深入联系村（社区）开展业务指导，指出村（社区）干部在工作中的不足，有针对性的开展业务培训，确保村（社区）干部业务能力和业务水平持续提升。', '针对村“两委”班子年龄结构不优的问题。一是依托学历提升工程，组织村（社区）干部，特别是年轻干部积极参与学习，提升了年轻干部的学历和业务能力，为后续村（社区）干部有序交接提供保障。二是加大了后备干部的培养力度，实时考察、梯次培养，做到了后备干部力量充实，年龄结构合理。', '针对存在一定的重业务轻党建思想的问题。一是镇党委书记切实认真履行党建工作第一责任人职责，班子成员履行党建工作“一岗双责”，形成了齐抓共管的局面。二是以开展党的创新工程为重点，结合徐家实际，理清工作思路，扎实开展党建工作。三是完善党建资料审核制度，拟稿人拟稿并进行初审后移交镇党建工作分管领导进行审核把关，确保党建资料符合实际无错漏。', '针对党员教育管理工作虚化的问题。一是结合主题教育活动，制定了党员干部学习制度，督促全体党员认真开展党的理论学习，夯实党员干部理论知识基础。二是对外出、因病、因残无法参与集体学习讨论的党员实行送学上门制度，做到党的理论学习全覆盖，提升理论学习成效。三是对部分优秀并拟纳入后备干部培养的党员，定期组织集体学习研讨，并采取到村（社区）跟班学习、参与工作实践等方式提高其业务能力和业务素养。', '针对“三会一课”制度执行不规范的问题。一是进一步加强了对村（社区）党组织的日常管理和教育引导，驻片领导和党员身份的驻村干部常态化列席村（社区）党组织“三会一课”等组织生活，并进行业务指导。二是镇党委定期对各村（社区）“三会一课”开展情况进行了阶段性工作总结评比，确保了各村（社区）党组织“三会一课”等党内组织生活规范有序。', '针对党内政治生活简单化的问题。一是进一步严肃了党内组织生活，按时按质召开民主生活会，扎实开展谈心谈话、意见征求、批评与自我批评，保存好对照检查、剖析的书面材料。二是在学习上级文件精神时，各分管领导结合自身分管工作谈贯彻落实意见，并进行交流研讨，确保文件精神落实到位并结合徐家工作实际制定贯彻和实施意见。', '针对批评与自我批评流于形式的问题。2023年11月2日徐家镇党委召开了巡察整改专题民主生活会，班子成员结合工作开展情况及本人思想、作风深刻开展了批评与自我批评，不遮丑、不回避问题，深刻剖析问题原因并提出了整改措施。', '针对民主生活会表态不严谨的问题。一是严格践行了民主生活会相关制度，班子成员结合自身工作、思想、作风认真开展批评与自我批评，并开展研讨交流，让民主生活会讨论真正触及问题、解决问题。二是加强了对党务工作者的业务培训，做到了完整、准确、规范记录民主生活会开展情况。', '针对党委议事规则执行不严的问题。一是建立健全了党委会议事制度，规范党委会讨论和发言，确保“三重一大”事项经过党委充分讨论并集体决策。二是对党务工作者进行了培训学习，确保党委会讨论记录完善，充分体现党委集体讨论、研究、决策。', '一是夯实责任，推进全面彻底整改。紧扣整改任务清单，进一步逐项逐条梳理落实情况，过实过细查漏补缺，进一步拧紧整改工作的“责任链条”，坚定不移抓好整改落实。', '二是完善制度，推进全面巩固提升。始终坚持把具体问题整改与构建长效机制有机结合起来，着力在长效、实效上狠下功夫，加快形成制度体系，不断巩固和扩大整改成效，真正让巡察整改治根治本。', '三是强化作风，推进全面从严治党。切实提高政治站位，全面增强“四个意识”、坚定“四个自信”、做到“两个维护”。始终坚持把巡察问题整改与落实党中央决策部署和省委、市委、县委工作要求结合起来，切实强化担当作为，不断巩固巡察整改工作成果。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>237</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>常林镇赴营山县绥安街道办开展文明城市创建工作学习考察</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.xichong.gov.cn/xwdt/qxyw/202310/t20231016_1883006.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['领导、镇创文办工作人员、城市社区书记及部分行政村书记一同赶赴营山县绥安街道，考察学习文明城市创建经验做法，提高文明城市创建水平，推动常林镇文明城市创建工作取得新成效、实现新突破。', '考察团先后到绥安街道的绥山社区、书院桥社区、白塔公园等处，考察学习创建过程中机制运行、环境卫生、交通秩序、背街小巷整治、宣传氛围营造、城市精细管理等工作。', '创建工作基础设施健全、城市管理有序、便民服务务实、机制保障有力，特别是在片区改造、邻里食堂市场化运营、中心市场打造、飞线整治、小区管理等方面做得实、有新意，为常林']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>237</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>南充市旅游饭店分会会议及旅游饭店座谈会成功召开</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/wgj/ztzl/lyxh/202309/t20230921_1874672.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['日，南充市旅游协会旅游饭店分会会议及旅游饭店座谈会在北湖宾馆成功召开。市文广旅局党组成员、副局长冯敏，市场管理科科长苏伟，市旅游协会会长蒋志伟，秘书长何佳及全市', '家旅游饭店分会会员单位负责人参加会议。会议总结了旅游饭店分会工作开展情况，安排了下一步工作；会议增补四川省南充北湖宾馆有限公司董事长唐小东为分会会长，南充万泰大酒店有限公司总经理张果为分会副会长。', '会议就全市旅游饭店经营情况进行了座谈，肯定了饭店经营管理中取得的好成效和经验，反映了当前存在的困难和问题，集中表现为旅游饭店市场疲软，效益不理想，成本费用高，招工难；欠款金额大，回收难；培训力度不够，服务不够规范；客房出租率普遍偏低，影响收益；协会、分会开展活动和组织会员单位赴外地考察学习交流较少。会议探讨', '市文广局冯敏副局长在会上强调指出，旅游饭店要努力推进旅游饭店行业高质量发展，要在品牌建设、服务质量、提质增效、安全生产四个方面下功夫；要求协会、分会充分发挥桥梁纽带作用，努力为会员服务；各会员单位要诚信经营，遵守行规行约，以协会、分会为家，增强凝聚力，共同推进旅游饭店行业持续发展。', '邀请天九共享集团康老板氧吧酒店作了氧吧酒店氧吧客房建设推介，提升产品品质，增强客房舒适度。全体参会人员参观和体验了北湖宾馆新改建客房及氧吧示范客房。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>237</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>南充市农村集体经济发展优秀案例之营山县老林镇麻柳村</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2024-02-18</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/nyncj/ztzl/nyncgg/202402/t20240218_1939643.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['面对贫穷落后的现状，在村党支部的带领下，麻柳村干群同心、不等不靠，积极响应县委、县政府号召，大力发展花椒产业，围绕花椒做足产业文章，着力推进花椒产业基地、花椒产业园和农户花椒庭院建设，取得了明显成效。', '面对自身没有成熟产业项目的窘迫现状，如何找准发展方向，让村民自愿改变靠种植水稻、玉米、蔬菜等农作物维持生计的小农意识，是村党组织迫切需要解决的问题。', '班子也没有明确的思路，但是我们一直在想办法、找出路。最后，原双林乡雁家村支部书记陈名忠和其他几个干部商量了一下，决定用一个', '班子成员分片分组，挨家挨户走访调查，逐户听取村民关于发展什么、怎么发展的意见建议，并将收集的意见建议整理汇总，呈报原双林乡党委和县农业农村部门，分析可行性。', '功夫不负有心人。在充分征求村民意见的基础上，在上级党委和农业农村部门的多方协调下，麻柳村', '多次邀请省农科院、西南大学等院校的农业专家和学者到村实地调研考察。通过征求专家的意见建议，麻柳村', '发动老党员、老干部、村民小组长等，一遍又一遍的做村民的思想工作。最终，麻柳村发展花椒产业的决定，在全体村民大会上一致通过。', '当时，村上的干部找了我们好多次，开了无数次会，每次都不厌其烦的给我们讲述麻柳村种植花椒的天然优势。现在想想，幸亏当时同意了，不然现在的生活哪里有这么大的变化哟。', '在绿意盎然的花椒林中，一位中年人正在花椒采收现场跑前忙后，脸上洋溢着喜悦之情。他叫李远红，是麻柳村的花椒种植业主，也是营山县新瑞农牧专业合作社法定代表人，更是村', '班子找到李远红，向他详细介绍了麻柳村关于发展花椒产业的规划，本就有心回家创业、回报故土的李远红当即答应下来。当年', '月，李远红到重庆等地进行了一番市场考察，在家乡发展花椒产业、带领群众在家门口致富的决心更加坚定。', '万事开头难。在创业初期，由于缺乏经验，李远红每年投入二三十万元，仅仅收获几十斤干花椒，还不够采摘工人的劳务费，李远红的心都凉透了。这些情况，村党支部书记李铁桥看在眼里、急在心里，好不容易招引回来的业主，如果就这样创业失败，不仅对李远红是一个沉重打击，更是对参与到花椒种植的', '“两委”立即召集村民召开会议研究，并向原双林乡党委汇报相关情况，经过乡党委班子充分讨论、实地调研，决定带领李远红到重庆江津考察，探寻发展花椒产业秘诀。通过乡党委政府、麻柳村', '小康不小康，关键看老乡。产业发展起来了，如何把产业发展与带领贫困群众增收致富、壮大村级集体经济更紧密地结合起来，是麻柳村', '面对困难没有选择逃避，而是迎难而上、积极化解。通过走访党员干部、问策致富能手、到周边地区学习考察、向上级部门请教解惑和征求广大群众的意见建议，麻柳村以农民增收为最终目的，确定了', '元的标准流转给业主，获取土地流转金；村集体利用产业周转金和中省财政扶持资金入股，业主按照入股资金的', '多人，业主和我们都签订了长期劳务合同，到了年底还能根据一年的务工时间获得一定的年终奖，一年算下来光工资大概就有', '元，村上还利用产业周转金和中省财政扶持资金入股了合作社，每年我还能得到近千元的分红，我和老伴现在一年至少有', '月，营山县首届花椒采摘节在营山老林镇麻柳村花椒博览园开幕，招引四川众鑫泰农牧有限公司投资', '“农村富不富，关键看支部；村子强不强，要看‘领头羊’。”麻柳村的实践证明，农业农村的发展一刻也离不开党的领导。在麻柳村发展壮大集体经济的历程中，从花椒产业“无中生有”的决策，到招引能人借他山之石的带动，再到以“产业发展、业主发财、农民发家、集体得益”各方共赢思路的实施，都有村党支部的论证引导和坚强领航。因此，要发展壮大村级集体经济，有效推动脱贫攻坚与乡村振兴的有效衔接，就必须选好“领头羊”，配强“当家人”，才能促进新时代“三农”工作取得新突破。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>237</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>南充市高坪区经济合作和外事局年度法治政府建设年度报告</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/jjhzhwsj/ztzl/fzzf/t_1916263.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['南充市高坪区经济合作和外事局2023年度法治政府建设年度报告-南充市经济合作和外事局', '按照全面依法治区工作安排部署，紧紧围绕全局中心工作和法治政府建设目标，严格履行法治政府建设主体责任，强化依法行政意识，不断加强法治监督，完善行政决策机制，规范行政执法行为。现将我局法治政府建设相关工作报告如下：', '一是落实法治政府第一责任人职责。局主要领导切实履行推进法治政府建设第一责任人职责，定期听取法治政府建设工作情况汇报，研究解决推进法治政府建设工作困难和问题，全面做好法治政府建设工作。二是成立领导小组。我局成立法治建设工作领导小组，领导小组下设办公室，负责日常工作。我局法治建设工作形成主要领导亲自抓、分管领导具体抓、业务股室配合的工作格局。三是落实工作任务。', '根据上级要求制定《关于做好“八五”普法工作启动宣传的方案》《关于做好法治社会建设的工作方案（', '年）》等文件，明确责任股室，细化工作任务，提出具体工作要求，确保法治政府建设各项工作落到实处。', '一是领导带头学。主要领导带头认真学习领会，将习近平法治思想、市委七届八次全会精神、区委七届五次全会精神等相关精神列为党组理论学习中心组学习会的重要内容，主要领导进行深入解读，班子成员作交流发言，通过再学习、再讨论，吃透基本精神、把握核心要义，不断开创新时代经合外事法治建设新局面。二是支部集中学。为深入贯彻习近平新时代中国特色社会主义思想、党的二十大精神，推进学习教育制度化，机关党支部要求各党员学深悟透报告全文，紧紧团结在以习近平同志为核心的党中央周围，高举习近平法治思想旗帜，坚决做到“两个维护”，切实增强循法而治的政治引领。', '三是业务深入学。建立党组会议会前学法治度，在召开党组会、党组扩大会、干部职工会前集中学法，提高依法执政、依法行政的能力和水平。', '年度南充市高坪区区级行政权力清单、责任清单的通知》精神，进一步深化我局行政处罚、行政检查等各项工作任务，做好对外国投资者或者外商投资企业未按照《外商投资信息报告办法》要求报送投资信息的行政处罚，做好对外国投资者、外商投资企业遵守《外商投资信息报告办法》情况的监督检查，确保全区外商投资促进和管理工作稳步推进。二是清理行政执法事项。根据开展行政执法问题自查自纠工作要求，我局梳理并认领一项对外国投资者或者外商投资企业的行政处罚，并对', '年度以来行政处罚事项进行自查自纠，未发现违反上位法规定设定行政处罚以及乱收费、乱罚款等违反国家“两稳一保”政策落地的问题。三是优化法治化营商环境。我局持续开展招商引资“履约践诺”专项行动，草拟《南充市高坪区开展招商引资“履约践诺”专项行动实施方案》，印发《关于开展招商引资“履约践诺”专项行动摸底排查的函》，督促相关部门、各园区管委会、各乡镇人民政府、街道办事处就未“履约践诺”项目加紧材料送审、加快兑付审批程序、积极协调兑付。', '一是加强干部职工法治教育。把招商引资相关法律列为机关普法学习的必修课，积极引导单位干部职工开展学法用法活动，牢固树立依法行政理念。充分利用国家宪法日、法治宣传教育月等时机，在单位设置法治专题宣传栏、张贴法治宣传标语，采取多种形式营造浓厚的普法宣传氛围。开展贯彻习近平法治思想专题学习分享活动，干部职工通过学习《习近平法治思想学习纲要》《法治社会建设实施纲要（', '年）》和习近平总书记在中央全面依法治国工作会议重要讲话精神等内容、交流分享“深刻认识习近平法治思想的重大意义”，推动将学习成效转化为经合外事工作的强大动力。', '二是开展“一月一主题”活动。通过开展系列“一月一主题”法治宣传教育活动，到帮扶村长乐镇长兴沟村、青莲街道景祥社区重点宣传《中华人民共和国民法典》《中华人民共和国国家安全法》等法律法规，不断扩大法治宣传教育覆盖面和', '余家，深入宣传国、省、市、区经济政策法规。坚持依法招商，依法办事，在企业来高考察投资过程中，注重宣传土地、规划、税务等各项法律法规，让企业准确了解国家和地方的投资政策，感受到优良的投资环境。', '我局在推进法治政府建设工作虽然取得了一定的成绩，但也存在不到位的地方，主要表现在以下几个方面', '一是法治政府建设特色亮点工作不够鲜明。在学习中较多地传达学习文件精神、规章制度等，对内容理解不够深入，运用理论指导实践、推动工作效果不够明显；二是创新形式不够多样，宣传方式较为陈旧，目前我局法治宣传教育方式仍然以发放宣传册、宣传栏等传统普法形式居多，利用微信、抖音等新媒体开展普法运用还不够；三是法治教育培训还不系统，还没有形成长效机制。', '坚持不懈用习近平新时代中国特色社会主义思想、党的二十大精神武装头脑、指导实践、推动工作，真学真信笃行习近平法治思想，严格按照“谁执法、谁普法”普法责任制要求，深刻领悟“两个确立”的决定性意义，增强践行“两个确立”的政治自觉、思想自觉和行动自觉，不断提高“政治三力”，抓好法律法规的贯彻实施，不断增进招商系统人员法治观念。', '完善“党员先锋示范岗”“党员服务明星”机制，实现业务能力和服务水平双提升。加强新媒体在普法宣传中的运用，充分利用微信、微博、抖音等平台，增强普法工作的互动性。', '进一步完善学习制度建设，充分利用“学习强国”“学法考法平台”“云上高坪”等各种信息平台开展法治宣传学习活动，不断增强干部职工学法用法，弘扬法治精神，维护法律权威意识。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>237</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>工业强市丨我市党政代表团赴南部县仪陇县营山县考察学习</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.langzhong.gov.cn/xwdt/tttj/202303/t20230309_1792248.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['追寻南充制造业高质量发展暨投资促进大会的脚步，来一场思想解放之旅、对标之旅，正当其时。', '日，市委书记杨德宇率我市党政代表团赴南部县、仪陇县和营山县开展学习考察活动，充分借鉴兄弟县在工业项目建设、产业园区发展、工业企业招引等方面的先进经验，将“他山之石”化作本土启示，凝聚加压奋进谋发展的强大合力。市人大常委会主任曹健一同考察。南部县、仪陇县、营山县党政主要领导陪同考察。', '考察团先后考察了南部县聚力机械有限公司、企业公共服务平台、仪陇县四川德创汽车零配件有限公司、四川玉陇机械制造有限公司、营山县汽摩产业园、四川小铜人西部产业园等项目。每到一处，考察团成员都边看、边听、边讨论、边思考，深切感受到各县工业经济发展干劲之足、举措之实、变化之大。大家纷纷表示，这次考察学习，既开阔了视野，又解放了思想，更增强了责任感，将学习借鉴各县抓实高新产业发展，科学规划管理园区，优化企业配套服务，高效盘活闲置土地，狠抓标准化厂房建设，以及精准落实惠企政策等经验做法，把考察学习成果转化为推动阆中工业经济高质量发展的强大动力。', '杨德宇在考察中指出，中、省、南充高度重视制造业发展，阆中和南部、仪陇、营山三县地缘相近、人缘相亲、业缘相融。近年来，南部、仪陇、营山三县抓工业经济方向明确、思路清晰、措施有力，既有“龙头”引领，又有集群支撑，形成了“头雁先飞领飞、群雁跟飞齐飞”的强劲发展态势，与当前阆中坚持大抓工业、提振工业经济快速增长的思路不谋而合，非常值得阆中学习和借鉴。', '杨德宇强调，要深入贯彻南充制造业高质量发展暨投资促进大会关于“切实担负起‘产业兴市、制造强市’使命任务，奋力谱写现代化南充建设新篇章”的重要要求，从差距中找到潜力、从压力中激发动力、从挑战中抢抓机遇，坚定信心、破浪前行，坚决打赢工业强市的翻身仗。要着力培育企业、壮大产业，坚持强链、补链、延链，培育壮大主导产业，加快推进园区建设，全力保障项目落地，不断夯实工业强市主支撑。要不断扩大开放、招大引强，以制造业招引为重点，着力推进延链招商，精准定位引项目，坚定不移抓开放、千方百计促招引，持续注入工业强市新动能。要坚持有呼必应、无事不扰，全面打造重商亲商有态度、说办就办有速度、依法依规有尺度的营商氛围，全力营造工业强市好环境。', '市领导邓彪、范昶、张晓波、张小林、陈晓波、张杰、张升、陈龙全、文海燕、杜翃宇、杨劲松，市级相关部门主要负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>237</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>求是发表李国英署名文章促进人水和谐建设幸福江河</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/swj/xwdt/hyjj/t_1939191.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['江河湖泊是地球的血脉、生命的源泉、文明的摇篮。习近平总书记始终心系江河，足迹遍及祖国各大江河以及三峡、南水北调等重点水利工程，多次主持召开会议研究部署推动长江经济带发展、黄河流域生态保护和高质量发展等，亲自擘画确立、亲自推动实施国家“江河战略”，为新时代江河保护治理指明了前进方向、提供了根本遵循。2023年7月，习近平总书记在全国生态环境保护大会上再次强调，要统筹水资源、水环境、水生态治理，深入推进长江、黄河等大江大河和重要湖泊保护治理。2023年12月召开的中央经济工作会议要求，持续深入打好蓝天、碧水、净土保卫战。我们要把学习贯彻习近平总书记重要讲话精神与学习贯彻习近平生态文明思想、习近平总书记关于治水的重要论述结合起来，扎实推动水利高质量发展，促进人水和谐、建设幸福江河，奋力谱写新时代江河保护治理新篇章。', '党的十八大以来，习近平总书记站在战略和全局的高度，深刻洞察我国国情水情，深刻分析经济社会发展大势，就江河保护治理和高质量发展作出一系列重要讲话重要指示批示，提出一系列新理念新思想新战略，指引我国江河保护治理实现一系列突破性进展，取得一系列标志性成果。', '江河湖泊面貌实现历史性改善。全面建立河长制湖长制体系，强化长江、黄河等流域生态保护治理，深入实施母亲河复苏行动，京杭大运河实现百年来首次全线水流贯通，断流干涸20多年的永定河实现全年全线有水。', '水资源配置格局实现全局性优化。科学推进实施以南水北调工程为代表的重大跨流域、跨区域引调水工程，初步形成了“南北调配、东西互济”的水资源配置总体格局，全国水利工程供水能力从2012年的7000亿立方米提高至2022年的近9000亿立方米。', '水资源利用方式实现系统性变革。大力实施国家节水行动，强化水资源刚性约束，2013年到2022年，我国国内生产总值从不足60万亿元增长到超过120万亿元，但全国用水总量总体稳定在6100亿立方米以内，万元国内生产总值用水量、万元工业增加值用水量分别下降了42.8%、58.2%。', '水旱灾害防御能力实现整体性跃升。先后战胜黄河、珠江、长江等大江大河历史罕见严重水旱灾害，有效保障人民群众生命财产安全。2023年主汛期，海河流域发生了1963年以来最大流域性特大洪水，在习近平总书记亲自部署、亲自指挥下，成功夺取了防御这场特大洪水的重大胜利，各类水库无一垮坝、重要堤防无一决口、蓄滞洪区转移近百万人无一人伤亡。', '近年来，水利部门坚持山水林田湖草沙一体化保护和系统治理，扎实推进水土流失综合治理，强化江河湖库生态保护治理。图为入选2022年度（第九批）世界灌溉工程遗产名录的江西省赣州市崇义县上堡梯田，该工程包含完善的农田水利灌溉系统和良好的生态保护系统，充分体现了尊重自然、顺应自然、保护自然的理念。 水利部供图 卢鑫平/摄', '江河保护治理，事关战略全局、事关长远发展、事关人民福祉。新时代江河保护治理取得历史性成就、发生历史性变革，根本在于有习近平总书记作为党中央的核心、全党的核心领航掌舵，在于有习近平新时代中国特色社会主义思想科学指引。必须深刻领悟“两个确立”的决定性意义，坚决做到“两个维护”，确保江河保护治理始终沿着总书记指引的方向前进，以更高站位、更宽视野、更大力度来谋划和推进新时代江河保护治理。', '我国基本水情一直是夏汛冬枯、北缺南丰，水资源时空分布极不均衡，这一基本水情将长期存在。同时，我国人多水少，人均水资源占有量约为世界平均水平的35%，水资源短缺成为制约生态环境质量和经济社会发展的重要因素。习近平总书记指出，推进中国式现代化，要把水资源问题考虑进去；进入新发展阶段、贯彻新发展理念、构建新发展格局，形成全国统一大市场和畅通的国内大循环，促进南北方协调发展，需要水资源的有力支撑。总书记的重要论述，深刻阐释了高质量发展与高水平保护的辩证关系、人口经济与资源环境的均衡关系、水资源与生产力布局的适配关系等重大理论和实践问题，凝结着对国情水情的深刻洞察和对水资源问题的战略考量，为提升江河水资源节约集约利用和优化配置能力提供了科学指引。我们必须坚持把水资源承载力作为前提和基础，坚持节水优先、量水而行、开源节流并重，科学规划建设跨流域、跨区域水资源配置工程，全面增强水资源统筹调控能力、供水保障能力、战略储备能力，为经济社会高质量发展提供坚实水资源保障。', '加快建设国家水网。国家水网建设是习近平总书记亲自谋划、亲自部署、亲自推动的重大战略部署，是解决我国水资源时空分布不均问题的根本举措。要深入落实党中央、国务院印发的《国家水网建设规划纲要》，立足流域整体和水资源空间均衡配置，结合江河流域水系特点和水利基础设施布局，以大江大河大湖自然水系、重大引调水工程和骨干输排水通道为“纲”，以区域性河湖水系连通工程和供水渠道为“目”，以具有控制性地位、控制性功能的调蓄工程为“结”，统筹存量和增量，联网、补网、强链，加强互联互通，加快构建“系统完备、安全可靠，集约高效、绿色智能，循环通畅、调控有序”的国家水网。', '强化水资源刚性约束。习近平总书记强调，“不能把水当作无限供给的资源”，“有多少汤泡多少馍”。要坚持以水定城、以水定地、以水定人、以水定产，严守水资源开发利用上限，精打细算用好水资源，从严从细管好水资源。开展河湖水资源承载能力评价，明确流域区域可用水量管控指标。加强取用水监督管理，完善取用水监测计量体系，严格水资源论证和取水许可管理。加快用水权初始分配，建立健全用水权市场化交易制度。', '实施国家节水行动。“节水优先”是习近平总书记确定的一条重要治水方针。节水涉及各行业各部门各领域，是重要的社会管理工作、系统性工程。要持续推进农业节水增效、工业节水减排、城镇节水降损，加强对非常规水资源的利用。深入开展县域节水型社会达标建设，打好黄河流域深度节水控水攻坚战。推动节水产业创新发展，大力推广合同节水管理，推进水效标识、节水认证等机制创新，引导金融和社会资本投入节水领域。拓展节水科普宣传教育，推动全社会形成节水型生产生活方式。', '习近平总书记强调，要坚持山水林田湖草沙一体化保护和系统治理，加强长江、黄河等大江大河的水源涵养，加大生态保护力度。总书记的重要论述，蕴含着鲜明的辩证思维、系统思维，为强化江河水生态保护治理提供了根本遵循。必须牢固树立和践行绿水青山就是金山银山的理念，站在人与自然和谐共生的高度谋划发展，尊重自然、顺应自然、保护自然，复苏河湖生态环境，维护河湖健康生命，实现河湖功能永续利用、永远造福中华民族。', '推进母亲河复苏。母亲河滋养流域水土、哺育一方儿女，是人们赖以生存的重要基础。长江、黄河两条母亲河养育了中华民族，要把保护治理母亲河这篇文章继续做好。持续开展京杭大运河贯通补水、华北地区河湖夏季集中补水和常态化补水、西辽河流域生态调度、乌梁素海生态补水，持续稳定白洋淀水域面积。完善生态流量（水位）、水质、水生态监测体系，建立健全生态流量预警响应机制，强化生态流量保障过程监管。追溯江河文明之源，把长江文化、黄河文化、大运河文化等保护好、传承好、弘扬好，延续历史文脉，坚定文化自信。', '水利部深入实施母亲河复苏行动，一河一策、靶向施策，加快修复河湖生态环境。2022年，京杭大运河实现百年来首次全线水流贯通，再现壮美神韵。图为京杭大运河河北沧州段。 水利部供图', '推进江河湖库生态保护治理。党的二十大明确要求，推动重要江河湖库生态保护治理。要深入落实河长制湖长制，稳步推进幸福河湖建设。加强河湖水域岸线空间管控，纵深推进河湖库“清四乱”常态化规范化。强化河道采砂管理，严厉打击非法采砂。加强饮用水水源地保护，强化三峡水库、丹江口水库及其上游流域等重要水源地水质安全保障。加快小水电绿色改造和现代化提升，持续推进农村水系综合整治。', '推进地下水超采综合治理。地下水超采综合治理非一朝一夕之功，必须珍惜保护地下水这一“隐藏”的宝贵资源。要完善地下水监测系统，强化地下水监督管理和分区管控，推进地下水取水总量和水位双控指标落实，开展地下水水位变化通报评估。统筹“节、控、换、补、管”措施，持续推进华北地区和三江平原、松嫩平原、辽河平原等10个重点区域地下水超采综合治理，推进南水北调工程受水区地下水压采，认真做好深层地下水人工回补试点工作。', '推进水土流失综合治理。水土保持是江河保护治理的根本措施，是必须长期坚持的一项基本国策。要以大江大河上中游、东北黑土区、南水北调水源区等区域为重点，全面实施小流域综合治理提质增效。实行水土保持目标责任考核。全覆盖、常态化开展水土保持遥感监测，依法严格查处违法违规行为。总结推广水土保持项目碳汇交易经验，建立健全水土保持生态产品价值实现机制。', '近年来，极端天气事件呈现趋多趋频趋强趋广态势，江河流域暴雨洪涝干旱灾害的突发性、极端性、反常性越来越明显。2023年主汛期，我国气候极端反常，海河、松花江等江河流域防汛抗洪形势异常严峻复杂，习近平总书记亲自部署、亲自指挥防汛抗洪救灾工作，专题研究、专程考察灾后恢复重建，强调要始终坚持以人民为中心，坚持系统观念，坚持求真务实、科学规划、合理布局，抓紧补短板、强弱项，加快完善防洪工程体系、应急管理体系，不断提升防灾减灾救灾能力。总书记的重要论述，指明了防汛抗洪的基本原则、目标任务、方法措施，彰显了鲜明的人民立场、深沉的忧患意识、宏阔的战略思维，为我们做好水旱灾害防御工作、提升防灾减灾能力指明了前进方向。必须更好统筹高质量发展和高水平安全，坚持人民至上、生命至上，增强风险意识、忧患意识，树牢底线思维、极限思维，坚持预防为主，坚持旱涝同防同治，强化预报预警预演预案措施，坚决守牢水安全底线。', '完善流域防洪工程体系。洪水产流—汇流—演进以流域为单元，防洪工程体系必须按照流域单元来规划建设和调度运用。要立足长远，深入分析流域防洪减灾格局变化，修编七大流域防洪规划，构建适应发展、适度超前的流域防洪新格局。坚持系统观念，统筹流域和区域，处理好上下游、左右岸、干支流关系，科学布局水库、河道、堤防、蓄滞洪区功能建设。加快推进具有流域洪水控制性的重大工程建设。实施骨干河道综合整治和大江大河大湖堤防达标建设3年提升行动。强化蓄滞洪区安全建设与运行管理，确保蓄滞洪区在流域防洪的关键时刻发挥关键作用。', '完善雨水情监测预报体系。前瞻、及时、精准的雨水情监测预报信息是打赢现代防汛战的首要环节和重要条件。要以流域为单元，充分运用现代化技术与设备，加快建设由气象卫星和测雨雷达、雨量站、水文站组成的雨水情监测预报“三道防线”。第一道防线实现云中雨监测预报并延伸产汇流及洪水演进预报，第二道防线实现落地雨监测并延伸产汇流及洪水演进预报，第三道防线实现本站洪水测报并延伸洪水演进传导预报。优化站网布局、结构、功能，研究建立符合流域特点的产汇流水文模型、洪水演进水动力学模型，延长洪水预见期，提高洪水预报精准度。', '完善数字孪生水利体系。以数字孪生技术赋能江河保护治理，是大势所趋、发展所需。要统筹推进数字孪生流域、数字孪生水网、数字孪生工程建设，对物理流域、水网、水利工程全要素和水利治理管理全过程进行数字映射、智能模拟、前瞻预演，在数字流场中预演洪水演进情况、风险点分布情况、蓄滞洪区启用情况及退水情况等，迭代优化流域防洪工程体系调度运用方案，实现预报预警预演预案功能，为水利决策管理提供前瞻性、科学性、精准性、安全性支持。', '完善水旱灾害防御工作体系。构建纵向到底、横向到边的水旱灾害防御工作体系，是筑牢水旱灾害防御防线的必然要求。要锚定“人员不伤亡、水库不垮坝、重要堤防不决口、重要基础设施不受冲击”和确保城乡供水安全目标，深入排查处置风险隐患，预置抢险队伍、设备、料物，健全山洪灾害预警“叫应”机制，精细调度流域防洪工程体系。提前储备抗旱水资源，精准范围、精准对象、精准时段、精准措施，保障城乡居民饮水安全和农作物时令灌溉用水需求。', '习近平总书记指出，要从生态系统整体性和流域系统性出发，追根溯源、系统治疗；要牢固树立“一盘棋”思想，更加注重保护和治理的系统性、整体性、协同性。总书记的重要论述，揭示了江河保护治理的内在规律，阐释了流域与区域的统筹关系，体现了系统观念这一基础性的思想和工作方法，为我们强化流域治理管理提供了科学指南。必须坚持以流域为单元，统筹上下游、左右岸、干支流，强化流域统一规划、统一治理、统一调度、统一管理，不断提升江河保护治理的能力和水平。', '近年来，水利部门加强河湖生态流量（水位）管理，推进河湖健康评价，积极开展幸福河湖建设。图为浙江省丽水市松阳县松阴溪水利风景区。 水利部供图 姜晓东/摄', '强化流域统一规划。立足流域整体，科学把握流域自然本底特征、经济社会发展需要、生态环境保护要求，根据形势变化及时修订完善流域综合规划，健全定位准确、边界清晰、功能互补、统一衔接的流域专业规划体系，强化规划导向约束，压实规划实施责任，确保流域规划目标任务有效落实。', '强化流域统一治理。坚持区域服从流域的基本原则，统筹协调上下游、左右岸、干支流关系，综合考虑水利工程功能定位、区域分布，科学确定水利工程布局、规模、标准，统筹安排水利工程实施优先序，完善流域治理项目台账，推进流域协同保护治理，做到目标一致、布局一体、步调有序。', '强化流域统一调度。实施流域控制性水工程联合调度，强化流域防洪、供水、生态、发电、航运等多目标统筹协调调度，建立健全各方利益协调统一的调度体制机制，强化流域防洪统一调度、水资源统一调度、生态流量水量统一调度，努力实现流域涉水效益最优。', '强化流域统一管理。构建流域统筹、区域协同、部门联动的管理格局，加强流域综合执法，推进流域联防联控联治，强化流域河湖统一管理、水权水资源统一管理、保护治理行为统一管理，凝聚各方合力，共同维护河湖健康生命。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>237</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>全力创优高位争先纵深推进全市组织工作高质量发展</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/xwdt/ncyw/202402/t20240228_1943406.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['2月27日下午，全市组织部长会议召开。会议坚定贯彻党的二十大精神和习近平总书记关于党的建设的重要思想，认真落实全国、全省组织部长会议部署要求，总结去年工作，安排今年任务。', '会议指出，要提高政治站位，坚定落实“全面对标、精准发力、高位争先”的全省组织工作思路，始终围绕学习贯彻习近平新时代中国特色社会主义思想“一条主线”，务实推进“六个方面工作任务”，全面抓好“八项重点创优工作”，全力实施“五大高位争先项目”，纵深推进全市组织工作高质量发展。', '会议强调，要坚持务实重行，聚焦“绝对忠诚”，推动党的创新理论入心见行；聚焦“德才兼备”，推动领导班子建设走深走实；聚焦“选贤任能”，推动干部队伍建设见行见效；聚焦“创新驱动”，推动人才强市战略加快成势；聚焦“全面过硬”，推动基层党建工作标准规范；聚焦“先锋模范”，推动党员队伍建设全面提质，努力实现各项工作起势见效。', '会议强调，要围绕“积极提升干部教育培训供给质量”“充分激励干部在‘五区建设’中担当作为”“科学构建干部综合表现考察识别研判体系”“鼓励引导大学生留南创新创业”“加快集聚制造业人才”“扎实抓好欠发达县域托底性帮扶工作”“党建引领乡村治理终端见效”“稳步推进集体经济强村富民”八项重点工作全力创优，推动“年轻干部红色薪火工程”“乡村振兴人才发展联盟”“组团建设川东北创新人才集聚地”“乡村振兴头雁队伍建设”“党建引领城市老旧小区治理”五大项目高位争先，稳步提升全市组织工作质量和效果。', '会议要求，要奋力担当进取，创优争先的方向要把准把牢、任务要联动联抓、效果要有形有态、行动要抢先抢快、作风要从严从实，以高质量工作成效为加快建成省域经济副中心、奋力谱写现代化南充建设新篇章提供坚强组织保证。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>237</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>正源镇召开年度村社区支部书记抓基层党建工作述职评议会</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/xzdt/t_1947176.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['正源镇于2024年2月6日召开村（社区）支部书记党建工作述职评议会议，听取6个村、1个社区支部书记抓基层党建工作述职，并进行了现场评议。会议由镇长主持，镇党政班子成员、各村（社区）党组织书记、副书记、部分机关干部参加会议。', '会上，各党支部书记依次进行现场述职、相关同志逐一点评。镇长谢俊甫对各党支部书记的述职情况进行一一点评，并对下一步工作提出了要求。一要提高政治站位，强化责任担当。要深入学习习近平新时代中国特色社会主义思想，认真贯彻落实党的二十大精神和习近平总书记考察四川的重要讲话精神，强化责任担当，切实把支部的组织优势转化为发展动力。二要创新工作方法，活化党建载体。要认真总结去年以来抓党建取得的好经验、好做法，积极探索“联建找标杆、联建借资源、联建谋发展”赋能之路，打造新时代特色化党建阵地。三要聚焦主责主业，务求工作实效。要严格落实各项组织生活制度，严肃党内政治生活，进一步提升党支部政治功能和组织功能，把党支部的党建工作同县委、县政府中心工作有机结合，同全镇中心工作有机结合。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>237</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>从两会热词看高坪发展新蓝图</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/xwdt/gpxw/202403/t20240305_1945987.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['春天的江东大地，生机勃勃，多领域发展如火如荼。在刚刚召开的高坪区两会上，《政府工作报告》聚焦经济建设中心工作和高质量发展首要任务，对', '年工作进行了部署，“产业兴区、制造强区”“城乡共同繁荣”“三驾马车”等关键词受到热切关注和讨论。', '年，是实现“十四五”规划目标任务的关键之年，是高坪区建设“大城门户、森林城市、活力高坪”的攻坚之年。作为主城三区之一、大城门户所在，当下高坪的发展机遇和重点在哪里？以南充“五区建设”任务中走在前、作贡献为己任，高坪又将如何用切实举措把发展蓝图变为现实？', '智能制造车间内，但见机器转、不闻人语声，数字化的生产场景引人注目。依赖高度智能化的生产线和自主研发的生产监控系统，整个制造车间成了几乎无需人力的“透明工厂”，实现了传统生产力的极大跃迁。', '“2023年，以科技创新引领产业发展，公司实现产值近6亿元。”四川弘鑫云创智造科技有限公司总经理唐锋直言，高坪区电子信息产业上下游企业及科研院所的关联度较高，当地经济发展的韧性与竞争力较强。', '亿元。”四川弘鑫云创智造科技有限公司总经理唐锋直言，高坪区电子信息产业上下游企业及科研院所的关联度较高，当地经济发展的韧性与竞争力较强。', '年，高坪区电子信息产业规上总产值超全市电子信息产业规上总产值的三分之一，高新技术产业营业收入达到', '基于此，在今年的高坪区《政府工作报告》中，“坚持产业兴区、制造强区，加快构建现代产业体系”成为全年发展的首要任务。报告提出，要着力补齐工业短板，着重将“推动现代制造业提振壮大”放在第一位，以建设“中国柔都”为总牵引，深入践行“人城产”融合理念，加快推动柔性制造产业园成型成势；深化“亩均论英雄”和“标准地”改革；全面推行“链长制”，立足“三年攻坚”，抓好“个十百千”。', '“《政府工作报告》为我们勾画了工作重点。”区经济和信息化局局长陈道宽直言，现代化产业体系是高坪高质量发展的重要动力源，也是其他领域现代化的关键支撑。高坪区此前提出打造现代产业示范区，与南充“五区建设”中成渝地区先进制造业集聚区的规划不谋而合。2024年，以“新型工业化三年攻坚行动”为主线，高坪计划把培育新质生产力作为加快产业转型升级的关键，做大主导产业、做强园区载体、做实创新文章，不断形成新的增长动能。', '《政府工作报告》为我们勾画了工作重点。”区经济和信息化局局长陈道宽直言，现代化产业体系是高坪高质量发展的重要动力源，也是其他领域现代化的关键支撑。高坪区此前提出打造现代产业示范区，与南充“五区建设”中成渝地区先进制造业集聚区的规划不谋而合。', '年，以“新型工业化三年攻坚行动”为主线，高坪计划把培育新质生产力作为加快产业转型升级的关键，做大主导产业、做强园区载体、做实创新文章，不断形成新的增长动能。', '《政府工作报告》还提出，要坚持改革开放、创新驱动，持续增强发展内生动力。促进创新创业，深入落实南充科技支撑制造强市“三大行动”。打造一流环境，全面落实惠企政策“免审即享”，依法平等保护民营企业产权、自主经营权和企业家权益。', '对此，四川首创科技有限公司总经理沈刚深有感触：“创新驱动帮助我们的产品走出国门，与海外近', '个国家达成贸易合作。”作为高坪土生土长的省级专精特新“小巨人”，该公司早有谋划，将依托利好政策持续深化产、学、研结合，与高等院校搭建创新联合体，加大高端人才引进，力争', '“高坪是农业大县，统筹推进新型城镇化和乡村全面振兴，才能推动共同繁荣迈出实质性步伐。”今年高坪两会期间，城乡发展成为热门话题之一，代表委员们纷纷表示，城乡发展要一盘棋，报告提出“促进城乡共同繁荣”有高瞻远瞩的战略意义，也有迫切的现实考量。', '高坪是农业大县，统筹推进新型城镇化和乡村全面振兴，才能推动共同繁荣迈出实质性步伐。”今年高坪两会期间，城乡发展成为热门话题之一，代表委员们纷纷表示，城乡发展要一盘棋，报告提出“促进城乡共同繁荣”有高瞻远瞩的战略意义，也有迫切的现实考量。', '在江陵镇党委书记袁钢看来，“以城带乡、以乡促城”的长远发展思路为江陵镇带来实质成效。', '年区级民生实事项目票选结果公布，“南充市高坪区老旧小区基础改造配套设施建设项目”将在今年实施。无独有偶，', '万平方米，现已全面完成。“老旧小区改造连续两年成为票选的民生实事项目，说明我们的城市发展还有很多现实需要。”', '一方面是老城改造升级的群众呼声、新城开疆拓土的发展实际，另一方面，广袤乡村的发展需要长远谋划，城乡融合的大文章，不仅需要干，还要干得有力有效、出色出彩。', '为此，《政府工作报告》明确，要“坚持抓好两端、畅通中间，全力促进城乡共同繁荣”，让城市更有温度，抓好新城赋能、抓好老城提质；让乡村更加美丽，学习运用浙江“千万工程”经验，大力推进城乡融合发展“十个一体化”，发挥中心镇连城带乡作用，积极创建四川产业强镇、商贸强镇。让要素更快流通，形成县乡联动、共建共治共享格局。', '“把推动城市有机更新作为工作切入点。”区城乡建设局局长姜尤俊说起今年的打算时表示，将着重推进老旧小区改造和城市基础设施补短行动，努力提升群众幸福指数。', '把推动城市有机更新作为工作切入点。”区城乡建设局局长姜尤俊说起今年的打算时表示，将着重推进老旧小区改造和城市基础设施补短行动，努力提升群众幸福指数。', '“要深入推进乡村振兴示范区建设，学习运用‘千万工程’经验，因地制宜探索高坪路径，采取差异化的发展策略，为高坪打造西部绿色发展样板区作贡献。”会龙镇党委书记任彬表态，将以《政府工作报告》为“任务书”，塑优农业园区平台、做响农业品牌、做强特色产业，全力争创省级现代农业园区、全省乡村振兴示范乡镇。', '要深入推进乡村振兴示范区建设，学习运用‘千万工程’经验，因地制宜探索高坪路径，采取差异化的发展策略，为高坪打造西部绿色发展样板区作贡献。”会龙镇党委书记任彬表态，将以《政府工作报告》为“任务书”，塑优农业园区平台、做响农业品牌、做强特色产业，全力争创省级现代农业园区、全省乡村振兴示范乡镇。', '日，南充现代物流园内，一批满载电脑服务器的“中欧卡航”在此集结。这批货物经四川南充海关申报成功后，将从南充保税物流中心（', '“这是南充‘中欧卡航’2024年首发，也是‘中欧卡航’开通以来的第97班。”南充保税物流中心（B型）负责人郭锐说起川东北地区唯一保税物流中心的发展成绩：过去一年，南充保税物流中心（B型）进出口贸易额达到17.5亿元，增长119.6%、增幅居全省第一。', '型）负责人郭锐说起川东北地区唯一保税物流中心的发展成绩：过去一年，南充保税物流中心（', '“高坪是南充的东大门，有‘公铁水空’立体交通网络，人流、物流、资金流和信息流汇聚。深入推进大城门户、开放高地建设，为南充加快建设四川东向北向开放引领区作贡献，以‘三驾马车’促发展稳增长，我们是当仁不让的主力军。”南充现代物流园管理委员会主任侯珺尧直言。', '高坪是南充的东大门，有‘公铁水空’立体交通网络，人流、物流、资金流和信息流汇聚。深入推进大城门户、开放高地建设，为南充加快建设四川东向北向开放引领区作贡献，以‘三驾马车’促发展稳增长，我们是当仁不让的主力军。”南充现代物流园管理委员会主任侯珺尧直言。', '年工作要点。报告指出，“坚持内外并举、双侧发力，推动‘三驾马车’稳步健行”。要积极扩大有效投资，突出“开工才是硬道理、竣工才是真本事”；要推动消费持续扩大，围绕“消费促进年”安排部署，更好支持刚性和改善型住房需求；要促进外贸稳质提升，拉动经济持续好转。', '“投资对地方经济发展意义重大。”区发改局局长蒲怡燕谈道。大项目投资规模大，辐射带动作用强，不仅能够推动经济增长，还能够扩大就业、增加财政收入，带动相关行业发展。认真贯彻落实区委、区政府的决策部署，坚定不移抓项目、促投资、稳增长，蒲怡燕已列出本年度4项工作部署：聚焦产业，适度超前做好项目的谋划储备，持续扩大有效投资。聚焦政策，持续做好争资引项，力争争取更多上级政策资金。聚焦建设，严格落实高质量发展10条措施，提速推进全区199个区级重点项目建设。聚焦质效，加强投资运行的分析研判，有效防范和化解投资运行风险。', '投资对地方经济发展意义重大。”区发改局局长蒲怡燕谈道。大项目投资规模大，辐射带动作用强，不仅能够推动经济增长，还能够扩大就业、增加财政收入，带动相关行业发展。认真贯彻落实区委、区政府的决策部署，坚定不移抓项目、促投资、稳增长，蒲怡燕已列出本年度', '项工作部署：聚焦产业，适度超前做好项目的谋划储备，持续扩大有效投资。聚焦政策，持续做好争资引项，力争争取更多上级政策资金。聚焦建设，严格落实高质量发展', '个区级重点项目建设。聚焦质效，加强投资运行的分析研判，有效防范和化解投资运行风险。', '“对高坪的消费潜力我很有信心。”区文化广播电视和旅游局相关负责人用数据说话，2024年春节假期，高坪区旅游综合收入为9.93亿元，同比增长32.31%。“2024年，我们将加快嘉陵江风景绿道高坪段、中国嘉陵江博物馆等重点文旅项目建设，打造高坪76公里最柔美嘉陵田园旅游风景线，以高质量的文旅消费供给释放消费潜力，为经济高质量发展添能蓄势。”', '公里最柔美嘉陵田园旅游风景线，以高质量的文旅消费供给释放消费潜力，为经济高质量发展添能蓄势。”', '会后，我们将把区“两会”精神贯彻落实到产业集聚与企业培优等工作中来，坚持靶向培育“大优强”企业群的工作思路，加快构建现代化产业体系。抓好园区建设、招商引资、产业培育、营商环境等重点工作，为推进“五区建设”贡献力量。', '今年，高坪区经济和信息化局将重点在企业优质培育、项目推进、招商引资、基础建设、做好企业服务等方面着力。对重点企业发展中遇到的困难问题，实施专班联系协调服务。加大“专精特新”培育力度，引导企业专注核心业务、做精做细，不断提升专业化生产、服务和协作配套的能力。持续加大对小微企业的扶持力度，跟踪服务“小升规”培育企业，开展企业管理人员专题培训。坚持主要领导带头抓项目推进机制，实行“一月一协调、一周一调度”，解决项目推进过程中遇到的问题，确保项目有序推进；实行“一个企业、一张清单”，确保信息及时收集，问题高效处置。积极宣传全区制造业招商引资优惠政策，通过成功案例展现高坪优越的营商环境，邀请有投资意向的企业来高考察投资、已落地企业继续追加投资。在重点项目、园区等区域优化基站布局，提升网络品质，打造良好的投资、经商、旅游、宜居的信息环境。', '在新城赋能方面，城市建设应充分考虑配套设施的规划、完善，特别是学校、市场等配套服务功能应充分考虑，解决好孩子就近读书难、市民买菜难的问题。', '在老城提质方面，统筹利用闲置门面，集中改造一批综合农贸市场，解决市民买菜难、买菜远的问题，疏堵结合解决城市顽疾。', '下一步工作中，高坪区综合行政执法局将坚持把城市管理作为服务民生、改善民生的一项基础性工作来抓，努力在提升城市管理精细化、品质化、常态化水平上下功夫，持续巩固干净、整洁的城市环境，提升有序、安全的城市管理水平，拓展美丽、时尚的深度城市化内涵。着眼于长效机制建设，全面夯实环卫保洁、队伍建设等各项工作基础，推动城市管理高质量发展，让广大市民感受到城市环境常净、城市景观常美、城市温度常留、城市文明常在的宜居宜业城市。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>237</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>仪陇县住房和城乡建设局关于年度申报建设工程系列初级职称任职资格的通知</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/tzgg/t_1867232.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['为做好2023年度建设工程系列初级专业技术职称任职资格评审工作，根据《四川省住房和城乡建设厅 四川省人力资源和社会保障厅关于印发〈四川省建设工程技术人员职称申报评审基本条件〉的通知》（川建行规', '年度建设工程系列初级专业技术职称任职资格评审工作，根据《四川省住房和城乡建设厅 四川省人力资源和社会保障厅关于印发〈四川省建设工程技术人员职称申报评审基本条件〉的通知》（川建行规', '3号）和《四川省人力资源和社会保障厅关于印发〈四川省高技能人才与专业技术人才职业发展贯通实施方案〉的通知》（川人社发〔2021〕61号）等文件精神，现将申报评审有关事项通知如下：', '号）和《四川省人力资源和社会保障厅关于印发〈四川省高技能人才与专业技术人才职业发展贯通实施方案〉的通知》（川人社发〔', '局属各事业单位、企业从事建筑设计类、建筑施工类、建筑经济类、机电工程类等专业技术（管理）工作，', '符合申报条件的人员。离退休人员、公务员及参照公务员法管理的事业单位人员不得申报参加职称评审。', '建设工程职称专业：建筑设计、城市设计、建筑美术设计、城乡建设规划、工程测量、岩土工程、房屋建筑结构工程、建筑装饰装修工程、白蚁防治工程、消防工程、给排水工程、燃气工程、建筑电气与智能化工程、暖通空调工程、机械设备安装、市政道路桥梁工程、城市轨道交通工程、景观园林工程、环境卫生工程、建筑材料、工程造价、工程管理。', '2.具有良好的职业道德、敬业精神，作风端正，诚实守信。坚持德才兼备、以德为先。坚持把品德放在专业技术人员评价的首位，重点考察专业技术人员的职业道德和专业技术水平。', '具有良好的职业道德、敬业精神，作风端正，诚实守信。坚持德才兼备、以德为先。坚持把品德放在专业技术人员评价的首位，重点考察专业技术人员的职业道德和专业技术水平。', '3.遵守单位规章制度和生产操作规程，热爱本职工作，认真履行岗位职责，申报前规定任职年限的年度考核结果均为称职（合格）以上。未建立考核机制的民营企业，由专业技术人员所在单位逐年提供履职情况书面说明。', '遵守单位规章制度和生产操作规程，热爱本职工作，认真履行岗位职责，申报前规定任职年限的年度考核结果均为称职（合格）以上。未建立考核机制的民营企业，由专业技术人员所在单位逐年提供履职情况书面说明。', '（1）受到党纪、政务处分或因犯罪受到刑事处罚的专业技术人员，在影响（处罚）期内不得申报。', '）受到党纪、政务处分或因犯罪受到刑事处罚的专业技术人员，在影响（处罚）期内不得申报。', '（2）申报人员须对所提交的全部材料真实性负责，在申报评审各阶段发现学历、资历、业绩等弄虚作假，或剽窃他人论文、技术成果等失信行为的，实行“一票否决”，取消评审资格，失信人将被记入南充市建设工程系列中（初）级职称申报评审诚信档案，从次年起3年内不得申报。', '）申报人员须对所提交的全部材料真实性负责，在申报评审各阶段发现学历、资历、业绩等弄虚作假，或剽窃他人论文、技术成果等失信行为的，实行', '，取消评审资格，失信人将被记入南充市建设工程系列中（初）级职称申报评审诚信档案，从次年起', '（3）在建设工程质量安全事故或生产经营等活动中造成人员伤亡或重大经济损失，受到相关部门处罚的责任人，在影响（处罚）期内不得申报。', '）在建设工程质量安全事故或生产经营等活动中造成人员伤亡或重大经济损失，受到相关部门处罚的责任人，在影响（处罚）期内不得申报。', '（4）申报前规定任职年限的年度考核每出现1次年度考核结果为基本称职（基本合格）及以下者，延迟1年申报。', '）申报前规定任职年限的年度考核每出现1次年度考核结果为基本称职（基本合格）及以下者，延迟1年申报。', '具备大学专科、中等职业学校毕业学历，在建设工程技术岗位上见习1年期满，经考察合格。', '（5）技工院校全日制预备技师（技师）毕业，在建设工程技术技能岗位见习1年期满，经考察合格；', '（6）技工院校全日制高级工班毕业，取得技术员职称后，从事建设工程技术技能工作满2年；', '（7）技工院校全日制中级工班毕业，取得技术员职称后，从事建设工程技术技能工作满4年；', '（8）获得高级工职业资格或职业技能等级后从事建设工程技术技能工作满2年，可申报评审相应专业助理工程师。', '（3）具有独立完成一般性技术工作的实际能力，能处理本专业范围内一般性技术难题；具备一定的工程技术分析、判断、总结能力，能够撰写技术报告。', '）具有独立完成一般性技术工作的实际能力，能处理本专业范围内一般性技术难题；具备一定的工程技术分析、判断、总结能力，能够撰写技术报告。', '任现职期间，具有1篇以上由本人撰写、与申报专业一致、代表自身专业理论和技术水平的技术报告、课题研究报告、施工或调试报告、规划设计方案、案例分析报告等技术成果。', '篇以上由本人撰写、与申报专业一致、代表自身专业理论和技术水平的技术报告、课题研究报告、施工或调试报告、规划设计方案、案例分析报告等技术成果。', '任现职期间，按照《专业技术人员继续教育规定》（人力资源和社会保障部第25号令）和《关于&lt;专业技术人员继续教育规定&gt;的贯彻实施意见》（川人社发〔2016〕20号）等文件要求，结合专业技术工作实际需要，参加继续教育，继续教育内容包括公需科目和专业科目。', '号）等文件要求，结合专业技术工作实际需要，参加继续教育，继续教育内容包括公需科目和专业科目。', '继续教育内容主要包括公需科目和专业科目学习。专业技术人员参加继续教育的时间，每年累计应不少于90学时（1学', '继续教育内容主要包括公需科目和专业科目学习。专业技术人员参加继续教育的时间，每年累计应不少于', '取得工程系列非建设工程专业职称人员，从事建设工程专业工作一定年限后，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业同级职称。初级职称对应的工作年限为1年。', '取得工程系列非建设工程专业职称人员，从事建设工程专业工作一定年限后，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业同级职称。初级职称对应的工作年限为', '已取得建设工程相关专业职称人员，从事建设工程其他专业工作满3年以上，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业相应层级职称，申报层级不高于已取得', '年以上，胜任本职工作，用人单位考核合格，且符合本申报评审基本条件的，可根据专业能力和相关成果申报评审建设工程现从事专业相应层级职称，申报层级不高于已取得', '建设工程相关专业职称层级。取得建设工程多个职称专业的人员，申报高一级职称时，业绩成果和专业工作年限不合并计算。', '合格后，提交仪陇县建筑工程初级职称评审委员会评审，评审通过并经公示无异议后报仪陇县人力资源和社会保障局审批行文发证。', '1.填写《专业技术职务任职资格评审表》一式一份；表中所有内容都要详细填写，特别是评审表封面“拟评审任职资格”一栏需注明评审专业规范名称，如：', '填写《专业技术职务任职资格评审表》一式一份；表中所有内容都要详细填写，特别是评审表封面', '），任现职前、后主要专业技术工作业绩登记及著作，论文及重要技术报告登记栏，要能准确体现申报者专业技术业绩和水平。', '2.个人政治思想与业务工作总结一式一份，突出技术工作总结，以一至二项能反映个人技术水平的工程为例（不少于', '个人政治思想与业务工作总结一式一份，突出技术工作总结，以一至二项能反映个人技术水平的工程为例（不少于', '3.单位综合推荐材料一式一份（包括个人基本情况、业务工作能力、工作实绩、任期内各年度考核情况、推荐意见等，不少于', '单位综合推荐材料一式一份（包括个人基本情况、业务工作能力、工作实绩、任期内各年度考核情况、推荐意见等，不少于', '4.学历证书、专业考试合格证书（全国注册执业资格证书）、与单位签订劳务合同及单位购买社保证明（需购买归属地社保满6个月且在申报单位工作半年以上）等复印件一式一份', '学历证书、专业考试合格证书（全国注册执业资格证书）、与单位签订劳务合同及单位购买社保证明（需购买归属地社保满', '2.学历、专业技术职称任职资格及各类专业（理论）考试合格证或成绩单原件由各申报单位审查后在复印件上签名并加盖公章。', '学历、专业技术职称任职资格及各类专业（理论）考试合格证或成绩单原件由各申报单位审查后在复印件上签名并加盖公章。', '3.以上材料均双面打印（复印），不装订，待初审通过后再进行装订，统一规定用白色封面进行装订。', '以上材料均双面打印（复印），不装订，待初审通过后再进行装订，统一规定用白色封面进行装订。', '1.申报评审材料必须装入标准牛皮纸档案袋，一人一袋，封面贴上《建设系列初级职称材料目录表》（附件1）', '申报评审材料必须装入标准牛皮纸档案袋，一人一袋，封面贴上《建设系列初级职称材料目录表》（附件', '2.诚信承诺书、单位综合推荐意见、个人政治思想与业务工作总结、年度考核或任职届满考核材料复印件、聘任文件（或聘任证）复印件、论文、论著、科研成果证书复印件、公示材料、《专业技术人员继续教育登记证书》复印件等材料按要求装订成册。', '诚信承诺书、单位综合推荐意见、个人政治思想与业务工作总结、年度考核或任职届满考核材料复印件、聘任文件（或聘任证）复印件、论文、论著、科研成果证书复印件、公示材料、《专业技术人员继续教育登记证书》复印件等材料按要求装订成册。', '评审费标准按照《关于重新公布全省人力资源社会保障部门行政事业性收费的通知》（川发改价格〔2017〕472号）文件规定执行。', '评审费标准按照《关于重新公布全省人力资源社会保障部门行政事业性收费的通知》（川发改价格〔']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>237</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>高坪区经合外事局深入贯彻落实区委七届五次全体会议精神</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/zwgk/zdhy/bmhy/202308/t20230828_1863687.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['为进一步学习宣传贯彻区委七届五次全会精神，近日，区经合外事局组织召开专题会议，集中学习省委十二届三次全会精神、市委七届八次全会精神和区委七届五次全会精神，并对下一步工作进行了研究部署。', '会议要求：一要统一思想，凝聚共识。将习近平总书记来川视察重要指示精神和省委十二届三次全会精神、市委七届八次全会精神、区委七届五次全会精神相结合，全面贯彻落实中央、省委和市委决策部署，坚定不移落实“', '战略部署，切实扛起加快建设“大城门户 森林城市 活力高坪”的时代使命，把学习宣传贯彻区委七届五次全会作为当前和今后一个时期的重要政治任务，自觉把思想和行动统一到会议精神上来，把招商引资工作放到现代化建设大局中去思考、去把握、去推进，推动学习贯彻入脑入心。二要联系实际，学深悟透。围绕“', '现代制造业体系，完善“产业有分析、项目有研判、考察有报告”的工作机制，开展高质量精准捕商招商，推动制造业产业集群集聚，抓大不放小，招大更要引强，推动区委《决定》落地生根、开花结果。三要履职尽责，担当作为。积极推动基金招商、“新飞地＋总部”招商、目标产业索图招商、现有企业以商招商等新模式实现与优质企业的精准对接，紧盯重点在谈项目，以最短时间促成项目成功签约，力争全年招引项目', '个以上，为培育省域经济副中心、建设成渝地区北部现代化中心城市奋力贡献经合外事力量。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>237</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>坚持九个以的实践要求把党的自我革命进行到底</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/jkzx/xwdt/dqjs/t_1950873.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['习近平总书记在二十届中央纪委三次全会上的重要讲话，从统筹中华民族伟大复兴战略全局和世界百年未有之大变局的高度，深刻阐述党的自我革命的重要思想，科学回答我们党为什么要自我革命、为什么能自我革命、怎样推进自我革命等重大问题，明确提出“九个以”的实践要求。“九个以”的实践要求凝结了新时代全面从严治党丰富实践经验和重要理论成果，深化了对党的自我革命的规律性认识，具有重大的理论意义和现实意义。', '勇于自我革命是中国共产党区别于其他政党的显著标志，是我们党最鲜明的政治品格。我们党穿越百余年风雨，始终“为人民的利益坚持好的，为人民的利益改正错的”，多次在危难之际重新奋起、失误之后拨乱反正，成为打不倒、压不垮的马克思主义政党。作为百年大党，党之所以能够始终站在时代前列、引领时代潮流，根本在于勇于自我革命、永葆先进性和纯洁性。我们党从建党之初就严明纪律，坚决清除腐化变质分子；延安时期我们党把党的建设作为“伟大的工程”加以实施，坚持不懈整顿党的作风；新中国成立之际及时提出“两个务必”，要求全党时刻保持“赶考”的警醒；改革开放和社会主义现代化建设新时期深刻认识到执政党的党风问题关系到党的生死存亡，提出治国必先治党、治党务必从严，开创和推进党的建设新的伟大工程，使党在革命性锻造中坚定走在时代前列，始终是中国人民和中华民族的主心骨。', '党的十八大以来，以习近平同志为核心的党中央以前所未有的巨大勇气和强大定力全面从严治党，打出了一套自我革命的“组合拳”，形成了一整套党自我净化、自我完善、自我革新、自我提高的制度规范体系。针对严重影响党的形象和威信、严重损害党群干群关系的突出问题，我们党坚持严的基调，强化监督执纪问责，抓住“关键少数”，以上率下，着眼“绝大多数”，层层传导压力和落实责任，党在革命性锻造中更加坚强有力。特别是我们党以猛药去疴、重典治乱的决心，以刮骨疗毒、壮士断腕的勇气，坚定不移“打虎”“拍蝇”“猎狐”，清除了党、国家、军队内部存在的严重隐患。反腐败斗争取得压倒性胜利并全面巩固。经过不懈努力，党找到了自我革命这一跳出治乱兴衰历史周期率的第二个答案，我们党在浴火中获得重生。', '在新时代全面从严治党的伟大实践中，习近平总书记深刻总结党的历史经验特别是党的十八大以来的新鲜经验，创造性提出一系列具有原创性、标志性的新理念新思想新战略，形成习近平总书记关于党的自我革命的重要思想，指引百年大党开辟了自我革命的新境界。', '习近平总书记关于党的自我革命的重要思想的提出和形成有一个历史过程。考察这一重要思想的发展脉络，其丰富内涵主要体现在以下几个重大时间节点：2015年5月5日，习近平总书记在中央全面深化改革领导小组第十二次会议上的讲话中，首次提出“自我革命”的概念。2016年7月1日，习近平总书记在庆祝中国共产党成立95周年大会上的讲话中，将“自我革命”引入党的建设。2017年10月18日，习近平总书记在党的十九大报告中，对自我革命和全面从严治党的关系进行了阐发，提出了“勇于自我革命，从严管党治党，是我们党最鲜明的品格”的重要论断。2017年10月25日，在十九届中共中央政治局常委同中外记者见面时，习近平总书记在讲话中将自我革命与社会革命并列起来，提出了“中国共产党能够带领人民进行伟大的社会革命，也能够进行伟大的自我革命”的重要论断。2018年1月5日，习近平总书记在新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神研讨班开班式的讲话中，阐述了党的自我革命与党领导的社会革命的辩证关系。2019年1月11日，习近平总书记在十九届中央纪委三次全会上的讲话中，明确提出了党的自我革命的目标任务，论述了党实现自我净化、自我完善、自我革新、自我提高的内涵要求。2019年6月24日，习近平总书记在十九届中央政治局第十五次集体学习时的讲话中，总结了党推进自我革命的重要经验。2021年11月11日，党的十九届六中全会通过的党的第三个历史决议，将“坚持自我革命”作为党的十个方面的历史经验之一写入决议，习近平总书记在全会上的讲话中，将自我革命作为党跳出治乱兴衰历史周期率的第二个答案。2022年1月18日，习近平总书记在十九届中央纪委六次全会上的讲话中，深刻总结新时代党的自我革命的成功实践，阐述了“九个坚持”的规律性认识和“六个必须”的原则性要求。2022年6月17日，习近平总书记在十九届中央政治局第四十次集体学习时的讲话中，进一步归纳了反腐败斗争的“六条经验”。2022年10月16日，习近平总书记在党的二十大报告中，提出了“必须时刻保持解决大党独有难题的清醒和坚定”的重要要求，强调“全面从严治党永远在路上，党的自我革命永远在路上”。2023年1月9日，习近平总书记在二十届中央纪委二次全会上的讲话中，对解决大党独有难题用“六个如何始终”进行了深刻阐述。2024年1月8日，二十届中央纪委三次全会明确提出了习近平总书记关于党的自我革命的重要思想的重大概念，强调了深入推进党的自我革命“九个以”的实践要求。可以说，“九个以”是在继承发展我们党一百多年来自我革命探索成果和宝贵经验的基础上，对新时代全面从严治党实践经验的理论总结，是对马克思主义建党学说的创新发展，彰显了党的自我革命的理论得到进一步丰富发展，把我们党对这一问题的认识提升到了新高度。', '实践发展永无止境，理论创新也永无止境。习近平总书记关于党的自我革命的重要思想是一个不断展开的、开放式的思想体系，这一重要思想必将随着实践的发展、历史的变革而进一步得到丰富发展，我们党对自我革命的规律性认识将不断得到深化，对党的自我革命的思路举措将会更加严密，每条战线、每个环节将会更具体、更深入。', '“九个以”的实践要求涵盖了我们党推进自我革命的根本目的、主攻方向、有效路径、强大动力等内在要素，贯通党为什么要自我革命、为什么能自我革命、怎样推进自我革命等重大问题，深刻揭示了习近平总书记关于党的自我革命的重要思想的精神实质和精髓要义，具有极其丰富的思想内涵。', '以坚持党中央集中统一领导为根本保证。这一条要求，是最大的、最重要的、最根本的、最核心的，是坚守自我革命的最高政治原则和根本政治方向，在“九个以”中起着打头和管总的作用。习近平总书记指出：“中国共产党是最高政治领导力量，坚持党中央集中统一领导是最高政治原则。”党的十八大以来，以习近平同志为核心的党中央总揽全局、协调各方，开创了中国特色社会主义新时代，推动中华民族伟大复兴进入了不可逆转的历史进程。实践证明，只有坚持党中央集中统一领导，才能确保全党在政治立场、政治方向、政治原则、政治道路上同党中央保持高度一致，推动全党团结成“一块坚硬的钢铁”。新时代新征程，我们推进党的自我革命，必须在党中央领导下，统一谋划、统一部署、统一推进，始终沿着正确方向前进。', '以引领伟大社会革命为根本目的。这一条要求，蕴含着党的自我革命与社会革命的辩证关系，体现了党推进自我革命的目标任务。习近平总书记指出：“中国共产党要担负起领导人民进行伟大社会革命的历史责任，必须勇于进行自我革命，坚持立党为公、执政为民，深入推进全面从严治党。”回望百余年的党史，我们党之所以能饱经磨难而生生不息、风华正茂，关键在于始终坚持党要管党、全面从严治党不放松，在推动社会革命的同时进行彻底的自我革命，以党的自我革命来推动党领导人民进行的伟大社会革命。实践证明，只有通过解决好影响党的先进性纯洁性的各种问题，才能更好地引领和推动社会革命。新时代新征程，我们要紧紧围绕中国式现代化这个最大的政治来谋划和推进党的自我革命，使党的自我革命更好服从服务于党的中心任务。', '以习近平新时代中国特色社会主义思想为根本遵循。这一条要求，回答了新时代党的自我革命的指导思想问题，昭示着党的自我革命始终坚持以科学理论作为思想武器和行动指南。习近平总书记指出：“坚持学思用贯通、知信行统一，把新时代中国特色社会主义思想转化为坚定理想、锤炼党性和指导实践、推动工作的强大力量。”在新时代伟大变革中，习近平新时代中国特色社会主义思想展现出了强大的真理力量和实践伟力，指引中国共产党之治开创新局面、推动中国之治形成新气象，成为引领党的伟大自我革命、推动伟大社会革命的行动指南。实践证明，只有坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，淬炼自我革命锐利思想武器，才能使全党始终保持统一的思想、坚定的意志、协调的行动、强大的战斗力。新时代新征程，我们要坚持不懈用党的创新理论武装全党，着力增强推进自我革命的政治自觉、思想自觉、行动自觉，不断提高党的自我革命的坚定性、科学性、有效性。', '以跳出历史周期率为战略目标。这一条要求，宣示了党的自我革命的价值取向，体现了新时代中国共产党人高度的历史自觉。习近平总书记指出：“马克思主义政党夺取政权不容易，巩固政权更不容易；只要马克思主义执政党不出问题，社会主义国家就出不了大问题，我们就能够跳出‘其兴也勃焉，其亡也忽焉’的历史周期率。”党的十八大以来，我们党站在跳出历史周期率的高度坚定推进自我革命，持续正风肃纪反腐，有效净化了党内政治生态，党的政治领导力、思想引领力、群众组织力、社会号召力显著增强。实践证明，只有严肃认真地对待自身建设，深入推进自我革命，才能始终保持党的先进性和纯洁性，不断巩固党的长期执政地位。新时代新征程，我们要及时清除一切侵蚀党的健康肌体的病毒，使党始终成为中国特色社会主义事业的坚强领导核心。', '以解决大党独有难题为主攻方向。这一条要求，指明了党自我革命的战略重点，充分彰显了我们党适应时代、把握时代、引领时代的高度自觉和历史主动。习近平总书记指出：“我们党作为世界上最大的马克思主义执政党，要始终赢得人民拥护、巩固长期执政地位，必须时刻保持解决大党独有难题的清醒和坚定。”党的十八大以来，以习近平同志为核心的党中央站在事关党长期执政、国家长治久安、人民幸福安康的高度，发扬彻底的自我革命精神，推动全面从严治党向纵深发展，促进了全党思想上的统一、政治上的团结、行动上的一致。实践证明，只有时刻保持解决大党独有难题的清醒和坚定，以彻底的自我革命精神检视自身，才能确保党永远不变质、不变色、不变味。新时代新征程，我们要聚焦解决“六个如何始终”，标本兼治、综合施策、协同发力，把党建设好建设强，确保中国式现代化劈波斩浪、行稳致远。', '以健全全面从严治党体系为有效途径。这一条要求，阐述了自我革命的重点任务和举措办法，彰显了我们党坚持制度治党、依规治党的科学态度。习近平总书记指出：“构建全面从严治党体系是一项具有全局性、开创性的工作。”党的十八大以来，以习近平同志为核心的党中央不断深化对自我革命规律的认识，健全一系列制度规范，初步构建起全面从严治党体系，为党和国家事业发展提供了政治、思想、组织保证。实践证明，只有把全的要求、严的基调、治的理念落实到全面从严治党体系的构建之中，不断提升制度化、规范化、科学化水平，才能确保全面从严治党各项工作更好体现时代性、把握规律性、富于创造性。新时代新征程，我们要完善党的自我革命制度规范体系，形成坚持真理、修正错误，发现问题、纠正偏差的机制，推动党的制度优势更好转化为治国理政的实际效能。', '以锻造坚强组织、建设过硬队伍为重要着力点。这一条要求，强调了党的自我革命的组织基础和力量保障，彰显了我们党打造严密组织体系、统筹推进各层级各领域党组织建设的政治自觉。习近平总书记指出，“全面建设社会主义现代化国家，必须有一支政治过硬、适应新时代要求、具备领导现代化建设能力的干部队伍”“严密的组织体系是党的优势所在、力量所在”。党的十八大以来，习近平总书记提出坚持和加强党的全面领导、新时代党的建设总要求、新时代党的组织路线等一系列原创性的新理念新思想新战略，引领推动党的建设和组织工作发生根本性、全局性、长远性重大变化。实践证明，只有各级党组织形成上下贯通、执行有力的组织体系，党的组织优势才能充分彰显，党执政大厦的根基才能更加稳固。新时代新征程，我们要以组织体系建设为重点，着力培养忠诚干净担当的高素质干部，为坚持和加强党的全面领导、坚持和发展中国特色社会主义提供坚强组织保证。', '以正风肃纪反腐为重要抓手。这一条要求，明确了党的自我革命的突破口和切入点，宣示了我们党坚定不移推进党风廉政建设和反腐败斗争的坚强决心。习近平总书记指出，“党风问题关系执政党的生死存亡”“腐败是危害党的生命力和战斗力的最大毒瘤，反腐败是最彻底的自我革命”。党的十八大以来，以习近平同志为核心的党中央通过前所未有的反腐倡廉斗争，赢得了保持同人民群众的血肉联系、人民衷心拥护的历史主动，赢得了全党高度团结统一、走在时代前列、带领人民实现中华民族伟大复兴的历史主动。实践证明，只有持之以恒正风肃纪反腐，我们党才能永葆先进性和纯洁性、永葆生机和活力。新时代新征程，我们要坚持党性党风党纪一起抓，将反腐败斗争进行到底，推动党的自我革命环环相扣、层层递进，不断在革故鼎新、守正创新中实现自身跨越。', '以自我监督和人民监督相结合为强大动力。这一条要求，深刻阐述了加强监督在管党治党、治国理政中的重要地位，展现了我们党努力实现自律和他律良性互动、相得益彰的政治勇气和智慧。习近平总书记指出：“必须依靠强化党的自我监督和人民监督推进党的自我革命，构建以党内监督为主导、各类监督贯通协调的机制，强化对权力运行的制约和监督，把监督制度优势更好转化为治理效能。”党的十八大以来，以习近平同志为核心的党中央坚持以党内监督为主导，推动各类监督贯通协调，不断拓宽监督渠道，中国特色社会主义监督制度优势不断转化为治理效能，党的自我革命不断深入推进。实践证明，只有以自我监督和人民监督相结合，才能以党内监督带动和促进其他监督，建立更加科学、更加严密、更加有效的中国特色监督体系，确保权力在阳光下运行。新时代新征程，我们要切实把党内监督同国家机关监督、民主监督、司法监督、群众监督、舆论监督贯通起来，形成常态长效的监督合力，推动党的自我革命不断开创新局面。', '“九个以”的实践要求，具有广阔时代背景、深厚理论支撑和坚实实践基础，蕴含着坚定历史自信、宏阔历史视野、深远战略考量，既有战略安排又有工作部署，既有认识论又有方法论，为我们在新时代新征程上继续坚持自我革命、坚持不懈把全面从严治党向纵深推进指明了前进方向、明确了基本要求。', '具有鲜明的政治性。习近平总书记指出，“全面从严治党首先要从政治上看”“政治问题要从政治上来解决”。新时代党的自我革命的伟大实践表明，党的政治建设是党的根本性建设，决定党的建设方向和效果，只有把党的政治建设摆在党的建设的首位持之以恒地推进，才能确保我们党永葆马克思主义政党政治本色。“九个以”的实践要求，以坚持党的领导、加强党的建设为根本保证，以党的政治建设为统领，自觉厚植党的政治优势、组织优势、密切联系群众优势，形成我们党持续自我革命的内在动因，凸显了以党的政治品格来决定党的自我革命品格的鲜明特征。', '具有鲜明的科学性。习近平总书记指出：“放眼全世界，没有任何一个政党能像中国共产党如此严肃认真地对待自身建设，如此高度自觉地以科学的态度、体系化的方式推进自我革命，这是我们党的显著优势，也是引领时代的制胜之道。”“九个以”的实践要求是一个内涵丰富、论述深刻、逻辑严密、系统完备的科学体系，它坚持整体观念、系统观念，用联系的、全面的、发展的观点看问题，将自我革命作为党全方位、全过程加强自身建设的系统工程予以推进，深刻反映了我们党深入推进管党治党的实践创新、理论创新、制度创新，体现了习近平总书记关于党的自我革命的重要思想的历史逻辑、理论逻辑、实践逻辑，是我们党自我净化、自我完善、自我革新、自我提高的完整体系的理论凝练。', '具有鲜明的人民性。习近平总书记指出：“面对新时代新使命对党的建设提出的新要求新目标，我们要坚持人民群众反对什么、痛恨什么，我们就坚决防范和纠正什么”。党的十八大以来，以习近平同志为核心的党中央以中央八项规定作为切入口和动员令，紧盯群众深恶痛绝、反映强烈的突出问题，深入推进全面从严治党，取得了历史性、开创性成就，产生了全方位、深层次影响，赢得了人民群众对党的信赖和拥护。可以说，以人民为中心是新时代我们党进行自我革命、把党建设得更加坚强有力的根本要求。“九个以”的实践要求所要解决和回答的是，我们党不仅要永葆先进性和纯洁性，更要永远得到人民的拥护和支持的问题。无论是以引领伟大社会革命为根本目的，还是以自我监督和人民监督相结合为强大动力，都是我们党始终保持同人民群众的血肉联系，始终同人民同呼吸、共命运、心连心的生动反映，充分体现了我们党始终坚持人民至上的根本立场。', '具有鲜明的实践性。习近平总书记指出，要“树立并用好‘靶向治疗’思维，把准问题的关节点、要害处，从现实问题寻找破解难题的办法，把全面从严治党的思路举措搞得更加科学、更加严密、更加有效。”党的十八大以来，我们党坚持问题导向，着力解决党内存在的突出问题，以雷霆万钧之力反对腐败，刹住了一些过去被认为不容易刹住的歪风邪气，克服了一些司空见惯的顽瘴痼疾，全面从严治党取得巨大成效。“九个以”的实践要求是在新时代党的伟大自我革命实践中得到充分检验的理论成果，“九个以”的实践要求立足于新时代推进党的建设新的伟大工程的现实需要， 反映了我们党推进自我革命实践水平的有力提升，展现出巨大的现实解释力和实践引领力。', '全面从严治党永远在路上，党的自我革命永远在路上，我们要深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，深学细悟习近平总书记关于党的自我革命的重要思想，以锐意进取的精神状态、脚踏实地的真实行动，将全面从严治党这场伟大自我革命进行到底。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>237</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>阳光市监市局到遂宁市高金食品联合检验室考察学习</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/scjdglj/xwdt/bmxx/202403/t20240322_1953728.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['3月21日，市局食品安全总监唐劲松带领食品生产科、西充县局、四川丰粮实业有限公司相关人员考察学习遂宁市高金食品联合检验室运行情况。遂宁市市场监督管理局副局长刘迎春陪同。', '考察人员深入四川高金食品股份有限公司展示区、联合检验室中样品处理室、理化检验室、微生物检验室等区域，实地查看检验室环境布局、设备设施，重点了解检验室组建过程、运行方式、检测能力、管理模式等情况。', '在随后召开的座谈会上，双方就如何提高企业参与积极性、加强问题产品处置能力、推动检验室更好运行、服务食品生产企业高质量发展等方面进行了深入交流、探讨。', '唐劲松高度评价联合检验室取得的成效，建立联合检验室是以“小切口”改革，实现小微企业服务效能“大提升”的重要举措，有利于督促企业落实主体责任、控制检验过程、节约运行成本，强化了行业质量安全问题防范能力，有力推动了小微食品企业产品质量水平整体提升。', '据了解，联合检验室是由四川高金食品股份有限公司管理运行，由遂宁市市场监管局提供业务指导，目前已有15家食品企业与联合检验室达成合作，联合检验室的建设运行，大幅度减轻了企业负担，比企业独立建立检验室或者委托检验费用下降70%。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>237</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>汶川党政代表团来顺庆考察对接帮扶工作</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/xwdt/qxyw/202310/t20231025_1887038.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['10月23-24日，汶川县委副书记、县长赫洛杰率该县党政代表团来顺庆考察城市建设、产业发展，会商对接帮扶工作。顺庆区委副书记、区政府区长唐粼波陪同。', '日，汶川县委副书记、县长赫洛杰率该县党政代表团来顺庆考察城市建设、产业发展，会商对接帮扶工作。顺庆区委副书记、区政府区长唐粼波陪同。', '24日上午，赫洛杰一行先后前往渔溪镇菜粮现代农业园区、南充市“1+5”党校、四川中景航天科技有限公司等地实地参观考察，详细听取情况介绍。大家纷纷表示，顺庆在城市建设、产业发展、基础设施等方面高起点规划、高标准建设，经济社会发展成效明显，经验值得汶川学习借鉴。', '党校、四川中景航天科技有限公司等地实地参观考察，详细听取情况介绍。大家纷纷表示，顺庆在城市建设、产业发展、基础设施等方面高起点规划、高标准建设，经济社会发展成效明显，经验值得汶川学习借鉴。', '参观考察期间，赫洛杰代表汶川县委、县政府和全县干部群众对顺庆长期以来给予汶川的关心、支持和帮助表示衷心感谢，对全体援藏队员和组团式帮扶人才表示崇高敬意。他说，近年来，顺庆区按照“上级要求、汶川所需、顺庆所能”，在城市建设、产业发展、教育医疗、乡村振兴、民生改善等方面为汶川带来了顺庆人民的真情实意、真金白银和先进经验，为汶川高质量发展注入新动力、增添新动能，这份恩情汶川人民铭记于心。通过参观考察，真切感受到了顺庆欣欣向荣、蓬勃发展的良好态势，希望汶顺两地在下一步帮扶工作中，充分发挥两地互补优势，进一步强化产业互动，加强人才协作，强化模式创新，共同打造区域结对帮扶新样板，谱写汶顺协同发展新篇章。', '汶川县委副书记、县长赫洛杰（左二）在顺庆区委副书记、区政府区长唐粼波（右一）陪同下，参观考察四川中景航天科技有限公司', '唐粼波代表顺庆区委、区政府和顺庆人民对汶川党政代表团前来考察对接帮扶工作表示热烈欢迎。他说，自2016年开展对口帮扶以来，顺汶两地干部心往一处想、劲往一处使，通过走深走实的帮扶工作，两地人民结下深厚情谊。近年来，汶川县立足实际，开拓创新，在城市建设、产业发展、环境保护等方面成效显著，一三产业融合发展成效让人耳目一新，先进经验值得充分借鉴、学习。唐粼波表示，开展结对帮扶工作，既是一项重大政治任务，也是顺庆义不容辞的使命担当。顺庆将以全域对口帮扶汶川为契机，聚焦资源要素优势互补，持续深化与汶川在各领域的交流合作，寻找新的结合点、对接点，形成长期有效的帮扶关系，实现顺汶两地互惠互利，促进两地共同实现高质量发展。', '年开展对口帮扶以来，顺汶两地干部心往一处想、劲往一处使，通过走深走实的帮扶工作，两地人民结下深厚情谊。近年来，汶川县立足实际，开拓创新，在城市建设、产业发展、环境保护等方面成效显著，一三产业融合发展成效让人耳目一新，先进经验值得充分借鉴、学习。唐粼波表示，开展结对帮扶工作，既是一项重大政治任务，也是顺庆义不容辞的使命担当。顺庆将以全域对口帮扶汶川为契机，聚焦资源要素优势互补，持续深化与汶川在各领域的交流合作，寻找新的结合点、对接点，形成长期有效的帮扶关系，实现顺汶两地互惠互利，促进两地共同实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>237</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>县委常委总工会主席苟小军率队赴广东开展投资促进工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/zsyz/tzdt/202403/t20240318_1951487.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['苟小军一行先后考察了车用改性新材料生产、专用刀具及切削工具生产、电子屏幕生产、电机及其零部件等生产加工项目。通过实地考察车间的生产流程以及座谈会上企业方对各自产品的设计研发、生产组织和市场销售等方面详细的介绍，小分队一行学习到丰富的制造业知识。苟小军常委也对仪陇县委、县政府全力以赴促进制造业发展的举措进行了全面地介绍，获得企业方的一致认可，并热情邀请企业方到仪陇实地考察、交流。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>237</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>市政协聚焦五区建设战略定位资政建言</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwgk/ldhd/202403/t20240327_1955148.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['“可针对此建议内容组织相关方面进行研究，论证在我市发展氢能产业可行性。”3月5日，市委书记张冬云对市政协《关于发展氢能产业助力工业强市的建议》作出肯定性批示，要求市委、市政府有关方面立即组织开展研究论证。', '如何肩负起省委赋予的组团培育省域经济副中心的重大使命？当下南充，探寻高质量发展新路径已成为最紧迫的任务之一。', '作为推动改革发展事业的重要力量，市政协积极发挥智力密集、人才荟萃优势，围绕“五区建设”发展定位，深入调研思考、踊跃建言资政，不断发出“好声音”、捧出金点子，为加快建成省域经济副中心、奋力谱写现代化南充建设新篇章奉献政协智慧与力量。', '在2月下旬举行的市政协七届三次会议上，市委书记张冬云提出“加快推进成渝地区先进制造业集聚区建设、加快推进西部绿色发展样板区建设、加快推进巴蜀特色文化旅游发展示范区建设、加快推进四川东向北向开放引领区建设、加快推进全国有影响力的高品质生活宜居区建设”的发展定位，立即成为广大政协委员和全市人民讨论热点。', '“‘五区建设’，既符合省委、省政府对南充的规划与定位，又契合南充发展实际，让我们看到了南充美好前景。”所有政协委员都十分振奋，在讨论中纷纷建言献策。', '“加快推进成渝地区先进制造业集聚区建设，位居‘五区建设’之首，释放出市委‘产业为本、工业当家’强烈信号。”市政协委员、嘉陵区政协主席白青云建议，“发挥工信部定点帮扶资源优势、深化东西部协作、提升现有产业园区能级，全力做好承接产业转移的‘大文章’，为推动产业兴市、制造强市蓄势赋能。”', '“打造化工新材料产业基地推动产业兴市”“大力推进南充制造业强龙头、建链条、成集群”“尽快设立油气化工产业基金，助力重大项目招引建设”“培育优质上市‘种子企业’助推经济高质量发展”……市政协七届三次会议期间，围绕助推先进制造业发展，苟长春、王涛、宁骏涛、马锐等委员共向大会提交提案30余件（次）。', '市政协七届三次会议闭幕后，市政协立即召开党组会、主席会等会议，研究部署贯彻方案，并向全市政协各级组织和全体政协委员发出号召，要求立即开展助力“五区建设”大调研，奋力将美好蓝图变成政协行动。', '全体政协各级组织、全市广大政协委员闻令而动，在一轮轮的深入调研中，在一次次的思想碰撞中，助力“五区建设”的政协路径越走越实。', '前不久，市政协主席廖伦志率队前往营山、南部、嘉陵、顺庆、高坪，深入重点企业、重大项目建设现场，开展“深化区域协调发展、更好融入成渝地区双城经济圈建设”专题调研，助推“五区建设”亦是重要课题。调研结束后，市政协立即对相关材料进行归纳梳理、总结提炼，待研讨完善后送市委作决策参考。', '顺庆区政协要求区政协委员围绕助推“五区建设”展开调研，紧扣“同心共建开新局，协商民主谱新篇”工作主题，更好发挥专门协商机构作用，为顺庆在“五区建设”中干在前、走在前贡献政协智慧和力量。', '营山县政协立足营山大力发展机械汽配产业实际，组织委员先后赴浙江省玉环市、重庆营山商会和重庆理工大学进行考察学习，与相关方面达成在营山经开区建立机械汽摩配产业实训基地和专家工作站合作意向。此外，先后与重庆市璧山区政协、重庆市合川区政协缔结友好关系，搭建更广交流平台，助力产业互补、合作共赢。', '阆中市政协努力在“五区建设”中找准坐标，深入开展“七聚焦七助力”行动。特别是围绕产业发展，对外积极发动异地阆中商会和在外乡贤力量，围绕项目投资推介、本土商品现场展销、产业培育等方面持续用力，不断贡献政协力量；对内大力开展“金融系统精准服务中小微企业”界别协商，助力搭建政府及职能部门与实体企业之间的沟通协商平台。', '在全市各地，政协各级组织纷纷行动起来，围绕助力“五区建设”深入调研、认真破题，在全市政协系统迅速掀起助力“五区建设”的高潮热潮。', '3月26日，市政协七届三十三次主席会议审议通过“同心共建现代化南充”专项行动2024年工作推进计划，强调聚焦助推“五区建设”，着力提升服务中心大局贡献率。', '市委确定的“加快建成省域经济副中心、奋力谱写现代化南充建设新篇章”奋斗目标，已成为当下全市政协系统的履职引领，广大政协委员坚定与市委想在一处、谋在一处、干在一处。', '“氢能产业是战略性新兴产业重点发展方向，必将在未来大展拳脚。”市政协科技界委员、蓬安县绿洲新能源有限公司董事长张强认为，南充应以氢能产业为重要抓手，加快形成更多新质生产力。紧扣工业制氢、膜电极及氢燃料等关键内容，大力开展招商引资，在南充率先打造氢能应用新场景，推动“氢进万家”，既助力先进制造业发展，也促进了“绿色发展”。', '加快形成更多新质生产力。紧扣工业制氢、膜电极及氢燃料等关键内容，大力开展招商引资，在南充率先打造氢能应用新场景，推动“氢进万家”，既助力先进制造业发展，也促进了“绿色发展”。', '市政协委员、四川零零昊科技有限公司副总经理罗凯燕认为，“加快推进西部绿色发展样板区建设”是南充对省委赋予“建设嘉陵江绿色生态经济带示范市”“打造西部地区绿色发展样板”重任的坚定担当。应通过制定优惠政策，鼓励工业企业加大绿色技术研发和应用的投入；同时，严格落实环保法规，加强对工业企业污染排放的监管。', '南充是三国文化和春节文化的发祥地，还是中国优秀旅游城市、首批国家文化和旅游消费试点城市。市政协委员李勇建议，要统筹做好各景区景点的资源整合，打造竞争力更强的个性化文旅产品。大力推进涉旅数据互通共享，加大南充“智慧文旅”的建设推广应用力度，不断夯实“巴蜀特色文化旅游发展示范区建设”基础。', '“加快推进四川东向北向开放引领区建设，应全力争取和加快建设成渝地区北部高铁枢纽；完善现代流通体系，巩固国家布局现代流通战略支点城市的优势地位……”', '“加快推进全国有影响力的高品质生活宜居区建设，必须进一步强化措施，上下齐心，力争早日创成国家卫生城市、全国文明城市……”', '全市政协各级组织和广大政协委员齐心协力、凝心聚力，“金点子”越来越多，“好声音”越来越响，不断汇聚“五区建设”的强大合力。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>237</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>习近平在湖南考察时强调坚持改革创新求真务实奋力谱写中国式现代化湖南篇章</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2024-03-28</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/kjj/ztzl/fzzf/202403/t20240328_1955895.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章-南充市科学技术局', '新华社长沙3月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。', '3月18日至21日，习近平在湖南省委书记沈晓明和省长毛伟明陪同下，先后来到长沙、常德等地，深入学校、企业、历史文化街区、乡村等进行调研。', '18日下午，习近平来到湖南第一师范学院（城南书院校区）考察。该校前身是创办于宋代的城南书院，近代以来培养了一批老一辈无产阶级革命家和名师大家。习近平参观青年毛泽东主题展览，了解学院发展沿革和用好红色资源等情况。在学院大厅，习近平同师生代表亲切交流。他说，国家要强大，必须办好教育。一师是开展爱国主义教育、传承红色基因的好地方，要把这一红色资源保护运用好。学校要立德树人，教师要当好大先生，不仅要注重提高学生知识文化素养，更要上好思政课，教育引导学生明德知耻，树牢社会主义核心价值观，立报国强国大志向，努力成为堪当强国建设、民族复兴大任的栋梁之材。', '随后，习近平来到巴斯夫杉杉电池材料有限公司考察。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资企业。习近平听取当地加快发展新质生产力、扩大高水平对外开放等情况介绍，察看企业产品展示，了解材料性能测试情况和电池生产流程。他强调，科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。', '19日，习近平到常德市考察调研。位于沅江江畔的常德河街历史悠久，曾毁于1943年的常德战役。近年来，常德市复原老河街风貌，将此地打造成为历史文化街区。当天上午，习近平来到常德河街，察看各种特色小吃、特产、特色工艺品，同店主和游客亲切交流，并欣赏非物质文化遗产技艺展示，详细了解常德老城街道修复利用、城市规划、水环境综合治理等情况。习近平指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '湖南是全国13个粮食主产省之一，水稻播种面积、总产量均居全国第一。当天下午，习近平来到常德市鼎城区谢家铺镇港中坪村，走进当地粮食生产万亩综合示范片区，察看秧苗培育和春耕备耕进展，听取高质量推进农业现代化情况介绍，并同种粮大户、农技人员、基层干部一笔一笔算投入产出账。习近平强调，我国有14亿多人口，粮食安全必须靠我们自己保证，中国人的饭碗应该主要装中国粮。要建设好高标准农田，推行适度规模经营，加强政策支持和示范引领，加大良种、良机、良法推广力度，在精耕细作上下功夫，进一步把粮食单产和品质提上去，让种粮也能够致富，进而吸引更多农户参与发展现代化大农业，真正把中国特色农业现代化之路走稳走扎实。', '习近平随后来到种粮大户戴宏家中，察看农机具和春耕物资准备，并前往村党群服务中心了解当地为基层减负、提升基层治理效能等情况。他指出，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒抓好这项工作。他勉励基层干部在产业发展和乡村治理上群策群力，不断干出让农民群众认可的实绩。', '离开时，村民们纷纷围拢过来欢送总书记。习近平满怀深情地对大家说，党中央高度重视“三农”工作，一定会采取切实有力的政策举措，回应老百姓的关切和需求，把乡村振兴的美好蓝图变为现实。掌声在村庄久久回荡。', '21日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定。', '习近平指出，科技创新是发展新质生产力的核心要素。要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。', '习近平强调，进一步全面深化改革要突出问题导向，着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题，有效防范化解重大风险，不断为经济社会发展增动力、添活力。湖南要加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。', '习近平指出，推进乡村全面振兴是新时代新征程“三农”工作的总抓手。湖南要扛起维护国家粮食安全的重任，抓住种子和耕地两个要害，加快种业、农机关键核心技术攻关。坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。深入推进城乡融合发展，壮大县域经济，畅通城乡要素双向流动，科学统筹乡村基础设施和公共服务布局。切实加强乡村精神文明建设，大力推动移风易俗。健全党组织领导的自治、法治、德治相结合的基层治理体系，坚持和发展新时代“枫桥经验”。落实防止返贫监测帮扶机制，坚决守住不发生规模性返贫的底线。', '习近平强调，湖南要更好担负起新的文化使命，在建设中华民族现代文明中展现新作为。保护好、运用好红色资源，加强革命传统和爱国主义教育，引导广大干部群众发扬优良传统、赓续红色血脉，践行社会主义核心价值观，培育时代新风新貌。探索文化和科技融合的有效机制，加快发展新型文化业态，形成更多新的文化产业增长点。推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '习近平指出，推动高质量发展、推进中国式现代化，必须加强和改进党的建设。要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负。组织开展好党纪学习教育，引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。', '3月20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>237</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>市住房和城乡建设局年第次党委扩大会议召开</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2024-04-01</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zjj/xwdt/bmxx/202404/t20240401_1957327.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['3月29日下午，市住房和城乡建设局党委书记、局长王春艳主持召开局2024年第6次党委（扩大）会议，传达学习习近平总书记在湖南考察调研和新时代推动中部地区崛起座谈会上的重要讲话精神及十四届全国人大二次会议、全国政协十四届二次会议精神，传达学习市委书记张冬云对住建工作的重要要求，研究贯彻意见。', '会议强调，要充分认识习近平总书记重要讲话和两会精神的重大意义，切实把精神领会好、宣传好、贯彻好。要准确把握“两会”安排部署的年度重点工作，不折不扣抓落实，特别是要抢抓国家超长期特别国债、中省预算内投资等政策机遇，抓紧谋划一批大项目、好项目，全力争取上级支持。要深刻学习领会新质生产力、构建现代化产业体系等重要部署的深刻内涵，认真思考谋划，展现住建人的新作为、新形象。', '会议强调，要把冬云书记和市委对住建领域关心关怀转化为推进工作强大动力，紧扣南充“五区建设”发展定位，找准着力点、抓住关键点，为全国有影响力的高品质生活宜居区建设聚力赋能。要全面梳理近期国、省、市重点会议精神和对住建工作的安排部署，细化分解目标，形成任务清单，确保落地见效。要迅速提振精神、调整心态、锚定目标，奋力实现“开门红”，推动全市住建工作再上新台阶。', '会议要求，一是坚决讲政治。要筑牢政治信仰、严守政治规矩、永葆政治本色，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。二是坚决讲落实。要把准要求、雷厉风行、务求实效抓落实，做到件件有着落，事事有回音。三是坚决讲担当。要主动作为促发展、全力攻坚破难题、履职尽责保安全，拿出狠劲、韧劲，积极作为、勇争一流。四是坚决讲团结。要认真执行民主集中制，班子成员以身作则、相互支持，科室之间相互配合，营造同心干事的良好氛围。五要坚决守底线。要认真履行党风廉政建设责任制，严守党纪党规和中央八项规定及廉洁从政有关规定，算好政治、经济、名誉、家庭、亲情、自由、健康七本账，自觉树立系统干部的良好形象。', '会议还传达学习了省委组织部《关于进一步加强和改进公务员职务与职级并行制度实施工作的意见》和全市机构改革工作推进会议、《南充市机构改革方案》精神，审定了其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>237</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>蒲鹏程主持召开区委常委会会议</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/xwdt/qxyw/t_1910184.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['12月8日上午，顺庆区委常委会召开会议，传达学习习近平总书记在上海和江苏盐城考察时的重要讲话精神、习近平总书记在深入推进长三角一体化发展座谈会上的重要讲话精神，传达学习全省学习运用“千万工程”经验建设宜居宜业和美乡村工作电视电话会议、省委农村工作领导小组2023年全体会议、市委农村工作领导小组2023年第二次全体会议精神和中共四川省委农村工作领导小组《关于印发〈四川省学习运用“千万工程”经验加快建设宜居宜业和美乡村工作推进方案〉的通知》精神，研究我区贯彻意见。区委书记蒲鹏程主持会议并讲话。', '会议指出，全区上下要深入学习习近平总书记在上海和江苏盐城考察时的重要讲话和重要指示精神，深刻把握习近平总书记关于以科技创新为引领、以改革开放为动力、以城市治理现代化为保障的重要要求和习近平总书记关于传承弘扬红色文化，大力提升文化软实力，以及关于主题教育的重要要求，结合顺庆实际，抓好融会贯通，坚决贯彻落实。', '会议要求，要深刻领会精神。习近平总书记在深入推进长三角一体化发展座谈会上的重要讲话，紧扣“一体化”和“高质量”两个关键词，为长三角区域发展把脉定向。我们要结合自身实际，深刻领会、统筹思考，因地制宜走出一条融入成渝地区双城经济圈一体化、高质量发展之路。要创新驱动发展。全区上下要紧盯高质量这个重中之重，始终把创新作为推动发展的第一动力，以创新为顺庆发展加劲赋能。要城乡一体发展。围绕一体化这个关键，将顺庆置于成渝地区双城经济圈建设大局中，把城乡统筹思考、系统谋划、一体化推进，全力建设成渝地区双城经济圈高质量发展示范区。要守牢发展底线。要加强生态环境治理，统筹抓好粮食安全、基层治理、安全生产、防灾减灾、信访安全稳定、风险防范化解等工作，全力保障人民群众生命财产安全。', '会议强调，要提高站位抓落实。全区上下要按照党中央和省委、市委部署要求，进一步提高政治站位，把学习践行“千万工程”经验作为捍卫“两个确立”、做到“两个维护”的具体行动，持续增强学习践行“千万工程”经验的政治自觉、思想自觉、行动自觉。要科学谋划抓落实，将“千万工程”经验与省委关于城乡融合发展系列安排部署统筹结合起来，立足顺庆实际，集中有限的资金、资源，突出重点，聚焦关键，紧紧围绕“三村两园”，精准谋划实施“千万工程”示范带项目。要聚焦重点抓落实，持续用力抓好基础设施建设，因地制宜发展支柱产业、特色产业，坚持党建引领抓好乡村治理，全力建设“宜居”乡村、“宜业”乡村、“和美”乡村。要整合资源抓落实，坚持以城乡“十个一体化”为抓手，推动城乡资源要素、产业发展、人才队伍等交流融合，全力推动城乡融合发展。要强化领导抓落实。务必严格落实区、乡（镇）、村“三级书记”抓乡村振兴的要求，把“千万工程”作为乡村振兴的重要抓手，全力以赴抓执行、抓推进、抓落实。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>237</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>大通镇组织学习区第七届纪律检查委员会第四次全体会议公报</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.jialing.gov.cn/zthd/fzzf/fzgzdt/202403/t20240329_1956658.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['3月18日，大通镇开展全体镇干部专题学习会，组织学习中国共产党南充市嘉陵区第七届纪律检查委员会第四次全体会议公报。', '全会要求第一，深刻把握政治监督的根本要求，在胸怀“国之大者”中忠实践行“两个维护”。加强对学习贯彻习近平新时代中国特色社会主义思想情况的监督，聚焦学习贯彻习近平总书记重要指示批示精神，以及贯彻落实成渝地区双城经济圈建设、开展全党集中性纪律教育、推进城乡融合发展等重大决策部署，坚决严惩做选择、搞变通、打折扣的人和事。健全政治生态监测评价预警机制，督促落实定期研判政治生态及整治突出问题机制，加强对“一把手”和领导班子成员等“关键少数”的监督，督促严肃党内政治生活，从严纠治“圈子文化”“码头文化”，严把选人用人廉洁关，严明政治纪律和政治规矩。聚焦区委“113”工作思路及各项重大决策部署全程监督、跟进监督、精准监督，保驾护航全区经济社会高质量发展。', '第二，深刻把握“三不”一体推进的方针方略，在深化标本兼治中巩固反腐败斗争压倒性胜利。把严惩政商勾连腐败作为攻坚战重中之重，从严查处影响全区政治生态、破坏现代化建设大局、损害群众权益的腐败，深化整治基建工程、国企、医药、政法、金融、能源和招投标等领域腐败问题。严肃查处拉干部下水、危害一方政治生态的行贿人，坚决铲除“围猎”这个政治生态的重要“污染源”。坚持从政治上把握问题线索处置工作，精准研提处置方式，实时预警提醒，推动问题线索及时处置、精准研判、高效办理。持续用好“五子联动法”，深化以案促改促治促建。系统推进学习敬廉、文化养廉、监督护廉、警示守廉、家风助廉、宣传促廉，推动形成廉荣贪耻、向上向善的社会氛围。', '第三，深刻把握作风建设的内在规律，在纠树并举中推动化风成俗实现风清气正。从严纠治“快递送礼”以及借培训考察、党建活动名义公款旅游等隐形变异问题，从严整治收送红包礼品礼金、以各种名义套取资金、违规吃喝问题，重拳整治影响中省市区决策部署落实落地、影响高质量发展、加重基层负担、权力观扭曲和政绩观错位、安全生产责任空转等现象。持续推进乡村振兴领域不正之风和腐败问题专项整治，“小切口”整治教育、就业、医疗等民生领域的痛点难点。健全面优化营商环境联席会议机制，推动各级各部门定期研判本地区本系统本行业营商环境，深挖彻查影响营商环境背后潜藏的风腐问题。', '第四，深刻把握深化党的纪律建设的特殊地位，在严格执行和坚决维护中夯实全面从严治党的治本之策。以学习贯彻新修订的纪律处分条例为契机，全面深化纪律教育。认真落实“三个区分开来”，准确规范运用“四种形态”，严防问责不严和问责过度。压实纪律建设责任，从严纠正履责虚化弱化等问题。', '第五，深刻把握夯实基层基础的重要意义，在鲜明为民导向中深化基层党风廉政建设实效。坚持和优化“1+1+N+N”协作机制、机关室（部）和派驻机构联系帮带乡镇（街道）党风廉政建设等机制，推动基层监督更加有力有效。把推动解决群众急难愁盼问题作为基层党风廉政建设主攻方向，持续深化“走基层、访民生、解难题、转作风”活动，优化村（居）务“七公开一曝光”方式，做实“1+N”“三接访”“坝坝问政”等工作，形成群众信任监督、监督回报信任的良性循环。', '第六，深刻把握政治巡察的方向定位，在促进发展中充分发挥利剑作用。组织开展七届区委第五轮、第六轮常规巡察，扎实开展村级巡察，持续推动巡察监督向基层延伸。健全完善巡察机构与其他有关部门（单位）的贯通协调机制，提高巡察发现问题质量。建立覆盖巡察整改全周期的责任体系和制度流程，推进以巡促改促治促建。', '第七，深刻把握改革创新的能动作用，在守正创新中将制度优势转化为治理效能。优化纪委监委机关内设机构设置，按部署调整派驻机构设置和派驻监督范围。完善以党内监督为主导、各类监督贯通协调的机制，更加突出审计监督在反腐败工作中的作用。持续提升依规依纪依法、安全文明办案水平。', '第八，深刻把握锻造铁军的使命担当，在发扬彻底自我革命精神中锤炼“纪律部队”。巩固拓展主题教育和教育整顿成果，把学习贯彻习近平新时代中国特色社会主义思想特别是党的自我革命的重要思想，作为教育培训主题主线、各类培训班次授课主课。持续锤炼斗争本领，从严纠治不良作风，坚决查处以案谋私、徇私包庇、跑风漏气等问题']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>237</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市政协党组扩大会议召开</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/xwdt/ncyw/202404/t20240412_1961202.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['4月11日上午，七届市政协党组第五十二次（扩大）会议召开。市政协主席、党组书记廖伦志主持会议并讲话。', '会议深入学习了习近平总书记近期重要讲话、指示精神，传达学习了《中共中央办公厅关于在全党开展党纪学习教育的通知》、市级领导干部和县处级主要负责同志推动高质量发展专题读书班精神，研究贯彻落实意见。', '会议要求，要切实提高政治站位，深入学习习近平总书记关于巡视工作、在湖南考察和在新时代推动中部地区崛起座谈会上的重要讲话精神，深刻领悟习近平总书记在2024年春季学期中央党校中青年干部培训班开班之际作出的重要指示精神，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。要坚决抓好贯彻落实，切实把习近平总书记重要讲话、指示精神转化为做好各项工作的强大动力和实际成效。要全面推进从严治党，持续加强自身建设，不断提升“两支队伍”的政治素质、理论水平、业务能力，为政协履职提质增效提供强有力保障。', '会议强调，要深入学习领会习近平总书记关于高质量发展重要论述，准确把握市委关于推动高质量发展作出的系列重大部署，把牢把准奋斗目标、发展定位、发展路径，切实抓好学习宣传，凝聚共识合力、服务中心大局，以实际行动助力“五区建设”、助推“五市战略”，不断提升政协服务中心大局的精准度和贡献率，为加快建成省域经济副中心、奋力谱写现代化南充建设新篇章贡献政协更大力量。', '市政协副主席、党组副书记杨雄，市政协副主席、党组成员王瑜，市政协秘书长、党组成员陈勇出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>237</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>浙江临海帮扶情</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.jialing.gov.cn/zthd/fzzf/fzgzdt/202309/t20230908_1869401.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['南充市嘉陵区龙蟠高粱基地，展开了一次意义非凡的参观考察交流活动。此次活动旨在促进乡村振兴战略的深入实施，加强浙川两地间的对口帮扶合作，助推当地农业经济发展，共同打造美丽宜居的', '临海市领导一行深入种植基地实地考察，了解了龙蟠高粱基地的种植、加工和销售等环节。他们亲自与基地负责人和农民代表交流，详细了解了基地所取得的创新经验和成功模式。', '省临海市领导对嘉陵区龙蟠高粱基地的发展模式给予了高度评价，并表示将对其成功经验进行借鉴、推广，为本地乡村振兴提供有力借鉴与支持。', '代表介绍了在乡村振兴方面的探索和实践经验。他们分享了在政策扶持、农业科技创新、农民组织建设等方面的种种成果，为', '南充市嘉陵区之间的友好合作关系，也为其他地区乡村振兴探索提供了范例。各方共同探讨和交流，激发了新的思路和创新点，对于乡村振兴路径的探索具有重要意义。', '最后，我们期待通过这次交流活动，进一步加强两地间的合作交流，共同推动乡村振兴的步伐。心手相携，共同努力，为实现农业农村现代化、建设美丽乡村献计献策，创造更加繁荣富美的未来！']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>237</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>国务院国资委党委传达学习习近平总书记重要讲话和重要指示批示精神督促指导央企高效统筹发展和安全更好发挥国有经济战略支撑作用</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/gzw/ztzl/gwysgzdt_7653/202311/t20231128_1903134.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['国务院国资委党委传达学习习近平总书记重要讲话和重要指示批示精神 督促指导央企高效统筹发展和安全 更好发挥国有经济战略支撑作用-南充市国有资产监督管理委员会', '国务院国资委党委传达学习习近平总书记重要讲话和重要指示批示精神 督促指导央企高效统筹发展和安全 更好发挥国有经济战略支撑作用', '11月23日，国务院国资委党委召开扩大会议，认真传达学习习近平总书记在北京和河北考察灾后恢复重建工作时、对山西吕梁市永聚煤矿办公楼火灾事故作出的重要指示批示精神，学习贯彻习近平总书记在2023年世界互联网大会乌镇峰会开幕式、第六届中国国际进口博览会上的重要讲话和重要指示精神，坚持以人民为中心的发展理念，坚持系统观念，研究完善政策措施，以更大力度、更实举措、更高标准指导推动中央企业高效统筹发展和安全，在北京、河北等地灾后恢复重建工作中勇挑重担，不断提升防灾减灾救灾能力，全力保障人民群众生命财产安全，更好发挥国有经济战略支撑作用。国务院国资委党委书记、主任张玉卓主持会议并讲话。国务院国资委党委委员出席会议并作了发言。', '日，国务院国资委党委召开扩大会议，认真传达学习习近平总书记在北京和河北考察灾后恢复重建工作时、对山西吕梁市永聚煤矿办公楼火灾事故作出的重要指示批示精神，学习贯彻习近平总书记在', '年世界互联网大会乌镇峰会开幕式、第六届中国国际进口博览会上的重要讲话和重要指示精神，坚持以人民为中心的发展理念，坚持系统观念，研究完善政策措施，以更大力度、更实举措、更高标准指导推动中央企业高效统筹发展和安全，在北京、河北等地灾后恢复重建工作中勇挑重担，不断提升防灾减灾救灾能力，全力保障人民群众生命财产安全，更好发挥国有经济战略支撑作用。国务院国资委党委书记、主任张玉卓主持会议并讲话。国务院国资委党委委员出席会议并作了发言。', '会议认为，习近平总书记深切牵挂人民群众的安危冷暖，在北方入冬之际，专程到受灾较重的相关地区考察，作出系列重要指示，为做好灾后恢复重建工作、提升防灾减灾救灾能力提供了根本遵循。国资央企要深刻体悟习近平总书记深厚的为民情怀和强烈的责任担当，切实把思想和行动统一到党中央决策部署上来，以高度的责任感积极配合有关部门和地方党委政府，扎实做好灾后恢复重建规划和建设工作，高标准高质量统筹推进供电供暖、交通通信等公共设施恢复重建，着力解决人民群众的急难愁盼问题。要大力提升应急抢险能力，总结抗灾救灾经验，完善响应机制，建强组织体系，强化实战实训和装备配备，加快打造以中国安能为主的中央企业专业化战略应急救援队伍建设。要针对今年冬季气候变化特点，督促中央企业做好低温雨雪冰冻等灾害应对工作准备，加强与有关部门沟通联系，密切关注灾害形势，妥善应对处置，更好服务保障广大人民群众安居乐业、温暖过冬。', '会议认为，要认真贯彻落实习近平总书记对山西吕梁市永聚煤矿办公楼火灾事故作出的重要指示精神，深刻吸取教训，举一反三、警钟长鸣，以时时放心不下的责任感，扎实做好企业安全生产各项工作。要强化底线思维和极限思维，层层压实责任，狠抓工作落实，以坚决有力措施做好企业岁末年初安全生产工作。要深入开展风险隐患排查整治，紧盯大型机械、特种设备、大型游艺设备、大跨度结构建筑等重要设备场所以及动火、吊装、检修等重点作业环节，提高风险隐患排查整改质量，切实把各类事故隐患消灭在萌芽状态。要针对冬季火灾事故易发多发情况，突出消防安全防范，切实加强人员密集场所和消防重点单位安全管理，把工矿企业人员密集场所纳入重点监管，加强防火巡查检查力度，严查用火用电用气安全，坚决遏制重特大事故发生。', '会议强调，国资央企要坚决贯彻落实习近平总书记重要指示批示精神，加强组织领导，科学精准谋划，有力有序推进，扎实做好网信领域科技创新、产业发展、网络安全、网络治理、网络文明等工作，压紧压实网络意识形态工作责任，持续深化国际交流合作，推动国资央企网信事业高质量发展。要指导中央企业进一步用好进博会平台，与外方合作伙伴建立更友好、稳定的合作关系，深度参与国际分工合作，在强化技术交流、经贸流通上下更大功夫，提升全球资源配置能力，为构建开放型经济增添动力活力。', '国务院国资委秘书长、副秘书长，驻委纪检监察组，各厅局、直属事业单位负责同志列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>237</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>文成镇开展村社区两委班子届中分析研判工作</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.langzhong.gov.cn/xwdt/gzdt/202306/t20230609_1831602.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十大精神和新时代党的建设总要求，加强村（社区）“两委”班子建设，为班子成员精准“画像”、为班子运行精准“把脉”、为班子建设精准“开方”，连日来，文成镇组成9个考察小组对全镇19个村（社区）“两委”班子进行届中精准分析研判，集中“体检”村（社区）“两委”班子换届以来的运行及班子成员履职尽责等情况。', '在分析调研中，紧盯关键环节，找准存在问题。由村（社区）党组织书记代表“两委”班子围绕岗位职责、任期目标、年度计划、组织建设、工作业绩及执行党风廉政建设等方面进行述职，如实向考察组报告履职尽责情况及工作中的瓶颈问题。同时，还组织党员和群众代表现场填写测评问卷，全方位了解村（社区）“两委”班子满意度。', '在谈心谈话中，围绕村（社区）“两委”班子及成员的政治表现、能力素质、履职尽责、工作实绩、廉洁自律等方面与“两委”成员、党员代表、村民代表进行面对面逐一“问诊”，全面掌握村（社区）“两委”班子和干部总体情况。', '下一步，文成镇将以开展村（社区）“两委”班子运行情况分析研判为契机，在建立问题台账、分类精准施策、抓牢工作重心、强化工作力度、确保干出实效等方面下功夫，不断加强村级班子建设，提升基层组织的凝聚力和战斗力，为深入推进乡村振兴战略提供坚强组织保证。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>237</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>西充县三举措强力推进无差别综窗改革</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.xichong.gov.cn/xwdt/ztzl/jsfzzf/xzspzdgg/202306/t20230616_1834570.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['由“一把手”亲自带队，领导班子成员和多名业务骨干参与，先后前往德阳市旌阳区、成都市天府新区、武侯区、高新区等综窗改革示范区，实地考察学习“无差别受理”综窗改革先进经验，借鉴其先行先试经典做法，为制定出台适合地方实际的综窗改革“西充模式”奠定坚实基础。', '按股室分领域梳理“无差别受理”服务事项，按照“最小颗粒度”要求细化办事情形，形成“颗粒化”的“一窗受理”高频事项清单。明确“无差别”综窗受理事项的受理条件、受理内容、申报材料及标准、办理流程等，同步推进流程再造。', '为切实实现审批服务由“专科型”向“全科型”转变，快速打造一支“一岗多能、一窗通办” 的复合型人员队伍，特别制定了全员参与的业务培训计划，由各股室业务骨干定期开展前台“无差别”综合受理业务培训。培训内容注重“实战”，以受理条件唯一性为标准，向参训人员提供受理清单和样本，充分利用信息化手段，做到申请材料表单化、审查材料可视化、办事指引清晰化。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>237</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>把精彩生动的党课课堂搬到田间地头市发展改革委主任徐坚带队赴仪陇县永乐镇调研指导乡村振兴工作并开展专题宣讲</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/fgw/ztzl/djgz/202312/t20231204_1907011.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['把精彩生动的党课课堂搬到田间地头 ——市发展改革委主任徐坚带队赴仪陇县永乐镇调研指导乡村振兴工作并开展专题宣讲-南充市发展和改革委员会', '把精彩生动的党课课堂搬到田间地头 ——市发展改革委主任徐坚带队赴仪陇县永乐镇调研指导乡村振兴工作并开展专题宣讲', '为扎实推动脱贫攻坚成果同乡村振兴有效衔接，推进学习贯彻习近平新时代中国特色社会主义思想主题教育向基层延伸，', '日，市发展改革委党组书记、主任徐坚带队赴新一轮帮扶的仪陇县永乐镇赵家湾村及选调生任职点红庙子农村社区开展实地调研，宣讲习近平总书记', '的重要批示精神，与镇村干部、驻村工作组交流座谈，把精彩生动的党课课堂搬到田间地头。市发展改革委领导班子成员，机关各党支部书记、驻村工作队成员参加调研。仪陇县委常委、常务副县长严清权、县发改局局长邹茂钊参与调研。', '庙子农村社区一组汉巴南铁路玉龙山隧道段现场，详细了解项目建设进展情况。红庙子农村社区书记饶家和现场汇报了汉巴南铁路玉龙山隧道段建设进展情况。徐坚对前期铁路工程建设取得的成绩给予了充分肯定，并就项目推进中存在的问题，现场召集相关人员研究解决。徐坚要求，仪陇县要进一步加大工作推进力度，强化工作责任，确保汉巴南铁路仪陇段建设顺利推进。施工单位要在毫不放松抓好安全生产情况下，精心组织、倒排工期、全力加快项目建设进度。对因铁路建设造成部分公路路段、产业便道损毁问题，镇党委、政府要会同相关部门主动争取资金予以及时修复，市铁建办要积极协调、全力支持。', '在位于仪陇县永乐镇赵家湾村二组的仪陇县德之源种养殖家庭农场李子产业园基地，徐坚一行实地考察了该村产业发展情况，并宣讲粮食节约和反食品浪费重要精神，明确粮食节约和反食品浪费是贯彻落实党中央关于全面加强资源节约工作有关部署的重要抓手，是一项系统的需要长期坚持的工作。', '徐坚指出，习近平总书记一直对四川工作高度重视，对四川人民亲切关怀。党的十八大以来，总书记', '天时间，是党的十八大后总书记在川时间最长、出席活动最多的一次。总书记及党中央对四川各项工作给予了充分肯定。我们要始终牢记嘱托、感恩奋进，坚定信心、再创佳绩，深刻领会把握习近平总书记对四川的深切关怀和对四川工作的勉励肯定，把总书记的关怀肯定转化为加快南充经济社会发展，加快建设成渝地区北部现代化中心城市的强大动力。', '，是习近平总书记在福建工作期间大力倡导并身体力行形成的工作方法和工作制度，呈现了习近平新时代中国特色社会主义思想在福建孕育和实践的光辉历程和思想方法，彰显了人民至上、以人民为中心的价值追求，体现了真抓实干、求真务实的责任担当，对于转变干部作风，密切联系群众，破解工作难题、推动高质量发展，加强党的建设、做好各方面工作具有重要意义。近日，习近平总书记在反映福建宁德坚持', '徐坚强调，在全市上下深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的大背景下，市发改委党组班子全体在家成员、委主题教育办公室各组组长、委机关各支部书记及驻村工作队、到村任职选调生专程到我委联系帮扶的仪陇县永乐镇调研乡村振兴工作，既是按市委主题教育要求，开展习近平总书记来川视察系列指示精神及习近平总书记关于', '的具体行动。我们讲党课的形式要多种多样、务求实效。通过这种形式，把党和政府对基层的关怀温暖传递到广大老百姓的心中，把中央、省市各项强农惠农政策兑现落实到基层中去，给老百姓实实在在解决实际困难和问题，让广大群众真正得到实惠，就是检验主题教育成效的最好方式。', '在详细了解赵家湾村村情村貌、产业发展、驻村帮扶等工作开展情况后，徐坚强调，习近平总书记来川视察时提出了', '。镇村干部一定要抢抓国家实施新一轮乡村振兴的重大机遇，在市发改委及县级相关部门的帮扶下，围绕', '一要强化项目支持，推进乡村产业振兴。这是乡村振兴的重心和关键，一定要坚持精准发力，立足特色资源，关注市场需求，结合实际，因地制宜，大力发展具有当地特色的主导产业、优势产业，不断培育、发展、壮大村集体经济。要将推动乡村产业振兴和促进农民增收结合起来，让农民有活干、有钱赚，关键在于要完善利益联结机制，带动农民一起干、一起发展。要通过就业带动、保底分红、股份合作等多种形式，让农民合理分享全产业链增值收益。市县发改部门要发挥优势，加强对产业便道、农田水利基础设施等项目支持。', '二要强化创业回引，推进乡村人才振兴。乡村振兴离不开人才支撑，要努力创造条件，有序引导大学毕业生到乡、能人回乡、农民工返乡。通过搭建工作平台，吸引人才到农村创业扎根，让更多人才在乡村汇聚、在基层扎根，更好赋能乡村振兴。', '三要强化文化建设，推进乡村文化振兴。乡村振兴离不开文化的繁荣兴盛。乡村振兴既要塑形，也要铸魂，要不断丰富人民群众的精神世界，更好培育文明乡风、良好家风、淳朴民风。要善于挖掘乡村文化资源，宣传好、弘扬好文化遗产，努力焕发乡村文明新气象。', '四要强化环境保护，推进乡村生态振兴。要发挥乡村既有的生态优势，积极推进乡村绿色发展，科学合理编制乡村建设规划。坚持以治理垃圾、污水、厕所和村容村貌为重点，加强庭院环境整治，美化公共空间，创造干净整洁、文明健康的人居环境，全面提升乡村人居环境质量。', '五要强化党建引领，推进乡村组织振兴。推动乡村组织振兴，既是全面推进乡村振兴的重要组成部分，也是乡村振兴的组织体系保障。人民群众的积极性、主动性能否调动起来，能否真正得到实惠，关键在党支部作用的发挥，关键在村', '“两委”特别是村支部书记的引领、示范和带动。要坚持党建引领，充分发挥基层党支部战斗堡垒作用和党员干部的先锋模范作用，努力把支部建设好，巩固好脱贫攻坚成果，加强边缘户等监测，坚决守住防止规模性返贫底线。', '农业振兴。要做产粮兴粮的践行者，要不断学习，掌握绿色高效粮油种植技术，不撂荒土地，不搞', '“非粮化”，实现满栽满种，落实良种良法良机良技，努力提升粮油单产，多产粮、产好粮，成为种粮能手。要做爱粮兴粮的倡导者。粮食事关国运民生，粮食安全是国家安全的重要基础。要自觉担负起兴粮节粮的社会责任，大力弘扬践行爱惜粮食、节约粮食、反食品浪费的健康消费理念，形成乡村关注粮食安全、保护粮食安全的良好氛围。要做爱粮节粮的推动者。要以节约粮食为荣，将勤俭节约的理念融入到家风家教家训中，言传身教杜绝“舌尖上的浪费”，传承中华民族勤俭节约、爱粮节粮的优秀传统美德，推动爱粮节粮成为社会文明新风尚。', '徐坚强调，市发改委驻村工作队要认真贯彻落实习近平总书记关于乡村振兴工作的系列重要讲话和指示批示精神，深入贯彻落实省委、市委关于乡村振兴工作的安排部署，不断增强帮扶工作的责任感和使命感，用心用情、真帮实扶，切实提升帮扶村群众获得感和满意度，用实际行动展示发改干部职工的良好形象，努力书写驻村帮扶新答卷。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>237</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>县民政局机关党支部召开月主题党日活动会议</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/qxyw/bmdt/202312/t20231201_1906161.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['会议传达学习了习近平总书记同中华全国总工会新一届领导班子成员的集体谈话、在中共中央政治局第九次集体学习会议、中央金融工作会议、中央全面深化改革委员会第三次会议、2023年世界互联网大会乌镇峰会开幕式上的重要讲话精神和习近平总书记在北京河北考察灾后恢复重建工作时、同美国总统拜登举行中美元首会晤时、出席亚太经合组织第三十次领导人非正式会议时的重要讲话精神，学习了习近平总书记重要文章《推进生态文明建设需要处理好几个重大关系》《习近平新时代中国特色社会主义思想专题摘编》（节选三）、《习近平著作选读》以及《关于认真学习贯彻习近平总书记重要批示精神把学习推广“四下基层”作为第二批主题教育重要抓手的工作提示》《关于认真学习贯彻习近平总书记重要讲话精神扎实推进第二批主题教育的工作提示（六）》《南部县学习贯彻习近平新时代中国特色社会主义思想主题教育宣传工作方案》，', '会上，2名党员代表分享了主题教育以来的学习心得和体会。局党组书记、局长传达了习近平总书记近期关于开展主题教育的重要', '局机关党支部书记作主题党课报告——《深学细悟习近平新时代中国特色社会主义思想推动南部民政事业高质量发展》。报告提出，要将学习习近平总书记关于民政工作的重要论述，同深入学习贯彻党的二十大精神和习近平总书记最新重要讲话精神、学习贯彻习近平新时代中国特色社会主义思想主题教育结合起来，自觉做习近平新时代中国特色社会主义思想的坚定信仰者和忠实实践者，确保民政事业和民政工作沿着正确方向前进。一要从习近平新时代中国特色社会主义思想中汲取奋进力量，坚定以人民为中心的发展思想；二要从习近平新时代中国特色社会主义思想中感悟党的理论发展，坚定马克思主义中国化的道路；三要从习近平新时代中国特色社会主义思想中深化民政工作实践，开创民政事业发展新局面；四要从习近平新时代中国特色社会主义思想学习贯彻中，坚定不移推进全面从严治党。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>237</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>年西充县高素质农民培训班学员到鸣龙镇学习考察</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.xichong.gov.cn/xwdt/qxyw/202312/t20231205_1907902.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['12月2日，2023年西充县高素质农民（乡村振兴+集体经济）培训班一行38人到鸣龙镇凉快垭村开展乡村振兴和集体经济学习考察。', '一行人先后到凉快垭村柑橘、青花椒产业园，玉米大豆复合种植示范带，粮油生产基地，粮食烘干房等地方进行了参观。凉快垭村党支部书记邓如云向到访学员们介绍了本村产业发展和群众致富增收情况。最后全员在凉快垭村村委会进行了座谈，就乡村振兴工作发表意见、交流经验。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>237</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>南充市嘉陵区卫生健康局年度法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.jialing.gov.cn/zthd/fzzf/fzzfgzbg/202312/t20231229_1922792.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['年嘉陵区卫生健康局在区委、区政府的正确领导下，紧紧围绕“全面推进依法行政，建设法治政府”的目标，坚持以习近平新时代中国特色社会主义思想为指引，深入学习贯彻习近平总书记系列重要讲话精神和治国理政新理念新思想新战略，以贯彻落实中共中央、国务院《法治政府建设实施纲要（2021—2025年）》及《南充市嘉陵区202', '的目标，坚持以习近平新时代中国特色社会主义思想为指引，深入学习贯彻习近平总书记系列重要讲话精神和治国理政新理念新思想新战略，以贯彻落实中共中央、国务院《法治政府建设实施纲要（', '年度法治政府建设重点工作安排》为主线，以省、市、区依法行政工作会议精神为指导，本着为人民健康和生命安全高度负责的精神，坚持执法、普法协调并进，全力推进法治政府建设。现将法治政府建设工作情况报告如下：', '二是利用医疗机构年度校验之机，审查、整改、规范不合法的行为。三是利用医废在线监管平台对各医疗机构医疗废弃物处置和医疗执业行为进行了进一步的规范。四是依托医疗三方监管平台，进一步规范医疗机构、医务人员和医疗行', '2023年11月6日，共对各类医疗机构监督检查500余户次。通过行业治理、专项整治和日常监督，对违法医疗卫生机构共立案2件，罚没金额共计1.3万元。', '222余所中小学、托幼机构开展春秋季入学卫生监督全覆盖检查。重点检查学校的传染病防控工作、生活饮用水的管理、教学环境、教学设备设施、学生住宿环境等卫生状况，督促指导学校做好各种防控工作，有效控制传染病的发生，针对每个学校存在的问题，提出整改意见，要求学校限期整改到位，消除安全隐患，避免学校发生突发卫生事件。', '同时按照省卫健委、省教育厅联合文件精神，联合区教科体局推动辖区内中、小学、职业中学在智慧卫监平台开展学校卫生自查工作。', '强化对放射性射线装置与放射防护的监督管理，根据《中华人民共和国职业病防治法》和《放射诊疗管理规定》，明确了今年的职业病防治工作及安排，控制职业病的发生，保障受检者和公众的身体健康权益。202', '强化对放射性射线装置与放射防护的监督管理，根据《中华人民共和国职业病防治法》和《放射诊疗管理规定》，明确了今年的职业病防治工作及安排，控制职业病的发生，保障受检者和公众的身体健康权益。', '开展公共场所卫生专项检查工作，严格对全区公共场所经营单位进行监督管理，重点检查了住宿场所和美容美发场所有无办理卫生许可证，从业人员持证情况以及公共用品用具的清洗消毒是否规范，就检查发现的个别从业人员健康证有效期过期等问题，执法人员进行了现场指导，并下达了卫生监督意见书，责令其限期整改。', ',全年共检查区城及乡(镇)农村集中式供水单位38家(含学校),水质采样38份，对检查中发现的问题予以现场指导和整改,确保我区生活饮用水的安全卫生。二是加强二次供水管理，全年共检查辖区高层建筑及小区的二次供水单位16户，下达监督意见书16份。检查中发现大多数小区物业管理在二次供水工作中管理不到位，法律意识淡薄；二是未办理《二次供水卫生许可证》，部分供（管）水人员未办理健康证。针对检查中发现的问题，执法人员予以现场指导并责令其限期整改。', '针对举报人通过电话或本人来访反映的医疗机构、公共场所等存在问题，我局高度重视，迅速指派执法人员到现场核查处理，并及时将核查处理结果反馈当事人。目前已妥善处置各类投诉举报事件', '任组长，分管领导任副组长，局各股室负责人为成员，办公室设在综合执法监督股。按照一把手负总责、分管领导重点抓、职能科室具体抓的原则，一级抓一级，层层抓落实，将行政执法责任制纳入本部门年终工作考核目标之一，为提高卫生计生行政执法质量提供了保障。', '领导自身重视，率先垂范，带头学法用法。一是制定和完善了学法制度和学法计划，坚持开展领导集中学法、定期学法；二是做好学习笔记和写好心得体会，保证学习时间和学习效果的落实；三是领导干部在法制教育培训时亲自进行讲授，以身作则，形成了领导干部法制教育经常化、规范化。', '组织全系统干部职工学习《宪法》和国家基本法律法规，结合本职工作，重点加强《母婴保健法》、《执业医师法》、《传染病防治法》、《食品安全法》、《职业病防治法》、《医疗机构管理条例》、《突发公共卫生事件应急条例》、《公共场所卫生管理条例》、《护士管理条例》等医疗卫生法律法规学习。通过对卫生专业法律法规的学习，使每一位职工都能熟悉、掌握与本职工作相关的法律法规内容。', '责任机制，将普法宣传教育始终贯穿到全行业日常工作中去，有序推进普法工作深入开展，进一步健全完善卫健系统普法工作机制，为建设法治嘉陵营造良好的法治环境。二是认真组织实施', '普法规划，大力推进卫健干部特别是领导干部法制教育制度化、规范化。三是认真做好年度法律知识考试考核工作。充分运用四川省国家工作人员学法考试平台开展学法考法，根据国省市关于加强国家工作人员法治教育、健全国家工作人员学法考法用法制度系列决策部署，把网上学习、掌握法律知识、年度学法考试成绩等情况作为局干部、各医疗卫生单位干部职工年度考核、任用考察、晋升等的重要依据。目前全区医疗单位在编医务人员均全覆盖学习，并进行年度学法考试。', '一是以各重要节日为契机，利用宣传车、挂图、横幅、宣传单、上街咨询等多种形式，开展《职业病防治法》、《传染病防治法》、《献血法》、《爱国卫生管理条例》、《母婴保健法》、《医疗机关管理条例》等法律法规的社会宣传，增进广大群众对卫生法律知识的了解，争取社会各界对卫生工作的理解、支持和参与。二是有针对性地在管理相对人中开展法律宣传教育，全年多次召集医疗机构负责人', '，重点讲解《中华人民共和国执业医师法》、《传染病防治法》等有关内容，为日常工作奠定了法律基础。', '先后组织区疾控中心、区卫生计生监督执法大队人员进企业、学校，大力开展职业病、传染病防治法律知识宣传，印发传染病防治相关的卫生法律、法规宣传材料，免费发放给有关单位和个人，提高广大群众的传染病防治意识。', '为保证重大行政决策、重大执法决定符合法律规定，防止决策的随意性、减少决策失误率，建立了重大决策征求意见制度、重大行政决策合法性审查工作和重大行政执法决定法制审核制度等。', '我局常年聘请法律顾问，建立完善法律顾问制度，进一步强化行政决策程序，切实发挥法律顾问咨询作用，提高科学决策水平。', '一是制定了执法全过程记录工作制度，对执法音视频记录使用、记录、管理等进行了规范。二是完善执法案卷管理制度，我局制定了卫生行政执法文书管理制度，对执法文书进行统一管理。同时对行政处罚案卷按照有关法律法规、档案管理规定进行归档保存。确保每件行政执法案件有记录、有案卷，保障执法全过程文字记录完整，执法文书规范，案卷完整齐全。', '我局制定并下发了《重大执法决定法制审核制度》，明确了重大执法决定的范围、审核程序、审核要求、审核内容等，强化了法制审核制度的落实，规范了执法行为，提高了执法质量，保障了行政执法决定的合法性、合理性，有力地促进了严格规范公正执法。', '通过文字（现场检查笔录、询问笔录、责令改正通知书等）、音像等记录形式，对行政执法启动、调查取证、审核决定、送达执行等实现全过程记录，并实现全面系统归档保存，做到执法全过程留痕和可回溯管理。', '行政执法活动文字记录合法规范、客观全面、及时准确，执法案卷和执法文书要素齐备、填写规范、归档完整。为行政执法人员配备执法记录仪，目前区卫生执法大队已配备4台，对重大案件现场执法活动进行全程音像记录。对于执法全过程记录资料严格依法依规归档保存，建立一户一档，对同一执法对象的文字、音像记录进行集中储存。行政执法综合管理监督系统建立并有效运行。', '行政执法活动文字记录合法规范、客观全面、及时准确，执法案卷和执法文书要素齐备、填写规范、归档完整。为行政执法人员配备执法记录仪，目前区卫生执法大队已配备', '台，对重大案件现场执法活动进行全程音像记录。对于执法全过程记录资料严格依法依规归档保存，建立一户一档，对同一执法对象的文字、音像记录进行集中储存。行政执法综合管理监督系统建立并有效运行。', '建立行政执法稽查制度，我局执法大队监督科对行政执法工作每季度进行一次执法稽查，对处罚案卷、投诉举报案卷等进行定期稽查。对于其中存在的问题及时反馈业务科室，不断提升监督员的执法能力。', '全面实行行政执法人员持证上岗和资格管理制度，行政执法人员均通过执法资格考试。每年开展行政执法人员公共法律知识、专门法律知识、新法律法规等专题培训及网络培训。认真贯彻落实上级有关文件精神，建立卫生协管制度，共有', '名卫生监督协管服务工作人员。协管员管理规范，执法辅助人员适用岗位、身份性质、职责权限、权利义务、聘用条件和程序均已明确。协管员从生活饮用水卫生、学校卫生、打击非法行医、非法采供血等重点工作出发，认真开展卫生监督协管服务工作。', '落实行政复议工作责任制，完善区卫生健康局行政复议与行政应诉管理工作制度，加强行政复议规范化建设，完善行政复议工作程序，积极引导当事人寻求通过和解、调解等方式化解争议，及时研究、解决行政复议中反映出来的行政执法问题，推进行政调解有序开展。建立健全依法维权和化解矛盾纠纷机制，加强对医疗机构投诉管理的监督指导，规范投诉处理程序，及时发现、妥善处理医疗纠纷。行政机关依法参与行政诉讼，落实行政机关负责人出庭应诉制度。202', '落实行政复议工作责任制，完善区卫生健康局行政复议与行政应诉管理工作制度，加强行政复议规范化建设，完善行政复议工作程序，积极引导当事人寻求通过和解、调解等方式化解争议，及时研究、解决行政复议中反映出来的行政执法问题，推进行政调解有序开展。建立健全依法维权和化解矛盾纠纷机制，加强对医疗机构投诉管理的监督指导，规范投诉处理程序，及时发现、妥善处理医疗纠纷。行政机关依法参与行政诉讼，落实行政机关负责人出庭应诉制度。', '一是部分行业管理人员和从业人员法律意识、法律素养参差不齐，法治培训教育力度有待加强。二是卫生健康监督执法部门队伍薄弱和执法后勤保障难以保证，给执法工作带来困难。', '区卫生计生监督执法大队人员具有执法资格人员12人，日常除了区卫生计生监督执法大队执法人员开展执法项目外，局机关执法人员因为要处理其他日常事务，在行政执法上开展工作较少，一定程度上影响了我局行政执法效能。', '人，日常除了区卫生计生监督执法大队执法人员开展执法项目外，局机关执法人员因为要处理其他日常事务，在行政执法上开展工作较少，一定程度上影响了我局行政执法效能。', '一是继续深入学习宣传习近平法治思想，树立牢固的法治意识和法制观念。健全和坚持机关制度，组织和督促干部职工学法用法，切实提高运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定的能力，提升卫健部门执行力和公信力。二是继续做好卫生计生监督执法工作。围绕贯彻落实卫生计生法律法规规章及有关文件，不断加强监督机构和队伍建设，加大监督检查力度，推动我区公共卫生水平的提高。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>237</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>南部县审计局年度法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2024-01-02</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/xwdt/ztzl/fzzf/fzzfjsndbg/202401/t20240102_1923907.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['2023年，我局继续全面推进依法治县工作，全面把握习近平新时代中国特色社会主义思想“四川篇”的丰富内涵，全面贯彻落实党的二十大精神，深入学习习近平全面依法治国新理念新思想新战略和在中央全面依法治国委员会的重要讲话精神，省委十二届三次全会、市委七届八次全会以及县委十四届五次全会精神，全面推进审计工作法治化建设，进一步加大审计监督力度，更好地服务地方经济社会发展，为全力推动现代化南部建设提供有力法治保障。', '的丰富内涵，全面贯彻落实党的二十大精神，深入学习习近平全面依法治国新理念新思想新战略和在中央全面依法治国委员会的重要讲话精神，省委十二届三次全会、市委七届八次全会以及县委十四届五次全会精神，全面推进审计工作法治化建设，进一步加大审计监督力度，更好地服务地方经济社会发展，为全力推动现代化南部建设提供有力法治保障。', '下，按照《中共中央关于全面推进依法治国若干重大问题的决定》、《法治政府建设实施纲要', '》有关要求，健全审计法治建设领导机制，完善落实工作责任机制，依法履行审计监督职责，在全面推动依法审计过程中进一步发挥审计在建设法治政府中的作用。现将我局', '充分发挥审计在党和国家监督体系中的重要作用，加大对政策落实情况、财政资金提质增效、重大项目', '投资、防范化解重大风险、权力运行和责任落实等情况的审计监督，在统筹谋划项目的基础上，高位推动项目实施。截至目前，已完成2022年度县级和县住建局、县交通运输', '深入学习习近平新时代中国特色社会主义思想和习近平总书记来川视察重要指示精神，全面贯彻落实省委十二届三次全会、市委七届八次全会和县委', '精神，扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，持续强化理论武装，坚定政治信念，拥护', '，领导干部带头学法。根据每年理论学习计划和分管工作实际，量身制定领导干部学法清单，将领导干部履行推进法治建设情况列入年终述职内容，坚持党组中心组集体学法制度，党组理论学习中心组全年集体学法', '年度全员学法考法成绩合格率百分百。积极组织全局干部职工收听收看视频讲座，及时掌握审计法规动态。全体审计人员通过学习，扩大审计视野，增强业务水平，进一步掌握审计重点和任务，夯实筑牢审计调查基础，更好的发挥审计监督作用。', '重大行政决策由相关部门向分管党组成员提出建议，报告需提交党组会研究讨论的事项，分管的党组成员应事先向党组书记进行沟通，党组书记认为确需党组会议讨论时，即列为会议议题进行研究。对', '末尾发言，讨论研究问题时各党组成员应从全局出发，充分发表意见，力求达成共识。表决方式为书面、口头或举手三种方式。赞成票超过应到会人数的二分之一，形成决议或决定，如党组讨论的事项不能形成多数一致的意见时应暂缓做出决定，待进一步调查研究交换意见后再议。', '循群众路线，重大决策的调查研究广泛听取干部职工的意见建议，根据情况扩大党组会列席人员范围，进行充分讨论、民主决策。对年度审计工作项目计划安排、项目审计程序、标准，审计组安排、其他政务、党务事项坚持集体决策。机关财务收支预算、资产处置、招待费开支等在局内公开，所有重要事项实行内容、程序、结果公开，让一切权力在阳光下运行。在审计过程中，要求各审计组必须坚持审计业务会议制度，在广泛听取各审计组成员意见的基础上，讨论形成审计报告初稿，对发现的重大问题的处理，召开', '坚持依法治国基本方略，厉行法治，严格依照法律和政策办事，提高运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定的能力。一是在审计实施全过程中，严格按照审计程序实施审计，做到程序合法、事实清楚、证据充分、定性准确、法规引用得当、处理处罚适当。二是坚持审计业务会议制度、审计报告征求意见制度、审计听证制度、审计复议制度、审理制度、审计回访制度等，规范审计行为，完善执法责任，强化各项制度的执行，加强审计全过程的质量控制。同时，加强审计项目检查考核考评，落实审计质量责任追究制度，不断完善审计质量控制体系。三是坚持依法查处，对问题的查处必须以事实为依据，以法律法规为准绳，不可随意举棒子、戴帽子，也不可践踏法律，任意枉为，处理处罚必须恰当，避免自由裁量权滥用。', '根据省、市审计机关新的审计内部管理制度，我局修订了《南部县审计局财务管理制度》，进一步提升我局财务管理水平和资金使用效益，严肃财经纪律，强化廉洁从政；', '推动审计工作更加规范、高效；出台《南部县审计局协审机构参与政府投资建设项目审计管理办法（试行）》，规范了协审机构参与政府投资建设项目的审计行为，进一步提高审计质量、明确审计责任、防范审计风险；协助县委、县政府', '会审要求，参与了县委、县政府重大事项的会审工作，为县委、县政府决策提供了审计力量。按要求推进', '建设，将法律依据、法律要求和法律责任，细化落实到岗位、到节点，把权和责捆绑在一起，将法治要求贯穿南部县审计局工作各领域、各环节，切实做到', '对审计、取证、审查、决定、送达、执行等行政执法活动进行全程记录并归档，实现了行政执法行为的全过程留痕和可回溯管理。审计发现的每一个问题、作出的每一项处理决定均能查找到具体的取证人员、相关审计工作底稿和审计证据、复核审理情况以及审计业务会议审定的情况，确保了审计执法过程可查询、执法业绩可评比、执法责任可追溯。', '审计项目质量检查制度，要求所有常规审计项目均需经过审理，审理内容包括审计程序是否合法、审计发现的问题定性是否准确、取证是否充分、处理处罚意见是否恰当合法等等，确保法制审理工作贯穿审计项目实施全过程。从而实现全程参与、多次把关执法决定的审核，确保每项执法决定都合法适当。', '监督，认真开展领导干部述责述廉、经济责任审计，持续规范权力运行；严格落实中央八项规定精神，扎实开展党员干部', '活动；加强干部教育监管，深入推进汪文成、张晓天违纪违法案以案促改工作，定期开展干部廉政警示教育，通报违纪违法典型案例；加强廉政文化宣传，建立完善党风廉政建设制度，深入推进', '被审计单位进行廉政回访，全面客观了解审计人员执行审计纪律的情况，彻彻底底地将纪检监督贯穿整个审计项目的全过程，时刻提醒审计人员严格执行中央八项规定精神，严防', '进行量化打分，根据打分结果，实行动态管理，优胜劣汰。若发现因弄虚作假、徇私舞弊或滥用职权造成审计结果严重失实以及发生其他重大过失等情况的，将依法追究其相关责任，涉嫌犯罪的移送司法部门处理。通过加强对协审机构的管理，促进其加强质量管控，提高投资审计工作质量。', '近年来，我局认真贯彻落实习近平总书记系列重要讲话精神和对审计工作重要指示，紧紧围绕县委、县政府的决策部署，不断加大矛盾纠纷排查调处工作力度，积极探索矛盾纠纷多元化解新模式，全面巩固矛盾纠纷', '我局选用思想素质高、具有丰富的调解纠纷工作经验的同志承担行政调解、信访接待、矛盾化解等职责，充分发挥其社会阅历深、工作经验足、专业知识丰富的特长，积极参与维护社会稳定工作。', '我局在出具每一份《审计决定书》时，均依法向行政权力相对人告知救济途径和申诉期限，并依法送达。按照《中华人民共和国审计法》的要求，被审单位如对审计机关作出的对财政收支的审计决定不服时，可以自审计决定送达之日起六十日内，提请审计机关的本级人民政府裁决，本级人民政府的裁决为最终决定；被审计单位如对财务收支的审计决定不服时，可在审计决定书送达之日起六十日内提请行政复议，也可在审计决定书送达之日起的三个月内直接向法院提起行政诉讼。', '一是开展经常性的依法行政教育，时刻提醒我局职工必须严格按照权限依法行政，每一个行政行为都有可能被当事人申请行政复议或提起行政诉讼。同时，外出学习调研先进地区在依法行政、信息公开、行政应诉等方面的经验做法，完善具体操作流程，规范行政行为，规避复议、诉讼风险。二是新《行政诉讼法》实施后，我局将行政诉讼应诉工作作为依法行政的一项重要工作。明确由分管', '指定专人具体负责，积极加强与县人民政府法制部门和市审计局法规科的联系沟通，妥善办理涉及我局的行政裁决、行政复议的答复、协调等工作，具体行政行为所涉的股室协助办理，确保我局行政复议诉讼应诉工作的顺利开展。', '股长汇报当月法治建设、依法行政、审计业务质量控制等方面的工作情况以及下月的工作计划，各股股长广泛参与讨论，局领导集体讨论决策，并对相关工作作出具体指示，部署重点工作。根据工作实际，局务会和局党组会议不定期对有关法治建设工作事项进行专题讨论，如建设工程审计质量意见、协审机构入库及第三方监督工作、依法审计工作等。对于向外报送的有关工作总结和台账资料，印发的法治建设各类相关工作制度，主要领导、分管领导均作出重要批示或签字审批。', '，为开展内审工作打下坚实的基础。通过抽调的相关县级部门内审人员参与专项审计，强化业务指导与交流，同时对各乡镇内审人员开展业务指导、业务培训、业务交流，提升乡镇内审人员的业务能力和水平，使其能逐步开展内审工作。', '一年来，我局法治政府建设工作在局党组高度重视和各股室的积极支持下，取得了显著成效，但仍存在一些薄弱环节，主要表现在以下几个方面：', '个别干部对普法工作认识不足，尚未树立良好的法治思维和法治意识，对法治工作的认识也不够深刻，自觉运用法治思维和法治方式深化改革、推动发展、化解矛盾、依法协调和处理各种问题的意识有待进一步加强。', '法治宣传形式单一，普法的针对性、实效性不强，高质量的普法宣传措施和形式较少，数字化普法、智慧普法还需加大探索的步伐和思路创新。', '普法责任需进一步细化、实化，在审计的过程中进行实时普法、精准普法，进一步压实普法责任。', '根据法治政府建设任务的要求，结合审计工作实际，强化组织领导，认真学习文件精神，健全工作制度，落实监督检查，全面推动法治政府建设工作。', '年重点工作目标任务同部署、同实施、同推进、同督促、同考核、同奖惩，坚持项目资金使用、', '、制度建设等重大事项集体研究、集体决策，对法治建设重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要任务亲自督办。', '结合审计工作实际，局党组制定印发了《党风廉政责任制规定》、《审计工作纪律的有关规定》、《审计项目廉政监督实施办法》、《廉政谈话制度》等规定。引导领导干部牢固树立制度意识，带头遵守制度，发挥党内制度指引方向、规范行为，提高党内法规制度的执行力。', '观念、法治素养作为衡量干部德才的重要标准，把遵规守纪、依法办事作为考察干部的重要内容，坚持优先提拔使用法治素养好、依法行政能力强的干部', '发挥党组在推进审计法治机关建设中的领导核心作用，坚持全面从严治党、依规治党，强化监督检查问责，提高党内法规制度的执行力。', '进一步加强审计法规审理，内审监督制度建设，促进发挥依法办事、防范法律风险等方面的作用。督促局领导班子其他成员和干部职工依法办事，不得违规干预司法活动、插手具体案件处理，加强对领导干部干预司法活动、插手具体案件处理的记录、通报和责任追究制度落实情况的督促', '贯彻党的二十大和省委十二届三次全会精神，落实党组中心组集体学法等领导干部学法制度，结合宣传贯彻党的二十大方案，制定实施法治宣传教育规划，开展学习弘扬宪法活动。持续落实“谁执法谁普法”普法责任制，提升普法宣传数字化水平，推进审计法治建设取得新进步。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>237</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>营山县政府考察团来蓬安考察交流</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/payw/202401/t20240103_1923991.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['1月2日上午，营山县委副书记、县长孔北川带领营山县政府考察团来到蓬安工业园区进行考察交流。县委副书记、县长邱跃峰等陪同考察。', '在四川中兆永烨半导体有限公司，考察团察看了生产车间内的生产场景，详细了解了企业产品、技术工艺、市场销售等情况。中兆永烨作为蓬安今年初招引的从事存储芯片封装测试企业，填补了蓬安电子信息高端制造产业的空白，投产不到半年实现产值0.7亿元。', '在南充锐虎电动车有限公司，考察团听取了企业情况介绍，并深入生产车间，详细了解企业产品生产工艺流程、技术研发和经营销售等情况。锐虎电动车同时取得电动三轮车一级资质、国家CCC强制产品认证及世界制造厂识别代号证书，拥有实用新型专利20余个，预计2025年可实现产值5亿元。', '考察中，蓬安工业经济发展的良好态势给考察团留下深刻印象。考察团表示，通过考察深切感受到蓬安工业项目建设定位明确、发展思路清晰，营商环境良好，特别是蓬安认真贯彻市委“产业兴市、制造强市”安排部署，大力实施“工业大跨越”攻坚行动，全力夯实产业支撑，工业经济发展取得明显成效，许多创新做法和宝贵经验值得学习借鉴。希望双方充分发挥各自优势，进一步加强沟通、深化交流，携手推动两地经济和社会事业更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>237</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>平头乡一月会前学法习近平法治思想学习纲要</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/ztzl/fzzf/dwzfhqxf/202401/t20240115_1927899.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['习近平法治思想是马克思主义法治理论中国化时代化的最新成果，是中国特色社会主义法治理论的重大创新发展，是习近平新时代中国特色社会主义思想的重要组成部分，是新时代推进全面依法治国的根本遵循和行动指南。', '（1）二○二○年十一月召开的中央全面依法治国工作会议，是第一次以党中央工作会议形式研究部署全面依法治国工作的重要会议。这次会议最重要的成果，就是顺应党心民心和时代要求，确立了习近平法治思想在全面依法治国工作中的指导地位。这是我国社会主义法治建设进程中具有重大现实意义和深远历史意义的大事。习近平法治思想是马克思主义法治理论中国化的最新成果，是中国特色社会主义法治理论的重大创新发展，是习近平新时代中国特色社会主义思想的重要组成部分，是新时代全面依法治国必须长期坚持的指导思想。', '（2）法律是治国之重器，法治是治国理政的基本方式。当今世界正经历百年未有之大变局，我国正处于实现中华民族伟大复兴关键时期，改革发展稳定任务艰巨繁重，全面对外开放深入推进，人民群众在民主、法治、公平、正义、安全、环境等方面的要求日益增长，全面依法治国在党和国家工作全局中的地位更加突出、作用更加重大。全面依法治国，是关系我们党执政兴国、关系人民幸福安康、关系党和国家长治久安的重大战略问题，是坚持和完善中国特色社会主义制度，推进国家治理体系和治理能力现代化的重要方面，是解决党和国家事业发展面临的一系列重大问题，解放和增强社会活力、促进社会公平正义、维护社会和谐稳定的根本要求。在全面建设社会主义现代化国家新征程上，统筹中华民族伟大复兴战略全局和世界百年未有之大变局，统揽伟大斗争、伟大工程、伟大事业、伟大梦想，必须坚持把全面依法治国摆在全局性、战略性、基础性、保障性位置，更好发挥法治固根本、稳预期、利长远的重要作用。', '（3）我们党历来重视法治建设。早在新民主主义革命时期，我们党就领导制定了井冈山《土地法》、《中华苏维埃共和国宪法大纲》、《陕甘宁边区宪法原则》以及大量法律法令，建立了审判机关、检察机关、侦查机关，创造了“马锡五审判方式”、人民调解制度等。新中国成立后，我们党在不长时间内领导人民制定了一九五四年宪法和一批法律法规，确立了我国政治制度、法律制度、立法体制、司法体制，确立了社会主义法制原则，为巩固社会主义政权和进行社会主义建设发挥了重要保障和推动作用。一九七八年，党的十一届三中全会总结我国民主法制建设正反两方面经验，特别是吸取“文化大革命”中法制遭到严重破坏的沉痛教训，提出了发展社会主义民主、健全社会主义法制的重大方针。一九九二年，党的十四大强调，没有民主和法制就没有社会主义，就没有社会主义的现代化。一九九七年，党的十五大提出依法治国、建设社会主义法治国家，强调依法治国是党领导人民治理国家的基本方略，是发展社会主义市场经济的客观需要，是社会文明进步的重要标志，是国家长治久安的重要保障。二○○二年，党的十六大提出，发展社会主义民主政治，最根本的是要把坚持党的领导、人民当家作主和依法治国有机统一起来。二○○七年，党的十七大提出，依法治国是社会主义民主政治的基本要求，强调要全面落实依法治国基本方略，加快建设社会主义法治国家。二○一二年，党的十八大强调，法治是治国理政的基本方式，要更加注重发挥法治在国家治理和社会管理中的重要作用，全面推进依法治国。', '党的十八大以来，以习近平同志为核心的党中央从坚持和发展中国特色社会主义的全局和战略高度定位法治、布局法治、厉行法治，把全面依法治国纳入“四个全面”战略布局，放在党和国家事业发展全局中来谋划、来推进，作出一系列重大决策、提出一系列重要举措。党的十八届三中全会将推进法治中国建设作为全面深化改革的重要方面作出专门部署，强调坚持依法治国、依法执政、依法行政共同推进，坚持法治国家、法治政府、法治社会一体建设。党的十八届四中全会专题研究全面推进依法治国，作出关于全面推进依法治国若干重大问题的决定，规划了全面依法治国的总蓝图、路线图、施工图。这是我们党的历史上第一次专题研究、专门部署全面依法治国的中央全会，在我国社会主义法治史上具有里程碑意义。党的十九大把全面推进依法治国总目标写入习近平新时代中国特色社会主义思想“八个明确”，把坚持全面依法治国写入“十四个坚持”基本方略，明确提出了新时代全面依法治国的新任务，描绘了到二○三五年基本建成法治国家、法治政府、法治社会的宏伟蓝图。党的十九届二中全会专题研究宪法修改，审议通过关于修改宪法部分内容的建议。党的十九届三中全会决定组建中央全面依法治国委员会，健全党领导全面依法治国的制度和工作机制。党的十九届四中全会对坚持和完善中国特色社会主义法治体系，提高党依法治国、依法执政能力，推进国家治理体系和治理能力现代化作出重要部署。', '在以习近平同志为核心的党中央坚强领导下，新时代中国特色社会主义法治建设发生历史性变革、取得历史性成就。加强党对全面依法治国集中统一领导，完善党领导立法、保证执法、支持司法、带头守法制度，党对全面依法治国的领导更加坚强有力。完善顶层设计，编制法治中国建设规划、法治政府建设实施纲要、法治社会建设实施纲要，统筹推进法律规范、法治实施、法治监督、法治保障和党内法规体系建设，全面依法治国总体格局基本形成。坚持依宪治国，与时俱进修改宪法，设立国家宪法日，建立宪法宣誓制度，推进合宪性审查工作，宪法实施和监督全面加强。适应党和国家事业发展要求，完善立法体制，加强重点领域立法，中国特色社会主义法律体系日趋完善。推进法治政府建设，大幅减少行政审批事项，非行政许可审批彻底终结，建立政府权力清单、负面清单、责任清单，规范行政权力，深化行政执法体制改革，执法更加严格规范公正文明。推进司法责任制、员额制和以审判为中心的刑事诉讼制度改革，废止劳动教养、收容教育制度，依法纠正一批重大冤假错案件，坚决维护社会公平正义，司法质量、效率、公信力显著提高。坚持把全民普法和守法作为依法治国的基础性工作，实行国家机关“谁执法谁普法”普法责任制，将法治教育纳入国民教育体系，全社会法治观念明显增强。推进法治工作队伍建设，发展壮大法律服务队伍，加强法学教育和法治人才培养。坚持依规治党，形成比较完善的党内法规体系，持续深化国家监察体制改革，健全党统一领导、全面覆盖、权威高效的监督体系，推进反腐败工作法治化、规范化，实现了依规治党和依法治国有机统一。', '（4）党的十八大以来，习近平总书记高度重视全面依法治国，亲自谋划、亲自部署、亲自推动。习近平总书记在党的十八大以来的历次中央全会、党的十九大上都强调了全面依法治国工作，还在多次中央政治局会议、中央政治局常委会会议，多次中央政治局集体学习，每年全国两会，多次中央有关委员会会议、工作会议以及工作考察等重要场合，就推进全面依法治国发表一系列重要讲话、作出一系列重要指示。习近平总书记亲自担任中央全面依法治国委员会主任，强调党的领导是我国社会主义法治最根本的保证，必须贯彻到依法治国全过程和各方面；提出全面依法治国的战略任务并将其纳入“四个全面”战略布局；提出全面依法治国的总目标是建设中国特色社会主义法治体系，建设社会主义法治国家；部署推进司法体制改革、国家监察体制改革、行政执法体制改革等重大改革；推动加强宪法实施和监督、提高立法质量和效率等重大工作；指导编制法治中国建设规划、法治政府建设实施纲要、法治社会建设实施纲要；指导制定民法典等一大批法律法规和一系列党内法规；等等。', '在这一过程中，习近平总书记以马克思主义政治家、思想家、战略家的深刻洞察力和理论创造力，创造性提出了关于全面依法治国的一系列具有原创性、标志性的新理念新思想新战略，形成了习近平法治思想。这一思想从历史和现实相贯通、国际和国内相关联、理论和实际相结合上，深刻回答了新时代为什么实行全面依法治国、怎样实行全面依法治国等一系列重大问题，构成了一个富有开创性、实践性、真理性、前瞻性的科学思想体系，推动中国特色社会主义法治理论和实践实现新飞跃，标志着我们党对社会主义法治建设和人类法治文明发展的规律性认识达到新的历史高度。', '（5）习近平法治思想内涵丰富、论述深刻、逻辑严密、系统完备，就其主要方面来讲，集中体现为“十一个坚持”，即：坚持党对全面依法治国的领导；坚持以人民为中心；坚持中国特色社会主义法治道路；坚持依宪治国、依宪执政；坚持在法治轨道上推进国家治理体系和治理能力现代化；坚持建设中国特色社会主义法治体系；坚持依法治国、依法执政、依法行政共同推进，法治国家、法治政府、法治社会一体建设；坚持全面推进科学立法、严格执法、公正司法、全民守法；坚持统筹推进国内法治和涉外法治；坚持建设德才兼备的高素质法治工作队伍；坚持抓住领导干部这个“关键少数”。', '这“十一个坚持”，深刻阐明了全面依法治国的政治方向，习近平总书记围绕全面依法治国向哪里走、走什么路作出深刻阐述，抓住了中国特色社会主义法治建设的根本，明确了全面依法治国必须遵循的政治准绳；深刻阐明了全面依法治国的重要地位，习近平总书记从坚持和发展中国特色社会主义、建设社会主义现代化国家、实现中华民族伟大复兴，确保党和国家长治久安的长远考虑出发，深入阐述全面依法治国的重要意义、重要地位、重要作用，讲清了全面依法治国在全局工作中的坐标定位，明确了新时代全面依法治国的职责使命；深刻阐明了全面依法治国的工作布局，习近平总书记在深刻总结我国社会主义法治建设、准确把握当今时代和实践发展提出的新要求基础上，对全面依法治国作出战略部署和总体安排，明确了新时代法治中国建设的前进方向；深刻阐明了全面依法治国的重点任务，习近平总书记擘画了全面依法治国的战略重点，明确了新时代法治中国建设的重点领域和关键环节，明确了各项工作的着力点和突破点；深刻阐明了全面依法治国的重大关系，习近平总书记深入阐述了政治和法治、改革和法治、依法治国和以德治国、依法治国和依规治党等关系问题，廓清了相关思想困惑，明确了必须正确把握的重大理论问题和科学方法论；深刻阐明了全面依法治国的重要保障，习近平总书记围绕建设德才兼备的高素质法治工作队伍、抓住领导干部这个“关键少数”等作出重要论述、提出明确要求，牵住了“牛鼻子”、抓到了关键处，明确了领导干部和人才队伍在推进全面依法治国中的重要性。学习领会习近平法治思想，必须吃透基本精神、把握核心要义、明确工作要求，做到了然于胸、融会贯通。', '（6）新时代中国特色社会主义法治建设之所以能发生历史性变革、取得历史性成就，根本在于有以习近平同志为核心的党中央的坚强领导，有习近平法治思想的科学指引。', '习近平法治思想是马克思主义法治理论中国化的最新成果。我们党在一百年来的革命、建设、改革历程中，始终坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，不断推进马克思主义中国化时代化。习近平法治思想，坚持马克思主义立场观点方法，坚持科学社会主义基本原则，植根于中华优秀传统法律文化，借鉴人类法治文明有益成果，在理论上有许多重大突破、重大创新、重大发展，同我们党长期形成的法治理论既一脉相承又与时俱进，为发展马克思主义法治理论作出了重大原创性、集成性贡献。', '习近平法治思想是对党领导法治建设丰富实践和宝贵经验的科学总结。长期以来，我们党总结运用领导人民实行法治的成功经验，积极开展社会主义法治建设，走出了一条中国特色社会主义法治道路。习近平法治思想，在继承和发扬优良传统的基础上，对我国社会主义法治建设经验进行提炼和升华，以新的视野、新的认识赋予新的时代内涵，为建设中国特色社会主义法治体系、建设社会主义法治国家提供了科学行动指南，实现了中国特色社会主义法治理论新的历史性飞跃，并在全面依法治国实践中展现出强大真理力量和独特思想魅力。', '习近平法治思想是在法治轨道上推进国家治理体系和治理能力现代化的根本遵循。党的十八大以来，习近平总书记着眼国家治理面临的新形势新任务，明确要求坚持全面依法治国，体现我国国家制度和国家治理体系的显著优势，为巩固和发展“中国之治”提供重要保障。习近平法治思想，贯穿经济、政治、文化、社会、生态文明建设各个领域，涵盖改革发展稳定、内政外交国防、治党治国治军各个方面，为深刻认识全面依法治国在治国理政中的重要地位提供了科学指引，为推进国家治理体系和治理能力现代化、建设更高水平的法治中国提供了根本遵循。', '习近平法治思想是引领法治中国建设实现高质量发展的思想旗帜。当前和今后一个时期，我国发展仍然处于重要战略机遇期，但机遇和挑战都有新的发展变化。习近平法治思想是顺应实现中华民族伟大复兴时代要求应运而生的重大战略思想，不仅针对时代和实践提出的重大任务、重大问题、重大挑战提供了法治解决之道，而且为统筹推进国内法治和涉外法治提供了强有力的思想引领，为我们在危机中育先机、于变局中开新局提供了法治上的战略指引。在习近平法治思想指引下，中国特色社会主义法治道路必将越走越宽广，新时代法治中国建设前景无限光明。', '（7）实践没有止境，理论创新也没有止境。习近平法治思想是不断发展的开放的理论，在指导新时代全面依法治国的历史进军中，必将随着中国特色社会主义法治建设伟大实践的深入推进而持续发展、不断丰富、更加完善。', '在当代中国，坚持和发展习近平法治思想，就是真正坚持和发展马克思主义法治理论，就是真正坚持和发展中国特色社会主义法治理论。必须始终坚持习近平法治思想在全面依法治国工作中的指导地位不动摇，坚定不移走中国特色社会主义法治道路，在全面建设社会主义现代化国家新征程上不断推进全面依法治国、加快建设法治中国。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>237</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>水利部党组学习贯彻习近平总书记重要讲话精神</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/swj/xwdt/hyjj/t_1835025.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['6月8日，水利部党组书记、部长李国英主持召开党组会议，深入学习习近平总书记在内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会时的重要讲话精神、在文化传承发展座谈会上的重要讲话精神，研究部署贯彻落实工作。', '会议强调，要完整、准确、全面贯彻新发展理念，结合水利职责，坚持系统观念，扎实推进山水林田湖草沙一体化保护和系统治理，持续做好乌梁素海、西辽河、塔里木河、黑河等重点河湖生态保护治理，复苏河湖生态环境，维护河湖健康生命。要加大“三北”地区水土流失治理力度，加快实施国家水土保持重点工程，依法强化人为水土流失监管，持续开展水土流失动态监测，扎实提升林草生态系统水土保持功能，增强防沙治沙和水源涵养能力。要坚持节水优先方针，坚持以水定绿、以水定地、以水定人、以水定产，把水资源作为最大刚性约束，做好“三北”地区水资源论证工作，深入实施国家节水行动，持续强化农业节水增效、工业节水减排、城镇节水降损，大力发展节水产业，促进水资源绿色高效利用。要坚持两手发力，深化农业水价综合改革，加快大中型灌区建设和现代化改造，建设数字孪生灌区，提升灌区精细化管理水平。', '会议强调，要深刻理解“在五千多年中华文明深厚基础上开辟和发展中国特色社会主义，把马克思主义基本原理同中国具体实际、同中华优秀传统文化相结合是必由之路”，坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，把握好这一思想的世界观和方法论，坚持好、运用好贯穿其中的立场观点方法，更加深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”。要结合正在开展的主题教育，认真组织传达学习习近平总书记重要讲话精神，不断深化对文化建设的规律性认识，进一步抓好水文化挖掘研究、水文化传播弘扬、水利遗产调查保护和红旗渠精神、抗洪精神阐释弘扬等工作，推动中华优秀传统水文化创造性转化、创新性发展，为在新的起点上继续推动文化繁荣、建设文化强国、建设中华民族现代文明作出水利贡献。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>237</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>南充市科学技术局关于年市级科技计划拟立项项目的公示</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/kjj/xwdt/tzgg/202312/t20231201_1906056.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['，经过审核推荐、专家评审、现场考察，现对2023年市级科技计划拟立项项目予以公示（', '龙胆苦苷通过调控PI3K/AKT信号通路改善2型糖尿病肝脏糖异生的药理作用及机制研究', '单源双能量CT联合MRI SWI序列在急性缺血性脑卒中血管腔内治疗后早期鉴别出血性转化与对比剂外渗的应用研究', 'circNR2F2引导DHX9蛋白液相分离在肿瘤微环境调控下参与结直肠癌恶性进展的机制研究', '基于因子分析法的慢性咳嗽中医证候规律研究及省名中医徐仕宏辨治慢性咳嗽用药规律的数据挖掘', '基于内外兼治理论龙马腰痛胶囊联合散寒活血止痛油膏治疗肾虚血瘀型腰痛病（腰椎间盘突出症）的临床应用研究', '基于多模态磁共振构建脑网络及术中电生理应用的精准医学在唤醒麻醉下功能区胶质瘤切除术中的应用研究', '棕榈酰化修饰调控m5C阅读器YBX1通过稳定铁死亡抑制因子MS4A15参与结直肠癌发生发展', '癌基因EZR结合自噬复合物STX17调控晚期自噬介导内体循环促进胰腺癌恶性进展分子研究', '积雪草酸通过TGF-β/Smads信号轴调控成纤维细胞增殖改善早期食管癌ESD术后瘢痕性狭窄的机制研究', 'SNRPB通过P53调控巨噬细胞M2型极化进而促进食管鳞状细胞癌发生发展的机制研究']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>237</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>福临乡党委理论学习中心组召开第次集中学习研讨会</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/xzdt/t_1824867.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['5月11日上午，福临乡党委组织召开理论学习中心组第3次集中学习研讨会。会议由党委书记龚文珍主持，县委常委、宣传部部长、赛金镇党委书记相超列席了学习会。', '党委副书记、组织委员李熊成领学了《坚定不移全面深化改革扩大高水平对外开放 在推进中国式现代化建设中走在前列》（习近平总书记4月10日至13日在广东考察时重要指示精神），全体党委理论学习中心组成员集中诵读了党的二十大报告中的“六个必须坚持”内容，并围绕诵读内容如何在基层贯彻落实作研讨发言。县委宣传部常务副部长周军虎列席了学习会，红花井及宝瓶村党组织书记旁听了学习会。', '相超部长对本次学习会作出点评，他指出：此次学习会大家准备充分，尤其是通过集中诵读唤起原始记忆，让人眼前一亮，效果很好，福临乡要继续把这种丰富多样的学习形式进行下去，锻炼我们的干部加强学习，做到开口能讲、提笔能写、问策能对、遇事能办。', '他强调：一是要强化思想认识，增强学习自觉，二是要突出政治引领，落实首要任务，三是要扛起主体责任，严格规范管理，四是要注重学用结合，提升学习质量。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>237</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>四川张思德干部学院年公开引进博士研究生公告</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/xwdt/tzgg/t_1825504.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['四川张思德干部学院是全国唯一以党的根本宗旨教育立院的综合性特色党性教育机构，是纳入中组部备案管理的全国', '家党性教育干部学院之一。学院主要以党员干部、各类人才为培训对象，广泛开展理论教育、党性教育、能力培训等，先后被命名为“四川省国防教育基地”“四川省党员教育培训省级示范学院”“四川省社会科学普及基地”，', '余所国内高校将学院设置为党性教育基地。为进一步加强学院师资队伍建设，拟面向社会公开引进博士研究生人才，现将有关事项公告如下：', '坚持德才兼备的用人标准，按照“公开、平等、竞争、择优”的原则，通过考核招聘方式择优聘用。', '四川张思德干部学院面向社会公开引进博士研究生5名，具体招聘岗位及条件见《四川张思德干部学院2023年公开引进博士研究生岗位一览表》（附件1）。', '5.按照《事业单位公开招聘人员暂行规定》和《四川省省属事业单位公开招聘工作人员实施细则（试行）》的相关规定应当回避的；', '按照《事业单位公开招聘人员暂行规定》和《四川省省属事业单位公开招聘工作人员实施细则（试行）》的相关规定应当回避的；', '6.按照中共中央办公厅、国务院办公厅《关于加快推进失信被执行人信用监督、警示和惩戒机制建设的意见》规定，由人民法院通过司法程序认定的失信被执行人；', '按照中共中央办公厅、国务院办公厅《关于加快推进失信被执行人信用监督、警示和惩戒机制建设的意见》规定，由人民法院通过司法程序认定的失信被执行人；', '2.毕业证书、学位证书原件和复印件1份、教育部学历证书电子注册备案表1份。其中，尚未领取到毕业证的2023年毕业生参加面试资格审查时，需提供教育部学籍在线验证报告1份、学校主管毕业生就业工作部门开具的就读院系专业、学历、毕业时间等情况的证明原件；', '份、学校主管毕业生就业工作部门开具的就读院系专业、学历、毕业时间等情况的证明原件；', '资格审查合格的考生，进入考核环节。资格审查贯穿公开考核招聘工作全过程，凡发现报考者提供虚假材料的，一经查实，取消报考资格。对伪造有关证件、材料、信息骗取考聘资格的，将按有关规定予以严肃处理。', '1.考核采取面试的方式进行，面试方式为结构化面试，主要考核应聘人员学科专业知识和从事干部教育培训工作应具备的基本素质，综合测评应聘人员的专业理论功底、履行岗位职责的能力。考核成绩满分100分，综合成绩在80分以下者不得进入体检环节，不得确认为拟聘用人员。', '核应聘人员学科专业知识和从事干部教育培训工作应具备的基本素质，综合测评应聘人员的专业理论功底、履行岗位职责的能力。考核成绩满分', '2.面试考核时间、地点另行通知。外地应聘人员参加面试考核的，按规定补助一定往返交通费用，并免费提供考核期间食宿。', '面试考核时间、地点另行通知。外地应聘人员参加面试考核的，按规定补助一定往返交通费用，并免费提供考核期间食宿。', '如最后一名进入体检的应聘人员面试成绩相同的，则采取加试面试的方式，将加试面试成绩高的应聘人员确定为进入体检人选。', '2.考核合格、进入体检应聘人员由招聘单位组织在指定的二级甲等及以上综合性医院进行体检。体检的项目和标准参照修订后的《公务员录用体检通用标准（试行）》和《公务员录用体检操作手册（试行）》执行。', '考核合格、进入体检应聘人员由招聘单位组织在指定的二级甲等及以上综合性医院进行体检。体检的项目和标准参照修订后的《公务员录用体检通用标准（试行）》和《公务员录用体检操作手册（试行）》执行。', '3.首次体检不合格的考生，经本人申请，可在原体检医院以外的二级甲等及以上综合性医院复检一次，复检申请应在接到体检结果通知之日起2日内提出，复检只安排一次，体检结论以复检结果为准。未按规定时间到指定地点以及未在规定的期限内完成规定项目体检的报考者，视为自动弃权。', '首次体检不合格的考生，经本人申请，可在原体检医院以外的二级甲等及以上综合性医院复检一次，复检申请应在接到体检结果通知之日起', '日内提出，复检只安排一次，体检结论以复检结果为准。未按规定时间到指定地点以及未在规定的期限内完成规定项目体检的报考者，视为自动弃权。', '1.考察工作参照《公务员录用考察办法（试行）》（中组发〔2021〕11号）文件规定执行，对体检合格人员进行全面考察，主要考察应聘人员的政治思想、道德品质、能力素质、学习和工作表现、遵纪守法、廉洁自律、社会关系以及是否需要回避等方面的情况。', '号）文件规定执行，对体检合格人员进行全面考察，主要考察应聘人员的政治思想、道德品质、能力素质、学习和工作表现、遵纪守法、廉洁自律、社会关系以及是否需要回避等方面的情况。', '2.公示期间接受社会监督举报，举报者应以真实姓名实事求是地反映问题，并提供必要的调查线索。凡以匿名或其他方式反映的问题不予受理。对公示期间反映有严重问题并查有实据、不符合应聘资格条件的，取消该拟聘人员的拟聘资格。', '公示期间接受社会监督举报，举报者应以真实姓名实事求是地反映问题，并提供必要的调查线索。凡以匿名或其他方式反映的问题不予受理。对公示期间反映有严重问题并查有实据、不符合应聘资格条件的，取消该拟聘人员的拟聘资格。', '公示期间（含公示后）因拟聘人员自动放弃或因被举报查实取消聘用资格出现的空额，不再递补。', '本次考核招聘为编制内聘用，实行事业单位工作人员聘用制管理，聘用后享受学院教师的政治、经济待遇；给予30-100万元的一次性生活补贴，配套不低于60平米的教师周转房，根据项目给予不高于200万的专门科研经费支持，采取“一人一议”的办法确定；其他人才待遇按有关规定执行，并优先推荐申报中省市人才项目。', '本次考核招聘为编制内聘用，实行事业单位工作人员聘用制管理，聘用后享受学院教师的政治、经济待遇；给予', '万的专门科研经费支持，采取“一人一议”的办法确定；其他人才待遇按有关规定执行，并优先推荐申报中省市人才项目。', '招聘工作严格执行有关招聘政策规定，自觉接受纪检监察机关和社会各界监督。对违反规定、弄虚作假的，一经查实，取消应聘人员的聘用资格，并按照有关规定进行严肃处理。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>237</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>达州市开江县普安镇考察团来我县考察学习</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/payw/202305/t20230516_1822160.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['5月14日，达州市开江县普安镇考察团来蓬安巨龙镇就村集体经济建设、撂荒地整治、土地盘活等方面开展考察学习。', '上午9时许，考察团一行先后前往巨龙镇龙云寺村、羊角嘴村等地，通过实地察看，详细了解巨龙镇各村村集体经济建设、人才振兴、基层党建、撂荒地整治、土地盘活等基层工作如何落实，并取得成效，同时还听取了各村发展历程和运行管理情况介绍。', '据悉，近年来，蓬安县巨龙镇强化党建引领，积极推广新技术、新品种、新模式，同时打好经济组合拳，实行统一流转经营，紧紧依靠村集体经济组织和新型农业经营主体，不断完善经营、利益联结、干部激励机制，不仅治理了撂荒地，还壮大了集体经济，带动群众一起致富增收。', '考察团一行表示，此次考察收获颇多，巨龙镇在村集体经济建设、撂荒地治理与粮食生产、人才振兴、基层治理等方面都非常出色，值得学习借鉴，同时也希望两地能够加强友好交流，共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>237</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>四川省人力资源和社会保障厅中共四川省委组织部中共四川省委机构编制委员会办公室关于印发四川省事业单位公开招聘工作人员实施办法的通知</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/rsj/zwxx/zcwj/qtwj/202403/t20240327_1955560.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['四川省人力资源和社会保障厅 中共四川省委组织部 中共四川省委机构编制委员会办公室 关于印发《四川省事业单位公开招聘工作人员实施办法》的通知-南充市人力资源和社会保障局', '四川省人力资源和社会保障厅 中共四川省委组织部 中共四川省委机构编制委员会办公室 关于印发《四川省事业单位公开招聘工作人员实施办法》的通知', '为进一步深化事业单位人事制度改革，规范事业单位公开招聘工作，保证选人用人质量，根据《事业单位人事管理条例》和《事业单位公开招聘人员暂行规定》，结合我省实际，制定本办法。', '本办法适用于列入全省各级机构编制部门管理、依法登记（备案）的事业单位公开招聘工作人员。参照《中华人民共和国公务员法》管理的事业单位除外。', '事业单位新聘用工作人员，应当面向社会实行公开招聘。国家政策性安置、按干部人事管理权限由上级任命、涉密岗位招聘、按规定流（调）动等人员除外。', '省级事业单位人事综合管理部门负责全省事业单位公开招聘的综合管理工作，制定全省事业单位公开招聘政策，对全省事业单位公开招聘工作进行指导和监督。市（州）、县（市、区）事业单位人事综合管理部门按照上级的规定，负责本地事业单位公开招聘的综合管理工作。结合实际，各级事业单位人事综合管理部门可集中组织开展公开招聘。', '省级事业单位人事综合管理部门负责全省事业单位公开招聘的综合管理工作，制定全省事业单位公开招聘政策，对全省事业单位公开招聘工作进行指导和监督。市（州）、县（市、区）事业单位人事综合管理部门按照上级的规定，负责本地事业单位公开招聘的综合管理工作。结合实际，', '第六条 事业单位主管部门、党委政府直属事业单位按照同级事业单位人事综合管理部门的要求，具体负责事业单位公开招聘有关工作。主管部门也可授权具备条件的事业单位按规定组织开展公开招聘。', '事业单位主管部门、党委政府直属事业单位按照同级事业单位人事综合管理部门的要求，具体负责事业单位公开招聘有关工作。主管部门也可授权具备条件的事业单位按规定组织开展公开招聘。', '事业单位应当在核定的编制和岗位空缺内面向社会公开招聘工作人员，符合条件的人员均可报名应聘。', '事业单位可按照国家和我省有关规定，面向符合条件的“三支一扶”人员、“西部计划”志愿者、退役军人、残疾人等特定群体进行专项（定向）招聘。', '事业单位应根据职能职责和岗位需求，科学合理设置公开招聘条件，不得设置指向性、歧视性以及与岗位无关的其他条件。', '除国家和我省有特殊规定的情形外，事业单位公开招聘专业技术岗位、管理岗位的人员，一般应当具有大学专科及以上文化程度；公开招聘工勤技能岗位的人员，一般应当具有高中或中专（含中职、技工院校）及以上文化程度。', '事业单位公开招聘工作人员应当制定招聘计划（方案），并按规定报事业单位人事综合管理部门或主管部门备案（核准）后组织实施。', '招聘公告发布后必须严格执行，不得擅自更改。确需变更的，须报招聘计划（方案）备案（核准）部门同意后，在原招聘公告发布平台发布补充公告。根据实际情况，可延长报名时间或重新组织报名。', '招聘公告发布后必须严格执行，不得擅自更改。确需变更的，须报招聘计划（方案）备案（核准）部门同意后，', '公开招聘可采取网络或现场等方式报名。网络报名时间不少于5日，现场报名时间根据工作实际确定。报名截止时间须设定在招聘公告发布的第7个工作日及以后。', '资格审查贯穿公开招聘全过程，严格按照招聘公告和有关政策规定执行。对未通过资格审查的人员，组织实施部门（单位）应当接受其询问并告知原因。', '事业单位公开招聘工作人员可根据不同地区、不同行业、不同类别岗位对人才要求的差异，采取考试或考核等方式进行。命题和考务工作由事业单位人事综合管理部门组织实施，也可由事业单位或主管部门按规定组织实施。开考时间距离报名截止时间不少于5日。', '公开招聘应当形成竞争。同一岗位的报考人数与招聘人数之比一般不低于3:1，国家和我省有特殊规定的，从其规定。', '考试采取笔试加面试等方式进行，主要测试岗位所需的专业知识、业务素质、操作技能等。招聘工勤技能人员，可重点进行实际操作能力测试。', '笔试可分为公共科目和专业科目两项。需进行两项笔试的，公共科目成绩占笔试总成绩的比例不得低于30%，笔试总成绩占考试总成绩的比例不得低于50%；只进行其中一项的，笔试总成绩占考试总成绩的比例不得低于40%。国家及我省有特殊规定的，从其规定。应合理设置笔试总成绩最低分数线，未达到最低分数线的考生不得进入公开招聘下一环节。', '公共科目命题范围依照事业单位人事综合管理部门制定的考试大纲确定，专业科目命题范围由事业单位主管部门按规定确定，并在招聘公告中告知。', '符合加分政策规定的考生，在笔试总成绩（与面试成绩按比例折合前）中加分，不同加分项目可累计计算，最高不超过6分。机关事业单位在编人员以及从机关事业单位辞职、辞退、辞聘、解聘等人员，不享受加分政策。', '面试应根据岗位招聘人数，按照笔试总成绩从高到低的顺序，按入围人数与招聘人数之比不低于2:1、不高于5:1的比例确定人员，并在原招聘公告发布平台公布。未达到招聘公告规定入围比例的，可将全部笔试合格人员确定为入围人员。应合理设置面试成绩最低分数线，未达到最低分数线的考生不得进入公开招聘下一环节。', '面试可采取结构化面试、无领导小组讨论、现场答辩、情景模拟、试讲说课、实际操作等方式进行，由事业单位或主管部门组织实施，也可由事业单位人事综合管理部门统一组织实施。', '面试考官组由面试组织实施部门（单位）按照有关规定组建，人数应为奇数，一般为5人或7人，外派（聘）考官所占比例原则上不低于50%。', '考试结束后，根据考生笔试总成绩和面试成绩，按比例计算其考试总成绩，按照从高到低的顺序确定进入体检环节的人员，并在原招聘公告发布平台公布。', '（一）具有研究生学历或硕士及以上学位的人员，其中应聘省属事业单位的，应具有博士学位；', '（二）具有中级及以上专业技术职称的人员，其中应聘省属事业单位的，应具有副高级及以上专业技术职称；', '（三）具有技师及以上职业资格（职业技能等级）的人员，符合条件的世界技能大赛国家集训选手以及在国家级、省级职业技能大赛上取得优异成绩的获奖选手；', '采取考核方式招聘事业单位工作人员，不得擅自降低招聘条件，可适当简化程序。招聘公告的发布、竞争比例、报名和开考时间等具体事项，由事业单位人事综合管理部门或主管部门根据人才需求、岗位特点等实际确定。', '体检应在二级甲等（民族地区可放宽到二级乙等）及以上综合性医院进行，由事业单位或主管部门组织实施。', '体检参照公务员录用体检通用标准等有关规定执行。国家和我省行业另有规定的，按规定执行。除国家卫生健康部门核准并予以公布的特殊职业外，不得要求进行乙肝项目检测。', '事业单位或考生对体检结果有疑问的，可按规定复检一次，体检结果以复检结论为准。复检应在不低于原体检医院等级的其他综合性医院进行。', '事业单位或主管部门根据考生的考试（考核）总成绩和体检结果确定考察人选，进行综合考察。', '第三十三条 综合考察主要对考察人选的思想政治表现、遵纪守法、道德品质、个人诚信、能力素质、学习和工作表现、廉洁自律以及是否需要回避等方面的情况进行考察。', '综合考察主要对考察人选的思想政治表现、遵纪守法、道德品质、个人诚信、能力素质、学习和工作表现、廉洁自律以及是否需要回避等方面的情况进行考察。', '综合考察应当组成考察组。考察组由两人以上组成，采取个别谈话、实地走访、审核干部人事档案等方法进行，并据实出具考察材料。考察人选达不到事业单位工作人员应当具备的条件或者不符合报考岗位要求的，不得确定为拟聘用人员，因此出现的缺额，可按规定递补考察人选。', '对经考试（考核）、体检、综合考察合格确定的拟聘用人员，应在原招聘公告发布平台公示，公示期一般不少于7日。', '对公示无异议的拟聘用人员，由事业单位或主管部门按干部人事管理权限和政策规定报有关部门备案（核准）后，办理聘用手续。对公示有异议的拟聘用人员，由事业单位或主管部门调查核实，按有关规定处理。', '事业单位公开招聘工作人员按照有关规定实行试用期制度，试用期包括在聘用合同期限内。试用期满，考核不合格的，按规定取消聘用。', '事业单位和主管部门要严格执行公开招聘工作纪律，设立监督举报电话、电子邮箱，受理有关投诉举报，确保公开招聘工作公开、公平、公正。事业单位人事综合管理部门要加强指导和监督，对公开招聘工作中出现的违纪违规行为要坚决制止和纠正，并按照《事业单位公开招聘违纪违规行为处理规定》等有关规定处理，构成犯罪的，依法追究刑事责任。', '各市（州）、省级各部门（单位）可根据本办法制定实施细则，并报省级事业单位人事综合管理部门备案。各地区各部门（单位）出台的事业单位公开招聘政策与本办法不一致的，以本办法为准。国家出台新政策的，从其规定。', '各市（州）、省级各部门（单位）应当运用四川省事业单位人事管理信息系统，利用互联网技术和信息化手段，提高公开招聘质量和效率。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>237</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>习近平同志论科技自立自强主要篇目介绍</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/kjj/ztzl/fzzf/202305/t20230530_1827244.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['中共中央党史和文献研究院编辑的习近平同志《论科技自立自强》一书，收入习近平同志2013年3月至2022年12月期间关于科技自立自强的重要文稿50篇。现将这部专题文集的主要篇目介绍如下。', '《加快建设科技强国，实现高水平科技自立自强》是2021年5月28日习近平同志在中国科学院第二十次院士大会、中国工程院第十五次院士大会和中国科协第十次全国代表大会上的讲话。指出，科技立则民族立，科技强则国家强。在党中央坚强领导下，在全国科技界和社会各界共同努力下，我国科技实力正在从量的积累迈向质的飞跃、从点的突破迈向系统能力提升，科技创新取得新的历史性成就。实践证明，我国自主创新事业是大有可为的，我国广大科技工作者是大有作为的。我们完全有基础、有底气、有信心、有能力抓住新一轮科技革命和产业变革的机遇，乘势而上，大展宏图。立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，必须深入实施科教兴国战略、人才强国战略、创新驱动发展战略，完善国家创新体系，加快建设科技强国，实现高水平科技自立自强。要加强原创性、引领性科技攻关，坚决打赢关键核心技术攻坚战；要强化国家战略科技力量，提升国家创新体系整体效能；要推进科技体制改革，形成支持全面创新的基础制度；要构建开放创新生态，参与全球科技治理；要激发各类人才创新活力，建设全球人才高地。', '《提高自主创新能力是实施创新驱动发展战略的关键环节》是2013年3月4日习近平同志在参加全国政协十二届一次会议科协、科技界委员联组讨论时讲话的主要部分。指出，科技创新是提高社会生产力和综合国力的战略支撑，必须摆在国家发展全局的核心位置，实施创新驱动发展战略。这是加快转变经济发展方式、破解经济发展深层次矛盾和问题、增强经济发展内生动力和活力的根本措施。实施创新驱动发展战略，提高自主创新能力是关键环节。要坚定不移走中国特色自主创新道路，增强创新自信，深化科技体制改革，加强科技人才队伍建设。', '《使科技真正成为驱动我国经济社会发展的主要动力源》是2013年7月17日习近平同志在中国科学院考察工作时讲话的节录。指出，科技创新更加广泛地影响着经济社会发展和人民生活，科技发展水平更加深刻地反映出一个国家的综合国力和核心竞争力。实现“两个一百年”的奋斗目标，实现中华民族伟大复兴的中国梦，必须推动我国科技事业加快发展，集中力量推进科技创新，真正把创新驱动发展战略落到实处。当今世界的综合国力竞争，说到底是科技实力竞争。面对新形势新挑战，必须加快从要素驱动为主向创新驱动发展转变，发挥科技创新的支撑引领作用，推动实现有质量、有效益、可持续的发展。我国科技事业发展存在不少突出矛盾，解决这些矛盾和问题，需要政府在体制和管理上采取切实举措，深化科技体制改革，加强规划和重点支持，优化完善人才政策；更需要科技界共同努力，要有强烈的创新自信，有锐意改革的精神，有强烈的爱国情怀。', '《破除一切束缚创新驱动发展的观念和体制机制障碍》是2013年9月30日习近平同志主持中共十八届中央政治局第九次集体学习时讲话的主要部分。指出，实施创新驱动发展战略的重大部署，是党中央综合分析国内外大势、立足国家发展全局作出的重大战略抉择。从全球范围看，科学技术越来越成为推动经济社会发展的主要力量，创新驱动是大势所趋。从国内看，创新驱动是形势所迫。要推动新型工业化、信息化、城镇化、农业现代化同步发展，必须充分发挥科技进步和创新的作用。全党全社会都要充分认识科技创新的巨大作用，把创新驱动发展作为面向未来的一项重大战略，常抓不懈。实施创新驱动发展战略是一项系统工程，最为紧迫的是要进一步解放思想，加快科技体制改革步伐，破除一切束缚创新驱动发展的观念和体制机制障碍。要着力推动科技创新与经济社会发展紧密结合，着力增强自主创新能力，着力完善人才发展机制，着力营造良好政策环境，着力扩大科技开放合作。', '《加强产学研深度融合，提升创新体系整体效能》是2013年12月至2022年9月期间习近平同志文稿中有关内容的节录。指出，培育核心竞争力，关键靠创新。要发挥我国社会主义制度能够集中力量办大事的显著优势，强化党和国家对重大科技创新的领导，充分发挥市场机制作用，强化国家战略科技力量，加快建设国家实验室，鼓励企业加大研发投入，加强关键核心技术研发，支持产学研紧密结合，重视人才培养，真正把企业、科研单位特别是广大科研人员的积极性和创造性激发出来，大幅提升科技攻关体系化能力，加快先进科学技术转化为现实生产力。', '《实现种业科技自立自强、种源自主可控》是2013年12月至2022年12月期间习近平同志讲话中有关内容的节录。指出，农业现代化，种子是基础。种源安全关系到国家安全，必须下决心把我国种业搞上去，实现种业科技自立自强、种源自主可控，从源头上保障国家粮食安全。要发挥我国制度优势，科学调配优势资源，推进种业领域国家重大创新平台建设，加强基础性前沿性研究，加强种质资源收集、保护和开发利用，加快生物育种产业化步伐。要深化农业科技体制改革，强化企业创新主体地位，健全品种审定和知识产权保护制度，以创新链建设为抓手推动我国种业高质量发展。', '《让工程科技造福人类、创造未来》是2014年6月3日习近平同志在二〇一四年国际工程科技大会上的主旨演讲。指出，工程造福人类，科技创造未来。工程科技是改变世界的重要力量，它源于生活需要，又归于生活之中。未来几十年，新一轮科技革命和产业变革将同人类社会发展形成历史性交汇，工程科技进步和创新将成为推动人类社会发展的重要引擎。中国是世界上最大的发展中国家，发展是解决中国所有问题的关键。要发展就必须充分发挥科学技术第一生产力的作用。我们把创新驱动发展战略作为国家重大战略，着力推动工程科技创新，实现从以要素驱动、投资规模驱动发展为主转向以创新驱动发展为主。中国将在更大范围深化工程科技领域国际交流合作，愿意同世界各国携手努力，共同解决问题，共同创造未来。', '《在中国科学院第十七次院士大会、中国工程院第十二次院士大会上的讲话》是2014年6月9日习近平同志的讲话。指出，科技是国家强盛之基，创新是民族进步之魂。实施创新驱动发展战略，最根本的是要增强自主创新能力，最紧迫的是要破除体制机制障碍，最大限度解放和激发科技作为第一生产力所蕴藏的巨大潜能。面向未来，增强自主创新能力，最重要的就是要坚定不移走中国特色自主创新道路，坚持自主创新、重点跨越、支撑发展、引领未来的方针，加快创新型国家建设步伐。我们正面对着推进科技创新的重要历史机遇，必须紧紧抓住，下好先手棋，打好主动仗。要深化科技体制改革，打通从科技强到产业强、经济强、国家强的通道，加快建立健全国家创新体系。要让市场在资源配置中起决定性作用，同时要更好发挥政府作用，加强统筹协调，大力开展协同创新，集中力量办大事，抓重大、抓尖端、抓基本，形成推进自主创新的强大合力。', '《全面增强自主创新能力，掌握新一轮全球科技竞争的战略主动》是2014年8月18日习近平同志在中央财经领导小组第七次会议上讲话的要点。指出，创新始终是推动一个国家、一个民族向前发展的重要力量。实施创新驱动发展战略，就是要推动以科技创新为核心的全面创新，坚持需求导向和产业化方向，坚持企业在创新中的主体地位，发挥市场在资源配置中的决定性作用和社会主义制度优势，增强科技进步对经济增长的贡献度，形成新的增长动力源泉，推动经济持续健康发展。要紧扣发展，牢牢把握正确方向；强化激励，大力集聚创新人才；深化改革，建立健全体制机制；扩大开放，全方位加强国际合作。', '《以新的发展理念引领发展》是2015年10月29日习近平同志在中共十八届五中全会第二次全体会议上讲话的一部分。指出，发展理念是战略性、纲领性、引领性的东西，是发展思路、发展方向、发展着力点的集中体现。坚持创新发展、协调发展、绿色发展、开放发展、共享发展，是关系我国发展全局的一场深刻变革。这五大发展理念相互贯通、相互促进，是具有内在联系的集合体，要统一贯彻，不能顾此失彼，也不能相互替代。强调，创新发展注重的是解决发展动力问题。新一轮科技革命带来的是更加激烈的科技竞争，如果科技创新搞不上去，发展动力就不可能实现转换，我们在全球经济竞争中就会处于下风。必须把创新作为引领发展的第一动力，把人才作为支撑发展的第一资源，让创新贯穿党和国家一切工作，让创新在全社会蔚然成风。', '《着力实施创新驱动发展战略》是2016年1月18日习近平同志在省部级主要领导干部学习贯彻党的十八届五中全会精神专题研讨班上讲话的一部分。指出，把创新摆在第一位，是因为创新是引领发展的第一动力。协调发展、绿色发展、开放发展、共享发展都有利于增强发展动力，但核心在创新。抓住了创新，就抓住了牵动经济社会发展全局的“牛鼻子”。坚持创新发展，是我们分析近代以来世界发展历程特别是总结我国改革开放成功实践得出的结论，是我们应对发展环境变化、增强发展动力、把握发展主动权，更好引领新常态的根本之策。坚持创新发展，既要坚持全面系统的观点，又要抓住关键，以重要领域和关键环节的突破带动全局。要超前谋划、超前部署，全面提高自主创新能力，在科技创新上取得重大突破，力争实现我国科技水平由跟跑并跑向并跑领跑转变；要以重大科技创新为引领，加快科技创新成果向现实生产力转化，做到人有我有、人有我强、人强我优；要深化科技体制改革，推进人才发展体制和政策创新，聚天下英才而用之。', '《在网络安全和信息化工作座谈会上的讲话》是2016年4月19日习近平同志的讲话。指出，互联网核心技术是我们最大的“命门”，核心技术受制于人是我们最大的隐患。要掌握我国互联网发展主动权，保障互联网安全、国家安全，就必须突破核心技术这个难题，争取在某些领域、某些方面实现“弯道超车”。要正确处理开放和自主的关系，在科研投入上集中力量办大事，积极推动核心技术成果转化，推动强强联合、协同攻关。', '《为建设世界科技强国而奋斗》是2016年5月30日习近平同志在全国科技创新大会、两院院士大会、中国科协第九次全国代表大会上的讲话。讲话吹响了建设世界科技强国的号角。指出，实现“两个一百年”奋斗目标，实现中华民族伟大复兴的中国梦，必须坚持走中国特色自主创新道路，加快各领域科技创新，掌握全球科技竞争先机。这是我们提出建设世界科技强国的出发点。中国要强，中国人民生活要好，必须有强大科技。不创新不行，创新慢了也不行。如果我们不识变、不应变、不求变，就可能陷入战略被动，错失发展机遇，甚至错过整整一个时代。要深入贯彻新发展理念，深入实施科教兴国战略和人才强国战略，深入实施创新驱动发展战略，统筹谋划，加强组织，优化我国科技事业发展总体布局。要夯实科技基础，在重要科技领域跻身世界领先行列；要强化战略导向，破解创新发展科技难题；要加强科技供给，服务经济社会发展主战场；要深化改革创新，形成充满活力的科技管理和运行机制；要弘扬创新精神，培育符合创新发展要求的人才队伍。', '《加快建设创新型国家》是2017年10月18日习近平同志在中国共产党第十九次全国代表大会上报告的一部分。指出，创新是引领发展的第一动力，是建设现代化经济体系的战略支撑。要瞄准世界科技前沿，强化基础研究，实现前瞻性基础研究、引领性原创成果重大突破。要加强应用基础研究，加强国家创新体系建设，深化科技体制改革，倡导创新文化，培养造就一大批具有国际水平的战略科技人才、科技领军人才、青年科技人才和高水平创新团队。', '《实施国家大数据战略，加快建设数字中国》是2017年12月8日习近平同志主持中共十九届中央政治局第二次集体学习时讲话的要点。指出，大数据是信息化发展的新阶段。我们应该审时度势、精心谋划、超前布局、力争主动，推动实施国家大数据战略，加快建设数字中国，更好服务我国经济社会发展和人民生活改善。要推动大数据技术产业创新发展，构建以数据为关键要素的数字经济，运用大数据提升国家治理现代化水平，运用大数据促进保障和改善民生，切实保障国家数据安全。', '《努力把关键核心技术掌握在我们自己手里》是2018年4月至2022年8月期间习近平同志讲话中有关内容的节录。指出，关键核心技术是国之重器，对推动我国经济高质量发展、保障国家安全都具有十分重要的意义。核心技术、关键技术，化缘是化不来的，必须依靠自力更生、自主创新。要时不我待推进科技自立自强，只争朝夕突破“卡脖子”问题，切实提高我国关键核心技术创新能力，把科技发展主动权牢牢掌握在自己手里，为我国发展提供有力科技保障。', '《在中国科学院第十九次院士大会、中国工程院第十四次院士大会上的讲话》是2018年5月28日习近平同志的讲话。指出，中国要强盛、要复兴，就一定要大力发展科学技术，努力成为世界主要科学中心和创新高地。要把握大势、抢占先机，直面问题、迎难而上，瞄准世界科技前沿，引领科技发展方向。要充分认识创新是第一动力，提供高质量科技供给，着力支撑现代化经济体系建设；要矢志不移自主创新，坚定创新信心，着力增强自主创新能力；要全面深化科技体制改革，提升创新体系效能，着力激发创新活力；要深度参与全球科技治理，贡献中国智慧，着力推动构建人类命运共同体；要牢固确立人才引领发展的战略地位，全面聚集人才，着力夯实创新发展人才基础。', '《推动我国新一代人工智能健康发展》是2018年10月31日习近平同志主持中共十九届中央政治局第九次集体学习时讲话的要点。指出，人工智能是新一轮科技革命和产业变革的重要驱动力量，加快发展新一代人工智能是我们赢得全球科技竞争主动权的重要战略抓手，是推动我国科技跨越发展、产业优化升级、生产力整体跃升的重要战略资源。要加强研判，统筹谋划，协同创新，稳步推进，把增强原创能力作为重点，以关键核心技术为主攻方向，夯实新一代人工智能发展的基础。要加强人工智能和产业发展融合，为高质量发展提供新动能。要加强人工智能同保障和改善民生的结合，推动人工智能在人们日常工作、学习、生活中的深度运用，创造更加智能的工作方式和生活方式。', '《推动制造业高质量发展》是2018年12月19日习近平同志在中央经济工作会议上讲话的一部分。指出，制造业是立国之本、强国之基。要把制造业高质量发展放到更加突出的位置，采取有力措施，推动先进制造业和现代服务业深度融合，坚定不移建设制造强国。要明确我国科技攻关和制造业高质量发展方向、重点、政策，健全需求为导向、企业为主体的产学研一体化创新机制，通过新型举国体制解决重大“卡脖子”技术和产品问题，推动科技成果转化和产业化，加强知识产权保护和运用，提倡艰苦奋斗、实事求是的作风和学风，重视引进人才，增强制造业技术创新能力。', '《为打赢疫情防控阻击战提供强大科技支撑》是2020年3月2日习近平同志在同有关部门负责同志和专家学者就疫情防控科研攻关工作座谈时的讲话。指出，人类同疾病较量最有力的武器就是科学技术，人类战胜大灾大疫离不开科学发展和技术创新。要把疫情防控科研攻关作为科技战线的一项重大而紧迫任务，尽快攻克疫情防控的重点难点问题，为打赢疫情防控人民战争、总体战、阻击战提供强大科技支撑。要加强药物、医疗装备研发和临床救治相结合，推进疫苗研发和产业化链条有机衔接，完善平战结合的疫病防控和公共卫生科研攻关体系，完善关键核心技术攻关的新型举国体制，加大卫生健康领域科技投入，加强疫情防控科研攻关的国际合作。', '《在科学家座谈会上的讲话》是2020年9月11日习近平同志的讲话。指出，加快科技创新是推动高质量发展的需要，是实现人民高品质生活的需要，是构建新发展格局的需要，是顺利开启全面建设社会主义现代化国家新征程的需要。现在，我国经济社会发展和民生改善比过去任何时候都更加需要科学技术解决方案，都更加需要增强创新这个第一动力。要把原始创新能力提升摆在更加突出的位置，努力实现更多“从0到1”的突破。要坚持面向世界科技前沿、面向经济主战场、面向国家重大需求、面向人民生命健康，不断向科学技术广度和深度进军。要加快解决制约科技创新发展的一些关键问题，坚持需求导向和问题导向，整合优化科技资源配置，持之以恒加强基础研究，加强创新人才教育培养，依靠改革激发科技创新活力，加强国际科技合作。要大力弘扬科学家精神，不忘初心、牢记使命，秉持国家利益和人民利益至上，把自己的科学追求融入建设社会主义现代化国家的伟大事业中去。', '《充分认识推动量子科技发展的重要性和紧迫性》是2020年10月16日习近平同志主持中共十九届中央政治局第二十四次集体学习时讲话的要点。指出，近年来，量子科技发展突飞猛进，成为新一轮科技革命和产业变革的前沿领域。加快发展量子科技，对促进高质量发展、保障国家安全具有非常重要的作用。我们必须坚定不移走自主创新道路，坚定信心、埋头苦干，突破关键核心技术，努力在关键领域实现自主可控，保障产业链供应链安全，增强我国科技应对国际风险挑战的能力。要找准我国量子科技发展的切入点和突破口，加强顶层设计和前瞻布局，健全政策支持体系，加快基础研究突破和关键核心技术攻关，培养造就高水平人才队伍，促进产学研协同创新。', '《科技自立自强是促进发展大局的根本支撑》是2020年10月至2021年1月期间习近平同志讲话中有关内容的节录。指出，科技自立自强是促进发展大局的根本支撑，是确保国内大循环畅通、塑造我国在国际大循环中新优势的关键。必须把这个问题放在能不能生存和发展的高度加以认识。构建新发展格局最本质的特征是实现高水平的自立自强。要加快科技自立自强，保证经济安全、推动实现高质量发展，把国家发展建立在更加安全、更为可靠的基础之上。', '《全面加强知识产权保护工作，激发创新活力，推动构建新发展格局》是2020年11月30日习近平同志主持中共十九届中央政治局第二十五次集体学习时讲话的主要部分。指出，保护知识产权就是保护创新。全面建设社会主义现代化国家，必须更好推进知识产权保护工作。要从国家战略高度和进入新发展阶段要求出发，全面加强知识产权保护工作，促进建设现代化经济体系，激发全社会创新活力，推动构建新发展格局。', '《发展科学技术必须具有全球视野》是2021年9月24日习近平同志向二〇二一中关村论坛视频致辞的要点。指出，世界各国要通过科技创新共同探索解决重要全球性问题的途径和方法，共同应对时代挑战，共同促进人类和平与发展的崇高事业。发展科学技术必须具有全球视野，把握时代脉搏，紧扣人类生产生活提出的新要求。中国高度重视科技创新，致力于推动全球科技创新协作，将以更加开放的态度加强国际科技交流，完善全球科技治理，更好增进人类福祉。', '《深入实施新时代人才强国战略，加快建设世界重要人才中心和创新高地》是2021年9月27日习近平同志在中央人才工作会议上的讲话。指出，当前，我国进入了全面建设社会主义现代化国家、向第二个百年奋斗目标进军的新征程，我们比历史上任何时期都更加渴求人才。要全面贯彻新时代人才工作新理念新战略新举措，坚持党对人才工作的全面领导，坚持人才引领发展的战略地位，坚持面向世界科技前沿、面向经济主战场、面向国家重大需求、面向人民生命健康，坚持全方位培养用好人才，坚持深化人才发展体制机制改革，坚持聚天下英才而用之，坚持营造识才爱才敬才用才的环境，坚持弘扬科学家精神。要深入实施新时代人才强国战略，深化人才发展体制机制改革，加快建设国家战略人才力量，全方位培养、引进、用好人才，加快建设世界重要人才中心和创新高地。', '《不断做强做优做大我国数字经济》是2021年10月18日习近平同志主持中共十九届中央政治局第三十四次集体学习时讲话的主要部分。指出，发展数字经济意义重大，是把握新一轮科技革命和产业变革新机遇的战略选择。要统筹国内国际两个大局、发展安全两件大事，充分发挥海量数据和丰富应用场景优势，促进数字技术和实体经济深度融合，赋能传统产业转型升级，催生新产业新业态新模式，不断做强做优做大我国数字经济。要加强关键核心技术攻关，加快新型基础设施建设，推动数字经济和实体经济融合发展，推进重点领域数字产业发展，规范数字经济发展，完善数字经济治理体系，积极参与数字经济国际合作。', '《加快建设现代化产业体系》是2022年10月16日、12月15日习近平同志两篇文稿中有关内容的节录。指出，坚持把发展经济的着力点放在实体经济上，推进新型工业化，加快建设制造强国、质量强国、航天强国、交通强国、网络强国、数字中国。实施产业基础再造工程和重大技术装备攻关工程，支持专精特新企业发展，推动制造业高端化、智能化、绿色化发展。巩固优势产业领先地位，在关系安全发展的领域加快补齐短板，提升战略性资源供应保障能力。推动战略性新兴产业融合集群发展，构建新一代信息技术、人工智能、生物技术、新能源、新材料、高端装备、绿色环保等一批新的增长引擎。加快发展数字经济，促进数字经济和实体经济深度融合，打造具有国际竞争力的数字产业集群。抓住全球产业结构和布局调整过程中孕育的新机遇，勇于开辟新领域、制胜新赛道。', '《实施科教兴国战略，强化现代化建设人才支撑》是2022年10月16日习近平同志在中国共产党第二十次全国代表大会上报告的一部分。指出，教育、科技、人才是全面建设社会主义现代化国家的基础性、战略性支撑。必须坚持科技是第一生产力、人才是第一资源、创新是第一动力，深入实施科教兴国战略、人才强国战略、创新驱动发展战略，开辟发展新领域新赛道，不断塑造发展新动能新优势。要坚持教育优先发展、科技自立自强、人才引领驱动，加快建设教育强国、科技强国、人才强国。要坚持创新在我国现代化建设全局中的核心地位，完善科技创新体系，加快实施创新驱动发展战略，加快实现高水平科技自立自强。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>237</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>细谋划重行动河舒人大兴产增收</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/xzdt/t_1827910.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['为贯彻落实河舒镇2023年“十大惠民实事”中的农家致富倍增计划，河舒人大在积极收集各代表意见与专题会、业主恳谈会等会议意见的基础上，结合实地市场考察与销售渠道，提出发展密本南瓜特色种植业，助农增收的建议。建议以全年为跨度，以“宣传培训-管护跟进-助售促销”三步走为战略方法，把准节点推动河舒特色种植业发展。', '2023年4月，对照“宣传培训”的关键节点，河舒镇人大代表敬雪章牵头组织部分镇人大代表、密本南瓜种植户在燕山社区召开密本南瓜种植现场培训会。', '培训会邀请县农业农村局和镇农服中心的技术专家，对到会的人大代表、种植户进行了“一对一”的栽种步骤详解和施肥、除虫等管护知识培训。', '河舒镇人大代表杨燕积极对接宣传资源，详细阐述了河舒镇特色种植产业管理模式、运行机制，在省级电视平台顺利播出，打响了河舒密本南瓜的农业品牌。', '以陈科忠、石林川为首的镇人大代表，积极利用自身资源和在培训会学习到的栽种、管护知识，深入各村社区田间地头，对南瓜种植户进行了种植物资调配，提供了栽种演示、技术答疑等方面的帮助，充分发挥人大代表“服务民众，服务大局”的强效作用。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>237</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>中共南充市顺庆区委组织部关于年度南充市顺庆区公开考调工作人员的公告</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/zwgk/fdzdgknr/zkly/202309/t20230904_1867064.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['中共南充市顺庆区委组织部关于2023年度南充市顺庆区公开考调工作人员的公告-顺庆区人民政府', '本次拟考调工作人员37名。具体职位及条件详见《2023年度南充市顺庆区公开考调工作人员职位表》（以下统称《职位表》）。', '符合考调条件、已进行公务员登记（含参照公务员法管理机关&lt;单位&gt;工作人员登记）且在编在岗的公务员（参照管理人员）。具体条件、范围见职位表。', '工作经历年限、任职经历年限等的计算时间均截至2023年9月。学历学位及其他资格证书应于面试资格审查前取得。', '报考人员不得报考任职后即构成公务员法第七十四条第一款所列情形的职位，也不得报考与本人有夫妻关系、直系血亲关系、三代以内旁系血亲关系以及近姻亲关系的人员担任领导成员的用人单位的职位。', '1.选择职位。公开考调职位、职位简介、职位资格条件等情况，详见《职位表》。报名人员如需咨询《职位表》中的有关事项，可与南充市顺庆区委组织部联系。符合条件的人员每人限报1个职位。', '《2023年度南充市顺庆区公开考调工作人员报名登记表》（以下统称《报名登记表》），同时下载照片审核处理工具（在《报名登记表》上传照片处下载）进行照片处理，并按网络提示上传照片。报考者应认真对照报考职位要求的资格条件，完整填报有关信息。', '笔试开考比例为5:1。资格初审合格人数与考调计划之比未达到开考比例的职位，经考调领导小组研究后，可适当放宽开考比例，但最低不得低于3:1。仍达不到开考比例的，按比例缩减或取消该职位计划。被取消计划的职位，由区委组织部征得报考人员同意后将其调整到符合报考条件的其他职位。', '笔试结束后，根据笔试成绩从高分到低分的顺序确定进入资格复审人选。进入资格复审人选与考调名额之比为3:1。拟进入资格复审的最后一名为2人以上笔试成绩并列的，并列人员均进入资格复审。进入资格复审人数达不到考调计划规定比例的职位，该职位符合条件的笔试人员全部进入资格复审。考生持《报名登记表》（按照干部管理权限经所在单位和组织部门审核，注明“同意报考”并盖章，选调生还需经同级组织部门同意推荐并盖章）、《报考人员身份及工作证明》、有效居民身份证、学历（学位）证书及职位要求的其他有关证明材料原件及复印件和公务员（参公人员）录用审批表、公务员（参公人员）登记表复印件（加盖档案存放单位印章）参加资格复审。资格复审合格者，方可取得面试资格。因资格复审不合格或因考生放弃等原因导致的缺额，按笔试成绩从高分到低分的顺序依次递补。未在规定时限内参加资格复审的，视为考生自动放弃面试资格。面试当天放弃的，不递补。', '面试由区委组织部统一组织，主要测试考生组织统筹能力、语言表达能力、沟通协调能力、专业素质等方面的能力和水平。面试成绩满分为100分，最低合格分数线为60分，低于60分的不能进入下一程序。', '按笔试成绩、面试成绩4:6的比例计算考试综合成绩，折合总分为100分。面试结束后，根据考试综合成绩从高分到低分的顺序确定考察对象并告知本人（若考试综合成绩相同，则根据笔试成绩高低确定）。考察对象人数与考调名额之比一般为2:1，对于考调名额在2人以上的职位，可根据实际情况适当降低差额考察比例，但一般不低于1.5:1。若有特殊情况，考察比例低于1.5:1的，由考调工作领导小组集体研究决定是否进行下一程序。', '考察工作由区委组织部负责实施。由2名及以上人员组成考察组，主要采取个别谈话、民主测评、实地走访、同考察对象面谈等方法，根据需要还可进行专项调查、延伸考察等，充分听取考察对象所在单位有关领导、群众和组织人事部门、纪检监察机关、机关党组织的意见，并审核干部人事档案、查询社会信用记录，对反映问题线索具体、有可查性的信访举报进行核查。注重对考察对象的德、能、勤、绩、廉情况以及职位匹配度等进行全面考察，突出政治标准，深入考察政治忠诚、政治定力、政治担当、政治能力、政治自律等方面情况，重点考察政治理论学习情况、制度执行力、履职能力、工作实绩和群众公认程度，严把政治关、品行关、能力关、作风关、廉洁关，坚决杜绝政治素质、道德品行、廉洁操守不符合要求的人员进入。', '体检由区委组织部统一组织，在市级以上公务员主管部门确定的公务员录用体检医疗机构进行。体检参照《关于修订〈公务员录用体检通用标准（试行）〉及〈公务员录用体检操作手册（试行）〉有关内容的通知》（人社部发〔2016〕140号）执行。公告发布后至本次考调体检实施时，如国家出台体检新规定，按照新规定执行。', '考调考生对非当日、非当场复检的体检项目结果有疑问的，可在接到体检结论通知之日起7日内提出复检要求。复检只进行一次，只复检对体检结论有影响的项目。体检结论以复检结果为准。未按规定时间或地点及未在规定期限内完成规定体检项目的，视为自动放弃。', '因考察、体检不合格或考生放弃等原因形成的缺额，由考调工作领导小组决定是否进行递补。', '（http://www.shunqing.gov.cn）进行公示，公示期不少于5个工作日。公示期满，对没有反映问题或反映问题不影响调动的，按规定办理调动手续；对反映有严重问题并查有实据的，取消考调资格；对反映有严重问题，但一时难以查实的，待查实并作出结论后再决定是否调动。公示期间或公示后，因考生放弃或其他原因出现的缺额，不再递补。', '2.本次考调岗位分布在两个及以上机关（单位）的职位，由考生按考试综合成绩由高到低的顺序，依次选择该职位对应的一个机关（单位）。考试综合成绩相同的，以笔试成绩高低确定选择顺序。', '考调工作严格遵守公开、平等、竞争、择优的原则，按照政策规定、条件标准和工作程序，严格把关，严守纪律，坚决杜绝弄虚作假、徇私舞弊等不良现象，并主动接受纪检监察部门及社会公众监督。对违反工作纪律的报名人员、工作人员和其他相关人员，按照相关规定严格追究相关责任。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>237</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>四川省南充市中级人民法院年公开遴选公务员公告</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwgk/fdzdgknr/zkxx/t_1872196.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['为进一步加强干部队伍建设，补充工作力量，拟面向全市公开遴选公务员4名。现公告如下。', '公开遴选职位为三级主任科员以下职级职位，详见附件《南充市中级人民法院2023年公开遴选公务员职位表》（以下统称《职位表》）。', '符合遴选条件的南充市内各县（市、区）以下机关单位已进行公务员登记（含参照公务员法管理机关＜单位＞工作人员登记）且在编在岗的公务员（含参照公务员法管理机关＜单位＞的工作人员，下同）。', '中央机关、省级机关及市级机关设在南充市各县（市、区）以下的单位（包括垂直管理单位、派出单位等）符合条件的也可报名。', '2.具有良好的业务素质和政策理论水平、学习能力、调研能力、文字综合能力，具有吃苦耐劳、甘于奉献的敬业精神，品行端正、实绩突出、群众公认。', '6.具有大学本科及以上文化程度（各职位具体学历学位及专业条件详见《职位表》）。职位所要求的学位及专业条件，指符合报考要求的学历所对应的学位及专业。', '年龄、工作经历年限、任职经历年限等的计算时间均截至报名开始第一日（2023年9月13日）。学历学位及其他资格证书应于面试资格复审前取得。', '5.按照有关规定，到乡镇机关、艰苦边远地区以及定向单位工作未满最低服务年限或者对转任有其他限制性规定的。', '报名人员不得报考任职后即构成公务员法第七十四条第一款所列情形的职位，也不得报考与本人有夫妻关系、直系血亲关系、三代以内旁系血亲关系以及近姻亲关系的人员担任领导成员的职位。', '1.选择职位。公开遴选职位、职位简介、职位资格条件等情况，详见《职位表》。报名人员如需咨询《职位表》中的有关事项，可按公布的电话直接与南充市中级人民法院联系。符合条件的人员每人限报1个职位。', '2.填报信息。报考者下载《南充市中级人民法院2023年公开遴选公务员报名表》（以下统称《报名表》），如实、准确填写《报名表》。报考者应认真对照报考职位要求的资格条件，完整填报有关信息。', '4.资格初审及打印准考证。南充市中级人民法院负责对考生报名信息进行资格初审，初审不合格的，在2个工作日内通过回复邮件的形式反馈初审结论；初审合格的，在报名截止后3个工作日内发送准考证至报考者邮箱。考生自行打印准考证，于考试当天持本人准考证和有效居民身份证（过期身份证、身份证复印件不得作为有效证件）到指定考点参加笔试。', '5.资格审查工作贯穿公开遴选全过程，对在各环节发现或新产生不符合报考资格条件的，应取消其遴选资格，所产生的后果由报考者本人承担。', '笔试开考比例为5:1。资格初审合格人数与遴选计划之比未达到开考比例的职位，经市委组织部同意可适当放宽开考比例，但最低不得低于3:1。仍达不到开考比例的，按比例缩减或取消该职位计划。2023年9月20日发布职位调整公告。', '笔试由南充市中级人民法院组织，主要测试考生用习近平新时代中国特色社会主义思想分析和解决问题的能力及相关专业素养，满分为100分。笔试时间暂定于2023年9月下旬，具体时间、地点见准考证。考生可通过南充市人力资源和社会保障局官网“人事考试专栏”查询笔试成绩和职位排名，时间暂定于2023年9月下旬。', '笔试结束后，根据笔试成绩从高分到低分的顺序确定进入资格复审人选。进入资格复审人选与遴选名额之比为3:1。拟进入资格复审的最后一名为2人以上笔试成绩并列的，并列人员均进入资格复审。进入资格复审人数达不到遴选计划规定比例的职位，该职位符合条件的笔试人员全部进入资格复审。', '1.《报名表》（按照干部管理权限经所在单位和组织部门审核，注明“同意报考”并盖章）双面打印，彩色打印照片或粘贴彩色照片。', '8.其他材料：报考司法行政人员（文秘）职位的考生需提供个人主笔的综合性文稿5篇（A4双面打印）。', '资格复审合格者，方可取得面试资格。因资格复审不合格或因考生放弃等原因导致的缺额，按笔试成绩从高分到低分的顺序依次递补。未在规定时限内参加资格复审的，视为考生自动放弃面试资格。面试当天放弃的，不递补。', '面试由南充市中级人民法院按照有关规定组织实施，采取结构化面试方式进行，主要测试考生履行职位职责所要求的能力素质。面试成绩满分为100分，最低合格分数线为70分，低于70分的不能进入下一程序。', '按笔试成绩、面试成绩4:6的比例计算考试综合成绩，折合总分为100分。面试结束后，由南充市中级人民法院根据考试综合成绩从高分到低分的顺序确定考察对象并告知本人（若考试综合成绩相同，则根据笔试成绩高低确定），其中，司法行政人员（文秘）职位考察对象与遴选名额之比为1.5：1，司法行政人员（会计）、司法行政人员（档案）职位考察对象与遴选名额之比为2：1。达不到比例的，参加面试考生全部进入考察。', '考察由南充市中级人民法院组织实施。考察组由2名以上人员组成，采取个别谈话、民主测评、实地走访、同考察对象面谈等方法，根据需要还可进行专项调查、延伸考察等，充分听取考察对象所在单位有关领导、群众和组织人事部门、纪检监察机关、机关党组织的意见，并审核干部人事档案、查询社会信用记录，对反映问题线索具体、有可查性的信访举报进行核查。注重对考察对象的德、能、勤、绩、廉情况以及职位匹配度等进行全面考察，突出政治标准，深入考察政治忠诚、政治定力、政治担当、政治能力、政治自律等方面情况，重点考察政治理论学习情况、制度执行力、履职能力、工作实绩和群众公认程度，严把政治关、品行关、能力关、作风关、廉洁关，坚决杜绝政治素质不合格、道德品行不端正、廉洁操守不过关的人员进入市级机关。', '体检由南充市中级人民法院负责，在省公务员主管部门指定的医疗机构进行，体检标准参照公务员录用通用标准执行。', '考生对非当日、非当场复检的体检项目结果有疑问的，可在接到体检结论通知之日起7日内提出复检要求。复检只进行一次，只复检对体检结论有影响的项目。体检结论以复检结果为准。未按规定时间或地点及未在规定期限内完成规定体检项目的，视为自动放弃。', '因考察、体检不合格或考生放弃等原因形成的缺额，按照综合成绩从高到低依次递补，考察、体检均递补一次。', '将拟调人员在南充市人力资源和社会保障局官网“人事考试专栏”进行为期5个工作日的公示。公示期满，对没有反映问题或反映问题不影响调动的，按程序办理调动手续和任职手续；对反映有严重问题并查有实据的，取消遴选资格；对反映有严重问题，但一时难以查实的，待查实并作出结论后再决定是否调动。公示期间或公示后，因考生放弃或其他原因出现的缺额，不再递补。', '（二）报名时请按要求填写本人手机号码，并保持通讯畅通。未入围下一环节人员，不再另行通知。', '（一）报考者应保证提供真实、准确的个人信息和资料，如有弄虚作假的行为，将按有关规定严肃处理。', '（三）南充市纪委监委驻市中级人民法院纪检监察组全程监督，有弄虚作假等违反法律法规及相关规定行为的，将按有关规定予以严肃查处。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>237</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>政协南充市委员会办公室关于选聘南充市政协智库专家的公告</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2022-05-18</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/xwdt/gsgg/202205/t20220518_1470512.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['为充分发挥人民政协专门协商机构作用，有效提高政协参政议政质量和水平，不断提升政协服务全市中心大局的精准度和贡献率，南充市政协决定面向社会公开选聘智库专家，现将有关事项公告如下：', '聚焦南充市委、市政府工作部署，结合政协工作性质和专门委员会设置特点，分类选聘宏观政策、产业发展、乡村振兴、创新开放、城建规划、社会治理、民生事业、文化旅游等领域专家学者30人。', '（一）政治坚定。坚决拥护“两个确立”，增强“四个意识”、坚定“四个自信”、做到“两个维护”，始终在思想上政治上行动上同以习近平同志为核心的中共中央保持高度一致。', '1.全国政协、四川省政协委员中的专家学者，以及四川省内外、南充市内外在各自领域取得突出成就具有较大影响的专家型人才；', '3.南充机关企事业单位、行业、协会（学会）中，能精准把握党的路线、方针、政策，对重大理论和现实问题进行综合分析研判的复合型人才；', '4.南充各民主党派、市工商联等政协各参加单位，历届南充市政协委员，外地南充籍知名乡友中，善于站位新视角、抛出新观点、提出新对策的实用型人才。', '（三）素质优良。关心南充发展，热心决策咨询，能够认真、客观、公正地履行职责。遵守宪法和法律法规。身体健康。', '（一）深入研究中央大政方针和政策法规，为南充市委、市政府决策提供全局性、前瞻性、战略性的决策建议。围绕南充经济社会发展开展研究，提出有理论支撑和应用价值的对策建议。围绕人民群众普遍关注的热点、难点、焦点问题认真研究，提出具有针对性、可操作性的意见建议。', '（二）对南充市委、市政府交给市政协的重大研究课题进行调研论证，对列入年度协商计划、政协工作要点的重要课题进行调查研究，提出专业化意见建议。', '（三）参加南充市政协组织的学习、考察、调研、视察、协商、会议等相关活动，参与市政协全会、常委会议、联组讨论会等发言材料的研究评审，完成市政协委托的研究咨询事项和课题研究任务。', '（一）报名。采取三种报名方式：①个人自荐报名；②单位推荐符合条件的有关人员报名；③南充市政协根据工作需要，特邀有关人员报名。', '（二）资格审查（考察）。南充市政协研究室汇总推荐名单后，按照智库专家选聘标准和条件进行审核把关，必要时组织考察组进行考察。根据考察审核情况，择优提出智库选聘人员建议名单。', '（三）聘任。智库选聘人员建议名单提交南充市政协党组会、主席会议审议，审议通过后正式聘任。市政协将向入库专家颁发聘书，聘期5年。被聘任的专家参加活动及工作保障按照《政协南充市委员会智库建设管理办法（试行）》《政协南充市委员会智库工作规则（试行）》规定执行。', '（三）填写《申请表》并由本人签名，有工作单位和由单位推荐的，请在《申请表》上签署单位意见并加盖公章。《申请表》及相关职称、研究成果、荣誉称号等证明材料均需提供扫描件PDF版，《申请表》还需提供电子档。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>237</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>十八届县人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zdhy/t_1875806.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['会议组织学习了《四川省行政事业性国有资产管理办法》《四川省省直行政事业单位国有资产管理办法》，', '传达学习习近平总书记在四川考察时的重要讲话、7月29日省委常委会（扩大）会议和7月31日省委工作会议、7月29日省政府党组（扩大）会议精神，研究贯彻意见；', '传达学习习近平总书记对防汛救灾工作作出重要指示、全国安全生产电视电话会议和全省安全防灾应急工作视频调度会议精神，研究贯彻意见；', '《中共四川省委办公厅、四川省人民政府办公厅印发〈关于推进以县城为重要载体的城镇化建设的实施意见〉的通知》精神，']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>237</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>万源市来我县考察学习新时代文明实践中心建设工作</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2022-04-23</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/xwdt/payw/202204/t20220423_1458357.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['4月22日下午，万源市委常委、宣传部部长何恩源带领考察团来蓬安，考察学习新时代文明实践中心建设工作。', '考察团一行先后来到蓬安县新时代文明实践中心，相如街道城南桥社区新时代文明实践站等地，通过现场查看，听取情况介绍等方式，详细了解各点位新时代文明实践工作的建设运行情况以及建设思路、创新做法和主要成效。', '据了解，蓬安县新时代文明实践中心整合团县委、县妇联、县文化馆等单位的阵地资源，设置中心展厅、文化活动功能室等场馆，总面积达到10万余平方米。打造相如文化普及、生态文明实践、青少年法治教育等20个特色实践基地。各乡镇(街道)、村(社区)整合现有资源，按照“六有”标准，分设实践所21个、实践站311个。同时，开发“文明蓬安”APP，对接县融媒体两微一端一网平台，实现两中心移动互联互通，在全县构建起县、乡、村、组、户五级“线上线下”全覆盖的新时代文明实践矩阵。', '据了解，蓬安县新时代文明实践中心整合团县委、县妇联、县文化馆等单位的阵地资源，设置中心展厅、文化活动功能室等场馆，总面积达到', '考察中，万源市考察团认为，蓬安在新时代文明实践中心建设工作上方向明确，思路清晰，创新性强，一系列经验做法值得学习借鉴。表示将把蓬安的好经验、好做法带回去，运用到万源市的新时代文明实践中心建设工作中，更好地承担举旗帜、聚民心、育新人、兴文化、展形象的使命任务，高质量、高标准推进万源市新时代文明实践工作。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>237</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>年西充县总工会社会化工会工作者招聘公告</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.xichong.gov.cn/zwgk/fdzdgknr/zdmsxx/zkly/202310/t20231019_1884513.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['为推进工会工作者职业化进程，建立竞争择优、充满活力的用人机制，按照《西充县总工会社会化工会工作者管理办法》规定', '拥护中国共产党的领导，拥护社会主义制度，坚决贯彻执行党的基本路线和各项方针、政策，政治素质过硬，有相应的政策理论水平。', '热爱工会事业，善于做群众工作，有较强的事业心、责任感和敬业精神，具有较强的组织协调能力、文字和口头表达能力，熟悉现代化办公软件操作。', '二、用工性质社会化工会工作者是工会核定编制之外的合同制工作人员，由西充县总工会与聘用人员签订劳动合同，并统筹安排工作。', '最后一名笔试成绩相同的，一并进入面试。招聘单位通知考生面试时间时，出现放弃面试资格的，缺额按笔试成绩从高到低依次等额递补，如', '体检不合格的考生，由招聘单位安排考生到另外二级甲等医院进行复检，体检结果以复检为准；', '确定考察对象。考察内容主要包括考生的政治思想、道德品质、能力素质、学习和工作表现、遵纪守法、廉洁自律等方面的情况', '绩效工资），同时按国家和地方有关社会保险的法律、法规和政策规定按不低于地方最低标准为社会化工会工作者缴纳基本养老、医疗、失业、工伤保险、住房公积金费用。其他福利待遇按单位有关规定执行。试用期待遇为薪资结构中的基本工资部分。试用期间不能胜任工作的，', '此次招聘严格按照有关人事工作规定进行，接受社会监督，认真受理群众检举，并按照管理权限妥善处理。', '1.附件：西充县总工会2023年招聘社会化工会工作者报名及资格审查登记表.docx']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>237</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>物流园管委会年度法治政府建设年度报告</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2023-12-25</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/xxbs/202312/t20231225_1918328.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['，南充现代物流园坚持以习近平新时代中国特色社会主义思想为指引，深入贯彻落实习近平法治思想和', '，认真落实党中央、省、市、区关于法治政府建设的重大决策部署，推动形成依法执政和依法行政为重点、普法教育为先导、社会依法治理为基础的法治政府建设格局', '推进法治政府建设工作，关键在组织领导、重点在落地落实。园区管委会认真贯彻落实习近平法治思想和中央全面依法治国工作会议精神，始终把法治政府建设作为园区工作开展的基本准则，及时建立法治政府建设工作领导小组，党政主要负责同志任组长，严格履行推进法治政府建设第一责任人职责。坚持把法治政府建设工作纳入党工委重点工作安排，坚持做到把法治政府建设和园区经济建设发展同推进、同部署、同落实。', '把学习习近平法治思想作为重点学习内容，领导干部带头学习，深入学习领会习近平法治思想丰富内涵和精神实质，充分认识习近平法治思想是对党领导法治建设丰富实践和宝贵经验的科学总结，增强干部职工法治意识。结合', '普法工作部署，组织干部职工在干部会议上学习《中华人民共和国公务员法》《中华人民共和国密码法》《中华人民共和国反垄断法》等法律法规，通过国家工作人员学法考试平台、学习强国、保密线上培训等线上线下相结合、自主学习与集中教育培训相结合方式深入学习贯彻习近平法治思想，推动习近平法治思想学习宣传入心入脑，坚持用习近平法治思想指导实践、推动工作，为物流园发展提供坚实的法治保障。', '通过党工委会议（扩大）、理论学习中心组会议、党支部会议，学习习近平总书记重要讲话和重要指示批示精神', '习近平总书记在学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议的重要讲话、习近平总书记在四川考察的重要讲话等系列重要讲话精神，以习近平总书记重要讲话重要指示精神为指导开展工作。以学习贯彻党的二十大精神为契机和动力，贯彻落实党的二十大关于法治建设重大部署，研究解决在依法行政工作中的实际问题，运用法治思维和法治方式推动园区工作。', '干部职工依法行政意识和依法行政理念，树立良好的法治观念和服务意识，不断提高自身法治修养。', '同时，企服干部在服务企业过程中，大力开展企业普法宣传，向广大职工群众宣讲党的二十大精神和民法典，培养广大群众的爱国意识、守法意识。设立南充现代物流园劳动争议调解中心，帮助园区企业职工解决劳动争议。', '全面排查园区不稳定因素，建立问题台账，明确责任分工，做到件件有人管，事事勤销号，不能及时销号的信访问题，制定详细的处理方案。对拆迁安置人员、医保政策涉及人员进行源头排查，建立隐患清单，压实责任清单，落实维稳举措，确保管控到位；与龙门、小龙和螺溪街道办建立信息互通机制，遇到紧急、重要情况和重大突发事件，及时响应，及时沟通，及时报告，及时处理。提前建立应急预案，及时化解了桃李清华10.30业主群访事件。同时，积极组织召开信访工作协调会10余次，处理化解群众集访、阻工24起，涉及群众近千人', '全面排查园区不稳定因素，建立问题台账，明确责任分工，做到件件有人管，事事勤销号，不能及时销号的信访问题，制定详细的处理方案。对拆迁安置人员、医保政策涉及人员进行源头排查，建立隐患清单，压实责任清单，落实维稳举措，确保管控到位；与龙门、小龙和螺溪街道办建立信息互通机制，遇到紧急、重要情况和重大突发事件，及时响应，及时沟通，及时报告，及时处理。提前建立应急预案，及时化解了桃李清华', '由于园区招商引资、项目建设、拆迁安置、信访维稳、安全生产等工作繁重，干部学习时间不够充分，干部学习的深度和广度不够，学法效果不够理想，学习运用还需进一步提升。', '当前还存在普法宣传教育的形式单一、方式不活、针对性不强、吸引力不大等问题，有时仅满足于完成普法规定动作，没能将普法宣传教育与物流园工作实际和工作职能融会贯通、统筹推进。', '一是坚持依法行政推动法治政府建设，以习近平新时代中国特色社会主义思想为指导，深入学习宣传贯彻党的二十大精神，加强党对法治政府建设的领导，深化落实主要负责人履行推进法治建设第一责任人职责，压紧压实法治政府建设责任，提升法治素养和依法行政能力，确保各项工作在法治道路上前进，提高法治政府建设工作成效。', '二是持续深入学习领会习近平法治思想，结合主题教育，将学习贯彻习近平法治思想的法律法规和党内重要法规作为领导干部的重点学习内容，提高干部职工运用法治思维和法治方式开展工作的水平，把依法行政贯穿于', '三是深入推进行政决策科学化、民主化、法治化，规范行政决策程序，严格按照法定的权限和程序行使权力、履行职责，持续提高科学、民主、依法决策的能力，提升行政决策法治化水平，确保决策行为有法可依、有章可循、有序推进，不断提升']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>237</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>西充全力打造川东北教育强县</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwgk/fdzdgknr/zdmsxx/jy/jyssqk/202311/t20231120_1899372.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['办好每一所学校，发展好每一个学生，成就好每一位教师。近年来，西充县始终坚持教育优先发展战略，紧紧围绕“川东北教育强县”建设目标，统筹推进教育均衡化、现代化、信息化，教育基础设施不断完善，师资队伍素质整体提高，基本构建起从学前教育到高等教育全覆盖的教育体系。', '位于西充县城南新区的惜字塔幼儿园项目于今年4月开工建设。笔者近日在项目建设现场看到，机械轰鸣声不绝于耳，工人们在各自岗位上忙碌。惜字塔幼儿园占地16.5亩，建成可设置15个教学班。', '惜字塔幼儿园一旁，是新投入使用的惜字塔小学。该校占地面积50亩，拥有心理咨询室、科学探究室、数字美术室、舞蹈室、创客室、音乐室等30间功能教室和60间规范教室，每间教室均配备了智慧授课系统。广播、安防、网络三大系统覆盖全校，实现了智慧门禁、电子校务、家校衔接互联互通。', '近年来，为不断改善办学条件，西充县实施了张澜学校、示范幼儿园、东风路幼儿园、惜字塔小学、惜字塔幼儿园等教育项目，新（改）建校舍21万余平方米；完成薄弱学校改造、农村寄宿制学校建设42所。一系列项目的实施，为义务教育优质均衡发展奠定坚实基础。', '推动教育高质量发展，离不开高素质教师队伍的建设。近年来，西充县深入实施“三名工程”（名学校、名校长、名教师），目前已建成“名教师”工作室10个，培育“名教师”96名；建成“名校长”工作室4个，培育“名校长”37名；创建“名学校”4所。', '“对每一名学生，给予爱的同时，也要原谅他们的不完美，要给予孩子尽可能多的耐心和宽容。”许兼是西充县第二实验小学校长，也是一名“名校长”。三尺讲台上，许兼用渊博的知识、深沉的师爱照亮莘莘学子前进的道路。', '作为学校管理者，许兼特别注重老师们的团结与合作，她毫无保留地将自己的教育教学经验和青年教师进行分享交流，以良好的师德影响感染青年教师，帮助青年教师树立起对教育教学工作的责任感和光荣感。', '“‘名校长’培育方式主要是以‘名校长’工作室为单元，组织工作室成员到南充、重庆等地的名校考察学习，进行管理经验交流，实现管理能力提升。”西充县教科体局副局长朱仕刚介绍，该县以“名校长”工作室为抓手，将名校先进管理经验在全县学校推广；以县教研室、教师进修校为培训龙头，对薄弱学校教师开展订单式培训；常态开展“新教师过关课、青年教师达标课、骨干教师示范课”、学科教学技能竞赛、“一师一优课，一课一名师”竞赛、“三课三赛”等实践活动，不断提高教师教学能力。', '通过“名教师”“名校长”的培育和名校的创建，西充培养一批具有现代教育理念的“名教师”“名校长”；充分发挥特级教师、学科带头人的引领作用，逐步形成名师带骨干、骨干带全员的传帮带体系，全县教师业务水平不断提高。', '11月16日下午，西充中学高2022级21班教室的大屏幕上，一堂“光的全反射”物理课正在开讲。同学们聚精会神聆听，并按视频中老师的指导开展课堂互动。物理老师张淋根据直播内容为学生作进一步讲解。', '“这节课上的是‘巴蜀云校双师+课程班’课程。我校与重庆市巴蜀中学校合作，有互动、有计划、有落实、有把控地开展课堂教学，让学生异地同堂享受名校教育资源。”张淋说，两校主要在线上教研教辅资料共享、教学课件共享等方面开展合作。', '据介绍，2022年7月，西充县与重庆市巴蜀中学校达成战略合作意向，巴蜀中学校整合优质教学、教研、教培、科研等资源，通过“十二个同步”“六年一贯制培养模式”“强基计划”等方式，向西充县各中学校输出优质基础教育资源，进一步提升西充学校的管理水平、教学质量。', '近年来，西充县积极探索云计算、大数据时代下现代教学新思想、新理念、新模式，将现代信息技术与课堂教学深度融合，对各种教学资源与教学信息充分整合，全力打造网络化、数字化、智能化、个性化的智慧校园。', '同时，为满足学生多元化需求、个性化成长，该县持续深化教育综合改革，以素质教育为根本，以教育质量为核心，以特色教育为突破，明确校校有特色、班班有特点、人人有特长的特色学校建设思路，努力丰富教育内涵，全面提升学校教学质量和办学品位。', '示范幼儿园倡导“一花一世界”的教育观，用欣赏、等待的态度对待每一个孩子；实验一小根据孩子的兴趣爱好、特长，打造了72个社团，包括音乐、体育、剪纸等传统项目，以及电脑编程等创新项目……各校结合学生兴趣、爱好和特长，丰富和拓展教育内容，推动形成“一校一品”的特色校园文化。全县教育质量不断提高，被认定为全国义务教育发展基本均衡县，成功创建为全国科普示范县，被表彰为四川省教育工作先进集体等。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>237</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>仪陇县医疗保障局接受创建市级文明单位考核验收</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/zwgk/fdzdgknr/zdmsxx/shbz/202312/t20231219_1915017.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['人来我局就市级文明单位创建工作进行考核验收。县医保局党组书记、局长刘永福，党组成员、副局长何启林陪同考核。', '考核验收组一行先后来到医保经办服务大厅、党员干部活动室实地查看了创建氛围营造、政策宣传、阵地建设等工作开展情况。本次考核验收采取“听取汇报、材料审核、实地考察”等方式进行。', '座谈会上，党组成员、副局长何启林就我局创建市级文明单位“组织领导、思想建设、科教文化建设、改革开放、生产工作、社会主义新风、特色指标、否决条件”等八个考核项目完成情况和下一步工作打算进行了详细汇报。考核验收组对我局创建工作给予了充分肯定，同时也对我局创建工作提出了相关要求：一是持续开展好主题教育活动。利用重要事件、重要纪念日和节假日，动员全局干部职工参与到创建活动中来，开展爱国主义、集体主义、社会主义和革命传统教育活动。二是持续加强普规普法学习。利用德乡医保大讲堂、主题党日活动、“三会一课”等，常态化开展好党员干部普规普法学习，切实增强干部职工民主法制观念和遵纪守法意识。三是持续深化精神文明建设。深入开展“我为群众办实事”实践活动，组织党员干部开展志愿服务、交通文明劝导等活动，以实际行动践行为民服务宗旨。四是持续完善好软件资料。对照南充市市级文明单位考核验收细则，逐一梳理、查漏补缺，完善好软件资料归档工作，确保在全市复查中不丢分。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>237</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>中共南充市委组织部关于年上半年公开考试录用公务员参照管理工作人员的公告</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwgk/fdzdgknr/zkxx/t_1764144.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['中共南充市委组织部 关于2023年上半年公开考试录用公务员（参照管理工作人员）的公告-南充市人民政府', '中共南充市委组织部 关于2023年上半年公开考试录用公务员（参照管理工作人员）的公告', '年高校应届毕业生应当按期毕业并取得相应学历学位证书，其他人员应当在面试资格审查前取得相应学历学位证书。未在规定时间内取得有关证书的，不予进入下一步考录环节或不予录用，责任由本人自负。', '年）未落实工作单位，其户口、档案、组织关系仍保留在原毕业学校，或者保留在各级毕业生就业主管部门（毕业生就业指导中心）、各级人才交流服务机构和各级公共就业服务机构的毕业生；二是', '日期间取得国（境）外学位、完成教育部门学历认证且未落实工作单位的留学回国人员；三是参加基层服务项目前无工作经历、服务期满且考核合格后', '具有符合职位要求的文化程度和工作能力。其中，拟报职位的“专业”条件，指与“要求的学历学位”所对应的专业', '报考者不得报考录用后即构成公务员法第七十四条第一款所列情形的职位，也不得报考与本人有夫妻关系、直系血亲关系、三代以内旁系血亲关系以及近姻亲关系的人员担任领导成员的用人单位的职位。', '发现报考者有不符合报考资格条件、弄虚作假情形的，取消考试、录用资格，所产生的后果由报考者本人承担。', '职位选择。报考人员登陆四川省人力资源和社会保障厅官网、南充市人力资源和社会保障局官网', '“人事考试”专栏，认真阅读“公告”、“公招职位情况表”等，了解基本政策和要求，了解招录职位所规定的范围、对象、条件，以及备注', '根据自身实际，选择与自己条件完全相符的招录职位进行报名。报考人员应使用有效居民身份证有关信息进行报名，并且只能选择', '）报名信息表》（以下简称《报名信息表》）的各项内容，同时下载照片审核处理工具（在《报名信息表》上传照片处下载）进行照片处理，并按网络提示上传照片。', '对提供虚假报考申请材料的，一经查实，即取消报考资格。对恶意注册报名信息，扰乱报名秩序或者伪造、变造有关材料骗取报考资格的，按照中共中央组织部、人力资源社会保障部《关于印发', '期间，登陆报名网站查询是否通过资格初审。资格初审合格者，不能再报考其他职位，并按网络提示打印《报名信息表》', '份，供资格审查时使用。资格初审不合格的，可于报名时间截止前改报其他符合条件的职位。', '前登陆报名网站确认缴费。按照四川省发展和改革委员会、四川省财政厅《关于继续执行全省人力资源社会保障部门行政事业性收费的通知》（川发改价格规〔', '元。网络报名后未在规定时间内确认缴费者，视为自动放弃。确认缴费的具体程序按网络提示进行', '号）规定的享受国家最低生活保障金的城镇、农村家庭考生，凭县（市、区）民政部门发放的享受最低生活保障证明、特殊困难证明', '脱贫户家庭考生，凭乡（镇）政府、街道办事处和学校学生处出具原农村建档立卡贫困户证明、特殊困难证明', '父母双亡、父母一方为烈士或一级伤残军人，且生活十分困难家庭考生，凭有关部门出具的父母双亡证明或民政部门（退役军人事务部门）出具的父亲或母亲烈士证明、父亲或母亲一级伤残军人证明。', '相应缩减或取消录用计划。被取消录用计划的职位，由缴费网站向该职位已缴费的报考人员退费，或征得考生同意后将其调整到符合报考条件的其他职位（本市本次招考职位）。上述有关情况将于', '纸打印，黑白、彩色均可，保证字迹、照片清晰），逾期不打印准考证而影响考试的一切责任由考生自负。', '报考人员应按照准考证上规定的时间和指定的考点参加考试。凭准考证和有效居民身份证（不含过期身份证、身份证复印件、第一代居民身份证、户口本、驾驶证）进入考场，两证不全者不得参加考试。', '”抗震救灾中表现突出的人员，报考重灾区阆中市职位的，受到省委、省政府和国家部委及以上表彰的，笔试各科成绩折合后加', '分，受到市（州）、县（市、区）党委、政府和省级机关、市（州）机关表彰的，笔试各科成绩折合后加', '分；报考市内其他县（市、区）职位的，受到省委、省政府和国家部委及以上表彰的，笔试各科成绩折合后加', '倍，从高分到低分依次确定进入资格审查人员名单。最后一名笔试成绩相同的，可一并进入资格审查。笔试有缺考科目者不得进入资格', '“人事考试”专栏适时公布。考生按资格审查公告要求，携带《报名信息表》（贴上照片）、准考证、有效居民身份证、毕业证、学位证（明确了学位要求的职位）和招录机关要求的其他证书、证明、手续的原件及复印件两份，在规定时间内到指定的地点进行资格审查。其中：', '年高校应届毕业生出具本人学生证（无学生证或学生证上专业及学历层次等信息不全的，出具所在学校主管毕业生就业工作部门开具的院系、学历层次和专业等情况证明）。', '国（境）外留学归来人员报考的，出具教育部国（境）外学历学位认证书。考生可登陆教育部留学服务中心网站', '资格审查不合格或考生自动放弃出现的缺额，在报考同一职位的考生中，按笔试成绩由高到低的顺序依次确定递补人员。未在规定时限内参加面试资格审查的，视为考生自动放弃面试资格。资格审查合格的人员，按川发改价格规〔', '资格审查合格的人员，凭本人有效期内的第二代居民身份证、准考证参加面试。面试时间暂定为', '日，面试具体时间、地点及相关事项详见面试通知书或资格审查后在南充市人力资源和社会保障局官网', '各职位按考试总成绩由高到低的顺序，等额确定进入体检人选。考试总成绩相同的，以笔试成绩高低确定', '体检由招录机关组织实施，在省公务员主管部门指定的公务员录用体检医疗机构进行。体检按照人力资源社会保障部、国家卫生计生委、国家公务员局《关于修订', '招录机关或考生对非当日、非当场复检的体检项目结果有疑问的，可在接到体检结论通知之日起', '体检不合格或自动放弃出现缺额的，在报考同一职位进入面试人员中，按考试总成绩由高到底的顺序依次递补。', '资格复审主要核实报考者是否符合规定的报考资格条件，确认其报名时提交的信息和材料是否真实、准确、完整。', '号）有关规定进行。招录机关将采取实地走访、个别谈话、审核人事档案（学籍档案）、查询社会信用记录、同本人面谈等方法，了解考察人选政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律情况，以及是否具有应当回避的情形，身心健康状况，与招考职位的匹配度等情况，重点考察人选是否符合增强“四个意识”、坚定“四个自信”、做到“两个维护”，热爱中国共产党、热爱祖国、热爱人民等政治要求。对于报考要求具有基层工作经历职位的人员，应当按照有关规定，严格甄别、准确认定其基层工作经历情况。', '考察人选达不到公务员应当具备的条件或者不符合报考职位要求的，不得确定为拟录用人员。考察不合格或自动放弃出现缺额', '，在报考同一职位参加面试的人员中，按考试总成绩由高到低依次递补。递补人员经体检合格后进入考察。', '。公示内容包括招录机关名称、拟录用职位，拟录用人员姓名、性别、准考证号、毕业院校、工作单位、考试总成绩、职位排名等，同时公布监督电话。公示期为', '公示期满，对没有反映问题或反映问题但不影响录用的，按规定办理录用手续；对有严重问题并查有实据的，不予录用；对反映有严重问题，但一时难以查实的，暂缓录用，待查实并作出结论后再决定是否录用。', '此前已报考其他机关，因未获录用通知而参加本次报考的考生，在本次录用审批手续办理前被其他机关录用为公务员（以招考单位通知的时间为准）的，本人应主动终止参加本次考录，本次报考单位不予录用。被录用的人员应在规定的时间内到用人单位报到。不按时报到的，取消录用。', '录用名额分布在两个及以上机关（单位）的职位，由县（市、区）党委组织部或市级招录机关（单位）组织考生，按考试总成绩由高到低的顺序，依次选择该职位对应的一个机关（单位）。考试总成绩相同的，以笔试成绩高低确定选择顺序；笔试成绩仍相同的，以《行政职业能力测验》成绩高低确定选择顺序。', '试用期满，经单位考核合格后由任免机关按照《新录用公务员任职定级规定》，在规定的编制职数职级限额内按有关程序任职定级', '试用期间有严重违纪违规行为或试用期满考核不合格的，取消录用。新录用的公务员应在试用期内进行初任培训。', '严肃纪律，严禁徇私舞弊、弄虚作假，纪检监察和公务员主管部门将对公务员考录过程进行全程监督，对考录过程中出现的违纪违规行为，一经查实，将', '本次考试不指定考试辅导用书，不举办也不委托任何机构举办考试辅导培训班。凡有假借公务员考试命题组、考试教材编委会、公务员主管部门授权等名义举办的有关公务员考试培训、网站或发行的出版物等，均与本次招考无关，请广大报考者提高警惕，莫被误导干扰，谨防上当受骗。请社会各界加强监督，如发现以上情况，请向相关部门举报，依法依规严肃查处。', '附件1：南充市2023年上半年公开考试录用公务员（参照管理工作人员）职位情况表.xlsx']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>237</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>四川省蓬安县教师进修学校年单位预算编制说明</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/zwgk/fdzdgknr/ysjs/bmdwys/2024nddwys/202404/t20240408_1959540.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['蓬安县教师进修学校是由县级人民政府领导、教育行政单位主管、以实施本地区中小学教师继续教育工作为主要任务，并具有与教师教育相关的管理、研究、服务和教育信息资源开发与利用等职能，具有独立法人资格的办学实体。蓬安县教师进修学校的主要任务是：', '4.为中小学教师提供网络研修和远程学习服务，帮助中小学教师充分利用各种信息资源开展自主学习。', '6.在县（市、区）教育行政单位领导或委托下，参与制定本地中小学教师继续教育规划和教师全员培训的分类计划；管理教师继续教育学时审查登记、考核和认定工作；', '按照综合预算的原则，蓬安县教师进修学校所有收入和支出均纳入单位预算管理。收入包括：一般公共预算拨款收入、上年结转；支出包括：一般公共服务支出、教育支出、社会保障和就业支出、医疗卫生与计划生育支出、住房保障支出。蓬安县教师进修学校', '5. 住房保障（类）住房改革支出（款）住房公积金（项）:2024年预算数为185,836.56元，主要用于：单位事业单位按人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金支出。', '6.社会保障和就业支出（类）行政事业单位养老支出（款）其他行政事业单位养老支出（项）:2024年预算数为600元，主要用于：除上述项目以为外其他用于行政事业单位养老方面的支出。', '2,760,480.15元，主要包括：基本工资、津贴补贴、奖金、社会保险缴费、绩效工资、机关事业单位基本养老保险缴费、职业年金缴费、其他工资福利支出、离休费、住房公积金、其他对个人和家庭的补助支出。', '2024年公务接待费2000元，计划用于执行公务、考察调研、检查指导等公务活动开支的交通费、住宿费、用餐费等。', '2024年没有政府性基金预算财政拨款收入，也没有使用政府性基金预算财政拨款安排的支出。', '2023年底，蓬安县教师进修学校共有车辆0辆，其中，省部级领导干部用车0辆、定向保障用车0辆、执法执勤用车0辆。单位价值200万元以上大型设备0台（套）。', '2. 教育支出（类）教育管理事务（款）其他经营管理事务支出（项）：指单位用于保障机构正常运行、开展日常工作的基本支出。', '3.社会保障和就业（类）行政事业单位离退休（款）机关事业单位基本养老保险缴费支出（项）：指单位实施养老保险制度由单位缴纳的养老保险费的支出。', '4.医疗卫生与计划生育（类）行政事业单位医疗（款）事业单位医疗（项）：指事业单位用于缴纳单位基本医疗保险支出。', '5.住房保障（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》的规定，由单位及其在职职工缴存的长期住房储金。', '9.“三公”经费：纳入蓬安县教师进修学校预决算管理的“三公”经费，是指单位用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；', '10.单位运行经费：为保障单位行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>237</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>流马镇村级领军人才培养方案</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2021-12-22</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/202112/t20211222_1197835.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平新时代中国特色社会主义思想，全面落实中央、省委、市委及县委关于实施乡村振兴战略的新思路、新要求，不断优化农村后备干部和人才队伍结构，为农村基层党组织提供源源不断的后备力量，确保农村党建基础更加牢固、农村各项事业健康发展，结合我镇实际，就加强和改进基层组织建设及培养乡村振兴领军人才制定本方案。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、 三中、 四中、五中全会精神，认真落实习近平总书记对实施乡村振兴战略作出的重要指示精神，进一步夯实基层组织基础，在全镇现有乡村振兴领军人才的基础上，着力壮大一支来源广泛、数量充足、结构合理、素质优良的乡村振兴领军人才队伍，确保每个村至少拥有 1-2 名乡村振兴领军人才，彻底解决农村“后继乏人”的问题，为推进乡村振兴战略提供坚强的组织保障和人才支撑。', '围绕“懂农业、爱农村、爱农民”的总要求，采取集中培养、实践锻炼、回村任职等多种形式培养一批优秀党组织书记、致富带头人等，鼓励支持退役军人、返乡大学生等优秀青年回村参选、创业，切实增强优秀人才领导农村、促进农业、服务农民水平。在针对现有的乡村振兴领军人才基础上，同时采取个人报名、村党支部推荐、公开招聘等方式，突出政治标准，按照”五个过硬”的条件确定培养人员。一是政治过硬。立场坚定，坚决贯彻党的路线方针政策，遵守法律法规，认真执行省、市、县决策部署。二是信念过硬。有坚定理想信念和奉献精神，在发展农村经济、带领村民致富、支持村“两委”工作、维护农村稳定、履行村规民约方面能够起到模范带头作用。三是作风过硬。有强烈的事业心和责任感，处事公道正派、善于做群众工作，能够积极主动帮助群众解决生产生活实际困难，有较好群众基础。四是能力过硬。有较强组织协调能力和自我发展能力，熟悉村情民情，具备创新意识和市场开拓能力，能够引导群众发展、带领群众致富。五是素质过硬。具有高中或中专以上文化水平，身体健康，能够胜任农村工作。同时，重点选拔 18 岁以上、35 岁以下的农村青年，特别优秀的年龄可适当放宽。', '一是注重创新授课方式。在集中培训、实地培训、座谈交流等传统培养模式的基础上，定期组织人员到先进镇、村实地观摩学习，对标先进，提升素质。二是注重储备讲师队伍。积极联系高校、企业等单位，聘请上级有关部门领导或业务干部、专业技术人员、优秀乡土特色人才进行授课。三是注重丰富课程设置。围绕“实施乡村振兴战略’，统量身定制“培训菜单”，对人员进行政治理论、社会治理、法律法规、党建业务等教育，开展乡村振兴战略、农村经济发展、农业技术推广等实用性较强的专题教育。四是注重加强考核管理。健全考核管理机制，制定考勤考绩办法，为每位村级领军人才建档管理，逐人建立台账，定期开展联审联查，对违法违纪的，发现一个，清理一个，保证培训效果。坚持好中选优，对表现特别突出的，可经过考察确定为入党积极分子。五是注重拓宽培养范围。统筹用好各类教育资源，把农村退伍军人、大学毕业生、村级后备干部等人员纳入培训范围，提升履职能力。', '（二）强化实践锻炼。坚持把农村作为主战场，镇党委组织相关人员在机关、合作社等岗位上锻炼，从镇领导班子、中层干部、业务骨干中建立一对一的联系培养制度，促进其全面熟悉农村工作的政策程序，掌握农村工作的方法和内容，不断提升发展经济、村务管理和为民服务的本领。一是夯实镇党委主体责任。镇党委围绕实践锻炼的目的，组织参与乡村振兴、征地拆迁、信访维稳等重要工作，注重在急、难、险、重任务中锻炼、考察和培养。回村锻炼期间，镇党委要进行跟踪培养和辅助管理，安排专人定期与村级党组织沟通，了解其工作、思想状态。对在集中培训期间已经被确定为积极分子的人员，定期组织其参加政治学习和党内活动，表现特别优秀的，择优确定为发展对象，未被确定为积极分子的，根据其思想状况、综合表现，在村党组织进行重点培养。二是夯实联系帮带责任。按照上级文件要求镇党委组织委员担任培养辅导员，要切实负起帮带责任，开展结对帮教，做到政治上引、学习上带、思想上领、方法上教、工作上帮，每月至少开展谈心谈话 1 次，每月至少检查工作日志 1 次并签字。', '（三）注重跟踪培养。培养期满后，由镇党委组织结业考试和实绩考核，对考核、考试合格的人员颁发结业证书。人员所在党组织要定期了解掌握其发挥作用情况，跟踪考察培养。要注重加大“领军人才”人员使用力度，支持人员学成以后返乡创业，引导鼓励人员领办创办专业农村合作社，在惠农、金融等政策等方面予以适当倾斜，促进人员带头致富、带领脱贫。同时，力争在下次村“两委”换届中 80%以上的村“两委”班子成员中有 1 名人员，30%以上的村“两委”正职中有 1 名人员。', '（一）加强组织领导。成立实施乡村振兴领军人才领导小组，由党委书记担任组长，镇党委委员担任副组长，成员由党政办、党建办、社会事业服务中心、农业服务中心、乡村振兴办等站所相关负责同志担任。镇纪委负责全程从严监督，严肃查处工作中出现的违纪行为。', '（二）加大资金保障。财政所负责提供经费支持；其他部门各司其职，相互协作、密切配合、形成合力，保障工作顺利实施。', '（三）加强过程管理。镇相关部门、各村（居）要牢固树立大局意识和全局观念，把实施领军人才工程摆在重要日程，主动谋划、加强指导，坚持分级负责，一级抓一级，层层抓落实，切实做好人员选拔、培养、锻炼、使用等工作。', '（四）强化考核引导。建立奖惩机制，夯实工作责任，把乡村组织人才振兴，实施领军人才培养列入目标责任制考核，定期督查通报，并纳入年底各支部考核评分细则，引导组织人才工作资源向乡村振兴聚焦聚力。', '（五）注重宣传总结。各村（居）、相关单位部门要坚持正确舆论导向，统筹协调各方力量，广泛宣传中央、省、市关于乡村振兴战略的路线方针政策，利用政府网站、微信公众号等方式，积极推进工作，及时总结好经验、好做法，努力形成一批可推广、可复制的人才培养新模式，切实为流马镇乡村振兴提供坚强的组织保障和人才支撑。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>237</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>阆中市安全生产委员会关于印发年全市安全生产工作要点的通知</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.langzhong.gov.cn/zwgk/fdzdgknr/jdjc/aqsc/202405/t20240506_1968223.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['阆中市安全生产委员会关于印发《2024年全市安全生产工作要点》的通知-阆中市人民政府', '日前分别将半年度和全年工作完成情况报送市安办。市安办要加强综合协调和督促检查，将各', '2024年全市安全生产工作主要任务是：以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神和习近平总书记关于安全生产的重要论述、来川考察重要指示精神，认真落实', '年全市安全生产工作主要任务是：以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神和习近平总书记关于安全生产的重要论述、来川考察重要指示精神，认真落实', '持标本兼治、重在治本，统筹好发展和安全，健全完善安全生产体系，深入开展安全生产治本攻坚三年行动，进一步压紧压实安全生产责任，全力防范化解重大安全风险，有力推动安全生产治理模式向事前预防转型，以新安全格局保障新发展格局，坚决遏制较大及以上生产安全事故、切实减少一般生产安全事故，确保全市安全生产形势持续稳定向好。', '习中心组学习重要内容，作为党政正职和领导干部安全生产和应急管理培训的重要内容，作为企业主要负责人教育培训的重要内容，认认真真、原原本本、全面系统学习，进一步树牢安全发展理念，切实提升各级党政领导干部和企业主要负责人统筹发展和安全的能力。持续巩固深化安全领域突出问题和作风不实、欺上瞒下等问题专项整治成果，深入纠治', '市安全生产治本攻坚三年行动方案，围绕破解当前安全生产领域瓶颈性、根源性、本质性问题，聚焦重点行业领域容易导致群死群伤的重大风险，实施安全生产治本攻坚', '，着力在制度机制、责任落实、科技兴安、基层基础等方面，进一步促进提升安全风险防范和治理能力水平。推动各', '区、本系统方案，明确年度任务目标，细化工作措施，强化动员部署，加强督促指导，确保2024年各项任务落实到位。', '建立完善重大事故隐患治理督办制度、负有安全生产监管职责的有关部门审核把关销号机制，基本消除2023年及以前排查发现的重大事故隐患存量。建立举一反三排查风险隐患制度。健全并用好重大事故隐患数据库，建立健全分区域、分行业重大事故隐患统计分析机制。积极推进实施物防、技防等安全生产工程治理措施。进一步加强群众身边突出安全隐患整治，强化校园、医院、燃气、自建房、体育馆、交通等行业领域安全管理，特别是针对群众反映举报的身边安全隐患，开展跨部门联合排查整治，强化责任倒查，守牢群众衣食住行、上学就医等公共安全底线。', '建立完善重大事故隐患治理督办制度、负有安全生产监管职责的有关部门审核把关销号机制，基本消除', '年及以前排查发现的重大事故隐患存量。建立举一反三排查风险隐患制度。健全并用好重大事故隐患数据库，建立健全分区域、分行业重大事故隐患统计分析机制。积极推进实施物防、技防等安全生产工程治理措施。进一步加强群众身边突出安全隐患整治，强化校园、医院、燃气、自建房、体育馆、交通等行业领域安全管理，特别是针对群众反映举报的身边安全隐患，开展跨部门联合排查整治，强化责任倒查，守牢群众衣食住行、上学就医等公共安全底线。', '督促指导企业主要负责人严格履行安全生产第一责任人责任，建立健全安全生产规章制度和全员安全生产岗位责任制，加大对安全生产资金、人员等投入保障力度，健全安全管理机构，加强安全生产管理，建立健全风险分级管控和隐患排查治理双重预防机制，对发生重特大事故负有责任的，明确终身不得担任本行业单位主要负责人。', '严格落实党政领导干部安全生产责任制，细化完善党政领导干部安全生产职责清单和年度任务清单并落实到位。严格落实安委会', '委主要负责同志要把安全生产纳入党委议事日程和向全会工作报告，纳入党委常委会及其成员职责清单，督促落实安全生产', '政府主要负责人要把安全生产纳入政府重点工作和政府工作报告的重要内容，定期研判重大安全风险，主动协调跨区域跨部门安全生产工作，', '“谁主管谁牵头、谁为主谁牵头、谁靠近谁牵头”和“业务相近”原则，及时明确职能交叉和醇基燃料、氢能、电化学储能电站、休闲渔业等新业态新领域监管职责，每季度', '安委会要组建重点行业领域安全生产专业委员会，切实加强重点行业领域全链条全环节精准化专业化安全监管，持续推进安办实战化运行。', '要求，将安全生产纳入部门重点工作，压实各部门和各类开发区、工业园区、风景区等功能区的安全生产责任。负有安全生产监督管理职责的部门要将安全生产有关要求纳入部门权力和责任清单，参照燃气安全专项整治做法，盯住', '等问题。健全完善部门间信息共享、会商研判、抄告函告、联合执法等工作机制，形成齐抓共管工作格局。加大安全监管执法力度，提升监管执法质效，严厉打击安全生产违法违规行为，倒逼企业将安全生产责任和防范措施落实到最小工作单元。市安委会有关成员单位内设安委会主任或安全生产领导小组组长由单位主要负责同志担任，细化内部责任分工，配齐建强工作力量。', '应急管理部门要充分发挥安办统筹协调作用，进一步明确安委会成员单位职责分工和监管边界，推动行业监管部门', '，强化部门工作合力。安办要不断创新完善工作机制，定期分析研判安全形势并发布预警信息，及时开展工作调度，运用', '各有关部门安全生产责任落实、工作落地。定期组织开展安全风险分析研判，研究制定务实管用的措施办法，及时发布预警提示信息，切实做到重大风险心中有数、手中有招、防控有效。健全安全生产常态化调度机制，加大安全生产调度力度，坚持每周调度与专项调度相结合，针对重大节日、重要活动、重点时段等特殊敏感时期，组织开展专项调度，及时安排部署安全防范工作。', '进一步完善安全生产考核巡查机制，开展2024年度安全生产党政同责工作考评和2024年安全生产工作巡查，将习近平总书记关于安全生产的重要指示批示精神以及党中央国务院', '决策部署、安全生产责任落实情况作为考核巡查工作重点，强化结果运用，不断提高权威性。建立健全', '工作机制，加强日常调度、考核激励、督导问效、责任倒查。针对春节、五一、国庆等节假日和国省', '，准确掌握企业基本信息、风险管控、隐患排查治理等安全管理情况，不断提升精准化、专业化督查检查能力。推动企业持续建立健全安全生产主体责任清单、全员岗位责任清单、安全风险管控清单、日常检查清单等，实行照单操作，闭环管理，切实提升安全生产管理水平和能力。', '等致灾因素，重点整治消防水源不足、占堵消防车通道、违规搭建、违规住人、封闭安全出口等突出火灾风险，集中挂牌督办、曝光、整改一批重大火灾隐患，持续净化消防安全环境。立足学校、医院、社会福利机构、宾馆饭店等火灾事故规律、风险特点，分类分批制定细化火灾风险隐患检查整改指引、手册，推动教育、卫生健康、民政、文化和旅游等行业部门监督检查，基层力量巡查检查，单位场所自查自纠自改，培养一批消防安全', '等行为，加强生产一致性监督检查，强化新生产车辆检验检测管理。深化农村道路交通安全治理', '持续推进铁路沿线安全环境治理，加强公铁水并行地段异物侵限、沿线施工安全管理，大力推行异物侵限等监测系统应用', '加强水上交通运输安全风险防控，强化水上客运、载运危险货物等重点运输船舶监督检查。健全水上交通领域跨部门综合监管制度，开展水上交通安全信息协同处置。加强渔业船舶安全监管，开展渔业船舶检验机构检验质量专项督导整治，加强检验超期和异常船舶信息通报。', '，实现隐患排查整治数字化分析、智慧化管理。加强建筑市场和施工现场联动，深入开展房屋市政、公路水运、水利、电力、铁路以及其他专业建设工程重大事故隐患排查整治，加强隧道、', '等危险性较大的分部分项工程安全管理，严厉打击转包、违法分包、盲目赶工期抢进度、不按方案施工、审批手续不全等严重违法违规行为。开展体育馆', '等大跨度建筑质量安全排查整治，持续开展自建房安全专项整治，全面加强经营性自建房安全管理，对存在安全隐患的实施分类整治，推动建立经营性自建房安全管理长效机制。', '，进一步巩固集中攻坚阶段成果。对使用燃气的餐饮企业主要负责人开展落实安全生产主体责任全覆盖培训。严格燃气经营许可、气瓶充装许可审批及事中事后监管，加大燃气用具产品生产、销售等环节监督抽查力度，严厉打击生产销售伪劣燃气具、非法从事燃气经营活动、擅自为非自有气瓶充装燃气等行为，督促燃气经营者按规定进行入户安检。扎实开展瓶装液化石油气', '深化硝酸铵、硝化、过氧化氢、合成氨和油气储存企业安全风险防控。持续推进城镇人口密集区危险化学品生产企业搬迁改造，深化园区化工', '持续深化烟花爆竹经营安全整治提升，开展烟花爆竹零售店（点）规范化建设，推动全市烟花爆竹零售店（点）完全达标规范要求。认真开展烟花爆竹', '加强气瓶、压力管道等涉燃气特种设备安全监管。实施电梯安全筑底行动，开展客运架空索道应急救援能力专项排查治理、高风险大型游乐设施排查整治。开展锅炉安全提升行动，持续打击', '、未按要求使用登记和定期检验等违法违规行为。开展化工企业特种设备隐患治理。积极推进四川特种设备智慧监管平台、特种设备安全监察移动平台、', '运用推广。加强对特种设备检验检测机构规范管理，大力整治出具虚假报告、检验人员挂证等突出问题。', '持续加强粉尘涉爆、有限空间作业等工贸行业领域隐患排查整治。开展工贸行业金属冶炼企业专项整治和高危行业企业建设项目安全设施设计诊断。', '市安全生产委员会《关于进一步明确市级部门有关行业领域安全生产监督管理职责的通知》（', '号）等文件要求，各有关部门按照职责分工，靠前一步、齐抓共管，扎实抓好农家乐（乡村酒店）、小散工程和零星作业、校外培训机构、校外托管机构等新行业新领域或存在职责交叉领域的安全监管，加强日常隐患排查治理，严防安全事故发生。', '执法。建立健全各行业领域安全生产监管监察执法统计和典型案例报送制度。坚持严格执法与指导服务并重，将', '充实完善安全生产专家库，充分发挥行业专家、退休技安人员等作用，提高执法检查质效。组织专家对重点', '、高危行业领域生产经营单位分级开展安全执法指导帮扶，帮助摸清企业安全生产的真实状况，帮助企业发现并整改安全隐患，推动隐患闭环整改。建强专兼职技术检查员队伍，进一步完善选拔聘用等工作。大力选聘执法技术检查员参与安全生产监管执法，完善通过政府购买服务辅助开展监督检查的工作制度，切实提升基层安全监管能力。', '要求，切实做到事故原因彻底查清、责任追究全部到位、整改措施全面落实、教育警示扎实有效，充分发挥事故调查处理对安全生产工作的推动作用。认真开展生产安全事故调查处理情况督导评估，推动生产安全事故防范和整改措施有效落实。', '要求纳入安全生产责任体系，作为领导干部政绩考核内容。进一步加强安全生产举报工作，持续推广企业内部安全风险隐患报告奖励工作，鼓励企业员工参与安全管理、报告风险隐患。严格落实生产安全事故统计调查有关制度，严厉打击事故瞒报谎报迟报行为。', '持续加大危险化学品、烟花爆竹、建筑施工、城镇燃气、粉尘涉爆等行业领域安全风险监测预警系统建设应用和升级改造。建设完善危险化学品等高危企业安全生产电力监测分析系统。持续推进危险化学品、烟花爆竹、工贸、军工、民爆、隧道施工等行业领域', '深入开展公路安全生命防护工程建设、水库除险加固、应急逃生出口和消防车通道打通等工程治理行动，提升安全防范能力。', '安全生产监管、消防、应急救援等人员力量，推动基层安全监管、防灾减灾救灾、应急处置能力显著提升，坚决打通责任、工作落实到', '进一步修订完善生产安全事故应急救援预案，确保各类应急预案之间有效衔接。健全生产安全事故现场指挥协调机制、区域应急协调联动机制，进一步规范事故应急处置工作。备足备齐应急救援物资、器材和装备。充分发挥国家综合性消防救援队伍主力军作用，鼓励和引导社会应急力量参与应急工作，提升应急救援实战演练，确保一旦发生事故能够快速反应、高效处置、科学救援。', '巩固四川省安全发展示范城市创建成果，持续推进城市安全发展，筑牢城市安全防线。持续开展安全社区建设，不断提高基层安全风险抵御能力。', '督促指导生产经营单位加强安全生产费用提取和使用管理，依法依规做好安全生产责任保险监管工作。', '持续推动企业建立完善安全风险分级管控和隐患排查治理双重预防体系，引导企业开展安全生产标准化建设，落实达标企业在减少检查频次、复产验收优先等方面的激励政策。', '加强企业安全培训，夯实全员岗位责任，健全教育培训效果督导检查机制。持续开展高危行业企业从业人员安全技能培训，严格安全生产', '培训考核。按照《安全生产培训机构基本条件》标准，开展培训机构复核工作，依法清退不符合条件的培训机构。强化安全评价机构检验检测机构监管工作。加强基层安全监管执法人员能力培训，切实提升发现问题和解决问题的强烈意愿和能力水平。', '、消防宣传月、安全宣传咨询日、全国交通安全日等活动，面向群众广泛宣传《中华人民共和国安全生产法》《中华人民共和国刑法修正案（十二）》《四川省安全生产条例》等法律法规、安全知识常识、避险自救知识，广泛开展安全公益宣传和应急科普宣传，因地制宜推进安全宣传', '安全生产警示教育宣传片，不断强化事故警示宣传，在电视、报纸等媒体设置安全生产专题栏目，加大重大事故隐患和严重违法行为曝光力度。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>237</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>蓬安县综合行政执法局关于政协蓬安县委员会十一届二次会议第号提案办理情况的复函</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/zwgk/fdzdgknr/dbjywyta/202401/t20240112_1927609.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['蓬安县综合行政执法局 关于政协蓬安县委员会十一届二次会议 第205号提案办理情况的复函-蓬安县人民政府', '蓬安县综合行政执法局 关于政协蓬安县委员会十一届二次会议 第205号提案办理情况的复函', '新建道路路灯光源统一使用LED节能产品。自2016年来，新建的凤凰大道、燕山大道、青云大道、西延线、锦屏干一道共计1000余盏路灯光源都采用了LED灯具，', '同时，正如您提案所述，我县节能减排工作与发达地区相比存在不少差距。如由于多部门管理，照明绿色低碳高质量发展步伐不一致，部分片区', '关于您提出的几点建议，我们将认真组织研究并上报，同时，将智慧照明纳入全县城市智慧化管理项目建设，不断提升照明设施智慧化管理水平。下一步工作重点抓好以下几个方面：一是考察学习发达地区的先进经验做法，制定科学、合理的城区路灯节能改造规划，']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>237</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>改革创新引领汇聚发展动能</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2024-02-03</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwgk/sjfb/zxfb/t_1937615.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['“群众可感可及”“发展高质高效”，是改革初心。2023年，南充改革把“民呼我为”贯穿工作全过程，聚焦群众身边的“小烦恼”、发展当中的“小卡点”，从“小切口”发力解决“大问题”。一年来，共开展“微改革”136项，将“难点堵点”变成了群众的“满意点”和发展的“闪光点”。现评选出12个年度“微改革”典型案例，供各地各部门互学互鉴，在新的起点上，把改革谋得更准、抓得更好、做得更实，为南充高质量发展、加快现代化建设注入强劲动力。', '过去一年，南充借势“投资四川”2023南充市制造业双招双引（成都）投资推介会、第二十一届中国西部海外高新科技人才洽谈会主题市活动——南充市专场对接洽谈会等活动，依托驻外招商、小分队招商等，将《南充投资机遇清单》精准投放企业家，加快促成项目签约落地。', '据介绍，市经济合作外事局坚定“产业兴市、制造强市”战略目标，紧密对接企业投资需求，编制《南充投资机遇清单》，为广大企业家投资南充提供精准参考。', '记者注意到，《南充投资机遇清单》收录了《南充市支持制造业高质量发展的若干政策措施（试行）》等9项优惠政策，全面展示南充临江新区等14个重要载体承接优势、重点招引产业、特殊优惠政策；围绕汽车汽配、化工轻纺、食品医药、电子信息、高端装备制造等全市主导产业，突出县（市、区）“一主（两）副”产业，高质量谋划包装重点招商引资项目106个、总投资4780亿元。', '走进高坪区“全程机械化+综合农事”服务中心，但见该中心配备了烘干设备、建设了仓储加工房，保障农产品的品质安全。', '“2023年3月，高坪区‘全程机械化+综合农事’服务中心正式投入运行。”高坪区农业农村局相关负责人介绍，该中心聚焦农业生产，紧紧围绕耕、种、管、收和产前、产中、产后提供服务，重点开展机耕、机播、机收、植保等“一条龙”作业服务；大力推行托管经营，为托管农户提供优良品种、优质农资、最优的“全程机械化+综合农事”服务；积极推广秸秆粉碎还田、玉米硬茬播种、宽幅播种、深松等科学种粮技术，有效提升了当地农业生产水平；搭建销售平台，将农户收获的粮食统一收购销售，进一步提高了农民收入。', '日前，阆中市颁发首个以“家庭”命名的粮油产业联合体营业执照，行政审批注册登记为“阆中市禾兴家庭粮油专业合作社”，标志着四川省首个以家庭农场为主体的专业合作社成立。', '据悉，阆中市禾兴家庭粮油专业合作社以阆中市柏垭片区8家家庭农场联合组建，整合人才、技术、大型农机设备等生产要素，打造以家庭农场为主体且体现农有农治农享的综合式、开放式、共享式粮油全产业链服务平台。', '记者了解到，该家庭专业合作社根据入社家庭农场主“特长”，设置了农资服务部、农机（植保）服务部、育苗服务部、农技服务部、加工服务部、秸秆回收服务部、品牌与营销服务部等，由具备相应优势的农场主担任各环节“部长”，解决大型农业生产设备购置成本高、全程社会化服务不平衡、品牌打造乏力等问题，带动种粮大户、小农户合作经营。', '据悉，该家庭专业合作社打造了“六统三分”联合发展模式，实现8家家庭农场优势互补、风险共担、利益共享。2023年，该家庭专业合作社收入达到85万元，同比增加8%。同时，面向周边种粮大户、小农户提供机耕、机播、机防、机收等社会化服务，使家庭农场在延长产业链中共享增值收益，吸引更多家庭农场融入产业链发展。', '近年来，西充县跳蹬河村依托桃、柑、李千亩果园等主导产业，打造了集休闲娱乐、教育培训、康养服务为一体的跳蹬河山庄，吸引大批游客前来赏桃花开、品大雅柑、吃农家菜。2023年，该村集体经济组织针对农业社会化服务、餐饮旅游、农村项目建设等需求成立三支服务队，提供多样化服务。', '据介绍，农业服务队及时全面掌握农户农资需求，统购统销降低成本，一对一配送上门并全程跟踪服务；联合村内新型经营主体，提供粮油作物全托管或半托管、代养生猪、圈舍消毒等服务；集体出资购置（租用）农机具20余台（套），由服务队科学调度、统防统收。消费服务队围绕1000亩果园及跳蹬河山庄两大村级产业，组织开展乡村旅游活动；深度挖掘镇村传统艺人，为属地镇和周边乡村提供“红白喜事”服务；成立跳蹬河村康养服务中心，返聘3名村医及其他组织成员提供集中居家养老、民宿疗养康养等服务。建工服务队探索“工程自建、项目自管”经营模式，自主设计跳蹬河山庄、跳蹬河村民宿及党群服务中心，村道加宽硬化、修建产业道路9.5公里，建成康养标准间15间；承接“厕所革命”项目，开展改建公厕、果园水肥管网一体化建设等服务，常态化提供环境保洁、垃圾清运、水渠疏浚等服务。', '2023年7月，省以工代赈办综合处联合南充市以工代赈办、营山县相关部门等组成综合验收组，对营山县骆市镇望君村、华光村2022年省预算内以工代赈项目进行验收。', '验收组通过入户考察、查阅资料、实地核查、听取汇报等方式，详细了解项目建设质量、资料档案管理、群众劳务报酬发放等情况。最终，该项目顺利通过验收。', '据介绍，在实施以工代赈项目过程中，营山探索建立了一整套成熟的工作机制。成立“以工代赈项目推进领导小组”，实行“包保责任制度”，统筹调配资源要素；建立“项目资金+部门整合、群众自筹、投工投劳”资源投入机制、分级限时化解问题机制、“党政一体、督查一体”项目推进机制等，设“尖刀连”2个，采取重点督查、过程督查、效果督查等方式，强力推进以工代赈项目实施。', '同时，营山采取“租购聘六项步骤工作法”，做实以工代赈项目前期工作。建立县、乡镇（街道）、村（社区）三级联动监管和质量全程跟踪管理机制，全面落实“三员”制度；建立后期维护跟踪检查制度，设置项目后期管理维护公益性岗位，拓宽农村群众就业增收渠道，最大限度发挥以工代赈项目“赈济”功能。', '近年来，营山县在农业农村基础设施领域累计推广以工代赈项目182个、投资2.06亿元，吸纳近6000名农村低收入群众务工，惠及农村群众5万余人。', '2023年，全省首个地市级交管12123热线综合服务平台——南充交管12123语音服务平台上线运行。该平台推行首接负责制和“一号窗口”做法，24小时接听来电，高效响应群众诉求。', '据了解，南充交管12123语音服务平台采取自助语音服务和人工语音服务两种方式，全年均可拨打。自助语音服务时间24小时、人工语音服务时段为9:00至18: 00，主要涵盖交管业务咨询及投诉建议、交管信息查询、交管业务办理等业务。', '“推出南充交管12123语音服务平台，旨在为进一步提升交管为民服务质量，进一步完善“互联网+”的全时段交管服务体系。”市公安局相关负责人介绍，南充交管12123语音服务平台设置人工坐席5位，采取“统一接线、集中管理、分派负责、限时办理、回访评价”方式实时受理群众诉求、督促解决疑难问题，在热线办理过程中听取意见建议、改进交管工作，有效提高群众满意率。', '“小区绿化杂草丛生，希望物业公司管一管……”日前，嘉陵区白马湖小区售楼部，“物业大家谈”活动正在进行。', '座谈会由嘉陵区人民法院火花法庭组织，参会人员包括房管部门、街道社区、代表委员以及开发企业、物业企业和业主代表。', '在听取了业主的意见后，物业公司负责人真诚表态，“大家提出的问题马上整改，一定让大家舒心生活。”', '2019年初，嘉陵区人民法院将辖区所有物业纠纷案件集中归口城区法庭——火花人民法庭集中管辖，该庭以“小物业”开局，以“党建+法治+物业”布局，以“大治理”破局，巧妙化解物业纠纷。3年来，嘉陵区化解物业纠纷8000余件，实现城区基层“大治理”。', '据了解，嘉陵区成立了物业管理协会党组织，实现规范化集中管辖、一体化纠纷化解、常态化巡回审理，推动矛盾纠纷一站式接收、一揽子调处、全链条解决；通过共建“黑白名单”等，引导业主依法维权、物业企业改善服务；推进全区“无讼社区”标准化创建工作，完善议事协商机制；多个部门（单位）建立常态化联络机制，推行法官定期巡回审理、民调驻点值守、常态在线接待、就地化解纠纷。', '近日，记者在顺庆区西城街道解放街社区养老服务中心助餐点看到，食堂门口几张巨大的门型展架吸引了无数老年人，老年食堂的工作人员正在耐心地向老年人介绍用餐事项。', '据了解，西城街道解放街社区养老服务中心助餐点建筑面积1300余平方米，中央厨房及就餐面积约500平方米，可同时供300人就餐。', '为有效解决老年人特别是高龄、空巢、独居等老年群体“吃饭难”问题，顺庆区着力打造15分钟老年人助餐服务圈，形成集中配送、日间照料中心+助餐点助餐、养老机构辐射服务等服务模式，构建富有特色的助餐服务体系。', '“我们引入集体用餐配送单位、大中型餐饮服务企业等社会资源，签订合作协议，为失能、独居、高龄、困难等居家老年人提供上门助餐服务；组织老人学习营养膳食和食品安全知识，提高日常餐饮质量；设置‘老年餐桌’，为老年人提供价格优惠、品种多样的老年膳食。”顺庆区民政局相关负责人介绍，此外，顺庆区还构建老年人助餐应用场景，安装智能就餐设备，通过人脸识别、IC刷卡、长者码扫描等身份识别方式，精准获取身份信息、统计用餐人次、生成统计报表，通过数字化手段方便老人就餐补助减免与就餐数据共享，实现“线上+线下”监管老年人助餐服务。', '为加快推动养老事业高质量发展，南部县积极探索建立了“以居家为基础、社区为依托、机构为补充、医养相结合”的多层次失能照护体系。', '日前，在南部县民政局指导下，南部县慈善公益服务中心（县社工总站）举行2023年养老护理技能培训，130名护理人员参加培训。', '培训采取“理论学习+技能培训+实践操作”的方式进行，重点围绕老年社会工作者职业道德和从业规范、老年人的常规护理和日常料理技能展开讲解，进一步提升养老护理员队伍的专业技术。', '据悉，2023年，南部县常态化开展养老护理人员能力提升培训，积极组织养老机构护理人员参加省、市、县养老服务技能比赛，有效提升照护能力。', '在夯实人才队伍的同时，南部县积极推动基础设施建设。建设南部县失能老人照护中心，设置护理型床位300张；完成定水镇中心敬老院护理能力提档升级项目，增设失能人员医疗护理等医养结合照护单元，设置150张护理床位；新建满福街道养老服务综合体等，为辖区内老人提供集中（居家）照护服务；重点围绕“如厕洗澡安全、室内行走便利、居家环境改善、智能监测跟进、辅助器具适配”五个方面功能，完成1930户特殊困难老年人家庭适老化改造；建成定水镇西河街社区老年认知障碍友好社区，对有需要的家庭进行认知障碍照护技能培训，并开展上门照护服务。', '为更好服务广大患者朋友，提供更加便捷的支付服务，解决看病就医支付难题，2023年1月，川北医学院附属医院正式开通了线上医保移动支付。', '据悉，患者只要添加医保电子凭证，就能通过手机支付宝实时医保结算，实现“医保+自费”快捷支付，使患者享受到“互联网+医保”服务带来的便利。', '过去一年，南充着力打造“环境如家、服务到家、亲如一家”的“如家医保”服务品牌，增强群众获得感、幸福感、安全感。', '“我们建设了‘1+9+N’医保服务站点网络、‘医保+’一体化服务网点，满足群众‘就近办’‘家门口办’‘多点可办’等需求。推广医保码就医全流程应用，三级医疗机构全部上线医保移动支付，患者挂号、缴费直接在手机上用医保进行结算，在全省率先开通‘24小时’医保服务专区。”市医保局相关负责人介绍，此外，针对老弱病残特殊群体开通“预约办”“上门办”“延时办”，设置“医保驿站”“医保助企专员”“医保社区顾问”，建立服务社区包干联系制度。', '据了解，目前，全市医疗保障政务服务平均缩短办理时间8.1天，32项医保政务服务事项实现“一网通办”，26项医保政务服务事项实现全程网办；2023年，全市医保经办机构开展“预约办”748件次，“上门办”961件次。', '2023年8月，仪陇县人民检察院自主研发并在该县医疗系统嵌入应用的强制报告大数据法律监督应用系统收到首例报告信息。该信息显示，某医院儿科医生在坐诊时发现一女童疑似遭受性侵害。', '仪陇县聚焦性侵害未成年人违法犯罪案件发现难、取证难、指控难等现实问题，坚持“业务主导、数据整合、技术支撑、重在应用”工作思路，自主研发强制报告（医院）大数据法律监督应用系统并在仪陇县县域医院全面应用。', '记者获悉，该应用系统通过设置如损伤致流产、子宫破裂等80多个关键词，自动筛选0至18周岁未成年人患者的病例、检查、处方中的海量就诊信息。根据关键词出现频率、组合等预判违法犯罪行为可能性，及时提示医生就诊病人可能涉嫌被性侵或伤害等，同步在线推送至检察院护航成长平台。公安、民政、市监等负有未保职能的行政部门，可通过平台“接收端口”实时收集预警信息、启动调查核实，检察机关可通过平台“监督端口”对相关单位履行强制报告、处理案件线索等情况进行全程动态监管，推动形成未成年人社会综合保护合力，最大程度保障未成年人合法权益。', '为坚持和发展新时代“枫桥经验”，让矛盾纠纷化解在源头，近年来，蓬安县人民法院积极探索多元解纷模式，通过诉前网格化、诉中专业化、诉后包案化，构建起分层递进、多方联动的诉源治理体系。', '日前，蓬安县人民法院正式启动“一乡（镇）一法官”工作，21名优秀法官奔赴全县21个乡镇（街道），主动融入乡镇法治工作，健全多元化解矛盾纠纷机制，确保乡镇司法服务不断档。', '“我们将关口前移，建立‘一镇（街）一法官’网格化工作机制。”蓬安县人民法院相关负责人介绍，他们选派优秀法官下沉一线，联合社区、志愿服务等力量组建调解团队，采用日常巡查、法官走访等方式，开展矛盾化解、普法宣传等工作。2023年以来，蓬安县组建基层调解团队153个，开展解纷、普法等活动3800余次。', '记者获悉，蓬安县推行“线上调解+电子公证”解纷模式，聚焦异地消费、异地合同等跨区域纠纷，搭建“云解纷”平台，引导当事人通过直播连线方式参与“云上庭审”，依托电子邮箱等渠道寄送判决书、调解确认书、司法确认结果，“三书”送达平均用时从2.1天降至0.4天。同时，设立一站式多元解纷服务中心，探索“法院+行政”“法院+专业调解组织”等纠纷调解模式，通过组团调解、专门调解等方式合力化解矛盾。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>237</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>关于年度法治政府建设情况的报告</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/t_1928142.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['2023年是全面贯彻落实党的二十大精神的开局之年，是实施“十四五”规划承上启下的关键一年，', '精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持全面依法行政', '，楠木镇深入学习贯彻习近平法治思想，常态化开展扫黑除恶斗争，依法依规调解辖区内各种纠纷，切实提升群众满意度、幸福感。现', '全面推行行政审批制度改革，提升法治便民服务。镇便民服务中心设立医保社保、民政残联、劳动保障、综合等部门办理窗口，各进驻窗口实行专人管理，严格实行“一窗受理，一次性告知，一条龙服务，一站式办结”的办事流程，严格落实“首问负责制”，优化办事流程，努力让群众办事“最多跑一趟，一趟不用跑”', '全面推行行政审批制度改革，提升法治便民服务。镇便民服务中心设立医保社保、民政残联、劳动保障、综合等部门办理窗口，各进驻窗口实行专人管理，严格实行', '加大政府信息公开力度。我镇加强从政务公开方面宣传法治工作的内容，通过政府网站、微信、党务（村务）公开栏等形式公开我镇法治方面的资料，大力推广法治的重要性，深化重点领域信息公开，推动政府信息公开和数据开放，提高政府工作透明度，自觉接受广大干部群众的监督。', '由楠木镇纪委部门牵头，楠木镇综治中心开展具体的信访矛盾调查工作，同时依照每个村（社区）的实际情况，按照“一村一干”的原则，每个村', '由楠木镇纪委部门牵头，楠木镇综治中心开展具体的信访矛盾调查工作，同时依照每个村（社区）的实际情况，按照', '。深入贯彻落实《人民调解法》，充分发挥纠纷排查、化解和隐患预警作用。健全镇村人民调解组织网络体系，镇政府驻地', '全镇70名“法律明白人”开展农村常用法律法规知识授课培训，培训内容主要涉及农村土地、《民法典》等法律法规。通过此次培训会，进一步提升“法律明白人”运用法治思维和法治方式处理问题的能力，同时突出发挥乡村法治宣传骨干作用，更好地宣传法律知识、运用法律知识，为推进乡村振兴法治建设保驾护航。', '开展农村常用法律法规知识授课培训，培训内容主要涉及农村土地、《民法典》等法律法规。通过此次培训会，进一步提升', '运用法治思维和法治方式处理问题的能力，同时突出发挥乡村法治宣传骨干作用，更好地宣传法律知识、运用法律知识，为推进乡村振兴法治建设保驾护航。', '等丰富多彩的法治宣传教育活动，在主要街道、路口、各村（社区）群众集中点悬挂宣传横幅，设置法治宣传点，向广大群众散发宣传手册，发放各类宣传资料', '党政干部学法经常化、制度化。把法治建设列入党政领导班子学习的重要内容，重点在机关干部中开展学法用法活动，狠抓领导干部这个“关键少数”，将领导干部作为法治宣传教育工作的重点对象，坚持领导干部', '党政干部学法经常化、制度化。把法治建设列入党政领导班子学习的重要内容，重点在机关干部中开展学法用法活动，狠抓领导干部这个', '一是坚持带头深入学习贯彻习近平法治思想。贯彻落实习近平总书记关于法治建设的重要指示批示精神。', '三是对法治建设重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要任务亲自督办，把本辖区各项工作纳入法治化轨道。', '一是组织党委会议听取班子成员分管领域法治建设工作汇报，及时研究解决有关重大问题，推动党中央全面依法治国重大决策落实。', '二是加大党内法规宣讲解读力度，推动将党内法规制度作为党委理论学习中心组学习的重要内容，落实党委理论学习中心组学法制度，推动领导班子及其成员学法用法，坚持带头讲法治课，做深入学习宣传习近平法治思想的表率。', '四是坚持重视法治素养和法治能力的用人导向。支持把法治观念、法治素养作为衡量干部德才的重要标准，把遵守法律、依法办事作为考察干部的重要依据，深入推进法治宣传教育，推动全社会形成尊法学法守法用法的浓厚法治氛围。', '一是加快法治政府制度建设。不断建立和完善法治、科学、民主的公共决策机制，对涉及人民群众切身利益的重大问题、重大决策措施、重大政府投资项目要进行充分的法律、规划和可行性论证，严格执行“三重一大”事项集体决策制度实施办法，确保决策的科学性和准确性。', '一是加快法治政府制度建设。不断建立和完善法治、科学、民主的公共决策机制，对涉及人民群众切身利益的重大问题、重大决策措施、重大政府投资项目要进行充分的法律、规划和可行性论证，严格执行', '二是切实规范行政执法行为。加强对我镇具有行政执法资格的人员进行规范执法方面的培训，增强规范执法的意识，提高规范执法的能力和水平。按照行政执法人员资格认证管理和行政执法证件管理的有关规定，做好行政执法证件的管理工作。', '三是加强法治宣传教育。结合工作实际，积极邀请相关人员到我镇开展法律法规讲座，加强组织领导干部、执法站（所）工作人员参加各类依法行政知识、能力提升培训，丰富宣传形式、创新宣传途径，宣传普及依法行政知识，努力营造全镇上下良好的法治氛围。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>237</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>三官镇人大主席团关于开展代表工作推进年主题活动的工作方案</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2021-05-25</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/202105/t20210525_1183039.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['以党的十九大及十九届三中、四中、五中全会精神和习近平总书记系列重要讲话精神为指导，', '通过组织代表开展一系列履职活动，密切联系群众，进一步增强代表责任意识，激励代表依法履职，充分发挥人大代表在参与管理国家和社会事务中的作用，全面提升人大工作水平，为全面建成小康社会', '一是坚持党的领导，以习近平新时代中国特色社会主义思想为指导，认真落实党的十八大以来中央、省委、市委、县委关于加强和改进新时代人大代表工作的各项决策部署，始终坚持党的领导，把握正确的政治方向。', '二是坚持开拓创新，学习先进经验，积极探索新方法、新措施，不断完善和提升人大工作的机制和制度。', '三是坚持实事求是，不断总结过去人大关于代表工作的成功经验和优秀做法，立足新时期，确保新时代代表工作再上新台阶。', '采取以会代训、专题培训、活动培训、考察培训等方式，组织代表学习《代表法》《组织法》《选举法》等有关法律法规，切实提高人大代表依法履职能力。积极组织代表参加上级人大举办的业务培训，不断提高人大代表依法履职水平。', '代表联络工作站，进一步改善代表履职条件，充分发挥代表的主体作用，密切县镇人大代表与人民群众的联系。', '通过在广播、微信、抖音、网络等平台，集中宣传报道一批各战线上优秀的县镇人大代表，宣传他们立足本职工作，积极创新创业、扶弱济困、履职尽职的典型先进事迹，激发各级人大代表的创业和履职热情。', '邀请县镇代表对历次人代会所提建议、意见办理情况进行视察，完善代表建议承办责任制，对于责任落实不主动、不及时、不到位的承办单位进行重点跟踪督办，切实增强代表建议办理的实效。围绕民生工作和群众关心的热点难点问题，组织代表开展视察、专题调研、工作评议、专题询问、满意度测评、', '等活动，出思路、提建议，督促抓好落实，并鼓励代表利用各自的优势，与贫困户结对子，做好事、办实事，全力保障和促进民生事业蓬勃发展。', '建立人大代表履职档案，依法清理不守规矩、不顾大局、胡乱作为以及偷税漏税、诚信缺失、恶意欠薪等违法乱纪的人大代表。', '6月底前，各代表小组集中开展一次代表小组活动，重点学习《代表法》《组织法》《选举法》等有关法律法规，学习代表小组各项规章制度等工作制度，学习本实施方案，明确开展活动的指导思想、活动内容、实施步骤和有关要求，增强参与活动的主动性和积极性，迅速掀起开展活动的高潮。', '月底前，各代表小组集中开展一次代表小组活动，重点学习《代表法》《组织法》《选举法》等有关法律法规，学习代表小组各项规章制度等工作制度，学习本实施方案，明确开展活动的指导思想、活动内容、实施步骤和有关要求，增强参与活动的主动性和积极性，迅速掀起开展活动的高潮。', '各镇代表小组要按照本实施方案确定的活动内容，组织本辖区县镇人大代表积极参与各项活动，并将代表参加活动情况做好记录，按照镇人大主席团的要求及时报送相关材料，深入推进实施，确保活动取得实效。', '12月中旬，各代表小组要将本辖区县镇人大代表参加履职活动情况进行汇总，并形成书面材料，报送至镇人大主席团。代表在活动中的表现将纳入年度履职考核，作为评选', '月中旬，各代表小组要将本辖区县镇人大代表参加履职活动情况进行汇总，并形成书面材料，报送至镇人大主席团。代表在活动中的表现将纳入年度履职考核，作为评选', '各代表小组要高度重视此次活动，将其作为一项重要工作来抓，精心组织、周密安排、稳步实施，采取有效方法，确保广大代表以主人翁的态度、满腔的热情和强烈的责任感投入到代表履职年系列活动中去。', '各代表小组要做好宣传发动工作，切实提高代表参与活动的主动性和积极性。要加强舆论宣传，对活动中涌现出来的先进经验、优秀典型，及时', '各代表小组要在总结以往工作经验的基础上，在活动内容、活动方式方法上有所创新。要坚持围绕全镇中心工作，围绕重点工程建设、招商引资、优化环境以及人民群众关心的热点难点问题开展活动']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>237</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>南充区顺庆区经济合作和外事局年度法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/zwgk/wgk/jggk/jhbg/202401/t20240119_1930618.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['年，在区委、区政府坚强领导下，我局坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神，深入学习贯彻习近平法治思想和习近平总书记对四川工作系列重要指示，认真落实中央、省、市、区关于法治政府建设的决策部署，深入推进依法行政，全面建设法治政府，为对外开放工作有序推进提供坚强法治保障。现将有关情况报告如下。', '（一）完善工作机制，始终确保业务工作在法治轨道中推进。紧密结合全局工作实际，建立健全推进法治建设工作机制。一是认真谋划抓好法治政府建设工作。将法治政府建设工作纳入重要议事日程，与对外开放工作同部署、同推进、同落实，认真谋划部署法治政府建设工作，及时研究解决重大问题，为推进法治政府建设创造条件、提供保障。二是健全领导干部学法机制。不断丰富学法方式，通过党组理论学习中心组学习、领导干部法律知识培训等多种形式，不断提高领导干部依法行政的能力。三是完善依法决策机制。严格落实“三重一大”集体决策制度，对重大事项决策、重要干部任免、重要项目安排、大额资金的使用等情况，严格执行重大事项集体决策，集体讨论决定，推进行政决策的科学化、民主化、法治化。严格执行项目评审决策机制，每一个招商引资项目从前期考察到尽职调查、专家论证再到三方会审，最终通过对外开放领导小组会、区政府常务会、区委常委会“三会”决策签约，严把项目“准入关”。', '严格执行项目评审决策机制，每一个招商引资项目从前期考察到尽职调查、专家论证再到三方会审，最终通过对外开放领导小组会、区政府常务会、区委常委会“三会”决策签约，严把项目“准入关”。', '（二）狠抓工作落实，推动法治建设与中心工作有机结合。一是加强法治宣传。积极开展“法律进企业”法治宣传活动，走访招商引资落地企业，以集中宣讲、发放宣传手册等形式开展惠企法律宣讲。结合“4.15国家安全日”开展海外领事保护宣传活动，增强市民海外领事保护和境外安全防范知识。结合“城市暖心工程”和结对帮扶，向大北街社区困难群众、芦溪镇灯台铺村帮扶对象普及惠民政策和法律知识。二是落实法律顾问制度。聘请法律顾问，依法依规对我局协议和重要文件等提出法律意见和建议，促进依法决策、科学决策。三是强化法治培训。充分利用四川省国家工作人员学法考法平台，组织全体干部职工认真学习习近平法治思想、国家基本法律法规，及时参加2023年度全省国家工作人员学法用法考试，参考率和优秀率均为100%。四是规范执法行为。认真贯彻落实《外商投资法》《外商投资法实施条例》《外商投资信息报告办法》，围绕我局行政权力责任清单，依法对外国投资者、外商投资企业遵守《外商投资信息报告办法》情况开展监督检查，督促外资企业落实信息报告制度。五是强化廉政风险防控。常态化开展廉政谈话、提醒，引导干部职工把准政商交往边界，坚决防止在招商引资过程中搞利益输送，着力构建“亲”“清”新型政商关系。', '（二）狠抓工作落实，推动法治建设与中心工作有机结合。一是加强法治宣传。积极开展“法律进企业”法治宣传活动，走访招商引资落地企业，以集中宣讲、发放宣传手册等形式开展惠企法律宣讲。结合“', '年以来，我局法治政府建设各项工作稳步推进，但也存在一些不足。一是法治观念法治意识仍需进一步增强。面对建设法治政府的更高要求，部分干部职工在法治意识和法律素养上还存在一定差距。二是运用法治思维和方法解决实际问题的能力需进一步增强。招商引资工作涉及项目可行性法律论证、投资方资信及履约能力、签约主体资格、优惠政策等诸多法律问题，部分干部对法律法规和相关政策规定把握还不够精准。', '始终将法治建设工作摆在重要位置，统筹抓好局机关法治建设工作，确保依法治区各项决策部署落地落实。一是认真贯彻落实区委全面依法治区各项工作部署，对照《南充市顺庆区全面依法治区2023年工作要点》，明确总体思路、工作目标和工作重点，扎实做好依法治区各项工作。二是充分发挥党组在推进法治政府建设中的模范作用，将习近平法治思想纳入党组理论学习中心组重点学习内容，带头学思践悟。常态化开展会前学法，深入学习《中国共产党章程》《中国共产党党员教育管理工作条例》等党内法规和《中华人民共和国宪法》《中华人民共和国民法典》等国家法律，学法成效不断提升。三是主要负责人认真履行第一责任人职责，将推进法治政府建设工作情况纳入年终述职报告，坚定不移厉行法治，法治意识不断增强。', '始终将法治建设工作摆在重要位置，统筹抓好局机关法治建设工作，确保依法治区各项决策部署落地落实。一是认真贯彻落实区委全面依法治区各项工作部署，对照《南充市顺庆区全面依法治区', '下一步，我局将认真贯彻落实区委、区政府各项决策部署，切实按照全面依法治区的总体要求，扎实做好相关工作。', '坚持用习近平新时代中国特色社会主义思想统一思想、统一行动，学懂弄通做实习近平法治思想，切实把习近平法治思想贯彻落实到全面依法治区全过程。结合工作实际，强化《中华人民共和国外商投资法》等经济类法律和中省市区出台的相关政策文件的学习，不断提高干部职工运用法治思维和法治方式解决问题的能力。', '二是狠抓工作落实。严格落实党政主要负责人履行推进法治建设第一责任人职责，始终把法治政府建设摆在全局工作的突出位置，与业务工作同规划、同部署、同推进，持续抓好法治政府建设各项工作，确保上级决策部署落到实处。', '坚持把依法行政摆在首位，加强招商引资法规政策宣传，提升法律法规和政策知晓率，加大服务企业、服务项目力度，积极协调解决企业困难问题，助力全区打造优良法治化营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>237</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>关于调整富利镇领导班子换届工作领导小组及指导组的通知</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/202105/t20210513_1189070.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['为切实贯彻落实中央、省委、市委、县委关于做好县乡领导班子换届工作的有关精神，切实落实换届工作主体责任，进一步加强对换届工作的组织领导，同时确保高质量完成我镇领导班子换届各项工作，由于乡镇领导班子调整，经党委、政府研究决定，调整全镇领导班子换届工作领导小组和指导组，现将领导小组组成人员及指导组名单通知如下', '准确把握换届政策要求，做好政策咨询、解答、指导工作，对点上特殊性问题及时请示汇报，一事一议解决。', '严格时间节点，科学合理安排换届工作日程，倒排工期、顺排工序，确保换届动员部署、谈心谈话、推荐考察、人事安排、大会选举等重点工作有序开展。', '“十严禁”、省委“四必须”、市委“二十条”措施和县委有关纪律要求，从严加强换届纪律教育和风气监督，依法依规处理好换届期间出现的各类问题。', '加强正面引导，弘扬正气、抵制歪风，积极宣传讲解工作有关政策、纪律要求和经验做法，加强舆论引导和舆情处置，及时妥善处理网络舆情事件。', '完善换届期间常态化疫情防控工作机制，扎实做好疫情监测工作，加强重点场所防控，合理安排会议频次和规模，完善应急处置机制。', '各指导组要按照职责要求及时进驻指导。紧盯关键节点，压紧压实责任、推动任务落实。切实增强做好我镇换届工作的责任感和使命感，增强督导工作的主动性。', '要加强业务知识学习，深刻领会本次换届工作的指导思想、目标任务、基本要求和方法步骤，提高督导能力。要保持高度的政治敏锐性，密切关注各种动态，及时排查和解决影响换届工作的倾向性、苗头性问题。', '要严守工作纪律和保密纪律，带头改进工作作风，力戒形式主义和官僚主义。要发扬敢抓敢管、攻坚克难的精神，密切配合，协调一致，全力以赴把我镇换届工作做深、做细、做实。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>237</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>中共花罐镇委员会花罐镇人民政府关于进一步加强新冠肺炎疫情防控工作的通知</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2021-05-07</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/202105/t20210507_1180729.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['中共花罐镇委员会花罐镇人民政府关于进一步加强新冠肺炎疫情防控工作的通知-南部县人民政府', '南充市新冠肺炎疫情防控反馈意见南部县对照落实整改方案》文件精神和要求，为进一步做好新冠肺炎疫情防控工作，压紧压实防控责任，强化常态化疫情防控举措，结合我镇工作实际，现就相关工作通知如下：', '认真贯彻习近平总书记关于统筹疫情防控和社会经济发展重要讲话及省、市、县疫情防控工作重要指示精神，结合《省委第八巡视组', '南充市新冠肺炎疫情防控反馈意见南部县对照落实整改方案》文件精神和要求，充分认识当前新冠肺炎疫情防控严峻形势，切实把思想统一到县委、县政府工作部署和要求上来，始终坚持高标准、高质量、严要求，不折不扣抓好巡视反馈意见整改工作，扎实做好常态化疫情防控工作，坚决打赢疫情防控阻击战。', '镇党委要进一步理清工作思路，明确工作目标和要求，把握整改工作细节，提出强化问题销号、开展日常监督、规范资料归档等方面的具体指导，推动全镇整改工作有条不紊开展。', '镇党委切实担负起抓好巡视整改的主体责任，镇党委书记承担第一责任人职责，对巡视整改直接部署、直接参与，着力推动整改部署落地落实；领导班子成员要切实履行', '镇纪委要按照职责加强整改工作日常监督．加强整改工作问责，对进度滞后、成效不明显等方面问题，及时通报情况并严肃追责问责。', '的相关要求，镇党委切实履行一岗双责，落实疫情防控要求，健全镇干部包村、村干部包社、社干部包户的网格体系，抓实抓细疫情防控各项工作。镇纪委切实履行督查监督主体责任，要不定期巡查全镇疫情防控工作，确保横向到边、纵向到底监督到位。', '二是对标疫情防控文件，全镇全覆盖开展自查自纠，切实整改存在的突出问题。全面摸排原柳驿片疫情防控情况，查看是否存在疫情防控盲区，进一步掌握情况、压实责任。', '三是召开疫情防控问题整改专题会，全面摸排疫情防控工作的薄弱环节，对疫情防控责任进行再细化再落实。全面清理排查镇、村体温枪、消毒液、消毒酒精、一次性口罩等应急储备情况，建好防疫物质台账，落实专人严格管理，科学安排好储备物质流转使用。', '年新冠肺炎疫情防控工作指南（第三版）》要求，督促辖区重点场所落实疫情防控措施，坚守外防输入，内防反弹。要推动形成群防群控、共建共享的社会治理格局。要抓好群众宣传教育引导和生活服务保障，确保辖区内的安全稳定。', '五是全镇全面开展自查自纠，对涉及上级疫情防控会议，中省市县领导批示指示、文件等方面情况逐一梳理，逐项完善，确保学习到位、传达到位、效果到位。建立常态化学习机制，推动学以致用，学用结合。', '的宣传推广，落实天府健康使用，强化常态化监督检查，加大对辖区内重点场所督导检查，推动养成', '二是进一步压实主体责任，全镇镇村干部深入防控疫情第一线，及时掌握疫情动态、及时采取行动，利用标语、广播、宣传车等形式进行广泛宣传，确保疫情防控措施和疫情风险家喻户晓、入脑入心。', '三是镇疫情应急指挥部办公室牵头，组织人员对全镇重点场所进行拉网式排查，不定期抽查，检查疫情防控措施落实情况，建立问题定期通报制度，抓实全镇疫情防控工作。', '四是加强各村（社区）、各部门要防疫物质储备管理人员的培训，熟练掌握防疫物质的科学储存管理方法；建立物质台账，确保物质品种齐、数量清、存放得当，保障全镇防疫物质管理科学，使用放心，助力疫情防控有力、有序开展。', '一是开展摸底调查，举一反三抓好整改。加强源头管控，进一步强化党员干部的思想道德教育，筑牢党员干部的思想根基，真正做到从思想上正本清源。', '二是强化工作落实，加大监督执纪力度。各村（社区）各部门党员干部要严格落实各项工作要求，确保疫情防控工作到岗到人，不留死角，严肃查处疫情形式认识不清，工作底数不明，落实防控措施不细不实等问题，一经发现严肃追责问责，及时通报曝光。', '三是建立健全一抓到底的工作责任制，系统分解岗位责任，把工作分解到具体责任人，明确到岗位，确保每项工作都有人抓，每项事情都有人管。严格监督考察，通过常态化督查、查看工作纪实等方式，推进领导班子成员、各村（社区）干部全面落实职责范围内的责任，并适时通报。', '五是结合党史学习教育，开展党员干部教育培训，找准初心使命、增强宗旨意识、笃定信念目标。强化责任担当，对热衷于搞官僚主义的个别基层干部及时', '疫情防控形势依然严峻，全镇要进一步增强疫情防控意识，增强做好疫情防控工作的责任感，要按照职责分工抓好常态化疫情防控工作，坚持依法科学精准防控。', '务必做到不推诿、不敷衍，严肃认真对待巡视指出的问题，按照全覆盖、无遗漏的要求，结合我镇工作实际，一项一项对照，一条一条落实。围绕问题、任务和责任，细化', '，明确整改内容、具体责任和完成时限，对需要边查边改的立行立改，需要开展专项行动的马上实施，需要完善制度的抓紧完善，确保高质量完成整改任务。', '结合起来，注重标本兼治，坚持阶段性与长期性相结合、具体问题整改和加强制度建设相结合，切实把整改过程转变为建章立制、解决问题的过程，转化为健全长效机制的过程。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>237</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>中共花罐镇委员会关于认真做好全镇乡镇领导班子换届工作的实施方案</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2021-04-20</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/202104/t20210420_1181183.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['根据《中国共产党章程》、宪法和有关法律法规、《中共四川省委关于认真做好市县乡领导班子换届工作的通知》(川委发[2021]5号)、《中共南充市委办公室印发〈关于认真做好全市乡镇领导班子换届工作的指导意见〉的通知》(南委办[2021]20号)、《中共南部县委关于认真做好全县乡镇领导班子换届工作的实施意见》（南委发[2021]14号）文件要求，从2021年4月开始，全镇乡镇领导班子将进行换届。做好乡镇领导班子换届工作，对于全面加强乡镇千部队伍建设、有序实施“十四五”规划、切实抓好两项改革“后半篇”文章、着力推动脱贫攻坚与乡村振兴有效衔接、扎实做好“三农”工作，巩固拓展全面从严治党成果具有十分重要的意义。根据中央、省委、市委、县委统一部署，结合花罐镇实际，经党委同意，现就做好全镇乡镇领导班子换届工作提出如下实施意见。', '坚持以习近平新时代中国特色社会主义思想为指导,深入贯彻习近平总书记重要指示精神和党中央部署要求,遵循党章和党内有关规定，坚持好干部标准和“三严三实”要求，坚持党的领导、发扬民主和依法按章办事有机统一，统筹谋划、精心组织、有序推进，绘出方向清思路明的好蓝图，选出忠诚干净担当的好干部，配出结构优功能强的好班子,树立重实绩重实干的好导向，形成清明清正清新的好气象，真正把换届过程转化为提振精气神、凝聚正能量的过程，焕发出加快建设美丽花罐的强大合力。', '建好工作机构。镇党委要成立换届领导机构和工作班子，精心组织好乡镇领导班子换届各项筹备工作。镇应当依法设立选举委员会，主持本级人民代表大会代表的选举。镇要健全落实每周调度、信息沟通、会商研判、全程纪实等工作机制，确保机构运行有效、工作推进有力。', '做好分析研判。换届前，镇党委要通过深入调查摸底，综合运用巡视巡察、信访、审计等成果，结合平时掌握情况和镇班子运行调研情况，对乡镇领导班子成员政治品行、专业能力、工作实绩、作风状态、廉洁自律及领导班子结构功能、优化方向、干部进退留转进行综合分析研判，打牢换届工作基础。', '搞好动员培训。全镇要召开换届工作会议，全面部署镇换届各项工作。要及时开展业务培训，全覆盖培训镇、村“四职”干部，同步抓好风气巡回组等人员的培训。', '召开专题民主生活会。换届前，镇领导班子要按照县委要求召开一次专题民主生活会，每名领导班子成员都要在换届问题上作出明确表态。', '开展谈心谈话。镇党委书记要对乡镇领导班子成员进行全覆盖谈心谈话，引导其正确对待进退留转、自觉服从组织安排、严格遵守换届纪律，做好深入细致的思想政治工作。', '择优选拔“五方面人员”进入镇领导班子。加大从乡镇事业编制人员、优秀村党组织书记、到村任职过的选调生、第一书记、 驻村工作队员中选拔乡镇领导班子成员力度，每个乡镇择优配备1名。“五方面人员”一般应从本乡镇选拔，本乡镇范围内合适人选数量不足的，将在全县范国内统筹选配。对当选乡镇领导班子成员的“五方面人员”，在国家行政编制限额内按照公务员登记有关规定进行登记，和其他乡镇领导班子成员一样管理使用。', '制定考察工作方案。按照县委组织部制定得乡信换届考察工作总体方案，明确工作任务、工作方法及程序、考察时间、考察组组成、工作要求。制定本辖区考察方案。方案要充分体现改进民主推荐方式的要求，民主推荐按照领导班子职位设置全额定向推荐，采取先谈话调研推荐后会议推荐的方式进行。适当扩大参加谈话调研推荐人员范围，保证谈话时间和谈话质量，按规定程序差额提出会议推荐参考人选名单，在党委会议范围内进行推荐。民主推荐结果作为确定考察对象的重要参考，防止简单以票取人。', '提高考察工作质量。把政治标准放在首位，把贯彻新发展理念、推动高质量发展的工作实绩作为评价干部政绩的依据和重要标尺，围绕中心工作、重大任务，优化考察内容和民主测评项目，注重到基层一线听取群众意见和乡语口碑。适当扩大延伸考察范围，有针对性地听取知情人意见；改进集体面谈方式，优化面谈内容、保证面谈时间；注重把考察情况与考察对象的一贯表现进行比较、相互印证，全面客观地评价干部。', '防止干部“带病提拔”。坚持“凡提四必”，落实廉政意见“双签字”规定，党委要对考察对象廉洁自律情况作出结论性评价。严格执行干部选任全程纪实、全程“放下”、全程问责等要求。适当扩大考察预告和公示范围，畅通反映问题渠道。镇纪委和组织部门要按照职能职责做好有关信访举报的调查核实工作。落实“三个区分开来”要求，实事求是、客观公正对待受处理处分的干部，符合有关政策规定的，可以作为换届人选。', '严格人选资格条件。坚持把政治标准放在首位，镇党代会代表、人大代表必须自觉增强“四个意迟”、坚定“四个自信”、做到“两个维护”。镇党代会代表人选要体现先进性和纯洁性，认真贯彻执行党的基本理论、基本路线、基本方略，牢记党的初心和使命，密切联系党员群众，发挥模范带头作用、遵守党章党纪党规和法律法规。人大代表人选要符合宪法、法律规定的基本条件，拥护中国共产党的领导和中国特色社会主义制度，模范遵守宪法、法律，维护民族团结和国家统一，有较强履职能力和良好社会形象，具有代表性。要严格人选标准条件，对存在不得提名推荐情形的，一律不得推荐提名或继续提名为代表人选。', '合理确定规模结构。乡镇党代会代表名额按照县上要求。妇女代表占代表总数的比例一般不少于本乡镇妇女党员占党员总数的比例。镇人大代表名额报由县人大常委会备案，适当提高基层代表特别是一线工人，农民、专业技术人员代表比例;妇女代表比例原则上要离于上一届，党政领导干部担任人大代表的比例要从严掌握。积极推荐在脱贫攻坚、疫情防控、抢险救灾、森林防火等重大任务中表现突出的优秀分子作为人选，注意从新的社会阶层人士、新就业形态从业人员中产生代表，对领导干部、企业负责人子女担任代表的要从严控制人数。镇党代会代表、人大代表可适当交叉。', '加强组织审核把关。严把身份关，建立人选资格联审机制，发挥纪检和组织、统战、政法、审计机构职能作用，准确认定代表人选身份，避免出现身份失真、失实。代表人选身份以参加选举时所从事的职业为准，具有多重身份的按代表性和工作性质主次认定。严把提名关，提出代表人选要坚持标准条件，广泛听取意见，充分酝酿协商，由镇党委会集体研究决定，不准以个人推荐代替组织推荐，不准将推荐提名为人大代表人选作为招商引资的条件，不准简单以资产规模、纳税情况、社会知名度代替人选标准，不准在人选推荐提名上搞利益交换。严把考察关，镇党委负责对党代表、人大代表人选进行严格组织考察，不得以人选单位意见或者人选表现材料代替考察，党代会代表候选人初步人选要在一定范围内进行公示。', '依法做好人大代表直接选举。选配熟悉法律、选举工作经验丰富的人员作为选举委员会成员，负责镇人大代表选举的组织工作。严格依法按程序开展选举，认真做好选区划分、选民登记、提名推荐候选人、确定和公布正式候选人的名单、组织代表候选人同选民见面、流动人口选举、委托投票、计票监票、确定选举结果、代表资格审查等各个环节的工作，确保人大换届选举在法治轨道上进行。', '精心组织大会选举。充分发挥党组织领导作用，县委和乡镇党委要牢牢把握选举工作的领导权和主动权，及时研究解决选举中的重大问题。党代表大会期间，大会主席团要有序组织做好选举委员、审议报告等工作;人大会议期间，成立大会临时党组织，及时了解情况，加强思想引导，依法制定选举办法，认真组织选举投票。人大、政府领导班子中的党员干部，要在党委领导下共同做好工作。派人参加大会选举，加强工作指导，确保依法依规、周密有序、圆满完成选举工作。要引导代表正确处理民主与集中的关系，依法按章行使选举权和被选举权，代表中的共产党员要带头贯彻党组织意图。', '严明换届纪律。深刻波取南充拉票贿选案、湖南衡阳破坏选举案、辽宁拉票贿选案教训，坚持以最高的标准、最严的要京、最铁的纪佛推进换届工作，不断巩国和发展风清气正的良好政治生态。坚决喊明喊响喊醒纪律要求，始终保持正风肃纪高压态势，强化党委抓换届风气的重要责任，严肃政治纪律和组织纪律。坚持教育在先、警示在先、预防在先，加强党性教育、纪律教育、思想政治教育和警示教育，巩固深化“不忘初心、牢记使命”主题教育成果，组织观看警示教育专题片，制发换届纪律及相关要求明白卡，引导党员干部知敬畏、存戒惧、守底线。严格落实中央“十严禁”、省委“四必须”和市委“二十条措施”等纪律要求，严禁拉帮结派、拉票贿选、跑官要官、说情打招呼等不正之风，坚决打击敌对势力、黑恶势力搅扰破坏，严密防范家族和宗族势力干扰影响，保证换届全过程清明清正清新。领导干部要以身作则，带头遵守换届纪律和组织人事纪律，切实发挥表率作用。', '强化全程监督。把严肃换届纪律、匡正换届风气贯穿换届工作全过程，大力弘扬清风正气。充分利用“12380” “12388”举报平台等，实时监测和了解换届风气状况，加强换届风气问题风险排查，对苗头性倾向性问题抓早抓小、及时处理。严格换届人选推荐提名工作监督、换届政策和制度规定执行情况监督，确保换届政策、选技任用程序、任前事项报告、全程纪实等制度有效执行。', '加大查处力度。建立快速查核机制，对违反换届纪律要求的行为坚持露头就打、快查严办，必要时上级组织部门会同纪检监察机关派员督办或直接查办，做到发现一起、查处一起、曝光一起。对反映考察对象违反换届纪律问题的举报，在考察任务结束前办结，避免核查不及时影响干部使用。建立失实检举控告澄清工作机制，对受到不实举报造成恶劣影响的及时予以澄清，属恶意举报和诬告陷害的严肃追究有关人员责任。严格落实换届风气监督责任制，对因履责不力，导致本地换届风气不正、换届纪律松弛涣散、换届选举出现非组织活动的，依规依纪依法严肃追究相关党组织和有关人员责任。', '加强组织领导。切实加强对镇领导班子换届工作的领导，党委书记履行第一责任人责任。对本乡镇换届工作全面负责，抓好报告起草、会议筹备、组织选举等工作。人大要加强镇人大换届选举工作的领导。', '加强工作指导。换届领导组要加强政策指导，组织好政策学习，做好政策解答;要加强换届政策落实情况的督促检查，及时纠正偏差，防止政策打折扣、搞变通;同时，要做好换届期间特别是大会召开期间的疫情防控工作。镇纪委换届和镇党委换届同步安排部署。', '营造良好氛围。积极宣传经济社会发展成就、党的建设成效和先进典型，宣传换届工作有关政策、纪律要求和经验做法，凝聚全社会应变局、育先机、开新局、谋复兴的共识和力量，充分展现中国共产党领导和中国特色社会主义制度优势。要注重加强舆论引导，注意舆情监测防控，建立应急处置机制，发现舆情及时依法处理，防止不当炒作，为换届工作营造良好舆论环境。换届工作的情况，镇党委要及时向县委汇报，并加强同有关部门的沟通，重大问题第一时间请示报告。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>237</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>中国共产党蓬安县委员会宣传部年单位预算编制说明</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/zwgk/fdzdgknr/ysjs/bmdwys/2024nddwys/202403/t20240326_1954636.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['1.拟订并统筹协调推进全县宣传思想文化工作总体规划。协调宣传思想文化系统各部门（单位）之间的工作。', '拟订并统筹协调推进全县宣传思想文化工作总体规划。协调宣传思想文化系统各部门（单位）之间的工作。', '网络安全和信息化工作的方针政策、法律法规及省委、市委、县委的决策部署。协调督促有关方面落实县委网络安全和信息化委员会的部署和要求。', '统筹协调全县意识形态工作，贯彻落实党中央和省委、市委关于意识形态工作的决策部署，组织协调意识形态工作责任制落实和日常监督检查，配合巡察工作开展专项检查。', '4.统筹协调网络意识形态工作，负责指导、督促、检查网络意识形态工作责任制的贯彻落实，组织开展网络意识形态工作专题督查。', '统筹协调网络意识形态工作，负责指导、督促、检查网络意识形态工作责任制的贯彻落实，组织开展网络意识形态工作专题督查。', '5.统筹指导协调理论研究、理论学习、理论宣传工作，组织推动理论武装工作，指导推动哲学社会科学工作。', '统筹指导协调理论研究、理论学习、理论宣传工作，组织推动理论武装工作，指导推动哲学社会科学工作。', '6.负责规划组织全局性思想政治工作，宏观指导全县各级各类学校的德育、政治理论课教学，会同有关部门研究和改进群众思想教育工作。组织重大先进典型的学习和推广。', '负责规划组织全局性思想政治工作，宏观指导全县各级各类学校的德育、政治理论课教学，会同有关部门研究和改进群众思想教育工作。组织重大先进典型的学习和推广。', '7.统筹组织协调精神文明建设工作，协调推动精神文明创建、公民思想道德建设和志愿服务工作，统筹指导协调推进精神文化产品的创作和生产，指导协调推动群众文化建设。', '统筹组织协调精神文明建设工作，协调推动精神文明创建、公民思想道德建设和志愿服务工作，统筹指导协调推进精神文化产品的创作和生产，指导协调推动群众文化建设。', '8.统筹协调对外宣传工作，组织指导重大对外宣传活动和对外文化交流工作。指导协调县级新闻单位工作，组织协调重大新闻宣传活动和重大突发公共事件应急新闻工作。', '统筹协调对外宣传工作，组织指导重大对外宣传活动和对外文化交流工作。指导协调县级新闻单位工作，组织协调重大新闻宣传活动和重大突发公共事件应急新闻工作。', '指导协调县级新闻单位工作，负责组织协调重大新闻宣传活动和重大突发公共事件应急新闻工作。', '10.统筹协调全县网络安全和信息化工作，监督管理互联网信息内容。指导和管理互联网违法和不良信息举报工作。协调处理全县网络安全和信息化重大突发事件与有关应急工作。', '统筹协调全县网络安全和信息化工作，监督管理互联网信息内容。指导和管理互联网违法和不良信息举报工作。协调处理全县网络安全和信息化重大突发事件与有关应急工作。', '11.统筹协调组织开展新闻发布工作，承担县委新闻发布有关组织协调工作，负责县政府新闻发布组织实施工作，指导县委、县政府各部门（单位）和乡镇新闻发布工作，推动新闻发言人制度建设。拟定全县重大问题宣传口径。', '统筹协调组织开展新闻发布工作，承担县委新闻发布有关组织协调工作，负责县政府新闻发布组织实施工作，指导县委、县政府各部门（单位）和乡镇新闻发布工作，推动新闻发言人制度建设。拟定全县重大问题宣传口径。', '12.统筹指导推进文化体制改革和文化事业、文化产业发展，统筹县属国有文化资产监管工作，组织研究县属国有文化资产监管制度办法，会同有关单位负责相关工作开展。', '统筹指导推进文化体制改革和文化事业、文化产业发展，统筹县属国有文化资产监管工作，组织研究县属国有文化资产监管制度办法，会同有关单位负责相关工作开展。', '13.负责管理新闻出版行政事务和所涉及的行政审批工作，监督管理出版物内容和质量，监督管理印刷业，管理著作权等。组织指导协调“扫黄打非”工作。负责新闻记者证管理工作。', '负责管理新闻出版行政事务和所涉及的行政审批工作，监督管理出版物内容和质量，监督管理印刷业，管理著作权等。组织指导协调', '14.负责管理电影行政事务和所涉及的行政审批工作，指导监管电影制片、发行、放映工作，组织对电影内容进行审查，指导协调和参与重大电影活动和电影对外合作交流等。', '负责管理电影行政事务和所涉及的行政审批工作，指导监管电影制片、发行、放映工作，组织对电影内容进行审查，指导协调和参与重大电影活动和电影对外合作交流等。', '15.受县委委托，会同县委组织部管理文化旅游、新闻、出版、广播电视、电影、社会科学研究和互联网信息等方面县直宣传思想文化单位的领导干部，负责这些部门和单位领导班子的建设。负责有关重要宣传舆论阵地和重要岗位领导干部管理。对各乡镇宣传委员的任免提出意见。负责组织开展宣传思想文化战线干部教育培训和人才工作。配合有关部门做好知识分子工作和理论、新闻、出版、文艺等方面优秀人才的选拔、培养工作。', '受县委委托，会同县委组织部管理文化旅游、新闻、出版、广播电视、电影、社会科学研究和互联网信息等方面县直宣传思想文化单位的领导干部，负责这些部门和单位领导班子的建设。负责有关重要宣传舆论阵地和重要岗位领导干部管理。对各乡镇宣传委员的任免提出意见。负责组织开展宣传思想文化战线干部教育培训和人才工作。配合有关部门做好知识分子工作和理论、新闻、出版、文艺等方面优秀人才的选拔、培养工作。', '16.归口领导县文化广播电视和旅游局等宣传思想文化和旅游单位。受县委委托，代管县委报道组、县舆情信息处理中心（县互联网不良和违法信息举报中心）、县融媒体中心（县广播电视台、县新闻中心）、司马相如研究院（县文联、县社科联）等宣传思想文化和旅游单位。', '归口领导县文化广播电视和旅游局等宣传思想文化和旅游单位。受县委委托，代管县委报道组、县舆情信息处理中心（县互联网不良和违法信息举报中心）、县融媒体中心（县广播电视台、县新闻中心）、司马相如研究院（县文联、县社科联）等宣传思想文化和旅游单位。', '19.依法负责网络新闻业务和论坛、博客、搜索引擎等具有新闻舆论及社会动员功能业务的审批及日常监管。指导有关部门（单位）开展互联网基础管理工作。', '依法负责网络新闻业务和论坛、博客、搜索引擎等具有新闻舆论及社会动员功能业务的审批及日常监管。指导有关部门（单位）开展互联网基础管理工作。', '1.选优配强宣传系统领导班子和主要负责人，配齐配强宣传工作机构队伍，成立宣传思想工作领导小组。', '选优配强宣传系统领导班子和主要负责人，配齐配强宣传工作机构队伍，成立宣传思想工作领导小组。', '2.把学习宣传贯彻党的二十大及习近平新时代中国特色社会主义思想作为首要政治任务，县委理论学习中心组集中学习研讨不少于8次，并编印学习资料，力争理论武装工作位居全市前列，推广运用“学习强国”学习平台及赋圣蓬安APP。', '把学习宣传贯彻党的二十大及习近平新时代中国特色社会主义思想作为首要政治任务，县委理论学习中心组集中学习研讨不少于', '3.围绕党委、政府中心工作，紧扣“实施八大攻坚行动，建设浪漫宜居繁荣的现代化蓬安”的发展目标，县委报道组、县融媒体中心全年发稿量不少于1000篇（条）。', '5.大力推进软件正版化工作，实现全县党政机关、事业单位和县级国有企业覆盖率100%。', '6.切实抓好电影和传媒监管工作，认真落实县委、县政府核定的行政权力清单，做好行政处罚。', '切实抓好电影和传媒监管工作，认真落实县委、县政府核定的行政权力清单，做好行政处罚。', '10.切实强化网评队伍建设，建立不少于100人的网评员队伍，接收并完成中省市下达的网络评论引导和网评文章任务', '11.坚持7×24小时值班，强化舆情监测、分析研判、会商处置，指导各地各部门妥善处置网络舆情，确保重大舆情事件不升级发酵。', '小时值班，强化舆情监测、分析研判、会商处置，指导各地各部门妥善处置网络舆情，确保重大舆情事件不升级发酵。', '12.切实强化网络宣传，做好对外宣传工作，在中央重点传统媒体发稿不少于50篇（条）、省级主流传统媒体发稿不少于400篇（条）。', '按照综合预算的原则，中共蓬安县委宣传部所有收入和支出均纳入部门预算管理。收入包括：一般公共预算拨款收入、', '2.一般公共服务支出（类）宣传事务（款）一般行政管理事务（项）：2024年预算数为200000.00元，主要用于行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出。', '元，主要用于行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出。', '2024年预算数为2308416.91元，主要用于事业单位的基本支出，不包括行政单位（包括实行公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。', '元，主要用于事业单位的基本支出，不包括行政单位（包括实行公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。', '4.社会保障和就业支出（类）行政事业单位养老支出（款）机关事业单位基本养老保险缴费支出（项）：2024年预算数为514300.32元，主要用于机关事业单位实施养老保险制度由单位缴纳的基本养老保险费支出。', '社会保障和就业支出（类）行政事业单位养老支出（款）机关事业单位基本养老保险缴费支出（项）：', '5.社会保障和就业支出（类）行政事业单位养老支出（款）其他行政事业单位养老支出（项）：2024年预算数为300.00元，主要用于行政事业单位养老方面的其他支出。', '社会保障和就业支出（类）行政事业单位养老支出（款）其他行政事业单位养老支出（项）：', '6.卫生健康支出（类）行政事业单位医疗（款）行政单位医疗（项）：2024年预算数为64253.57元，主要用于财政部门安排的行政单位（包括实行公务员管理的事业单位）基本医疗保险缴费经费，未参加医疗保险的行政单位的公费医疗经费，按国家规定享受离休人员、红军老战士待遇人员的医疗经费。', '元，主要用于财政部门安排的行政单位（包括实行公务员管理的事业单位）基本医疗保险缴费经费，未参加医疗保险的行政单位的公费医疗经费，按国家规定享受离休人员、红军老战士待遇人员的医疗经费。', '7.卫生健康支出（类）行政事业单位医疗（款）事业单位医疗（项）：2024年预算数为117042.50元，主要用于财政部门安排的事业单位基本医疗保险缴费经费，未参加医疗保险的事业单位的公费医疗经费，按国家规定享受离休人员待遇的医疗经费。', '元，主要用于财政部门安排的事业单位基本医疗保险缴费经费，未参加医疗保险的事业单位的公费医疗经费，按国家规定享受离休人员待遇的医疗经费。', '9.住房保障支出（类）住房改革支出（款）住房公积金（项）：2024年预算数为434085.24元，主要用于行政事业单位按人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金。', '元，主要用于行政事业单位按人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金。', '人员经费4954545.14元，主要包括：基本工资、津贴补贴、奖金、伙食补助费、绩效工资、机关事业单位基本养老保险缴费、职业年金缴费、其他社会保障缴费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、奖励金、住房公积金、购房补贴、其他对个人和家庭的补助支出。', '元，主要包括：基本工资、津贴补贴、奖金、伙食补助费、绩效工资、机关事业单位基本养老保险缴费、职业年金缴费、其他社会保障缴费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、奖励金、住房公积金、购房补贴、其他对个人和家庭的补助支出。', '公用经费475880元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、物业管理费、差旅费、因公出国（境）费用、维修（护）费、租赁费、会议费、培训费、公务接待费、劳务费、委托业务费、工会经费、福利费、其他交通费、税金及附加费用、其他商品和服务支出。', '元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、物业管理费、差旅费、因公出国（境）费用、维修（护）费、租赁费、会议费、培训费、公务接待费、劳务费、委托业务费、工会经费、福利费、其他交通费、税金及附加费用、其他商品和服务支出。', '中共蓬安县委宣传部2024年“三公”经费财政拨款预算数26000元，其中：因公出国（境）费支出预算为0元；公务用车购置费支出预算0元；公务用车运行维护费支出预算为0元；公务接待费支出预算为26000元。', '2024年县级部门年初预算暂不编列因公出国（境）经费。执行中，县级部门确需执行出国（境）任务和计划的，按照“一事一议”的方式按程序报批后安排经费。', '年县级部门年初预算暂不编列因公出国（境）经费。执行中，县级部门确需执行出国（境）任务和计划的，按照', '2024年没有更新购置公务用车计划，无公务用车购置费。2024年没有公务用车维护费支出。', '2024年公务接待费26000.00元。计划用于执行接待考察调研、检查指导等公务活动开支的交通费、用餐费等。', '2023年底占有使用的国有资产中没有车辆；无单价50万元以上通用设备，无单价100万元以上专用设备，全部为电脑、打印机等日常办公设备。', '3.一般公共服务（类）宣传事务（款）行政运行（项）：行政单位（包括实行公务员管理的事业单位）的基本支出。', '一般公共服务（类）宣传事务（款）行政运行（项）：行政单位（包括实行公务员管理的事业单位）的基本支出。', '5.一般公共服务（类）宣传事务（款）事业运行（项）：反映事业单位的基本支出，不包括行政单位后勤服务中心、医务室等附属事业单位。', '一般公共服务（类）宣传事务（款）事业运行（项）：反映事业单位的基本支出，不包括行政单位后勤服务中心、医务室等附属事业单位。', '7.社会保障和就业（类）行政事业单位养老支出（款）其他行政事业单位养老支出（项）：反映除上述项目以外其他用于行政事业单位养老方面的支出。', '社会保障和就业（类）行政事业单位养老支出（款）其他行政事业单位养老支出（项）：反映除上述项目以外其他用于行政事业单位养老方面的支出。', '8.卫生健康（类）行政事业单位医疗（款）行政单位医疗（项）：反映财政部门安排的行政单位基本医疗保险缴费经费，未参加医疗保险的行政单位的公费医疗经费，按国家规定享受离休人员、红军老战士待遇人员的医疗经费。', '卫生健康（类）行政事业单位医疗（款）行政单位医疗（项）：反映财政部门安排的行政单位基本医疗保险缴费经费，未参加医疗保险的行政单位的公费医疗经费，按国家规定享受离休人员、红军老战士待遇人员的医疗经费。', '9.卫生健康（类）行政事业单位医疗（款）事业单位医疗（项）：反映财政部门安排的事业单位基本医疗保险缴费经费，未参加医疗保险的事业单位的公费医疗经费，按国家规定享受离休人员待遇的医疗经费。', '卫生健康（类）行政事业单位医疗（款）事业单位医疗（项）：反映财政部门安排的事业单位基本医疗保险缴费经费，未参加医疗保险的事业单位的公费医疗经费，按国家规定享受离休人员待遇的医疗经费。', '10.卫生健康（类）行政事业单位医疗（款）公务员医疗补助（项）：反映财政部门安排的公务员医疗补助经费。', '卫生健康（类）行政事业单位医疗（款）公务员医疗补助（项）：反映财政部门安排的公务员医疗补助经费。', '类）国有土地使用权出让收入安排的支出（款）其他国有土地使用权出让收入安排的支出（项）：反映土地收', '入用于其他方面的支出。不包括市县级政府当年按规定用土地出让收入向中央和省级政府缴纳的新增建设用地有偿使用费的支出。', '12.住房保障（类）住房改革支出（款）住房公积金（项）：反映行政事业单位按人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金。', '住房保障（类）住房改革支出（款）住房公积金（项）：反映行政事业单位按人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金。', '13.基本支出：指为保证机构正常运转，完成日常工作任务而发生的人员支出和公用支出。', '15.“三公”经费：是指部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '经费：是指部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>237</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>蓬安县人民代表大会常务委员会办公室年部门预算编制说明</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2024-03-28</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.pengan.gov.cn/zwgk/fdzdgknr/ysjs/bmdwys/2024ndbmys/202403/t20240328_1956137.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['负责组织办理县人民代表大会会议、县人大常委会会议、主任会议和常委会召开的其他重要会议的准备工作。', '负责县人大常委会机关值班、公文收发、机要、保密、档案管理、印鉴管理、安全稳定、来信来访等工作。', '负责县人大常委会综合性或专题性的调查研究；组织草拟或审核人大常委会及其主任会议、人大常委会党组的文件；起草人大常委会工作报告和主要领导的重要讲话。', '负责机关后勤服务和财务管理。承担机关办公区房地产管理和职工宿舍物业管理；承担各类物资的采购、保管、分配和发放；办理机关医疗保险等具体事务；承办上级人大常委会及所属机构和外地人大常委会领导同志来我县视察考察工作的接待工作；负责车辆调度和管理；承办离退休人员的管理服务工作。', '负责机关组织、人事、机构编制工作，组织机关干部的政治理论学习；承办县人大常委会党组交办的其他工作。', '联系乡镇人大主席团；统一答复乡镇人大主席团和县人民政府有关部门、县人民法院、县人民检察院对有关问题的询问。', '“第一议题”制度，深入学习党的创新理论成果，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”。自觉同党中央、省委、市委', '对标对表，保证党的理论、路线、方针、政策和决策部署在人大工作中得到全面贯彻和有效执行。严格落实请示报告制度，坚持定期向', '委报告全面工作，及时请示报告工作推进中的重大问题、重要事项，自觉把党的领导贯穿人大工作全过程、各方面。', '委的决策与人民的意愿有机统一起来，确保党的主张通过法定程序成为国家意志。强化对人大及其常委会决议决定执行情况的跟踪监督，维护严肃性，保障执行力。扎实做好', '全面落实组织意图。坚持党管干部与人大依法任免有机统一，规范任免流程，严明政治规矩，严肃任免纪律，严格执行拟任人员法律考试、供职发言、宪法宣誓制度，依法按程序做好人事任免工作，保证市委', '改进工作、提高效率。听取和审议县人民政府关于行政执法监督工作和《关于打击治理电信网络诈骗工作报告审议意见》', '“一府一委两院”和乡镇人大主席团报备的规范性文件进行审查，推动备案审查全覆盖。持续深化人大代表旁听司法案件庭审活动，推进法律监督实效化。贯彻落实信访工作条例，认真做好来信来访工作，切实维护人民群众的合法权益。', '经济高质量发展、城市品质提升、文旅三产繁荣、重点交通项目推进、乡村振兴战略实施、民生实事项目落地、生态保护和污染防治、安全保障和依法行政等', '为监督议题，不断创新监督工作的方法和路径，找准监督工作的切入点和着力点，做到依法监督、正确监督、有效监督。', '围绕经济运行加强监督，积极探索人大监督与审计监督衔接机制，强化预算联网监督成果运用，推动预算管理、政府债务、国有资产、审计问题整改工作等监督由线下向', '年上半年国民经济和社会发展计划执行情况的报告，助推县域经济高质量发展；听取和审议财政决算、预算执行、预算调整等专项工作报告，督促政府提高财政资金使用效率。紧盯全县发展大局，对城乡规划管理、旅游景区提档升级、高标准农田建设、水土流失综合防治、供销系统为农专业服务体系建设、重点交通项目建设、全县生态环境保护等开展专题调研', '和听取审议有关工作报告，助推县委重大决策部署全面落实。紧盯社会热点、难点，对全县未成年人保护、残疾人保障、民族宗教、学生心理健康教育、公立医院服务能力提升、医保服务体系建设、城市污水治理、城市公厕建设管理等开展专题调研和听取审议有关工作报告，切实推动、有效解决人民群众最关心、最现实、最直接的问题，不断增强群众的获得感和幸福感。', '年交办县人民政府的审议意见落实情况开展“跟踪式”监督，通过现场督办、开展审议意见办理“回头看”和满意度测评等方式，加大对审议意见的督办力度，', '建议督办。切实做好县十八届人大三次会议代表意见建议交办工作，统筹协调开展建议跟踪督办，综合运用多种监督形式，不断提高建议办理督办水平，促进承办单位提高办理质量。建立代表建议评优工作机制，继续推行代表建议办理工作量化考核和重点督办制度，进一步提高建议办理质量，调动代表履职的积极性，力求', '“联系群众、汇集民意、督政议事、推进治理”四大功能，实现“以标准促规范，以规范推示范，以示范创特色”，持续推进县乡人大代表活动阵地规范化建设。保障代表活动经费，落实代表履职补贴，切实解决代表履职中的困难和问题。进一步完善代表学习交流、代表联系选民等制度，开展代表履职能力提升专题培训，合理设置培训内容，有针对性地提高代表在建议议案提出、审查计划预算报告和高质量开展审议等方面的能力，不断提高代表依法履职水平。', '、强化代表活动管理。强化闭会期间代表活动的组织、指导、服务，深度挖掘代表活动主题，丰富创新闭会期间代表活动形式和内容，扎实开展代表接访、交流探讨等活动；坚持向代表通报工作，', '邀请代表参与人大常委会组织的执法检查、视察调研等活动，不断扩大代表对常委会、专委会工作的参与，', '拓宽代表知情知政渠道，全面激发代表工作活力。健全完善代表联系机制、代表活动计划机制、代表激励机制、代表活动平台机制，全覆盖开展述职评议和满意度测评，不断增强人大代表的政治责任感和履职主动性。', '、强化联系群众工作。认真落实常委会主任会议成员联系委员、组成人员联系代表、代表联系群众“三联系”制度，组织各级人大代表进“家”入“站”，深入开展“大走访大调研大服务大解题”和“我为群众办实事—人大代表在行动”实践活动，支持和引导全县各级人大代表汇聚民意、反映民情、回应民声。持续加强对乡镇', '人大开展民生实事项目人大代表票决制工作的指导，在民生实事项目中征集优秀案例，发挥示范带动作用。', '、强化代表履职评价。全面加强代表思想政治作风建设，督促代表正确处理从事个人职业活动和依法执行代表职务的关系，自觉接受人民群众和原选举单位监督。加强代表履职情况动态登记管理，进一步发挥好代表履职评价的成果运用，督促代表依法履职尽责，不断增强代表履职的主动性和积极性，切实展现代表风采。', '、着力推进“四个机关”建设。强化政治机关意识，发挥常委会党组把方向、管大局、保落实的领导作用，完善常委会党组、机关党组、机关党总支、机关党支部“四位一体”党建机制，不断提高党建工作质效。深化拓展主题教育成果，持之以恒抓好主题教育问题整改落实。落实全面从严治党要求，深入推进党风廉政建设和反腐败斗争，进一步严明政治纪律和政治规矩，自觉接受县纪委监委派驻县人大常委会机关纪检监察组的监督。深入贯彻落实中央八项规定精神、省委省政府十项规定和市委市政府九项规定及其实施细则，深入践行“四下基层”，坚决防止“四风”反弹回潮，营造风清气正的政治生态。', '、切实提升履职能力和水平。加强常委会组成人员和机关干部宪法和法律法规学习，组织开展推进全过程人民民主专题培训，提升依法履职观念和服务保障能力。积极支持各专委会履行法定职权，提升办事工作机构服务保障水平，激发干部职工干事创业内生动能。适时召开组成人员学习会、专项工作座谈会和机关集中学习会，深入落实树立新理念、拿出新担当、弘扬新作风、建立新机制、塑造新面貌“五新”要求，加强常委会组成人员、人大代表、机关干部“三支队伍”能力建设，不断提升履行法定职责、服务发展大局的能力和水平。推进数字人大建设，不断提升人大工作信息化水平。', '、加强宣传工作和理论研究。严格落实意识形态工作责任制，持续加强人大制度和人大工作宣传，切实守好人大意识形态主阵地。围绕发挥代表作用、创新监督方式、加强制度建设等课题，强化人大理论研究和工作研究，努力形成一批调研成果，为县委决策、常委会依法履职提供有益参考。办好《人大动态》《蓬安县人大常委会大事记》和公报，加强蓬安人大网站建设，继续加强对信息、新闻、评论、调研文章等的采写上报工作，充分发挥主流媒体作用，讲好人大故事、树好人大形象。', '、强化对外交流和工作指导。主动向省、市人大常委会汇报工作，虚心接受指导，积极争取支持，配合开展立法调研、执法检查、专项视察和重要会议服务等工作。加强与其他县（市、区）人大联系，学习借鉴先进工作经验。密切与乡镇人大的联系指导，坚持邀请部分乡镇（街道）人大（工委）负责人列席常委会会议，落实基层人大工作上下联动机制，拓展工作协同与交流，不断夯实地方人大工作基层基础，切实提升人大工作整体实效。', '、统筹做好日常工作。扎实做好精神文明、综治维稳、普法教育、群团老干、安全保密、目标考核等常规性事务。扎实抓好常委会领导定点帮扶、河（林）长制、联系企业等工作，确保圆满完成年度目标任务。', '所有收入和支出均纳入部门预算管理。收入包括：一般公共预算拨款收入；支出包括：一般公共服务支出、教育支出、社会保障和就业支出、卫生健康支出、住房保障支出。', '元，主要包括：办公费、水费、电费、邮电费、印刷费、差旅费、维修（护）费、物业管理费、劳务费等支出。', '预期完成的数量、成本、时效、质量，预期达到的社会效益、经济效益、生态效益、可持续影响以及服务对象满意度等情况。', '保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出，从而完成年初制定工作的目标', '（类）人大事务（款）一般行政管理事务（项）：指人大机关单位开展人大综合业务的项目支出。', '（类）人大事务（款）人大立法（项）：指人大机关各办事机构及各专委会执法调研的项目支出。', '单位用于保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出，从而完成年初制定工作的目标。', '（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》的规定，由单位及其在职职工缴存的长期住房储金。', '经费：指部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：为保障人大机关用于购买货物和服务的各项资金。包括办公及印刷费、邮电费、差旅费、会议费一般设备购置费等费用开支。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>237</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>富利镇人民政府关于印发富利镇贯彻落实国务院安委会安全生产十五条措施工作方案的通知</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2022-07-23</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/t_1726237.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['富利镇人民政府 关于印发《富利镇贯彻落实国务院安委会安全生产十五条措施工作方案》的通知-南部县人民政府', '富利镇人民政府 关于印发《富利镇贯彻落实国务院安委会安全生产十五条措施工作方案》的通知', '为认真学习贯彻习近平总书记关于安全生产重要指示精神和党中央、国务院决策部署，全面落实国务院安委会15条措施和省安委会《关于贯彻落实国务院安委会安全生产十五条措施的实施意见（试行）》要求，有效防范各类生产安全事故，坚决遏制较大及以上生产安全事故发生，以高质量安全服务高质量经济社会发展，特制定本工作方案。', '为认真学习贯彻习近平总书记关于安全生产重要指示精神和党中央、国务院决策部署，全面落实国务院安委会', '条措施和省安委会《关于贯彻落实国务院安委会安全生产十五条措施的实施意见（试行）》要求，有效防范各类生产安全事故，坚决遏制较大及以上生产安全事故发生，以高质量安全服务高质量经济社会发展，特制定本工作方案。', '暂行办法》，把安全生产纳入镇党委成员职责清单，并进一步细化明确各成员安全生产责任。将贯彻落实党中央和省委关于安全生产工作决策部署的情况纳入巡视巡察，综合运用巡查督查、考核考察、激励惩戒等措施，加大安全生产等约束性指标在经济社会发展考核评价体系中的权重，作为衡量社会治安综合治理、精神文明建设成效的重要指标，将履行安全生产责任情况作为对党委政府领导班子和有关干部考核、有关人选考察的重要内容。加快落实镇安委会办公室实体化运行，落实', '人员（专人负责暗访督查、巡查考核，专人开展风险研判提示，专人落实清单责任，专人从事隐患点管理，专人组织警示教育），统筹推动安全生产工作落地落实。', '主要负责人要亲力亲为、靠前协调，定期主持召开党委会听取安全生产工作汇报，研究解决安全生产重大问题，真正抓具体、抓扎实、抓出成效，严防大而化之、原则领导。镇党委听取安全生产工作情况汇报每月不少于1次，召开安全生产工作会议每年不少于4次。镇党委成员要按照职责分工，协调一切单位支持保障安全生产工作，在重要节假日、关键时段带队督导检查安全生产工作，每季度调研检查安全生产工作不少于1次，并在个人年度述职中就安全生产工作履职情况进行述职。', '主要负责人要亲力亲为、靠前协调，定期主持召开党委会听取安全生产工作汇报，研究解决安全生产重大问题，真正抓具体、抓扎实、抓出成效，严防大而化之、原则领导。镇党委听取安全生产工作情况汇报每月不少于', '次。镇党委成员要按照职责分工，协调一切单位支持保障安全生产工作，在重要节假日、关键时段带队督导检查安全生产工作，每季度调研检查安全生产工作不少于', '把安全发展理念具体落实到经济社会发展各领域、各环节。将安全生产纳入重点工作和工作报告的重点内容，纳入本地', '国民经济和社会发展总体规划，制定并实施安全生产专项规划，并与国土空间规划等相关规划相衔接。建立全镇安全生产专项资金投入保障机制，加大安全隐患排查治理资金投入，根据每年具体情况规划和安排安全生产专项资金。', '，纳入清单制监管平台并加强督查检查。行政主要负责人要根据镇党委会议的要求，及时研究解决突出问题，列出问题清单，提出有效的解决办法。镇政府听取安全生产工作情况汇报每月不少于', '要求，将安全生产工作与业务工作同时安排部署、同时组织实施、同时监督检查，切实抓好分管行业领域安全生产工作，在重要节假日、关键时段带队督导检查安全生产工作，每季度调研检查安全生产工作不少于', '全体成员会议，每2个月不少于1次。每月组织召开重大安全风险和重大隐患研判分析会议。及时发布预警预报信息，建立健全安全风险信息互通共享机制，加强对安全风险防控工作的督促指导。落实安全隐患点分', '次。每月组织召开重大安全风险和重大隐患研判分析会议。及时发布预警预报信息，建立健全安全风险信息互通共享机制，加强对安全风险防控工作的督促指导。落实安全隐患点分', '的原则，依法依规编制安全生产权力和责任清单，公开并接受社会监督，切实履行安全生产监督管理责任。进一步完善安全生产工作任务分工，建立健全', '的安全监管协同机制，明确在安全生产宣传教育培训、安全标准制订、隐患排查治理、打非治违、信息报告、应急响应等方面的责任。对安全生产职责不清的行业领域及职能交叉和新业态新风险，按照', '的原则，由镇政府及时明确安全监管部门，各有关部门要主动担当，不得推诿扯皮。对危险化学品、城镇燃气、城乡消防、道路交通运输、工贸等环节多的领域，抓实全链条监管责任，主动上前一步，形成工作合力。', '各部门（单位）要制定年度安全生产工作计划，完善本部门安全监管机构设置和人员配备，要把安全生产工作与本行业的业务工作做到同部署、同检查、同考核，定期召开会议研究安全生产工作，每季度不少于1次。要依法制定实施本行业领域安全生产发展规划、产业政策、法规标准等，全面推行安全生产“三张清单、一项承诺书”管理制度，建立本部门（单位）定期开展安全生产督查暗访制度，加强对本行业领域的监督管理、督导检查。对直接关系安全生产的取消下放事项，要实事求是开展评估，加强事后监管，对基层接不住、监管跟不上的及时予以纠正，必要时要收回，酿成事故的要严肃追责。各有关部门要督促指导本系统和有关企业提出一批有利于提升安全水平和长期发展的项目，抓紧上报审批。', '各部门（单位）要制定年度安全生产工作计划，完善本部门安全监管机构设置和人员配备，要把安全生产工作与本行业的业务工作做到同部署、同检查、同考核，定期召开会议研究安全生产工作，每季度不少于', '次。要依法制定实施本行业领域安全生产发展规划、产业政策、法规标准等，全面推行安全生产', '管理制度，建立本部门（单位）定期开展安全生产督查暗访制度，加强对本行业领域的监督管理、督导检查。对直接关系安全生产的取消下放事项，要实事求是开展评估，加强事后监管，对基层接不住、监管跟不上的及时予以纠正，必要时要收回，酿成事故的要严肃追责。各有关部门要督促指导本系统和有关企业提出一批有利于提升安全水平和长期发展的项目，抓紧上报审批。', '、考核巡查、警示约谈、挂牌督办、提级调查等手段，督促各部门落实监管责任。坚持隐患排查常态化、问题整治常态化、督促检查常态化、宣传教育常态化。坚持每季度', '动态考核排名，运用《安全生产责任清单制监管平台》，量化责任清单任务，动态监督责任落实情况。定期开展安全风险会商研判，常态化开展', '依法对各类生产安全事故进行调查处理，严肃追究有关责任人的责任。对不认真履行职责，导致事故频发多发或发生较大及以上生产安全事故的，不仅要追究直接责任，而且要追究相关领导责任、有关部门的监管责任。严格落实安全生产', '制度，因属地管理责任和部门监管责任没有落实，一年内发生一起重大生产安全事故的，对相关行业主管部门主要负责同志按程序免职。对因发生生产安全事故被约谈的干部和单位负责人，半年内不得提拔使用。镇纪委监委、镇党建办和镇应急办牵头，按', '对非法煤矿、违法盗采、违法建设、危化品非法生产经营运输储存等严重违法违规行为没有采取有效制止措施甚至放任不管的，要依规依纪依法追究主要负责人的责任，涉嫌犯罪的移送司法机关追究刑事责任。对安全生产工作中不担当、不作为、慢作为、形式主义、官僚主义等其他典型问题依规依纪严肃处理。', '企业法定代表人、实际控制人、实际负责人要严格履行安全生产第一责任人的责任，对本单位安全生产负总责。企业负责人要按规定设立安全生产管理机构，配齐配强安全管理人员，保证安全生产所必需的资金投入，结合安全生产清单制管理，牵头组织本企业按照', '的，发生一般事故负有责任的要依法追究企业主要负责人、直接负责主管人员和其他直接人员责任，发生较大事故要依法追究负有责任的企业法定代表人、实际控制人、实际负责人的责任，发生重特大事故要直接追究集团公司主要负责人、分管负责人的责任。要严格落实重大危险源安全包保责任制等制度规定，对弄虚作假、搞', '逃避安全责任的，依法追究企业实际控制人的责任。对发生重特大事故负有主要责任的，在追究刑事责任的同时，明确终身不得担任本行业单位主要负责人。', '（行业领域）实际，制定印发本级检查方案，围绕城镇燃气、危化品、民航、矿山、道路交通、烟花爆竹、建筑施工、水电站、消防、特种设备等重点行业领域以及商场、影剧院、医院、养老院、学校、幼儿园和高层建筑等人员密集场所，采取', '的方式，全面组织开展安全生产大检查，深入排查安全风险隐患，切实解决重点难点问题，着力从根本上堵住漏洞、消除盲', '（十五）坚决整改排查发现的各类隐患。对在安全生产大检查中发现的问题隐患，列出清单、明确要求、压实责任、限期整改、跟踪督查。对人员密集场所和高层建筑封闭安全出口、疏散通道的，立即责令整改。对大班次煤矿、尾矿库、油气储存基地、自建房、群租房、已鉴定的D级危房、客车客船等涉及生产经营环节存在可能造成群死群伤的重大隐患，由镇安委会提请', '（十五）坚决整改排查发现的各类隐患。对在安全生产大检查中发现的问题隐患，列出清单、明确要求、压实责任、限期整改、跟踪督查。对人员密集场所和高层建筑封闭安全出口、疏散通道的，立即责令整改。对大班次煤矿、尾矿库、油气储存基地、自建房、群租房、已鉴定的', '进行挂牌督办。对拒不整改的采取停产停工、追究刑责等果断措施，坚决防止风险隐患演变为重特大事故。对排查整治不认真，未列入清单、经查实属于重大隐患的，要当作事故对待，引发事故的要从严从重追究责任。对基层难以解决的重要问题，要报告镇安', '分类分级排查治理挺在事故前面，督促企业建立健全风险分级管控和隐患排查治理双重预防机制，对生产工艺、设备设施、作业环境、人员行为、管理体系等方面存在的安全风险开展全方位、全过程辨识，明确管控责任和措施，并对管控措施是否有效持续开展排查，及时消除安全隐患，严防生产安全事故发生。', '每一个项目、每一个环节都要以安全为前提，不能有丝毫疏漏。镇经发办要牵头建立完善安全风险评估与论证机制，严禁', '明确项目审批安全要求。对危化品、矿山、烟花爆竹、建筑施工、金属冶炼等行业领域高危项目和人员密集场所，全面执行安全生产、消防安全法律法规和政策标准规定，严格项目审查、建设、验收、投产投用闭环管理，督促项目单位按规定落实安全评价，不得以集中审批为名降低安全门槛。对地方政府违规审批、强行上马的不达标项目，造成事故的实行终身追责。', '企业新建、改建、扩建工程项目的安全设施，必须与主体工程同时设计、同时施工、同时投入生产和使用，坚决防止项目建设存在安全隐患，真正实现安全发展、科学发展。', '贯彻构建新发展格局、实现高质量发展要求，要对外地产业转移项目严格执行审查程序，坚决将不符合国家产业发展规划和本地产业规划的项目拒之门外，确保落地项目满足国家各行业的规范标准，坚决淘汰落后产能。', '列出化工产业转移重点项目清单，组织开展集中检查，不达安全标准的不能上马和开工，已经运行的坚决整改。科学进行布点规划，推动落实', '，从项目准入、安全审查、建设、试生产、竣工验收等各环节加强风险管控，严禁在省政府认定的化工园', '住建所制定严厉查处违法分包转包和挂靠资质专项整治行动工作方案，坚决打击建筑施工、矿山、危化品、烟花爆竹、金属冶炼、特种设备等高危行业领域建设、生产、经营活动中存在的违法分包转包和挂靠资质行为，严肃追究发包方、承包方相应法律责任。严格资质管理，坚持', '要发挥表率作用，建强安全生产专业技术管理团队，加强对安全生产工作的指导、监督、考核和奖惩，不具备条件的不得盲目承接相关业务，并加强对分包单位等关联单位安全生产的指导、监督，实行安全生产的统一管理；对违法分包转包的行为通报其主管部门及纪检监察部门，并依规依纪依法追究相关人员责任。', '生产经营单位要将接受其作业指令的劳务派遣人员、灵活用工人员纳入本单位从业人员安全生产的统一管理，落实全员安全生产责任制，履行安全生产保障责任。对从业人员、劳务派遣、灵活用工人员进行岗位安全操作规程和安全操作技能教育培训，未经安全生产教育培训合格的不得上岗作业。企业特种作业人员必须按照国家有关规定进行专门的安全作业培训考核，取得相应资格，实行持证上岗。从事危化品、烟花爆竹、矿山、金属冶炼、特种设备等高危行业的作业人员，必须具备入职人员资质和学历，企业要签订用工合同、履行用工手续，煤矿井下作业禁止使用劳务派遣工。', '办公室、镇工会牵头制定方案，开展从业人员、劳务派遣、灵活用工人员安全管理专项检查。危险岗位要严格控制劳务派遣用工数量，对劳务派遣用工和灵活用工人员数量较多的建筑施工、电力通讯、城镇燃气、矿山、特种设备等行业领域，有关行业主管部门要重点加强安全监管，对全员安全生产责任制落实不到位的责令限期整改。要依法查处伪造、变造、买卖特种作业操作证行为，严厉打击假冒安全监管部门网站及通过网络制假售假行为，严肃查处从业人员持假冒特种作业操作证上岗作业行为，进一步规范和完善特种作业操作证考核发放和信息查询。', '镇属企事业单位要带头减少危险作业领域灵活用工人员，但不能以安全生产为名辞退农民工，要加强教育培训，提高工人安全素质，提升企业本质安全水平。', '专项行动方案，严厉打击矿山违法盗采、油气管道乱挖乱钻、客车客船渔船非法营运、危化品非法生产经营运输储存、建筑无资质施工和层层转包、企业安全管理机构和人员不按规定配备、安全生产培训', '各有关部门对顶风作案、屡禁不止，以及责任不落实、监管不到位、失职渎职的，要依规依纪依法从重惩处并公开曝光，决不手软，切实起到震慑警示和宣传教育作用。对每起生产安全事故都要依法调查处理，并督促追责问责和整改措施落实到位。对发生一般典型和较大及以上生产安全事故的，各行业主管部门要制作警示教育片，及时组织开展事故警示教育。深挖严打违法行为背后的', '，建立领导干部违法干预执法活动和插手具体案件查处责任追究制度，坚决防止地方和部门保护主义、领导干部非法插手具体案件、行政机关及其工作人员不作为等行为，对监管执法人员和不法企业', '（违章指挥、违反操作规定、违反劳动纪律）长效机制和自我约束机制，严防死灰复燃。坚持', '（带专家查、带执法查、带媒体查，查深、查细、查实）的执法模式，达到企业负责人、管理人员、一线员工的安全意识和同行业企业安全水平的双提升。', '各有关部门在开展安全生产执法检查时要紧盯各类违法行为不放，敢于动真碰硬，督促企业彻底整改，杜绝选择性执法，执法宽松软、走过场。强力推进安全生产', '监管执法专项行动，加大惩戒力度，保持执法高压态势，依法严肃查处执法检查中发现的各类非法违法行为，不得以责令限期改正等措施代替行政处罚，不得对存在多种违法行为的案件合并处罚，对生产经营单位依法决定实施行政处罚的，及时向信用信息平台推送有关信息，对符合联合惩戒条件的对象，严格依法依规实施联合惩戒；加强', '按照分类分级的要求，明确执法管理权限，切实做到原则上一家企业对应一个层级的执法主体。科学制定年度安全监管执法计划，确定重点检查企业和一般检查企业，对重点检查企业进行', '执法抽查。进一步分行业领域建立执法检查重点事项清单，围绕重点检查事项开展有针对性地检查，防止检查一般化、简单化。', '各有关部门要强化专业执法，组织专家参与执法过程，注重运用物联网、大数据等科技化监测手段，解决安全检查查不出问题的难题。不断完善执法信息化建设，全面推行', '系统，推进系统升级改造，逐步实现网上案卷申请审批流程、现场文书制作查询处置、执法活动流程网上办理，打通各执法系统间的数据壁垒，实现执法数据一次录入和自动推送，完善执法流程，有效杜绝办案程序不规范、', '定期向社会公开曝光一批危及公众安全的严重违法行为；加大安全生产领域失信联合惩戒力度，加强违法失信行为信息公开，有效治理违法失信企业。', '、联合执法。组织专家参与执法过程、推进异地交叉检查和帮扶式执法，充分利用在线远程巡查、用水用电监测、电子封条等信息化手段，及时发现违法盗采、冒险作业等行为，对关停的矿山要停止供电，派人现场盯守或巡查，严防明停暗采。', '号）和《中共四川省委办公厅 四川省人民政府办公厅印发〈关于深化应急管理综合行政执法改革的实施意见〉的通知》（川委办〔', '的要求，根据不同安全风险等级企业数量，配齐建强应急管理综合行政执法队伍，确保有足够力量承担安全生产监管执法任务，不得层层转移下放执法责任，坚决防止只增加职能不增加人员甚至将原有安全生产执法力量挪用摊薄。在探索跨领域跨部门综合行政执法时，要充分考虑安全监管执法的专业性、特殊性，不得简单撤并安全监管执法队伍。', '负有安全监管执法职责的队伍要配强领导班子、充实专业干部、培养执法骨干力量，坚持一切围绕实战、一切服务实战开展教育培训，组织开展岗位练兵、业务比武、实战演练、案件评比等各种形式培训活动，强化专业知识和业务技能培训，尽快提高执法队伍整体素质和执法专业能力。', '按照《应急管理综合行政执法装备配备标准（试行）》加强专业执法装备配备，健全经费保障机制，将执法装备建设纳入财政支出的优先安排领域。镇级负有安全监管执法职责的部门要配备必要的执法装备。推进镇应急管理工作机构执法业务标准化建设，提高基层执法保障能力。', '依托报纸、电视台、微信、微博、官网等媒介，广泛宣传并贯彻落实《四川省安全生产举报奖励办法》，积极营造', '的氛围。进一步拓宽畅通举报渠道，鼓励社会公众通过政务热线、举报电话和网站、来信来访、手机', '制度，通过培训教育加大对安全生产违法行为认定形式及判定标准的掌握，积极鼓励企业内部员工举报安全生产违法行为。', '建立完善举报奖励制度，将奖励经费纳入年度预算。负有安全生产监督管理职责的部门要及时核查处理举报，举报事项不属于本单位受理范围的，接到举报的部门应当告知举报人向有处理权的单位举报，或者将举报材料移送有处理权的单位，并采取适当方式告知举报人。任何单位和个人不得以任何借口阻拦、压制举报人的举报和打击报复举报人，依法保护举报人，不得私自泄露有关个人信息。加大安全生产举报奖励力度，对查实的举报件，根据风险程度及时兑现举报奖励，对报告重大安全风险、重大事故隐患或者举报安全生产违法行为的有功人员实行重奖。奖励由镇安委办公室实施。', '国务院办公厅印发的《关于更加有效发挥统计监督职能作用的意见》，切实做好生产安全事故统计直报工作。相关部门要加强沟通协调，定期对接核实事故数据，督促指导下级单位如实向党委政府和应急办报送事故，确保事故应报尽报。', '对生产安全事故（含重大涉险事故、受伤事故）隐瞒不报、谎报或者拖延不报的，依规依纪依法从严追究直接责任人、负有管理和领导责任人员的责任。对初步认定的瞒报事故一律由镇安委会挂牌督办，必要时提级调查，并严格纳入安全生产党政同责季度考核予以扣分。对涉及人员死亡的举报事项，根据举报事故性质按调查处理权限由镇政府授权的部门组织核查处理。', '各部门要时刻保持头脑冷静，根据主管行业当前形势，坚持系统思维，统筹做好经济发展、疫情防控和安全生产工作，不能单打。要注意调动各方面积极性，提倡互相协助、相互尊重、齐心合力，共同解决好面对的复杂问题。各监管部门要注意从实际出发，处理好', '之间的关系，明令禁止的必须予以杜绝，能整改满足要求的要正确予以引导，符合安全条件的要积极予以支持，使得各项工作协调有序推进，引导形成良好市场预期。', '各部门要在确保安全的前提下，全力服务经济发展和疫情防控。要深入推进安全生产专项整治三年行动巩固提升，扎实开展城镇燃气、交通等行业领域安全生产大检查和专项整治，发挥一线人员做好安全生产工作的主动性，为高质量发展筑牢', '纾困政策，要寓监管执法于服务之中，主动担当作为，下沉企业一线开展调研指导，切实掌握了解企业安全生产工作中遇到的问题和困难，依法依规及时研究解决。要加强镇医疗机构、隔离场所等涉疫重点单位的督导检查，为疫情防控工作保驾护航。', '，统筹兼顾、综合平衡，突出重点、带动全局，坚决防止形式主义、官僚主义，真正体现党的执政能力水平，让党中央放心，让人民放心。', '和镇属企事业单位要高度重视，进一步提高政治站位，将贯彻落实国务院安委会安全生产十五条措施贯穿到整个安全生产过程，根据本工作方案，结合本', '、本行业领域和本企业实际，尽快制定具体的工作举措，确定时间表、路线图，将措施细化到岗、责任明确到人，逐项抓好贯彻落实。镇安委会将把贯彻落实情况纳入安全生产督查、检查、巡查以及年度安全生产党政同责工作目标绩效管理考评的重要内容。对工作重视不够、落实不力以及引发生产安全事故的，将予以通报批评，并依纪依规提请']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>237</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>中共三官镇委员会关于印发陈旭同志在中共南部县委第三巡察组在巡察三官镇工作动员会上讲话的通知</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/t_1725217.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['中共三官镇委员会 关于印发陈旭同志在中共南部县委第三巡察组在巡察三官镇工作动员会上讲话的通知-南部县人民政府', '中共三官镇委员会 关于印发陈旭同志在中共南部县委第三巡察组在巡察三官镇工作动员会上讲话的通知', '按照十四届县委和县委巡察工作领导小组的统一安排部署，县委第三巡察组全体同志从今天开始正式进驻三官镇开展常规巡察。', '下面就深刻认识巡察重大意义、全面把握巡察主要内容、倾力保障巡察任务完成讲三点意见，请大家认真遵照执行。', '发现问题是巡视监督的首要职责、基本职责，严格坚持问题导向，保持斗争精神，提高斗争本领，盯住权利和责任，加强对领导班子和', '“关键少数”，特别是“一把手”的监督，精准发现问题、推动解决问题。党的十八大以来，习近平总书记从全面从严治党形势任务出发，确立了', '“发现问题、形成震慑，推动改革、促进发展”的十六字巡视工作方针，39次发表重要讲话，多次作出重要指示批示，有效解决了过去巡视“任务宽泛、职能发散”的问题。为了认同志们掌握巡视巡察工作相关知识，在此向大家逐一进行解读，', '中央、省委叫巡视，在市委、县委叫巡察，因县委巡察工作领导小组办公室挂牌在县纪委，同志们不要误认为县委巡察组是市、县纪委派出的，而是市委或县委巡察工作领导小组派出的。巡视巡察监督了解情况采取的主要方式和途径有：听取工作汇报、阅录相关资料、基层走访座谈、实地明察暗访、列席重要会议、专项监督检查和个别谈话了解等，所以，巡视巡察是最具', '“穿透力”的“立体式”监督检查，是不同于普通的检查督查，具有鲜明的政治性、权威性、融合性、深入性和强大的震慑力。按照规定，各级党组织在其任期内都将接受至少1次的巡视巡察。这些关于巡视巡察工作的基础常识和基本要求，大家一定要主动学习、深刻领会、全面掌握。', '开展本轮巡察，就是要有效监督、检查、督促三官镇党委、领导班子和全体干部职工真正做到', '巡察在政治方向和原则上与政治巡视总的要求是一致的，但由于监督对象、监督重点的不同，巡察是巡视在市县的拓展和延伸，巡察工作是上级党组织对下级党组织履行党的领导职能责任的政治监督，根本任务是', '“两个维护”。目的是坚持好、巩固好、维护好党的领导。就是要紧紧围绕党和国家工作大局开展监督检查，就是要着力聚焦被巡察党组织及其成员的政治学习、政治责任、政治生活、政治生态、政治纪律和政治站位开展监督检查，从而推动党的路线方针政策、党中央决策部署和省市县的具体工作要求落地落实。本轮巡察，就是要聚焦三官镇党委领导班子在深入学习贯彻习近平新时代中国特色社会主义思想重要论述，特别是在落实“政治忠诚、责任履行、廉政运行、干部作风、群众关切、基础支撑和问题整改”等内容开展全面监督检查，强化政治纪律和政治规矩，从而督促三官镇党委、村（', '）党支部和全体党员干部自觉把思想和行动统一到党中央的决策部署上来，统一到省市要求和县委的具体工作上来，以实际行动和实际效果真正做到', '根据《中国共产党巡视工作条例》规定，巡察工作坚持四个基本原则，即，坚持统一领导、分级负责；坚持围绕中心、服务大局；坚持人民立场、贯彻群众路线；坚持实事求是、依规依纪依法。巡察的方向在基层、重点在基层。我们必须把推动解决关系群众切身利益的突出问题作为聚焦点、着力点和关键点，群众反对什么、痛恨什么，我们就重点巡察什么、纠正什么。本轮巡察我们将重点关注中央和省委、市委、县委各项政策在三官镇党委的贯彻落实情况；重点了解三官镇党委在重点领域廉政风险防控、群众信访矛盾化解情况；重点监督检查资金使用、项目建设工作，重点监督检查巡视巡察反馈意见整改工作落实推进情况；重点关注三官镇党委的领导班子和全体党员干部职工的不作为、慢作为和乱作为情况等等。并充分利用好巡察这把', '“利剑”作用，压紧压实三官镇党委领导班子管党治党的政治责任，全力有效解决群众身边的腐败问题和不正之风，从而提升人民群众的幸福感、安全感和获得感，从而提升社会评价满意度。', '巡察组将组织人员深入基层、深入现场，广泛听取群众的意见建议、全面了解掌握相关情况；督促整改群众不满意的突出问题；重点了解年轻干部教育管理、严守纪法规矩，对照党章党规党纪、初心使命做了哪些该做的事、干了哪些不该为的活，是否守住拒腐防变的防线，是否始终坚定', '“初心”、心怀“民心”、严守“公心”、常思“创新”、筑牢“戒心”，以推动高质量发展为主题，以改革创新为动力、以满足人民日益增长的美好生活需求为目标，在抓实项目建设上、促进三产业融合上、巩固脱贫攻坚成果同乡村振兴有效衔接上、贯穿绿色发展理念上、增进民生福祉上、维护社会和谐稳定上取得新突破，努力把三官镇建设成生态优美、环境宜居、现代农业蓬勃发展、民族文化浓郁、经济社会不断发展的幸福乡镇贡献力量；紧盯“关键少数”在落实全面从严治党责任、依规依法履职用权等情况的掌握；详细了解村（', '“七公开一曝光”落实情况，党员干部不为群众主持公道、履职尽责不好、落实党的惠农利民好政策不到位，搞优亲厚友、雁过拔毛的人和事；督促三官镇党委领导班子治理推进监督精准化，深化“阳光问政坝坝会”“廉政课堂村村响”“三接访”和全体党员干部职工认真履职尽责情况，及时纠正弥补工作中的不足，健全完善治理体系和管理办法，有效提升治理能力和治理实效。', '“政治体检”、一次作风“综合会诊”、一次思想“教育警示”。大家务必认识到位、理解到位、配合到位、整改弥补落实到位。', '服务大局是根据十九大后巡视巡察工作深化发展的实践总结提炼的重要经验，也是党中央站在党和国家事业全局高度对新时代巡视巡察工作提出的重要要求。', '想和习近平总书记新发展阶段、新发展理念、新发展格局、高质量发展重要论述以及县委重要会议精神、重大决策部署的学习传达和贯彻情况；重点关注', '贯彻落实《中华人民共和国监察法实施条例》《中国共产党纪律检查委员会工作条例》等重要法规的学习和推进落实情况，', '“后半篇文章”、“三大攻坚”、“七大行动”、防范和化解重大风险、意识形态工作责任制、强农惠民以及“以案促改”等工作情况；重点监督污染防治、扫黑除恶、网络意识形态、防范和', '工作等方面是否存在不到边不到底不到位等问题；重点了解坚持和加强党的全面领导、发挥党的领导核心作用、着力政治生态建设、领导班子成员和干部职工履行职责使命，贯彻落实全面从严治党，加强和改进思想政治工作，新发展理念等情况。有无贯彻党中央决策部署做选择、搞变通、打折扣，搞', '坚持以人民为中心的价值取向，着力纠正贯彻落实中央精神和上级决策部署等方面存在的形式主义、官僚主义问题；重点检查在谋划推动民生实事', '开展政治巡察，就是要把基层党组织建设情况作为关注重点，着力发现和推动解决基层党组织弱化、虚化、边缘化问题，不断提升组织力，进而推动改革、促进发展，完善基层治理体系。坚持以新时代党的组织路线为标尺，重点关注党组织建设、选人用人、', '“五个方面”人员选拔、履行管党治党政治责任、落实党风廉政建设责任制等情况；重点发现基层党组织是否存在党建工作虚化、党组织领导核心作用弱化、边缘化，班子不团结，“三重一大”等重要事项决策不规范、不民主，党内政治生活不规范，党员职工教育管理不到位、尽职责存在差距等问题；重点监督巡视巡察、', '“一把手”和领导班子的监督、粮食安全党政同责、审计及其他监督检查反馈问题的整改落实情况。', '（一）强化共识，积极配合。巡察既是监督又是支持，既是严管又是厚爱，配合好、支持好本轮巡察工作，是三官镇党委的政治责任，更是落实三官镇党委主体责任的重要举措，大家一定要自觉接受巡察监督、自觉服从巡察安排、自觉用好巡察成果，要全程配合做好听取汇报、个别谈话、座谈了解、查阅资料、实地走访等巡察业务工作，确保人员到位、工作到位、效果到位，将本轮巡察作为全面加强党的领导、贯彻全面从严治党要求的契机，作为夯实基层党组织建设、加强战斗堡垒作用的契机，作为改进工作作风、加强制度机制建设完善的契机。三官镇全体干部职工要以高度重视、饱满向上的态度配合开展好巡察工作，共同营造良好的巡察氛围，确保巡察工作顺利开展、扎实推进。', '“以政治为轴心”的站位方向、坚守“以问题为核心”的价值取向、坚守“以整改为靶心”的结果导向，充分发挥巡察紧密联系群众的独特优势，', '对巡察工作的意见和建议。三官镇党委要鼓励和支持干部群众向巡察组反映情况和问题，决不允许隐瞒问题、回避矛盾，决不允许避重就轻、避实及虚，决不允许干扰巡察工作、对抗巡察干部、打探巡察情况，决不允许在任何时候以任何方式对向巡察组反映问题的人员进行打击报复。', '否则，将按照相关规定，从严追责问责。巡察组也将实事求是地向县委巡察工作领导小组汇报巡察情况，按照县委要求运用好巡察成果。', '（三）分级负责，统筹协调。巡察组主要受理反映三官镇党委领导班子及其成员、重要岗位人员的来信来电来访，与本轮巡察工作无直接关系的个人诉求、涉法涉诉等信访问题，将按照分级负责、属地管理原则，转交有关部门和单位处理。为确保巡察工作顺利开展，三官镇党委要及时制定信访应急预案，密切关注网络舆情，积极稳妥应对可能发生的群体性上访和突发性事件，与巡察组一道圆满完成本轮巡察任务。', '要严格按照县委的统一部署和具体要求，做好协调衔接工作，将巡察工作与当前的中心工作、日常工作有机结合，统筹兼顾，做到', '严格出勤考核和请销假制度。在巡察期间，三官镇全体干部职工要坚持正常的上班秩序、出勤签到和请销假管理办法，需要离开本单位', '1天以上的人员，无论因公因私均向镇党委政府主要负责同志履行请假手续的同时报巡察组登记缺勤情况，以方便安排座谈人员。', '二是严明工作纪律。巡察组作为监督者，更是被监督者，巡察期间，全体组员必须牢固树立制度意识、法治思维，坚决贯彻党章党规、巡视工作条例和工作规则，严格执行中央八项规定精神，落实厉行节约要求，带头反对形式主义、官僚主义，严格落实', '“两不”规定，忠实履行“两职”要求，坚决恪守“四个决不允许”，认真践行“五个严禁”，严格遵循“六个严格”，树立和维护好巡察干部的良好形象。欢迎全体党员干部和广大群众对我们巡察组的同志进行监督。', '为便于干部群众反映情况，在巡察期间，巡察组将设立群众来访接待点，开通举报电话、电子邮箱、设置举报箱。信访接待点设在三官镇第三巡察组接访室，举报箱设在三官镇人民政府大门处（三官镇幸福路', '们紧密地团结在以习近平同志为核心的党中央周围，在县委的坚强领导下，守正创新担使命、忠诚履职永向前，一刻不停地推动巡察工作高质量发展，为南部建成成渝地区县域高质量发展先行区提供坚强的政治保障，以优异成绩迎接党的二十大和省第十二次党代会胜利召开！']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>237</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>南充市顺庆区人民政府关于印发南充市顺庆区突发事件总体应急预案年修订的通知</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2022-07-29</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.shunqing.gov.cn/zwgk/zc/zcwj/t_1731302.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['南充市顺庆区人民政府关于印发《南充市顺庆区突发事件总体应急预案（2022年修订）》的通知-顺庆区人民政府', '南充市顺庆区人民政府关于印发《南充市顺庆区突发事件总体应急预案（2022年修订）》的通知', '《南充市顺庆区突发事件总体应急预案（2022年修订）》已经七届区政府第18次常务会议审议通过，现印发你们，请认真抓好贯彻落实。', '坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记关于应急管理、安全生产、防灾减灾救灾重要论述及重要指示批示精神，以推进应急管理体系和能力现代化为导向，坚决有效防控全局性、系统性重大风险，科学有序、精准高效应对各类突发事件，切实保障公共安全和维护社会稳定，依据《中华人民共和国突发事件应对法》《突发事件应急预案管理办法》《四川省突发事件应对办法》《关于印发南充市突发事件总体应急预案试行）（修订稿）的通知》（南府发〔2022〕32号）《南充市突发事件应急预案管理办法》等有关法律法规和政策文件，结合顺庆区实际，制定本预案。', '本预案是顺庆区人民政府及有关部门、单位制定应对各类突发事件的专项预案的总纲，用以指导辖区突发事件应对以及事后恢复与重建等工作。', '突发事件应对工作坚持人民至上、生命至上，统一领导、整体联动，分级负责、属地为主，高效有序、协同应对，依法规范、科技支撑的原则。', '（1）自然灾害。主要包括水旱灾害、气象灾害、地震灾害、地质灾害、生物灾害和森林草原火灾等。', '（2）事故灾难。主要包括工矿商贸等企业的各类安全事故、交通运输事故、公共设施和设备事故、核与辐射事故、环境污染和生态破坏事件、网络与信息安全事件等。', '（3）公共卫生事件。主要包括传染病疫情、群体性不明原因疾病、急性中毒事件、食品和药品安全事件、动物疫情、其他严重影响公众健康和生命安全的事件。', '（4）社会安全事件。主要包括恐怖袭击事件、刑事案件、群体性事件、油气供应中断突发事件、金融突发事件、涉外突发事件、民族宗教事件等。', '按突发公共事件的性质、严重程度、可控性和影响范围，原则上可分为特别重大（I级）、重大（Ⅱ级）、较大（Ⅲ级）、一般（Ⅳ级）四级突发事件。', '（1）一般突发事件：是指事态比较复杂，对一定范围内的公共安全、政治稳定和社会经济秩序造成危害或威胁，已经或可能造成一定人员伤亡和财产损失的事件。', '（2）较大突发事件：是指事态复杂，对较大区域内的公共安全、政治稳定和社会经济秩序造成较大危害或威胁，已经或可能造成较大人员伤亡和财产损失的事件。', '（3）重大突发事件：是指事态很复杂，对大多区域内的公共安全、政治稳定和社会经济秩序造成严重危害或威胁，已经或可能造成重大人员伤亡和财产损失的紧急事件。', '（4）特别重大突发事件：是指事态非常复杂，对很大区域内的公共安全、政治稳定和社会经济秩序带来特别严重危害或威胁，已经或可能造成特别重大人员伤亡和财产损失的紧急事件。', '顺庆区突发事件应急预案体系包括区人民政府、各乡（镇）人民政府、街道办事处及相关部门单位制定的各类突发事件应急预案，以及为应急预案提供支撑的工作手册和事件行动方案。顺庆区突发应急预案体系分区及乡镇两级管理。除区人民政府外，各部门、各乡（镇）人民政府、街道办事处、企业单位原则上不再制定总体应急预案。', '顺庆区突发事件应急预案由总体应急预案、专项应急预案、部门应急预案、企业单位应急预案等组成。其中：', '（1）总体应急预案：是顺庆区应急预案体系的总纲，是区委、区人民政府组织应对各类突发事件的总体制度安排，并与市突发事件总体应急预案相互衔接。', '（2）专项应急预案：是区人民政府为应对涉及面广、情况复杂的某一类型突发事件，预先制定的涉及多个部门（单位）职责的应急方案。', '（3）部门应急预案：是政府有关部门为应对本部门（行业、领域）某一类型突发事件，或者针对应急资源保障等涉及部门工作而预先制定的应急方案。', '（4）乡镇（街道）、企业单位应急预案：是乡（镇）人民政府、街道办、企业事业单位、社会团体和居委会、村委会等为应对可能出现的突发事件而制定的应急预案。', '专项预案、部门预案应体现应急处置的主体职责，侧重明确突发事件组织指挥机制、风险评估、监测预警、信息报告、应急处置措施、队伍和物资保障及调动程序等内容。', '乡（镇）人民政府、街道办事处、居委会、村委会等企业单位的应急预案应当突出体现先期处置特点，侧重明确突发事件的预警信息发布（传达）、组织先期处置及其步骤方式方法和自救互救、信息收集报告、人员临时安置、队伍与资源体系等内容，预案文本应当尽量简化、实用。', '总体应急预案由区人民政府制定、公布实施；专项应急预案由有关部门牵头制定，报请区人民政府批准以区人民政府名义印发实施，并抄送区应急管理局；部门应急预案由有关部门制定印发，报区人民政府备案，并抄送区应急管理局；企业单位应急预案由其组织和单位自行制定，上报其直接上级部门备案。下级制定的应急预案应当与上级应急预案相衔接，下级应急预案服从上级应急预案的安排。', '在区委统一领导下，区政府是全区突发事件应急管理工作的最高行政领导机关，通过区政府常务会议、专题会议等研究、决定和部署全区突发事件应急管理工作。', '区应急委员会（以下简称区应急委）作为全区应急管理工作的议事协调机构和综合管理机构，在区委、区政府统一领导下，统筹制定区应急管理工作发展规划和政策措施，研究解决区风险防控、监测预警、应急准备、应急处置、恢复重建、应急保障等重大问题，统一领导、指挥协调区突发事件防范应对工作。', '区应急委主任由区长担任，区政府常务副区长担任区应急委常务副主任，副区长、区人武部长、区政府办主任担任副主任，成员由区委宣传部、区法院、区检察院、区政府办、区人武部、市公安局顺庆区分局、区应急管理局、区发展和改革局、区经济和信息化局、区教育科技和体育局、区民政局、区司法局、区财政局、区人力资源社会保障局、区自然资源和规划局、区城乡建设局、南充市顺庆生态环境局、区交通运输局、区水务局、区农业农村局、区商务局、区文化广播电视和旅游局、区卫生健康局、区退役军人事务局、区信访局、区经济合作和外事局、区综合行政执法局、区消防救援大队、交警一大队、交警四大队、区网信办、区新闻办、区民族宗教事务局、区升钟灌区灌溉中心、区团委、区红十字会、南充火车站、南充火车北站、国网顺庆供电中心、电信顺庆分公司、移动顺庆分公司、联通顺庆分公司、铁塔顺庆分公司、区各乡镇（街道）主要负责同志担任。', '区应急委办公室设在区应急管理局，办公室主任由区应急管理局局长兼任，区应急管理局、市公安局顺庆区分局1名分管副局长，区经信局、区自然资源和规划局、区城乡建设局、区交通运输局、区水务局、区农业农村局、区商务局、区文广旅局、区卫生健康局、区市场监管局、区生态环境分局、区综合行政执法局、区财政局局长和区消防救援大队大队长兼任办公室副主任。各成员单位联络员（1名股室负责人）为应急委办公室成员。', '区应急委根据工作需要在不同的行业（领域）分别成立区专项应急指挥部，具体负责所属行业（领域）的突发事件，超过专项指挥部处置能力的突发事件，提交区委、区政府研究决定应对。', '专项指挥部是由区应急委根据工作需要设立，是应对突发事件的工作机构，负责区相关领域、相关类别突发事件防范和应急处置工作。区专项应急指挥部根据实际需要可设总指挥长、指挥长、副指挥长若干人，由区应急委指定的负责同志担任，指挥部成员从各相关部门抽调。各专项指挥部应当设立办公室，办公室设立在主要牵头部门，负责指挥部在常态下的日常管理以及在发生突发事件应对时的综合协调工作。办公室主任由主要牵头部门的主要负责人担任。', '区专项应急指挥部可根据应急处置工作需要设立若干个应急救援工作组，组织参加应急救援工作。一般可分为：综合协调、灾害监测、抢险救援、交通管制、医疗卫生、社会治安、善后处置、信息发布及新闻宣传、调查评估、生产恢复、专家支持等工作组，各个工作组的人员由相关的职能部门和专业应急救援机构以及其他救援力量人员组成，具体由区各专项应急指挥部根据需要确定。', '突发事件发生后，区专项应急指挥部根据事态发展需要，设立现场指挥部，负责组织、指挥、协调、落实突发事件现场应急处置工作。现场指挥长、副指挥长由该专项应急指挥部的领导或其指定的牵头部门负责人担任。现场指挥部实行指挥长负责制，按照区专项应急指挥部的授权组织制定、实施突发事件应急处置方案，协调、指挥有关单位和专业应急救援队伍参加抢险救援工作。', '在区委、区人民政府领导下，各乡（镇）人民政府、街道办事处负责突发事件的先期处置工作，在发生一般及以上等级的突发事件时，按照属地管理原则，在第一时间组织、实施先期处置工作，协助区委、区人民政府及有关部门，做好突发事件应对工作；村委会、居委会在其管辖的区域内，发生一般及以上等级突发事件时，应当立即向乡（镇）人民政府、街道办事处报告，属于自然灾害、事故灾害、公共卫生事件的突发事件，在确保安全的情况下，组织群众先期进行自救互救，在上级人民政府的领导下做好突发事件应急处置工作；属于社会安全事件的，应当向区政法、公安部门报告请求处置。', '乡（镇）人民政府、街道办事处、村委会、居委会应当依照有关法律法规和上级人民政府有关规定，建立健全应急组织机构，结合工作职责和辖区实际，参照区应急指挥机构制定各类突发事件应急预案。', '（1）健全完善情报信息收集、研判和管理使用制度，建立情报信息工作协调机制，实现情报信息的及时收集、准确研判、有效使用和共享。应当充分运用现代科学技术手段，加强对情报信息的鉴别、筛选、综合及研判分析。', '（2）统筹建立网格化风险防控体系。区人民政府统筹建立完善乡（镇）人民政府、街道办事处、社区、村、重点单位网格化风险防控体系。有关部门制定重大风险源防控措施、应急预案，做好监控和应急准备工作。', '（3）建立健全突发事件风险调查和评估制度。区级各职能部门加强对突发事件频发的区域、重点单位、主要部位和环节进行风险评估、风险分类分级和建立台账，并做好监测监控、定期巡查工作。专项预案主要牵头部门每年年终对本部门监管的行业、领域处置突发事件情况进行总结，对下年度突发事件发生发展趋势进行研判预测，提出防范措施建议，报区人民政府，并抄送应急管理部门。', '（4）建立健全安全管理制度。企事业单位定期检查本单位各项安全防范措施的落实情况，及时消除事故隐患；掌握并及时处理本单位存在的可能引发社会安全事件的问题，防止矛盾激化和事态扩大；对本单位可能发生的突发事件和采取安全防范措施的情况，应当按照规定及时向所在地人民政府或者人民政府有关部门报告。', '（5）强化基础设施安全防控。区人民政府、各乡（镇）人民政府制定城乡规划应当充分考虑公共安全风险以及预防和处置突发事件工作的需要，统筹安排应对突发事件所必需的设备和基础设施建设；重大关键基础设施设计应当科学选址、优化布局，进行风险辨识与评估，增强风险防控能力；运营与维护单位建立健全日常安全风险管理制度。', '（6）打造共建共治共享的社会治理格局。区人民政府、乡（镇）人民政府、街道办事处及有关单位应当加强应急能力建设，加强军政军民共建。坚持底线思维，完善社会治安防控体系，切实做好防范化解重大风险各项工作，从源头提升突发事件预防监测和应急救援能力。', '（1）区各专项应急指挥部及其有关部门应当建立健全突发事件监测制度，规范信息的获取、报送、分析、发布方式方法、程序，整合监测信息资源，完善信息资源获取和共享机制。', '（2）各类事件牵头部门按职责负责自然灾害类、事故灾害类、公共卫生类和社会安全类突发事件监测信息集成。根据突发事件的特点，建立健全突发事件监测体系，完善监测网络，划分监测区域，确定监测点，明确监测项目，提供必要的设备、设施，配备专职或兼职人员，对可能发生的突发事件进行监测、监控，并实行24小时值班制度。', '（3）区各专项应急指挥部根据积累的监测资料，建立突发事件常规数据库，各有关单位应提供相关数据和信息，支持、配合突发事件常规数据库建设。各专项应急指挥部办公室负责做好常规数据库的监测资料更新工作。常规数据库主要内容包括：', '4）严重损害社会公众健康的重大传染病疫情、群体性不明原因疾病发生的类型、影响区域及后果；', '5）区行政区域分布、地形地貌、地质构造、常年季节性的风向、风速、气温、雨量等气象条件，人口数量、民族结构及其分布；重要交通和基础设施、公共场所情况，重要保护目标及其分布等；', '6）应急力量队伍及其组成、分布及其应急能力，应急装备、设施和装备物资的种类、数量、特性及分布与库存情况，上级救援机构或相邻县（市）可用的应急资源情况；', '（1）分析研判。对可以预警的自然灾害、事故灾难或公共卫生事件，有关部门收集到突发事件可能发生的征兆信息后要及时上报区专项应急指挥部，区专项应急指挥部办公室应当及时组织有关部门和专家学者进行会商，分析评估，研判突发事件发生的可能性、强度和影响范围以及可能发生的次生衍生突发事件类别，确定预警级别。', '（2）预警级别划分。按照紧急程度、发展势态和可能造成的危害程度，预警级别一般分为一级、二级、三级和四级，分别用红色、橙色、黄色、蓝色标示，一级为最高级别。预警级别的具体划分标准执行国家标准。对没有划分预警级别的其他突发事件，要根据情况及时向有关方面通报提醒或发布警示信息，必要时向社会公众发布安全提醒。预警级别划分标准如下：', '红色预警（一级）：预计将要发生特别重大突发事件，事件会随时发生，事态正在不断蔓延。', '（1）区专项指挥部及有关部门通过监测、分析、评估确认得到即将发生突发事件的级别后，应当立即按照规定上报区人民政府（必要时可以越级上报），经区人民政府审核批准后由区专项应急指挥部发布预警信息，或由有关部门依照法定程序和权限依法组织发布预警信息。预警信息应当及时向可能受到危害的毗邻区（县）等通报。专项指挥部根据事态发展，及时调整预警级别并重新报告、通报和发布。', '（2）由上级人民政府及其部门或法定监测监控部门发布的预警信息，区人民政府、各乡（镇）人民政府、街道办事处及有关部门接到预警信息后，应当及时转发或传达预警信息。', '（3）预警信息的发布和调整可通过广播、电视、报刊、通信、信息网络、警报器、宣传车、大喇叭等形式发布，或组织人员逐户通知等方式进行，对老、幼、病、残、孕等特殊人群以及学校等特殊场所和警报盲区应当采取有针对性地通知方式。负有预警信息发布的职责部门，应当确定预警信息发布和调整的主渠道、主要方式方法，并向社会公布。', '发布蓝色和黄色预警后，根据即将发生突发事件的特点和可能造成的危害，区人民政府各部门、乡（镇）人民政府、街道办事处根据相关预案立即作出响应，采取但不仅限于下列一项或多项措施：', '①分析研判。增加观测频次，及时收集有关信息变化情况，向区专项应急指挥部报告，及时组织研判；', '②防范处置。协调各相关部门根据各自职责迅速采取有效处置措施，在涉险区域安排专人值守或设置注意事项提示或事件危害警告标志，利用各种渠道增加宣传频次，及时告知公众避险和减轻危害的常识和采取的必要措施，转移、撤离或者疏散可能受到危害影响的人员，并进行妥善安置。', '③应急准备。通知应急救援队伍进入待命状态，并准备必要的备勤力量和调集应急所需物资和设备，做好应急保障工作。', '④舆论引导。及时准确发布事态最新情况，公布咨询电话，组织专家解读。加强相关舆情监测，做好舆论引导工作。', '发布橙色和红色预警后，在采取蓝色和黄色应急响应措施的基础上，针对即将发生的突发事件的特点和可能造成的危害，区人民政府各部门、乡（镇）人民政府、街道办事处根据相关预案立即作出响应，采取但不仅限于下列一项或多项措施：', '①通知应急救援队伍和指挥人员、值班人员、专家学者、技术骨干等进入待命状态，动员后备人员做好参加应急救援和处置工作的准备；', '②调集应急救援所需物资、设备、工具，准备应急设施和避难场所，并确保其处于良好状态，随时可以投入正常使用。', '④采取必要措施，确保交通、通信、供水、排水、供电、供水等公共设施的安全运行；及时向社会发布有关采取特定措施避免或减轻危害的建议。', '当突发事件风险已经解除，发布或传达警报的政府或有关部门要立即宣布或通知解除警报，终止预警期，解除已经采取的有关措施。', '（二）书面详报：对报告范围内的应急突发信息，事发地乡镇（街道）和区行业主管部门以及区应急委专项指挥部办公室必须在事发后30分钟内向区委办公室、区政府办公室和区应急委办公室书面首报事件概况，90分钟内书面报告事件详情。难以在事发后30分钟内书面报告的，必须说明具体原因。事发后30分钟内未以任何形式上报即为迟报，事发后24小时仍未上报或上级单位已知悉区内突发紧急情况并电话质询导致“信息回流”的，以及通过新闻媒体报道或在网络已形成舆论热点的，一律视为漏报，报告内容出现严重错误或多头报送内容不一致即为错报，故意隐瞒重要事实或遗漏重要情况一律视为瞒报。', '区应急委办公室负责在事发后2小时内按规定向市应急委办公室和区委值班室、区政府值班室书面报告。书面报告应写清事发时间、地点、涉及人员、影响范围、基本过程、造成后果、处置情况、发展趋势、下一步措施等内容，必要时还应提供相关图片或声像资料。', '（四）处置终报：属于报送范围内的应急突发信息，事发地乡镇（街道）和区行业主管部门以及区应急委专项指挥部必须在事件处置结束后12小时内向区委办公室、区政府办公室、区应急委办公室书面终报。区应急委办公室在安全生产类、自然灾害类突发事件事发后1天内向市应急委办公室书面终报，详细报告整个事件发生、处置的全过程。重大及以上突发事件处置结束后3天内，各乡镇（街道）和区行业主管部门以及区应急委各专项指挥部要从属地管理或行业管理角度，向区委办公室、区政府办公室和区应急委办公室上报处置工作总结，详细报告事件发生的原因、过程、后果以及教训、下步打算等内容。', '（五）严格值班：应急突发信息报送实行24小时值班制度，各乡镇（街道）和区行业主管部门以及区应急委办公室和区应急委各专项指挥部要健全应急突发信息报送网络，明确专门领导、专门机构、专门人员负责应急突发信息值守报送工作，确保第一时间收集、第一时间报送、第一时间处置。', '（1）事发单位。在即将发生或已经发生特别重大、重大、较大、一般突发事件时，事发单位要按照规定立即上报区人民政府、乡（镇）人民政府、街道办事处及有关部门，在上级政府及其部门的应急处置队伍还没有到达之前，为了确保人民群众的生命财产安全，在具备救援条件、能力和能够确保安全的前提下，事发单位应当组织本单位应急救援队伍和工作人员在第一时间组织自救，首先营救受害人员，疏散、撤离、安置受威胁人员；迅速控制危险源，标明危险区域，封锁危险场所，并采取其他防止危害扩大的必要措施。', '（2）事发地居民委员会、村民委员会，在即将发生或已经发生特别重大、重大、较大、一般突发事件时，在上级政府及相关部门的应急处置队伍还没有到达之前，当人民群众的生命财产安全受到威胁时，在具备救援条件、能力和能够确保安全的前提下，要立即进行宣传动员，组织群众开展自救和互救，协助维护社会秩序，或按照区人民政府、乡（镇）人民政府、街道办事处及有关部门的决定、命令组织开展突发事件应对工作。', '（3）乡（镇）人民政府、街道办事处。当行政区域内即将发生或已经发生特别重大、重大、较大、一般突发事件时，在上级政府及其部门的应急处置队伍还没有到达之前，为了确保人民群众的生命财产安全，在具备救援条件、能力和能够确保安全的前提下，乡（镇）人民政府、街道办事处应当动员组织当地救援队伍开展先期应急处置工作，并及时向区委、区人民政府报告；乡镇主要领导或分管领导应当亲临现场指挥，采取有力措施控制事态发展。', '（4）区专项应急指挥部及其部门。当顺庆区行政区域内即将发生或已经发生特别重大、重大、较大事件，或发生跨县（市、区）行政区域的突发事件，需要由市以上人民政府组织应对的，区专项应急指挥部及有关部门应当采取措施，先期组织应急救援处置工作。', '（1）发生特别重大、重大、较大突发公共事件的应急处置工作，在市以上人民政府的应急指挥机构没有到达之前，由区专项指挥部和现场指挥部统一指挥，任何部门和单位都必须服从指挥调动。区专项指挥部根据事态发展和应急处置需要，协调当地人力、物力、财力、应急救援装备、专家、顺庆区内外应急救援队伍等，参加突发事件的应急处置地工作。', '（2）当突发事件超出区处置权限和能力，由市以上人民政府组织应对时，指挥部要做好指挥权的移交工作，并负责做好本级政府与上级政府指挥部之间的工作沟通、汇报工作，动员人民群众抗灾救灾、安排群众转移、安排受灾群众生活，提供后勤保障等等，按照上级的要求协调区应急处置资源配合做好突发事件的应急处置工作。', '（3）协同联动。必要时协调驻地部队、本区以外专业应急救援机构、社会其他救援组织，在区人民政府或上级人民政府应急指挥机构的统一领导下参加突发事件应急处置和救援工作，按规定的指挥关系和指挥权限指挥，现场所有应急力量要服从应急指挥部的统一指挥调度，并严格遵守交通管理、信息发布等工作要求，及时报告工作情况，实现各方信息共享和资源的有效利用。', '（1）自然灾害、事故灾难或者公共卫生事件发生后，区专项应急指挥部及有关部门根据实际情况选择采取但不仅限于下列的应急处置措施：', '1）区专项应急指挥部紧急召开有关部门的会商会议，必要时请应急专家参加会议，部署突发事故的应对工作。', '2）获取翔实、准确的信息。组织人员赴现场采集信息、监测、勘查现场，利用无人机、雷达、卫星等手段获取现场影像，了解现场状态、灾情疫情、人员伤亡、经济损失，发生事件的原因、事态发展、受事件危害或影响的人群及数量、救援物资储备、应急队伍等信息，提出初步评估意见，并向专项指挥部和现场指挥部报告，为区委、区人民政府、区应急委决策提供科学依据。', '3）组织营救受灾和被困人员，疏散、撤离并妥善安置受威胁人员，必要时组织动员社会应急力量有序参与应急处置与救援、受灾人员救助工作。', '4）组织救治伤员，治疗传染病人和疑似病例，隔离传染源，观察密切接触者，对易感人群采取应急接种、预防性服药和卫生防疫知识宣传。', '5）迅速组织开展抢险工作，控制危险源、减轻或消除危害，并标明危险区域，封锁危险场所，划定警戒区，实行交通管制以及其他控制措施，交通运输、公安交警等有关部门要保证紧急情况下应急交通工具的优先安排、优先调度、优先放行，确保抢险救灾物资和人员能够及时、安全送达。', '6）立即抢修被损坏的交通、通信、供（排）水、供电、供气、供水等公共设施，短时难以恢复的，要实施临时过渡方案，保障社会生产生活基本需要。', '10）做好受灾群众的基本生活保障工作，提供食品、饮用水、衣被、燃料等基本生活必需品和临时住所，开展卫生防疫工作，确保灾区群众有饭吃、有水喝、有衣穿、有住处、有病能及时医治，确保大灾之后无大疫。', '11）开展遇难人员善后处置工作，妥善处理遇难人员遗体，做好遇难人员家属安抚等工作。', '13）依法从严惩处囤积居奇、哄抬物价、制假售假等扰乱市场秩序的行为，稳定市场价格，维护市场秩序。', '14）依法从严惩处哄抢财物、干扰破坏应急处置工作等扰乱社会秩序的行为，维护社会治安。', '（2）社会安全事件发生后，针对事件的性质和特点，区专项应急指挥部选择采取但不仅限于下列的应急处置措施：', '1）专项指挥部立即组织公安、检察、法院、司法等有关部门召开会议，分析研判事件起因、性质、发展态势，研究对策，部署紧急应对工作并采取相应措施。', '3）派出警力加强维护现场治安秩序，对使用器械相互对抗或以暴力行为参与冲突的当事人实行强制隔离，妥善解决现场纠纷和争端，控制事态发展。', '4）采取措施保护受害人员或监视重要目标、肇事者、犯罪嫌疑人员，必要时采取行政强制措施等。', '5）对特定区域内的建筑物、交通工具、设备、设施以及燃料、燃气、电力、水的供应进行控制，必要时依法对网络、通信进行管控。', '7）严重危害社会治安秩序的事件发生时，立即依法出动警力，加大社会面检查、巡逻、控制力度，根据现场情况依法采取相应的强制性措施，尽快使社会秩序恢复正常。', '1）突发事件发生后应当在第一时间通过区内主流媒体向社会发布权威信息，披露事件原因、伤亡人数、政府应对突发事件措施等内容，必要时举行新闻发布会。对于可能受到突发事件后果直接威胁的社会公众，应按照本预案的要求及时发布预警信息。', '2）由上级人民政府及其部门组织应对的特别重大、重大、较大突发事件的信息发布，除上级人民政府授权本区发布之外，一般由组织应对的上级人民政府应急指挥机构或其授权的部门负责发布。', '3）一般突发事件发生后，由区人民政府或区人民政府授权的部门及时发布权威信息，并根据处置进展情况适时发布信息。涉及突发事件的事项，未经区委或区人民政府应急指挥机构领导同意的，任何部门、单位不得随意发布有关突发事件信息，或随意接待媒体和其他机构、个人的访谈；有关部门举行新闻发布会的，须按照新闻发布的有关规定执行。法律法规和国家对突发事件信息发布另有规定的，从其规定。', '（4）信息发布形式主要包括授权发布、提供新闻通稿、组织报道、接受记者采访、举行新闻发布会等，通过本区等主要新闻媒体、重点新闻网站、有关政府网站、移动新媒体和手机短信等发布信息，具体按照有关规定执行。', '（5）新闻部门加强对新闻信息发布管理和舆情分析工作，引导网民依法、理性表达意见，形成积极健康的社会舆论。未经区人民政府应急指挥机构批准，参与突发事件应急处置工作的各有关单位和个人不得擅自对外发布相关信息。任何单位和个人不得编造、传播有关突发事件事态发展或者应急处置工作的虚假信息。', '发生突发事件后，依靠区内应急队伍和社会力量无法控制和消除其危害，需要实施扩大应急行动，区应急委应当果断请求上级援助和本区之外的应急救援力量投入应急救援行动，当缺少救援物资、装备无法实施应急处置、救援，人民的生命财产受到严重威胁时，区应急委应当依照有关法律法规的规定和有关程序，可采取非常措施紧急调集、征用单位和个人的设备设施，用于处置突发事件，有关单位和个人应当服从和予以支持。', '当突发事件应急处置工作结束，或相关威胁和危害得到控制、消除后，相关部门应当及时宣布应急结束或逐步停止有关应急处置措施，并组织应急救援队伍和工作人员有序撤离。', '（1）发生一般突发事件，或上级人民政府授权区人民政府及其有关部门处置的突发事件，由区应急委决定和宣布应急结束等事宜。', '（2）发生特别重大、重大、较大突发事件，由市以上人民政府及其有关部门组织应对的，由其依照有关规定和权限宣布应急结束等事宜。', '（3）宣布应急结束前，应当采取或者继续实施必要措施，防止发生自然灾害、事故灾难、公共卫生事件的次生、衍生事件或者重新引发社会安全事件。', '突发事件发生后，区人民政府、乡（镇）人民政府、街道办事处有关部门应当根据本地区受灾遭受损失的情况，制定救助、补偿、抚慰、抚恤、安置等善后工作方案，对突发事件中的伤亡人员、应急处置工作人员，以及紧急调集、征用有关单位及个人的物资，按照规定给予抚恤、补助或补偿，并提供心理咨询及司法援助，妥善解决因处置突发事件引发的矛盾和纠纷。有关部门要做好疫病防治和环境污染消除工作。事发地保险监管机构要组织、督促有关保险机构及时开展查勘和理赔工作。', '在区委、区人民政府的统一领导下，实行属地管理、分级负责的原则，建立健全以区人民政府统筹指导，乡（镇）人民政府、街道办事处为具体组织实施主体、村（居）委会为基础、灾区群众广泛参与的灾后恢复重建机制，加大资金、政策、规划统筹，促进资源融合、效能提升。强化灾后重建主体责任，建立务实高效的规划落实推进体系。尊重群众首创精神，引导开展自力更生、生产自救活动。', '（1）一般和较大突发事件灾后恢复重建工作，由受灾属地人民政府组织制定恢复重建计划并组织实施，财政部门根据实际情况对需要支持的受灾单位、群众提供必要的资金、物资支持和技术指导。', '（2）重大、特别重大突发事件的恢复重建工作由区应急委负责统筹指导实施。需要区财政支持援助的，由事发地人民政府提出请求，区有关部门根据调查评估结果，会同受灾乡（镇）人民政府、街道办事处组织制定恢复重建计划，提出解决建议或意见，按有关规定报区人民政府批准后组织实施。需要上级政府和国家援助的，按照审批权限，由区人民政府逐级上报至市、省、国务院，获得批准后由区人民政府或授权有关部门组织实施。', '（1）发生突发事件后，依法应当由区人民政府组织调查的事件，区人民政府应当及时成立调查组进行调查，查明突发事件的发生经过和原因，对突发事件造成的损失进行评估；组织参与处置的部门（单位）对应急处置工作进行复盘分析，总结经验教训，制定改进措施；将调查与评估情况向上一级人民政府提出报告。法律法规对突发事件调查另有规定的，依照其规定。', '（2）区人民政府办公室会同区应急委办公室组织有关部门于每年第一季度对上年度发生的突发公共事件进行全面评估，向区委、区人民政府报告，同时上报市委、市人民政府及市应急委和相关职能部门。', '（2）各个行业的专业应急救援队伍，是区应急救援的骨干力量，政府有关职能部门和重点企业应当依据职能分工和实际需要，建设和管理本行业、本领域、本单位的专业应急救援队伍，提高人员素质，加强装备建设。', '（3）地方驻军部队是应急救援的突击力量，要建立健全与地方驻军、部队抗灾救灾协调联动机制，加强军地联防联控共建工作。', '（4）基层应急救援队伍是第一时间先期处置重要力量。乡镇（街道）建立应急救援队，村（居）民委员建立应急分队参与应急先期处置工作。', '（5）社会应急队伍是应急救援的辅助力量。鼓励辖区企事业单位、社会组织等单位的应急救援队伍有序参与区的应急救援工作。', '（1）区财政部门要采取积极的资金保障措施，保障突发事件防范和应对工作所需经费。应当将应急平台建设、物资储备、预案编制与演练、培训和宣传教育、救援队伍建设，以及监测与预警等工作所需经费纳入同级财政预算。', '（2）发挥保险保障功能,健全风险管理体系，鼓励单位和公民参加保险。加快推进巨灾保险制度，推行安全生产、环境污染和食品安全责任保险等。', '区应急管理局、区发展和改革局、市公安局顺庆分局、区自然资源和规划局、区水务局、区商务局、区交通运输局、区住房和城乡建设局等部门应当按照职能分工，制定应急物资储备规划并组织实施，建立健全重要应急物资保障系统，完善重要应急物资储备、管理、调拨和紧急配送体系，加强对物资储备的监督管理，并及时补充和更新物资装备。', '上述部门应当根据应急救援工作实际需要，储备一定数量的常规应急救援物资装备，或根据应急救援工作需要，依据有关法律法规规定，就近与区内有关企业签订协议，明确在紧急情况下征用有关应急设施设备及其补偿方式方法，做到有备无患。', '区人民政府有关职能部门要根据国家有关应急平台体系建设要求，建立健全本行政区域综合应急平台和专业应急平台，配置移动指挥系统，实现互联互通、资源共享，共同承担突发事件的监测监控、预测预警、应急值班值守、信息报告、汇总与发布、视频会商、综合研判、辅助决策、指挥协调、资源调用和总结评估等工作。', '应急预案管理遵循统一规划、分类指导、分级负责、动态管理原则，主要包括应急预案的规划、编制、审批、发布、备案、演练、评估、修订等工作。', '区人民政府根据实际情况组织有关部门编制区应急预案体系规划，完善区总体应急预案和各个行业领域的专项应急预案。', '应急预案体系应当覆盖区各行各业，不留死角，坚持下级预案服从上级预案，专项、部门预案服从总体预案，以及预案之间不得相互矛盾的原则。', '编制应急预案应当在风险评估和应急资源调查的基础上进行，并广泛听取有关部门、单位和专家的意见。', '各级政府及部门的应急预案应当组织专家进行评审，并向上级政府及应急管理部门备案及抄送。', '（3）生产经营单位按照《生产安全事故应急条例》《生产安全事故应急预案管理办法》等法律法规规定进行演练。', '应急预案编制单位应当建立应急预案评估制度，定期对应急预案进行评估，完善应急预案，使预案更具有针对性、实用性和可操作性，实现应急预案的动态优化和科学规范管理。', '（1）各专项预案牵头部门要通过图书、报刊、音像制品和电子出版物、广播、电视、网络、手机等，广泛宣传应急法律法规及有关科普知识，增强公众的忧患意识、社会责任意识、公共安全和风险防范意识，提高全社会的避险能力和自救互救能力。', '（2）各类学校应当把应急知识教育纳入教学内容并组织实施教育，培养学生的安全意识和自救、互救能力。教育部门应当对学校开展应急知识教育情况进行指导和监督。', '（3）乡（镇）人民政府、街道办事处各有关部门要建立健全突发事件应急管理培训制度，针对本辖区特点定期开展突发事件应急预案的宣传和教育培训工作，有计划组织相关部门到先进地区观摩学习。宣传部门每年应当协调新闻媒体有计划地安排专栏或定期开展突发事件预防与应急自救、互救知识的公益宣传。', '根据有关规定，建立健全应急管理工作领导负责制和责任追究制，将突发事件应对工作纳入人民政府及其有关部门绩效考核。', '公民按照区人民政府要求，参加应急救援工作或者协助维护社会秩序期间，其在本单位的工资待遇和福利不变，可视情给予补助；对突发事件应急管理工作中做出突出贡献的先进集体和个人，按照国家和地方有关规定给予表彰或奖励。', '对迟报、谎报、瞒报和漏报突发事件重要情况，应急处置不力，或者应急管理工作中有其他失职、渎职行为的，依照有关规定给予处分；构成犯罪的，依法追究刑事责任。', '本预案涉及的区人民政府及其有关部门（单位）、企事业单位等，要按本预案的规定履行职责并制定、完善相应的应急预案及其支撑性文件。区应急管理局要加强本预案实施的跟踪分析、督促检查、综合协调，并根据需要及时组织评估，向区人民政府提出修订建议。', '备注：未设立相对应指挥部的专项应急预案由牵头部门（单位）编制修订，按程序报区政府报审印；牵头部门为多个部门的，排序首个为', '组织辖区公安干警及协调交警一/四大队做好灾区治安管理工作，预防和打击违法犯罪，维护灾区社会治安和交通秩序；', '组织技术力量、有关专家迅速做好地质灾害和森林火灾灾情调查、险情分析、次生灾害防范等应急处置工作；', '及时对灾害信息进行监测和预报，研究利用人防等警报系统，及时发布预警信息，并将预警信息上报；', '负责提供事故现场建筑物及相关设施的设计资料，对事故现场损毁建筑物进行必要的遮掩保护；', '负责指挥供水、供气经营单位做好突发事件应对工作，督促相关单位做好抢险物资保障工作；', '组织实施动物疫情的综合防控措施，依法提出对有关区域实施封锁的建议，组织调拨疫苗、消毒药品等应急防疫物资；', '组织医疗卫生人员深入灾区，提供医疗卫生服务，宣传卫生防病知识，指导群众搞好环境卫生；', '发生突发公共卫生事件时，及时组织医疗机构、疾病预防控制机构和卫生监督机构开展突发公共卫生事件的调查与处理；', '危化物品和放射性物品泄漏、燃烧、爆炸事故等抢险救援任务完成后，协同消防大队对现场进行洗消和清理，清除环境危害隐患；', '（2）组织以抢救人员生命为主的火灾事故、危险化学品泄漏、道路交通事故、地震及其次生灾害、建筑坍塌、安全生产事故、空难、爆炸及恐怖事件和群众遇险事件的应急救援现场工作，并参与配合处置水旱灾害、气象灾害、地质灾害等自然灾害，重大环境污染、核辐射事故和突发公共卫生事件；', '14、其他成员单位，按照区“三定”方案职责相关规定和各专项指挥部运行规则，履行职责，做好突发事件应急救援工作。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>237</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>高坪区经济合作和外事局赴深圳开展招商引资活动</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2022-09-28</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/xxbs/t_1733462.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['日，高坪区经济合作和外事局副局长高航带队考察了三环电子深圳研究院、深圳市鑫荣鑫精密科技有限公司、东莞圆方马达有限公司。', '考察组深入企业生产车间参观学习，详细了解企业生产经营、科技创新、市场开拓等情况，并以座谈会形式，就拟在南充投资项目进行了深入交流探讨。企业负责人均表示，选择高坪投资兴业既符合企业自身发展定位，也与高坪发展规划高度契合，来高投资恰逢其时、正当其势，希望以此次考察为契机，进一步加强沟通联系，推进洽谈项目早日签约、落地见效。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>237</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>关于全面推进学法用法工作强化乡村振兴法治保障的意见</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2022-01-04</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zdlygk/xczx/202201/t20220104_1165463.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['为深入学习宣传贯彻习近平法治思想，充分发挥法治在实施乡村振兴战略过程中固根本、稳预期、利长远的重要作用，按照省委省政府关于全面依法治省、法治政府建设系列工作部署，结合贯彻《农业农村部关于全面推进农业农村法治建设意见》精神，现就全面推进学法用法工作，为乡村振兴营造良好法治环境和提供有力法治保障，提出如下意见。', '党的十八大以来，以习近平同志为核心的党中央从全局和战略高度对全面依法治国作出一系列重大决策部署，习近平总书记多次强调要加强法治国家、法治社会建设。党中央始终坚持把解决好“三农”问题作为全党工作的重中之重。习近平总书记多次发表重要讲话，深刻阐述全面推进乡村振兴的重大意义，明确战略举措和工作重点，要求要善于运用法治思维和法治方式推进乡村振兴工作，为中国特色社会主义乡村振兴道路提供了根本遵循。当前，要聚焦法治国家和法治社会在农业农村的薄弱环节，坚持以习近平法治思想为指导，全面开展学法用法工作，坚决把党中央、国务院关于全面实施乡村振兴战略决策落实落细，为加快推进农业农村现代化提供有力法治保障。', '党的十八大以来，以习近平同志为核心的党中央从全局和战略高度对全面依法治国作出一系列重大决策部署，习近平总书记多次强调要加强法治国家、法治社会建设。党中央始终坚持把解决好', '（一）加强乡村振兴法治保障需要夯实学法用法基础。 党的十九大明确提出实施乡村振兴战略后，党和国家相继出台中央一号文件、《乡村振兴战略规划（2018-2022年）》《中国共产党农村工作条例》《中华人民共和国乡村振兴促进法》等重大政策法律文件，共同构建了全面实施乡村振兴战略的“四梁八柱”，完善了乡村振兴的制度体系，夯实了良法善治的基石，顺应了全面依法治国的新要求，农业农村发展的新形势和亿万农民的新期待，必将发挥法治固根本、稳预期、利长远的重要作用。全面开展学法用法工作要以贯彻重要政策文件、重大法律文件实施为契机，立足省情农情，顺应时代要求，全面推进涉农法律法规落实落地，不松懈、不变调、不走样地推进乡村振兴，持续加快农业农村发展，确保乡村振兴在法治轨道上有序推进。', '（一）加强乡村振兴法治保障需要夯实学法用法基础。 党的十九大明确提出实施乡村振兴战略后，党和国家相继出台中央一号文件、《乡村振兴战略规划（', '（二）提升领导干部法治思维需要强化学法用法工作。党的十八大以来，习近平总书记做出了系列关于依法治国重要论述，尤其强调了要坚持抓住领导干部这个“关键少数”。各级领导干部要坚决贯彻落实党中央关于全面依法治国的重大决策部署，带头尊崇法治、敬畏法律，了解法律、掌握法律，不断提高运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定、应对风险的能力，做尊法学法守法用法的模范。乡村振兴战略是事关农业、农村和农民长远发展的根本性战略，涉及农业现代化建设的方方面面，离不开法治的保障和助力，唯有领导干部带头学法用法强化法治意识、带头提高法治能力，才能有效带动全民树立法治信仰、厉行法治精神，全面推进乡村振兴。', '（二）提升领导干部法治思维需要强化学法用法工作。党的十八大以来，习近平总书记做出了系列关于依法治国重要论述，尤其强调了要坚持抓住领导干部这个', '（三）推进依法执政、依法行政需要突出学法用法支撑。习近平总书记强调“要坚持依法治国、依法执政、依法行政共同推进。要用法治给行政权力定规矩、划界限，规范行政决策程序，加快转变政府职能”。乡村振兴工作对象广、地域大、要求高，更加需要有效发挥法治对于农业农村高质量发展的支撑作用、对农村改革的引领作用、对乡村治理的保障作用、对政府职能转变的促进作用。各级领导干部需要通过学法用法进一步牢固树立宪法法律至上、法律面前人人平等、权由法定、权依法使等基本法治观念。进一步牢记法定职责必须为、法无授权不可为，自觉在法律约束下用权。始终坚持以法律为遵循，聚焦乡村振兴战略要求,着力推动职能转变，主动为乡村振兴服务。', '（一）深入学习习近平法治思想，全面开创依法兴农新局面。习近平法治思想为全党全国各族人民深刻认识全面依法治国在治国理政中的全局性、战略性、基础性、保障性地位提供了科学指引，为我省在实现农业大省向农业强省跨越、巩固拓展脱贫攻坚成果同乡村振兴有效衔接、做好两项改革“后半篇”文章过程中提供了解决问题、克服困难、化解矛盾的办法。全省上下要以习近平法治思想武装头脑、指导实践、推动工作，深入推进乡村振兴战略实施，全面开创依法治农、依法兴农、依法护农局面，实现农业农村高质量发展。', '（一）深入学习习近平法治思想，全面开创依法兴农新局面。习近平法治思想为全党全国各族人民深刻认识全面依法治国在治国理政中的全局性、战略性、基础性、保障性地位提供了科学指引，为我省在实现农业大省向农业强省跨越、巩固拓展脱贫攻坚成果同乡村振兴有效衔接、做好两项改革', '（二）深入学习一条例一法律，全面增强服务乡村振兴责任意识。当前，三农工作重心历史性地转向全面推进乡村振兴。习近平总书记强调要坚持把解决好“三农”问题作为全党工作重中之重，举全党全社会之力推动乡村振兴，促进农业高质高效、乡村宜居宜业、农民富裕富足。乡村振兴，法治先行，要把握法律法规和党内法规学习并重，尤其要把《中国共产党农村工作条例》《中华人民共和国乡村振兴促进法》作为重点学习内容，深入理解法律法规的核心要义和精神实质，在学习中找准定位，在学习中明确责任，在学习中强化担当，以条例和法律法规引导、促进、保障乡村战略的依法实施。', '（二）深入学习一条例一法律，全面增强服务乡村振兴责任意识。当前，三农工作重心历史性地转向全面推进乡村振兴。习近平总书记强调要坚持把解决好', '（三）深入学习经济类法律法规，全面助推农业高质高效发展。围绕国家粮食安全、农业产业发展、农业产业安全、农业支持保护、农业农村生态环境保护等，聚焦耕地保护、农地“三权分置”与依法有序流转、种业知识产权保护、农业投入品规范、农业科技成果转化、农业金融保险、绿色生产生活等工作，引导干部群众树牢粮食安全意识，充分发挥法治在规范农业农村市场经济秩序中的作用，激发市场各类主体活力积极参与市场公平竞争。立足新发展阶段，努力开创农业农村工作新局面；贯彻新发展理念不断完善农业资源环境保护制度；构建新发展格局，为农业农村高质高效发展营造良好营商环境。', '（三）深入学习经济类法律法规，全面助推农业高质高效发展。围绕国家粮食安全、农业产业发展、农业产业安全、农业支持保护、农业农村生态环境保护等，聚焦耕地保护、农地', '（四）深入学习民商类法律法规，全面提升乡村治理现代化水平。要围绕农业农村改革、农村人居环境整治、村容村貌提升、农民及农民工权益保护、涉法涉诉处理等，聚焦农村集体经济组织发展、农村宅基地管理、惠农政策有效落实、垃圾污水治理、矛盾纠纷化解，以法治助推自治和德治体系的完善，激发农民群众建设更高质量更高水平农村人居环境的积极性。引导农民群众正确表达诉求，依法化解矛盾纠纷的主动性。全面提升干部乡村治理能力和水平，促进乡村宜居宜业，进一步提升广大农民获得感、幸福感、安全感。', '（五）深入学习建设规划类法律法规，全面加快推进城乡融合发展。要围绕城乡要素融合、公共服务融合、基础设施融合、城乡经济融合，聚焦城乡人才双向流动、教育医疗文化配套、基础设施一体规划、金融政策支持，进一步理顺城乡关系，加快形成工农互促、城乡互补、全面融合、共同繁荣的新型工农城乡关系。以法治引领打破城乡二元结构，不断健全城乡融合发展体制机制，加快城乡生产要素自由流动和公共资源合理配置，为农民富余富足创造良好生产生活条件。', '（一）完善干部学法制度，提升法治思维方式。组织实施“八五”普法规划，紧紧抓住“关键少数”带动“绝大多数”，推进领导干部学法用法常态化。把学法重点列入各级党委（党组）中心组年度学习计划，以不同层级、不同领域、不同对象特点，以服务乡村振兴为导向，分级分类制定领导干部学法清单，夯实领导干部学法基础，增强实施领导干部学法清单制度的针对性。全面提升领导干部运用法治思维、法治方式处理问题的能力，强化领导干部牢固树立守法律、重程序、受监督的法治理念。', '（二）强化日常学法制度，提升依法履职能力。坚持把学法用法作为“法律进机关”重要内容，将学法用法日常化经常化，各岗位要结合工作实际制定学习计划，明确学习任务，保障学习时间和学习效果。机关单位应创造条件，定期组织法制讲座、法治研讨、法治座谈、普法宣传等活动，推动学法工作持续深化，把学到的法律知识转化为依法履职能力，在“国家宪法日”“农民丰收节”等重要时间节点，深入基层组织开展学法用法活动，全面提升各级干部依法推动乡村振兴的本领和能力，做学法用法遵法守法模范。', '（三）建立系统学法制度，提升依法治理效能。坚持把法治教育纳入全省各部门行业培训规划，明确法治教育内容和要求。各级党校、行政学院、干部学院等相关培训机构应当将法治课程纳入入职、晋职等培训计划，不断提升法治教育的系统性和实效性。按照“谁执法谁普法”“谁服务谁普法”的要求，在工作业务培训中安排开展有关服务农业、服务农村、服务农民的法治教育，加大行业培训中法治课程内容比重，明确法治课程最低课时要求，持续提升各行业依法治理效能，推动部门行业重大问题协作配合，形成助推乡村振兴合力。', '（三）建立系统学法制度，提升依法治理效能。坚持把法治教育纳入全省各部门行业培训规划，明确法治教育内容和要求。各级党校、行政学院、干部学院等相关培训机构应当将法治课程纳入入职、晋职等培训计划，不断提升法治教育的系统性和实效性。按照', '（四）完善学法考核制度，提升学法用法实绩。加强对干部的法治素质考察，组织开展国家工作人员法律考试，健全完善国家工作人员学法考试机制，运用国家工作人员学法考法平台，开展学法考法工作，推动以考促学、以考促用。对拟从事行政执法人员组织专门的法律考试，考试合格方可授予行政执法资格。把学法用法情况列入公务员年度考核重要内容，以考核指挥棒倒逼学法用法主动。把法治观念、法治素养作为干部德才的重要内容，把能不能遵守法律、依法办事作为考察干部的重要依据。把依法依规办事和制度执行力纳入干部民主测评指标，将测评结果作为提拔使用的重要参考。', '（一）坚持依法决策。对涉及农业产业规划、农村经济发展、农民切身利益有重大影响的重大规划、重大政策、重大项目等重大行政决策，必须依法履行公众参与、专家论证、风险评估、合法性审查、集体讨论等法定程序，提高决策质量和效率，推进科学决策、民主决策、依法决策。不断充实法律顾问和公职律师队伍，持续提升业务能力和服务水平，充分发挥法律顾问在重大行政决策方面的支持保障作用，进一步提高决策质量。', '（二）坚持依法履职。牢固树立法定职责必须为、法无授权不可为的法治观念，深入学习行政类法规规章，严格按照法律规定和法定程序履行职责，落实权力清单、责任清单、负面清单动态管理制度，进一步梳理细化法定依据、实施主体、流程进度、办理结果等事项，做到权由法定、权依法使、权责一致。对农业农村重大项目实施、公共资源配置、收费、信用等工作做好决策、执行、管理、服务、结果公开，防止权力越位、缺位、错位，主动提升服务“三农”质量。持续深化“放管服”改革，围绕行政审批、政策落地、营商环境优化等方面解决一批难点问题，依法引导工商资本参与乡村振兴。', '（二）坚持依法履职。牢固树立法定职责必须为、法无授权不可为的法治观念，深入学习行政类法规规章，严格按照法律规定和法定程序履行职责，落实权力清单、责任清单、负面清单动态管理制度，进一步梳理细化法定依据、实施主体、流程进度、办理结果等事项，做到权由法定、权依法使、权责一致。对农业农村重大项目实施、公共资源配置、收费、信用等工作做好决策、执行、管理、服务、结果公开，防止权力越位、缺位、错位，主动提升服务', '（三）坚持依法执法。牢固树立执法为民的理念，重点解决执法不规范、不严格、不透明、不文明以及不作为、乱作为等突出问题。持续开展执法能力建设，完善行业执法制度体系，规范执法程序，全面落实行政执法公示制度、执法全过程记录制度、重大执法决定法制审核制度。聚焦重点行业和重点领域，充分发挥行政执法打击震慑涉农违法行为、维护农民和企业权益、规范市场运行等方面的作用，为全面推进乡村振兴、加快农业农村现代化保驾护航。', '（四）坚持依法治理。依法办理涉农信访事项，化解涉农矛盾纠纷，注重从政策层面预防和化解信访反映的普遍性、倾向性问题，切实维护农民群众、农村集体经济组织和新型农业经营主体等的合法权益。落实深化行政复议体制改革要求，坚持法律效果、政治效果、社会效果有机统一，注重以法为据、以理服人、以情感人，加大行政执法过程中调处化解涉农矛盾纠纷的力度及开展法治宣传教育力度。健全完善重大动植物疫病、农业重大自然灾害、农产品质量安全、群体性涉稳事件等各类涉农突发事件预防和应急处理制度，提高涉农突发事件应对法治化、规范化水平。提高依法处置疫情、灾情、安全生产事故等涉农突发事件能力，确保产业安全和生产安全。', '（一）加强组织领导。各级各部门要提高认识，深入贯彻落实习近平法治思想，要站在落实党中央决策部署，推动实施乡村振兴战略的高度重视学法用法工作，切实加强领导，周密部署，把学法用法工作摆上工作日程。各级各部门主要负责人要切实履行法治建设第一责任人职责，把学法用法作为一项长期性、经常性工作来抓。要将学法用法工作推进情况列入年终述职内容，确保学法用法工作各项任务落实到位。', '（二）强化工作力量。各级各部门要在党委（党组）统一领导下，将学法用法工作纳入工作总体布局中，做到与业务工作同部署、同检查、同落实，细化各项制度措施，体现不同岗位特点，并为干部职工学法用法创造条件、提供保障。选优配强外聘法律顾问队伍，充分发挥法律顾问专业优势，内外结合深化学法用法方式。加强干部学法用法的培训力度，加大业务岗位与法治岗位的干部交流力度，培养既懂业务又懂法治的干部队伍。', '（三）夯实基层基础。要注重加强镇村两级学法用法工作，特别是要完善村“两委”、村集体经济组织、农村致富带头 人、村民代表等的学法用法制度，形成常态、丰富形式、务求实效。要大力实施“农村学法用法示范户”“乡村法律明白人”培育工程，完善和落实好“一村一法律顾问制度”，加强民族地区“双语”普法人才的培养，提高他们运用法律手段管理基层事务、防范和处理矛盾纠纷的能力。', '（四）注重学习交流。各级各部门要根据工作分工，认真履行职责，密切配合，及时交流反馈信息，加大横向纵向交流力度，提出学法用法意见建议，积极探索形成可复制、可推广的成果。工作方式上要注重树立典型和宣传，发挥学法用法标杆和模范作用，切实提升学法用法实效，带动全社会形成弘扬法治精神，维护法律尊严，助力乡村振兴的法治氛围。', '（五）做好工作保障。各级各部门要加快完善工作体制机制，为学法用法创造条件，要加强经费保障，充分利用现有资源、平台，进一步加大对学法用法的培训投入和师资培育。要充分运用大数据、云计算、人工智能等先进技术，提升学法用法实效。要把学法用法工作融入目标绩效管理体系,进一步完善学法用法工作的绩效评价和考核激励办法，对工作成绩突出的单位和个人按照有关规定给予表彰奖励，全面提升机关干部学法用法主动性和自觉性。', '（五）做好工作保障。各级各部门要加快完善工作体制机制，为学法用法创造条件，要加强经费保障，充分利用现有资源、平台，进一步加大对学法用法的培训投入和师资培育。要充分运用大数据、云计算、人工智能等先进技术，提升学法用法实效。要把学法用法工作融入目标绩效管理体系', '245.关于全面禁止非法野生动物交易、革除滥食野生动物陋习、切实保障人民群众生命健康安全的决定']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>237</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>仪陇县人民政府办公室关于开展全国法治政府建设示范县创建工作督查考核的通知</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.yilong.gov.cn/zwgk/zc/zfbwj/202105/t20210524_1308105.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['仪陇县人民政府办公室关于开展全国法治政府建设示范县创建工作督查考核的通知-仪陇县人民政府', '县政府办将会同县目标绩效办、县司法局对各责任单位每月工作进度开展专项督查，并进行通报。', '向社会公布本级政府全部行政审批事项清单，实行目录化、编码化、动态化管理。行政审批事项在法定期限内完成并不断压缩办理时限。', '不符合行政许可法规定的许可全部取消。不存在违法设立备案、登记、行政确认等任何形式的变相审批或许可事项。做好上级政府取消、下放行政审批事项的落实和承接工作。', '全面清理行政审批中介服务，无法定依据的行政审批中介服务项目以及收费一律取消。对保留的行政审批中介服务事项实行清单管理，明确办理时限、工作流程、申报条件、收费标准并向社会公开。行政审批中介服务机构的人、财、物与政府脱钩。', '编制并对外公布全部政府工作部门的权责清单、公共服务事项清单，逐一明确法律依据、实施主体、监督方式、责任方式等相关事项，并根据法律法规的变化实行动态调整。', '全面落实并严格执行负面清单制度。清单之外的行业、领域和业务等，各类市场主体皆可依法平等进入。', '全面实施行政事业性收费和政府性基金清单制度，清单之外的一律取消。全面清理整顿部门下属事业单位、行业协会商会收费，乱收费举报投诉查处机制建立健全。', '县政府各部门及其内设机构、下属机构的设立、撤销或者调整，均遵守法定权限和程序，并进行合法性审核，不在限额外设置机构。人员编制的核定、调整依法依规进行，不擅自增加编制种类，不突破总量增加编制。', '推进县级政府事权规范化建设。一类事项原则上由一个部门统筹，一件事情原则上由一个部门负责。', '加强信用监管，推进涉企信息归集共享，严格依法科学界定守信和失信行为，实行守信联合激励和失信联合惩戒机制，做到市场主体', '废除地方保护、指定交易、市场壁垒等妨碍统一市场公平竞争的各种规定和做法，特别是对非公有制经济各种形式的不合理规定。制定涉及市场主体经济活动行政规范性文件和其他政策措施时，进行公平竞争审查，防止排除、限制市场竞争的举措，不存在未经公平竞争审查的文件。', '健全对涉嫌违法的企业和人员财产处置规则，依法慎重决定是否采取相关强制措施。确需采取查封、扣押、冻结等措施的，严格按照法定程序进行。', '大力宣传党和国家平等保护各种所有制经济产权的方针政策和法律法规，使平等、全面、依法保护观念深入人心。', '全面推进政务诚信建设，严格兑现向行政相对人依法作出的政策承诺。认真履行在招商引资、政府与社会资本合作等活动中与投资主体签订的各类合同，不存在以政府换届、领导人员更替等理由违约毁约的情形。', '对因政府规划调整、政策变化造成企业合法权益受损的依法依规进行补偿。对因国家利益、公共利益或者其他法定事由需要改变政府承诺和合同约定的，严格依照法定权限和程序进行，并对企业和投资人因此而受到的财产损失依法予以补偿。', '不存在干预企业依法自主经营活动的行为。建立健全涉企收费、监督检查清单制度，全面清理涉企收费、摊派事项和各类评比达标活动。', '全面实现行业协会商会与行政机关在机构、职能、资产财务、人员管理、党建外事等事项上脱钩。', '建立健全政府购买公共服务制度，公开政府购买公共服务目录。凡属事务性管理服务，原则上都要引入竞争机制向社会购买；确需政府参与的，实行政府和社会资本合作模式。', '形成覆盖城乡居民的公共法律服务体系，实现县公共法律服务中心、乡镇（街道）公共法律服务工作站、村（居）法律顾问全覆盖。', '制度、环境信息公开制度、环境影响评价制度、污染物排放总量控制制度、排污许可制度、生态保护红线制度和生态环境损害赔偿制度等生态环境保护法律制度，没有发生《党政领导干部生态环境损害责任追究办法（试行）》规定的追责情形，没有发生严重破坏生态环境的行为。', '对公民、法人和其他组织权利义务有重大影响、涉及人民群众切身利益的行政规范性文件，在向社会公众征求意见时，期限一般不少于', '重要的行政规范性文件依法依规执行评估论证、公开征求意见、合法性审核、集体审议决定、向社会公开发布等程序', '行政规范性文件没有增加法律、法规规定之外的行政权力事项或者减少法定职责；没有设定行政许可、行政处罚、行政强制等事项，增加办理行政许可事项的条件，规定出具循环证明、重复证明、无谓证明的内容；没有违法减损公民、法人和其他组织的合法权益或增加其义务，侵犯公民各项基本权利；没有超越职权规定应由市场调节、企业和社会自律、公民自我管理的事项；没有违法制定含有排除或者限制公平竞争内容的措施，违法干预或者影响市场主体正常生产经营活动，违法设置市场准入和退出条件等。', '。制定机关负责合法性审核的部门对文件的制定主体、程序和有关内容等是否符合法律法规规章和国家政策的规定，及时进行合法性审核。合法性审核的时间一般不少于', '没有发生因行政规范性文件未按程序制定被通报的情况，或者因行政规范性文件内容违法或超越法定职权，被本级人大常委会或者上级行政机关责令改正或者撤销的情况，被行政复议机关、人民法院认定为不适用不合法的情况。', '实行行政规范性文件目录和文本动态化、信息化管理。及时根据全面深化改革和经济社会发展需要以及上位法和上级文件的动态变化，对辖区内行政规范性文件进行清理，清理结果向社会公布。', '制定重大行政决策事项目录、标准，向社会公开，并根据实际情况调整；明确重大行政决策的决策主体、事项范围、法定程序、法律责任等，规范重大行政决策流程。', '重大行政决策依法自觉接受本级人大及其常委会的监督，根据法律法规规定属于本级人大及其常委会讨论决定的重大事项范围或者应当在出台前向本级人大及其常委会报告的，严格按照有关规定办理', '实行重大行政决策公开制度，除依法应当保密的外，决策事项、依据和结果全部公开，并为公众查阅提供服务。对社会关注度高的决策事项，认真进行解释说明。', '除依法不予公开的外，重大行政决策事项充分听取社会公众意见，并向社会及时反馈意见采纳情况和理由。如向社会公开征求意见的，征求意见期限一般不少于', '重大行政决策事项涉及企业和特定群体、行业利益的，充分听取企业、行业协会商会、人民团体、社会组织、群众代表等的意见。全面推行文化教育、医疗卫生、食品安全、资源开发、生态环境保护、公用事业等重大民生决策事项民意调查制度。', '专家参与论证重大行政决策的程序规则明确。专业性、技术性较强的决策事项，组织专家、专业机构论证其必要性、可行性、科学性等。', '对涉及经济社会发展和人民群众切身利益的重大政策、重大项目等决策事项，进行社会稳定、公共安全、环境和经济等方面的风险评估，形成风险评估报告。', '重大行政决策全部经合法性审查，不存在未经合法性审查或经合法性审查不合法仍提交决策机关讨论的情形；没有以征求意见等方式代替合法性审查的情况。重大行政决策的合法性审查时间不少于', '县政府普遍设立法律顾问、公职律师。法律顾问、公职律师在重大行政决策制定中发挥有效作用，法律顾问、公职律师的遴选、聘任、培训、考核等管理制度健全，不存在法律顾问', '并在集体讨论基础上作出决定。行政首长拟作出的决定与会议组成人员多数人的意见不一致的，在会上说明理由。', '建立重大行政决策全过程记录、材料归档和档案管理制度，实现重大行政决策年度目录事项全部立卷归档。', '重大行政决策实施后明显未达到预期效果，公民、法人或者其他组织提出较多意见的重大行政决策', '制定重大行政决策终身责任追究制度和责任倒查的具体实施办法。重大行政决策情况作为年度考核评价决策机关及其领导人员的重要内容。', '根据本级政府事权和职能，推进综合执法，市场监管、生态环境保护、文化市场、交通运输、农业、城市管理综合执法队伍整合组建完成。', '创新行政执法方式，推广运用说服教育、劝导示范、行政指导、行政奖励等非强制性执法手段。采用非强制性手段可以达到行政管理目的的，不实施行政强制。', '行政执法权限协调机制已经建立完善并有明确的协调机关负责，除需请示上级机关的外，执法机关之间对具体案件权限争议进行协调、明确责任主体的时间在', '行政执法和刑事司法衔接机制建立健全，行政执法机关、检察机关、审判机关信息共享、案情通报、案件移送制度建立并全面执行，不存在有案不移、有案难移、以罚代刑现象。', '行政执法主体、权限、依据、程序、救济渠道和随机抽查事项清单等信息全面准确及时主动公开；公开信息简明扼要、通俗易懂，并进行动态调整。', '制度，出示或者佩戴执法证件，公示执法身份。出具执法文书，主动告知当事人执法事由、执法依据、权利义务等内容。', '个工作日内向社会公布执法机关、执法对象、执法类别、执法结论等信息，接受社会监督，行政许可、行政处罚的执法决定信息在执法决定作出之日起', '行政执法机关通过文字、音像等记录形式，对行政执法启动、调查取证、审核决定、送达执行等实现全过程记录，并实现全面系统归档保存，做到执法全过程留痕和可回溯管理。', '根据行政执法文书格式文本，结合本地实际完善有关文书格式，做到行政执法活动文字记录合法规范、客观全面、及时准确，执法案卷和执法文书要素齐备、填写规范、归档完整。', '根据实际情况为行政执法人员配备执法记录仪。对查封扣押财产、强制拆除等直接涉及人身自由、生命健康、重大财产权益的现场执法活动和执法办案场所，推行全程音像记录。执法音像记录管理制度已经建立并完善。', '对于执法全过程记录资料严格依法依规归档保存，对同一执法对象的文字、音像记录进行集中储存，推行', '集中储存；行政执法全过程数据化记录工作机制和数字化归档管理制度已经建立并完善。行政执法综合管理监督系统建立并有效运行。', '行政执法机关作出重大执法决定前均严格进行法制审核，重大执法决定法制审核制度执行比率达', '行政执法机关均明确具体负责本单位重大执法决定法制审核的工作机构，原则上负责法制审核的人员不少于本单位执法人员总数的', '行政执法机关根据国家规定和上级机关的统一要求，结合本机关行政执法情况制定重大执法决定法制审核目录清单，清单内容包括但不限于涉及重大公共利益、可能造成重大社会影响或引发社会风险、直接关系行政相对人或第三人重大权益、经过听证程序作出行政执法决定以及案件情况疑难复杂涉及多个法律关系的行政执法活动。', '经建立。群众举报的违法行为得到及时查处。创建周期内没有发生因违法执法或者执法不当造成恶劣社会影响的情形。', '全面实行行政执法机关内部人员干预、插手案件办理的记录、通报和责任追究制度；健全执法过错纠正和责任追究程序，实行错案责任倒查问责制。', '执法辅助人员管理得到规范，执法辅助人员适用岗位、身份性质、职责权限、权利义务、聘用条件和程序均已明确。执法辅助人员招聘计划和名额，报同级政府或有关部门批准，并由相关部门统一组织实施。', '辖区内党政机关和领导干部支持行政执法机关依法公正行使职权，未出现下达或变相下达与法律规定冲突的任务指标或完成时限等情形。', '行政执法经费统一纳入财政预算予以保障，行政执法经费与罚没收入完全脱钩，罚缴分离和收支两条线管理制度得到有效贯彻。', '人大及其常委会组成人员对政府工作提出的有关审议意见认真研究处理，协委员提出的意见和建议研究办理及时，满意度达', '支持人民法院依法受理和审理行政案件，行政机关负责人按规定出庭应诉；对于涉及重大公共利益的案件、社会高度关注的案件、可能引发群体性事件的案件、人民法院发出出庭书的行政案件、检察机关提起的行政公益诉讼案件等，被诉行政机关负责人出庭率达', '不存在未履行法院生效裁判的情况。重视人民法院提出的司法建议，及时向人民法院反馈司法建议采纳情况，办复率达', '政府内部层级监督常态化、长效化机制建立，对监督主体、监督内容、监督方式、违法或者不当行政行为的处理、责任追究等作出规定。', '政府内部权力制约体系形成，对财政资金分配使用、国有资产监管、政府投资、政府采购、公共资源转让、公共工程建设等权力集中的部门和岗位实行分事行权、分岗设权、分级授权，定期轮岗。', '行政机关违法行政行为投诉举报登记制度建立，举报箱、电子信箱、热线电话等监督渠道通畅，统一政务咨询投诉举报平台建立健全，除', '等紧急类热线以外，将各部门非紧急类政务热线整合，纳入统一政务咨询投诉举报平台管理。', '实行政务公开清单管理制度，并动态更新。对符合法定条件要求的依申请公开政府信息的答复率达', '政府新闻发言人、突发事件信息发布等制度完善。对涉及特别重大、重大突发事件的政务舆情，最迟在事件发生后', '因不履行或者不正确履行政府信息公开法定职责，在行政复议或者行政诉讼中被撤销、确认违法或者责令履行等的发生率在', '调解、仲裁、行政裁决、行政复议、诉讼等矛盾纠纷多元化解机制有机衔接，绝大多数矛盾纠纷能够通过法定渠道得到解决。人民群众对化解社会矛盾纠纷工作的满意度达到', '推进企事业单位、乡镇街道、社会组织中人民调解组织建设。村委会、居委会人民调解组织全覆盖。行业性、专业性人民调解委员会有', '建立政府负总责、司法行政部门牵头、各职能部门为主体的行政调解工作机制。行政调解工作程序规范。', '公安、民政、自然资源、生态环境、交通运输、卫生健康、市场监管等行政调解任务较重的部门，普遍成立行政调解委员会。行政机关受理矛盾纠纷实行首问责任制。', '行政复议体制机制健全，积极推进行政复议职责有效整合。行政复议案件办理符合法定程序和时限，通过加强听证、专家论证等形式确保办案质量较高。', '行政复议规范化程度较高。行政复议机构设置、人员配备与工作任务相适应，审查行政复议案件由', '在行政处罚、行政许可等对相对人可能产生不利影响的行政执法文书中，依法实施行政复议权利告知制度。在网站和行政复议接待场所公开受理复议案件的范围、条件、程序等事项，提供行政复议申请书格式样本。全面落实行政复议决定书网上公开制度。', '健全完善普法宣传教育机制。加强法治文化阵地和设施建设，每个县级地区至少建成一个法治学习宣传教育基地或者法治文化主题的城市公园（广场、长廊）。经常开展群众性法治文化活动。', '法治观念强不强、法治素养好不好成为衡量干部德才的重要标准，能不能遵守法律、依法办事成为考察干部的重要内容。在相同条件下，法治素养好、依法办事能力强的干部得到优先提拔使用。', '对特权思想严重、法治观念淡薄的干部，及时发现并进行批评教育、督促整改，问题严重或违法违纪的干部，依法依纪受到严肃处理。创建周期内，政府领导班子成员因严重违纪或违法犯罪受到责任追究的不超过', '将法律知识培训作为公务员初任培训、任职培训的重要内容，将宪法以及与工作密切相关的法律法规纳入培训考试考核内容，将通过法律知识考试作为通过初任培训、任职培训的标准之一。', '乡政府每年第一季度向同级党委、人大常委会和上一级政府报告上一年度法治政府建设情况，县乡政府部门每年第一季度向本级党委和政府、上一级政府有关部门报告上一年度法治政府建设情况，并通过报刊、政府网站等向社会公开。', '党政主要负责人切实履行推进法治建设第一责任人职责。上级党委和政府每年对下级党政主要负责人履行推进法治建设第一责任人职责情况有检查、有督促。', '法治建设成效作为衡量各级领导班子和领导干部实绩的重要内容，纳入政绩考核指标体系，分值权重不低于总分值的', '。每年对法治政府建设情况开展检查考评工作，对工作不力、问题较多的单位开展约谈整改。', '在示范创建活动的申报材料中，故意编造、虚构有关数据、资料、文件等，或者隐瞒真相的。', '深入推进“三基三化”建设，精心打造网上办案、视频监控、不停车检测“三大智能平台”，全力依托“互联网＋”，实现执法信息共享、执法过程联动。', '深入开展全省卫生健康监督机构试点工作，在现场执法检查过程中全面推行移动执法终端，及时通过网络平台公开信息，实现卫生监督实时动态管理。', '建设仪陇县智慧城乡治理中心，充分整合全县公共安全视频监控及数据资源，彻底解决各自为政、重复建设、信息孤岛等问题，实现多中心合一、资源共建共享、平台互联互通。', '破解工业培育难题，建设企业服务“拼多多”，切实提升了园区服务、降低了企业运营成本、优化了营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>237</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>中共南充市委组织部关于年度南充市市级机关公开遴选公务员的公告</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2022-10-24</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zwgk/fdzdgknr/zkxx/t_1741493.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['中共南充市委组织部关于2022年度南充市市级机关公开遴选公务员的公告-南充市人民政府', '符合遴选条件的南充市各县（市、区）以下机关单位已进行公务员登记（含参照公务员法管理机关', '）。中央机关、省级机关及市级机关设在南充市各县（市、区）以下的单位（包括垂直管理单位、派出单位等）符合条件的也可报名。', '按照有关规定，到乡镇机关、艰苦边远地区以及定向单位工作未满最低服务年限或者对转任有其他限制性规定的。', '报名人员不得报考任职后即构成公务员法第七十四条第一款所列情形的职位，也不得报考与本人有夫妻关系、直系血亲关系、三代以内旁系血亲关系以及近姻亲关系的人员担任领导成员的用人单位的职位。', '选择职位。公开遴选职位、职位简介、职位资格条件等情况，详见《职位表》。报名人员如需咨询《职位表》中的有关事项，可按公布的电话直接与遴选机关联系。符合条件的人员每人限报', '年度南充市市级机关公开遴选公务员报名登记表》（以下统称《报名登记表》），同时下载照片审核处理工具（在《报名登记表》上传照片处下载）进行照片处理，并按网络提示上传照片。报考者应认真对照报考职位要求的资格条件，完整填报有关信息。', '。资格初审合格人数与遴选计划之比未达到开考比例的职位，经市委组织部同意可适当放宽开考比例，但最低不得低于', '。仍达不到开考比例的，按比例缩减或取消该职位计划。被取消计划的职位，由各遴选机关征得报考人员同意后将其调整到符合报考条件的本机关其他职位，若本遴选机关没有其他职位则不再调整。', '笔试由市委组织部统一组织，主要测试应试者的政策理论水平、分析和解决实际问题的能力、文字表达能力等综合素质，满分为', '月中下旬，具体时间、地点见准考证。考生可通过南充市人力资源和社会保障局官网“人事考试”专栏查询笔试成绩和职位排名，时间暂定于', '如因疫情防控等原因，需调整笔试时间、地点等事项的，将在南充市人力资源和社会保障局官网“人事考试”专栏另行通知，请及时关注相关信息。', '笔试结束后，由遴选机关根据笔试成绩从高分到低分的顺序确定进入资格复审人选。进入资格复审人选与遴选名额之比为', '人以上笔试成绩并列的，并列人员均进入资格复审。进入资格复审人数达不到遴选计划规定比例的职位，该职位符合条件的笔试人员全部进入资格复审。由遴选机关通知考生持《报名登记表》（按照干部管理权限经所在单位和组织部门审核，注明', '并盖章）、有效居民身份证、学历（学位）证书及职位要求的其他有关证明材料原件和公务员（参公人员）录用审批表、公务员（参公人员）登记表复印件（加盖档案存放单位印章）参加资格复审。资格复审合格者，方可取得面试资格。因资格复审不合格或因考生放弃等原因导致的缺额，由遴选机关按笔试成绩从高分到低分的顺序依次递补。未在规定时限内参加资格复审的，视为考生自动放弃面试资格。面试当天放弃的，不递补。', '面试由遴选机关严格按照有关规定组织实施，可采取无领导小组讨论、结构化小组面试、集体面谈及结构化面试等方式进行，主要测试考生履行职位职责所要求的能力素质。根据需要，还可进行专业知识技能测试、组织实地调研、开展心理素质测评等，具体分值占比由遴选机关在面试前通报考生。面试成绩满分为', '分。遴选机关于面试结束后，根据考试综合成绩从高分到低分的顺序确定考察对象并告知本人（若考试综合成绩相同，则根据笔试成绩高低确定）。考察对象人数与遴选名额之比一般为', '名以上人员组成考察组，可采取个别谈话、民主测评、实地走访、同考察对象面谈等方法，根据需要还可进行专项调查、延伸考察等，充分听取考察对象所在单位有关领导、群众和组织人事部门、纪检监察机关、机关党组织的意见，并审核干部人事档案、查询社会信用记录，对反映问题线索具体、有可查性的信访举报进行核查。注重对考察对象的德、能、勤、绩、廉情况以及职位匹配度等进行全面考察，突出政治标准，深入考察政治忠诚、政治定力、政治担当、政治能力、政治自律等方面情况，重点考察政治理论学习情况、制度执行力、履职能力、工作实绩和群众公认程度，严把政治关、品行关、能力关、作风关、廉洁关，坚决杜绝政治素质不合格、道德品行不端正、廉洁操守不过关的人员进入市级机关。', '体检由遴选机关负责，在省公务员主管部门指定的医疗机构进行，体检标准参照公务员录用通用标准执行。', '遴选机关或考生对非当日、非当场复检的体检项目结果有疑问的，可在接到体检结论通知之日起', '日内提出复检要求。复检只进行一次，只复检对体检结论有影响的项目。体检结论以复检结果为准。未按规定时间或地点及未在规定期限内完成规定体检项目的，视为自动放弃。', '市委组织部、遴选机关将拟调人员在南充市人力资源和社会保障局官网“人事考试”专栏进行公示，公示期不少于', '个工作日。公示期满，对没有反映问题或反映问题不影响调动的，遴选机关将拟调人员名单报市委组织部，由市委组织部提请市委机构编制委员会审批；对反映有严重问题并查有实据的，取消遴选资格；对反映有严重问题，但一时难以查实的，待查实并作出结论后再决定是否调动。公示期间或公示后，因考生放弃或其他原因出现的缺额，不再递补。', '本次遴选严格按照中央、省、市关于干部人事工作的有关规定进行。如发现违反干部人事纪律的现象，可向各遴选机关的纪检监察部门检举，也可直接向市委组织部举报。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>237</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>中国共产党南充市高坪区委办公室机关年部门预算编制说明</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2021-03-30</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.gaoping.gov.cn/zwgk/fdzdgknr/ysjs/bmys/2021bmys/2021dwys/202103/t20210330_785059.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['1．负责区委日常文书材料的处理。承担区委文件文稿的修改、校核和印制；负责中央、省委、市委和区委文件的分发与管理。', '5．承担区委分配的重大调研课题和区委领导布置的专题调研任务；独立承担或组织协调并参与起草向市委的报告、区委重要会议文稿和领导讲话稿。', '（一）强化业务培训，提升干部综合素质。一是搞好写作培训。邀请市委办综合科、政研室等专门从事写作工作的前辈，为文秘人员和区内各办公室从事写作的工作人员开展4次以上写作专题培训，着力提升文稿写作水平。二是搞好办文办会培训。邀请市委办秘书科、市委保密机要局同志，为区内各单位办公室开展4次以上办文办会和机要保密工作培训，切实提升办公室服务水平。三是搞好财务知识培训。邀请区审计局、区财政局等单位行家，为我办从事财务工作的人员每季度至少开展1次专题财务知识培训，着力提升财务工作人员业务能力和水平。', '（二）健全五项机制，促进工作规范高效。一是健全上挂锻炼机制。积极联系对接市委办秘书科、综合科、政研室、常委办等，定期派出文秘人员上挂锻炼学习，进一步提升文秘人员水平，向市委办学习靠近。二是健全轮岗机制。探索开展办公室内轮岗制度，定期对各股室文秘人员进行轮岗锻炼，全面提高综合能力。三是健全财务审批机制。办公物品采购和公务费用报销，必须由经办人填写申报单或审批单，并依次送股室负责人、分管副主任、财务分管领导和办公室主任审批，进一步规范财务工作。四是健全文件上报机制。凡是报区委、区委领导的材料，必须由区级分管领导签字审批同意；原则上非全局性重大活动，均由行业单位提出方案初稿和建议意见，并经分管领导审核后，再报区委审定。五是健全督办机制。由常委办、督查股、综合二股、秘书股分别负责对区委重大决策部署和书记、副书记批交办事项建立台账，转区纪委监委、区委目标办等单位督查落实，每季度对督办情况汇总并向常委会通报。', '（三）突出五项重点，保障工作开展有序。一是做好春节前后重大活动协调工作。严格按照《春节前后重大活动、会议预安排》，对照相关时间节点，提前安排好方案和文字材料起草等工作，特别是抓紧落实四季度拉练、区委六届十四次全委会、春节困难群众、党员慰问等重点工作，确保有力有序开展。二是全力配合推进全区工作“开门红”。按照“起步就是决战、开局就是冲刺”的要求，会同区发改局、区财政局、区统计局等单位，全力谋划好2021年一季度“开门红”工作，为区委2021年打响“第一炮”抓好保障。三是协调好“四大家”办公室工作。主动对接区委各部委、其他“三大家”办公室和相关职能部门，全力统筹好区“两会”等重大会议活动，确保全区工作同步推进、同频共振，区委的决策部署及时落实。四是协助推进“10件大事”工作。办公室工作紧紧围绕推进“10件大事”，进一步加大对重点项目、重大工程的督办推进，及时收集、掌握工作最新进展和困难问题，为区委领导研究、决策提供依据。五是思考好办公室全年工作。紧紧围绕区委中心工作和重大决策部署，以“抓保障、强协调、助推进”为工作重点，全力谋划好办公室2021年工作，确保全年工作安排有理、统筹有序、推进有力。', '1个临时办公室，分别为：常委办、秘书一股、秘书二股、秘书三股、政工股、行政股、信息股、退管股、值班室、深化改革办公室。', '按照综合预算的原则，区委办机关所有收入和支出均纳入部门预算管理。收入包括：一般公共预算拨款收入、上年结转；支出包括：一般公共服务支出、社会保障和就业支出、卫生健康支出、住房保障支出。区委办机关', '办公室正常运转的基本支出，包括基本工资、津贴补贴等人员经费以及办公费、印刷费、差旅费等日常公用经费。', '一般公共服务支出（类）党委办公厅（室）及相关机构事务（款）其他党委办公厅（室）及相关机构事务支出（项）', '社会保障和就业支出（类）行政事业单位养老支出（款）机关事业单位基本养老保险缴费支出（项）', '社会保障和就业支出（类）行政事业单位养老支出（款）机关事业单位职业年金缴费支出（项）', '万元，主要包括：基本工资、津贴补贴、奖金、机关事业单位基本养老保险、职业年金缴费、职业基本医疗保险缴费、其他社会保障缴费、住房公积金、生活补助、其他对个人和家庭的补助支出等支出。', '万元，主要包括：办公费、差旅费、工会经费、福利费、其他交通费用、其他商品服务支出等支出。', '（四）一般公共服务支出（类）党委办公厅（室）及相关机构事务（款）其他党委办公厅（室）及相关机构事务支出（项）：', '（五）社会保障和就业支出（类）行政事业单位养老支出（款）机关事业单位基本养老保险缴费支出（项）：', '（六）社会保障和就业支出（类）行政事业单位养老支出（款）机关事业单位职业年金缴费支出（项）：', '（一十）基本支出：指为保证机构正常运转，完成日常工作任务而发生的人员支出和公用支出。', '“三公”经费：纳入区委办机关预算管理的“三公”经费，是指部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（一十二）机关运行经费：为保障行政单位（含参公事业单位）运行用于购买货物和服务的各项资金。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>237</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>中共中央办公厅国务院办公厅印发关于加快推进乡村人才振兴的意见</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2021-03-02</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.nanchong.gov.cn/zrzyghj/zwxx/zcwj/qtwj/202103/t20210302_749833.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['中共中央办公厅 国务院办公厅印发《关于加快推进乡村人才振兴的意见》-南充市自然资源和规划局', '新华社北京2月23日电 近日，中共中央办公厅、国务院办公厅印发了《关于加快推进乡村人才振兴的意见》，并发出通知，要求各地区各部门结合实际认真贯彻落实。', '乡村振兴，关键在人。为深入贯彻落实习近平总书记关于推动乡村人才振兴的重要指示精神，落实党中央、国务院有关决策部署，促进各类人才投身乡村建设，现就加快推进乡村人才振兴提出如下意见。', '（一）指导思想。以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中、五中全会精神，坚持和加强党对乡村人才工作的全面领导，坚持农业农村优先发展，坚持把乡村人力资本开发放在首要位置，大力培养本土人才，引导城市人才下乡，推动专业人才服务乡村，吸引各类人才在乡村振兴中建功立业，健全乡村人才工作体制机制，强化人才振兴保障措施，培养造就一支懂农业、爱农村、爱农民的“三农”工作队伍，为全面推进乡村振兴、加快农业农村现代化提供有力人才支撑。', '（二）目标任务。到2025年，乡村人才振兴制度框架和政策体系基本形成，乡村振兴各领域人才规模不断壮大、素质稳步提升、结构持续优化，各类人才支持服务乡村格局基本形成，乡村人才初步满足实施乡村振兴战略基本需要。', '——坚持加强党对乡村人才工作的全面领导。贯彻党管人才原则，将乡村人才振兴纳入党委人才工作总体部署，引导各类人才向农村基层一线流动，打造一支能够担当乡村振兴使命的人才队伍。', '——坚持全面培养、分类施策。围绕全面推进乡村振兴需要，全方位培养各类人才，扩大总量、提高质量、优化结构。尊重乡村发展规律和人才成长规律，针对不同地区、不同类型人才，实施差别化政策措施。', '——坚持多元主体、分工配合。推动政府、培训机构、企业等发挥各自优势，共同参与乡村人才培养，解决制约乡村人才振兴的问题，形成工作合力。', '——坚持广招英才、高效用才。坚持培养与引进相结合、引才与引智相结合，拓宽乡村人才来源，聚天下英才而用之。用好用活人才，为人才干事创业和实现价值提供机会条件，最大限度激发人才内在活力。', '——坚持完善机制、强化保障。深化乡村人才培养、引进、管理、使用、流动、激励等制度改革，完善人才服务乡村激励机制，让农村的机会吸引人，让农村的环境留住人。', '（四）培养高素质农民队伍。深入实施现代农民培育计划，重点面向从事适度规模经营的农民，分层分类开展全产业链培训，加强训后技术指导和跟踪服务，支持创办领办新型农业经营主体。充分利用现有网络教育资源，加强农民在线教育培训。实施农村实用人才培养计划，加强培训基地建设，培养造就一批能够引领一方、带动一片的农村实用人才带头人。', '（五）突出抓好家庭农场经营者、农民合作社带头人培育。深入推进家庭农场经营者培养，完善项目支持、生产指导、质量管理、对接市场等服务。建立农民合作社带头人人才库，加强对农民合作社骨干的培训。鼓励农民工、高校毕业生、退役军人、科技人员、农村实用人才等创办领办家庭农场、农民合作社。鼓励有条件的地方支持农民合作社聘请农业经理人。鼓励家庭农场经营者、农民合作社带头人参加职称评审、技能等级认定。', '（六）培育农村创业创新带头人。深入实施农村创业创新带头人培育行动，不断改善农村创业创新生态，稳妥引导金融机构开发农村创业创新金融产品和服务方式，加快建设农村创业创新孵化实训基地，组建农村创业创新导师队伍。壮大新一代乡村企业家队伍，通过专题培训、实践锻炼、学习交流等方式，完善乡村企业家培训体系，完善涉农企业人才激励机制，加强对乡村企业家合法权益的保护。', '（七）加强农村电商人才培育。提升电子商务进农村效果，开展电商专家下乡活动。依托全国电子商务公共服务平台，加快建立农村电商人才培养载体及师资、标准、认证体系，开展线上线下相结合的多层次人才培训。', '（八）培育乡村工匠。挖掘培养乡村手工业者、传统艺人，通过设立名师工作室、大师传习所等，传承发展传统技艺。鼓励高等学校、职业院校开展传统技艺传承人教育。在传统技艺人才聚集地设立工作站，开展研习培训、示范引导、品牌培育。支持鼓励传统技艺人才创办特色企业，带动发展乡村特色手工业。', '（九）打造农民工劳务输出品牌。实施劳务输出品牌计划，围绕地方特色劳务群体，建立技能培训体系和评价体系，完善创业扶持、品牌培育政策，通过完善行业标准、建设专家工作室、邀请专家授课、举办技能比赛等途径，普遍提升从业者职业技能，提高劳务输出的组织化、专业化、标准化水平，培育一批叫得响的农民工劳务输出品牌。', '（十）加强乡村教师队伍建设。落实城乡统一的中小学教职工编制标准。继续实施革命老区、民族地区、边疆地区人才支持计划、教师专项计划和银龄讲学计划。加大乡村骨干教师培养力度，精准培养本土化优秀教师。改革完善“国培计划”，深入推进“互联网+义务教育”，健全乡村教师发展体系。对长期在乡村学校任教的教师，职称评审可按规定“定向评价、定向使用”，高级岗位实行总量控制、比例单列，可不受所在学校岗位结构比例限制。落实好乡村教师生活补助政策，加强乡村学校教师周转宿舍建设，按规定将符合条件的乡村教师纳入当地住房保障范围。', '（十一）加强乡村卫生健康人才队伍建设。按照服务人口1‰左右的比例，以县为单位每5年动态调整乡镇卫生院人员编制总量，允许编制在县域内统筹使用，用好用足空余编制。推进乡村基层医疗卫生机构公开招聘，艰苦边远地区县级及基层医疗卫生机构可根据情况适当放宽学历、年龄等招聘条件，对急需紧缺卫生健康专业人才可以采取面试、直接考察等方式公开招聘。乡镇卫生院应至少配备1名公共卫生医师。深入实施全科医生特岗计划、农村订单定向医学生免费培养和助理全科医生培训，支持城市二级及以上医院在职或退休医师到乡村基层医疗卫生机构多点执业，开办乡村诊所，充实乡村卫生健康人才队伍。完善乡村基层卫生健康人才激励机制，落实职称晋升和倾斜政策，优化乡镇医疗卫生机构岗位设置，按照政策合理核定乡村基层医疗卫生机构绩效工资总量和水平。优化乡村基层卫生健康人才能力提升培训项目，加强在岗培训和继续教育。落实乡村医生各项补助，逐步提高乡村医生收入待遇，做好乡村医生参加基本养老保险工作，深入推进乡村全科执业助理医师资格考试，推动乡村医生向执业（助理）医师转化，引导医学专业高校毕业生免试申请乡村医生执业注册。鼓励免费定向培养一批源于本乡本土的大学生乡村医生，多途径培养培训乡村卫生健康工作队伍，改善乡村卫生服务和治理水平。', '（十二）加强乡村文化旅游体育人才队伍建设。推动文化旅游体育人才下乡服务，重点向革命老区、民族地区、边疆地区倾斜。完善文化和旅游、广播电视、网络视听等专业人才扶持政策，培养一批乡村文艺社团、创作团队、文化志愿者、非遗传承人和乡村旅游示范者。鼓励运动员、教练员、体育专业师生、体育科研人员参与乡村体育指导志愿服务。', '（十三）加强乡村规划建设人才队伍建设。支持熟悉乡村的首席规划师、乡村规划师、建筑师、设计师及团队参与村庄规划设计、特色景观制作、人文风貌引导，提高设计建设水平，塑造乡村特色风貌。统筹推进城乡基础设施建设管护人才互通共享，搭建服务平台，畅通交流机制。实施乡村本土建设人才培育工程，加强乡村建设工匠培训和管理，培育修路工、水利员、改厕专家、农村住房建设辅导员等专业人员，提升农村环境治理、基础设施及农村住房建设管护水平。', '（十四）加强乡镇党政人才队伍建设。选优配强乡镇领导班子特别是乡镇党委书记，健全从乡镇事业人员、优秀村党组织书记、到村任职过的选调生、驻村第一书记、驻村工作队员中选拔乡镇领导干部常态化机制。实行乡镇编制专编专用，明确乡镇新录用公务员在乡镇最低服务年限，规范从乡镇借调工作人员。落实乡镇工作补贴和艰苦边远地区津贴政策，确保乡镇机关工作人员收入高于县直机关同职级人员。落实艰苦边远地区乡镇公务员考录政策，适当降低门槛和开考比例，允许县乡两级拿出一定数量的职位面向高校毕业生、退役军人等具有本地户籍或在本地长期生活工作的人员招考。', '（十五）推动村党组织带头人队伍整体优化提升。坚持把政治标准放在首位，选拔思想政治素质好、道德品行好、带富能力强、协调能力强，公道正派、廉洁自律，热心为群众服务的党员担任村党组织书记。注重从本村致富能手、外出务工经商返乡人员、本乡本土大学毕业生、退役军人中的党员里培养选拔村党组织书记。对本村暂时没有党组织书记合适人选的，可从上级机关、企事业单位优秀党员干部中选派，有条件的地方也可以探索跨村任职。全面落实村党组织书记县级党委组织部门备案管理制度和村“两委”成员资格联审机制，实行村“两委”成员近亲属回避，净化、优化村干部队伍。加大从优秀村党组织书记中考录乡镇公务员、招聘乡镇事业编制人员力度。县级党委每年至少对村党组织书记培训1次，支持村干部和农民参加学历教育。坚持和完善向重点乡村选派驻村第一书记和工作队制度。', '（十六）实施“一村一名大学生”培育计划。鼓励各地遴选一批高等职业学校，按照有关规定，根据乡村振兴需求开设涉农专业，支持村干部、新型农业经营主体带头人、退役军人、返乡创业农民工等，采取在校学习、弹性学制、农学交替、送教下乡等方式，就地就近接受职业高等教育，培养一批在乡大学生、乡村治理人才。进一步加强选调生到村任职、履行大学生村官有关职责、按照大学生村官管理工作，落实选调生一般应占本年度公务员考录计划10%左右的规模要求。鼓励各地多渠道招录大学毕业生到村工作。扩大高校毕业生“三支一扶”计划招募规模。', '（十七）加强农村社会工作人才队伍建设。加快推动乡镇社会工作服务站建设，加大政府购买服务力度，吸引社会工作人才提供专业服务，大力培育社会工作服务类社会组织。加大本土社会工作专业人才培养力度，鼓励村干部、年轻党员等参加社会工作职业资格评价和各类教育培训。持续实施革命老区、民族地区、边疆地区社会工作专业人才支持计划。加强乡村儿童关爱服务人才队伍建设。通过项目奖补、税收减免等方式引导高校毕业生、退役军人、返乡入乡人员参与社区服务。', '（十八）加强农村经营管理人才队伍建设。依法依规划分农村经营管理的行政职责和事业职责，建立健全职责目录清单。采取招录、调剂、聘用等方式，通过安排专兼职人员等途径，充实农村经营管理队伍，确保事有人干、责有人负。加强业务培训，力争3年内轮训一遍。加强农村土地承包经营纠纷调解仲裁人才队伍建设，鼓励各地探索建立仲裁员等级评价制度。将农村合作组织管理专业纳入农业技术人员职称评审范围，完善评价标准。加强农村集体经济组织人才培养，完善激励机制。', '（十九）加强农村法律人才队伍建设。加强农业综合行政执法人才队伍建设，加大执法人员培训力度，完善工资待遇和职业保障政策，培养通专结合、一专多能执法人才。推动公共法律服务力量下沉，通过招录、聘用、政府购买服务、发展志愿者队伍等方式，充实乡镇司法所公共法律服务人才队伍，加强乡村法律服务人才培训。以村干部、村妇联执委、人民调解员、网格员、村民小组长、退役军人等为重点，加快培育“法律明白人”。培育农村学法用法示范户，构建农业综合行政执法人员与农村学法用法示范户的密切联结机制。提高乡村人民调解员队伍专业化水平，有序推进在农村“五老”人员中选聘人民调解员。完善和落实“一村一法律顾问”制度。', '（二十）培养农业农村高科技领军人才。国家重大人才工程、人才专项优先支持农业农村领域，推进农业农村科研杰出人才培养，鼓励各地实施农业农村领域“引才计划”，加快培育一批高科技领军人才和团队。加强优秀青年后备人才培养，突出服务基层导向。支持高科技领军人才按照有关政策在国家农业高新技术产业示范区、农业科技园区等落户。', '（二十一）培养农业农村科技创新人才。依托现代农业产业技术体系、农业科技创新联盟、现代农业产业科技创新中心等平台，发现人才、培育人才、凝聚人才。加强农业企业科技人才培养。健全农业农村科研立项、成果评价、成果转化机制，完善科技人员兼职兼薪、分享股权期权、领办创办企业、成果权益分配等激励办法。', '（二十二）培养农业农村科技推广人才。推进农技推广体系改革创新，完善公益性和经营性农技推广融合发展机制，允许提供增值服务合理取酬。全面实施农技推广服务特聘计划。深化农技人员职称制度改革，突出业绩水平和实际贡献，向服务基层一线人才倾斜，实行农业农村科技推广人才差异化分类考核。实施基层农技人员素质提升工程，重点培训年轻骨干农技人员。建立健全农产品质量安全协管员、信息员队伍。鼓励地方对“土专家”、“田秀才”、“乡创客”发放补贴。开展“寻找最美农技员”活动。引导科研院所、高等学校开展专家服务基层活动，推广“科技小院”等培养模式，派驻研究生深入农村开展实用技术研究和推广服务工作。', '（二十三）发展壮大科技特派员队伍。坚持政府选派、市场选择、志愿参加原则，完善科技特派员工作机制，拓宽科技特派员来源渠道，逐步实现各级科技特派员科技服务和创业带动全覆盖。完善优化科技特派员扶持激励政策，持续加大对科技特派员工作支持力度，推广利益共同体模式，支持科技特派员领办创办协办农民合作社、专业技术协会和农业企业。', '（二十四）完善高等教育人才培养体系。全面加强涉农高校耕读教育，将耕读教育相关课程作为涉农专业学生必修课。深入实施卓越农林人才教育培养计划2.0，加快培养拔尖创新型、复合应用型、实用技能型农林人才。用生物技术、信息技术等现代科学技术改造提升现有涉农专业，建设一批新兴涉农专业。引导综合性高校拓宽农业传统学科专业边界，增设涉农学科专业。加强乡村振兴发展研究院建设，加大涉农专业招生支持力度。加强农林高校网络培训教育资源共享，打造实用精品培训课程体系。', '（二十五）加快发展面向农村的职业教育。加强农村职业院校基础能力建设，优先支持高水平农业高职院校开展本科层次职业教育，采取校企合作、政府划拨、整合资源等方式建设一批实习实训基地。支持职业院校加强涉农专业建设、开发技术研发平台、开设特色工艺班，培养基层急需的专业技术人才。采取学制教育和专业培训相结合的模式对农村“两后生”进行技能培训。鼓励退役军人、下岗职工、农民工、高素质农民、留守妇女等报考高职院校，可适当降低文化素质测试录取分数线。', '（二十六）依托各级党校（行政学院）培养基层党组织干部队伍。发挥好党校（行政学院）、干部学院主渠道、主阵地作用，分类分级开展“三农”干部培训。以县级党校（行政学校）为主体，加强对村干部、驻村第一书记、基层团组织书记等乡村干部队伍的培训。采取线上线下相结合等模式，将党校（行政学院）、干部学院的教育资源延伸覆盖至村和社区。', '（二十七）充分发挥农业广播电视学校等培训机构作用。支持职业院校、农业广播电视学校、农村成人文化技术培训学校（机构）、农技推广机构、农业科研院所等，加强对高素质农民、能工巧匠等本土人才培养。探索建立农民学分银行，推动农民培训与职业教育有效衔接。建立政府引导、多元参与的投入机制，将农民教育培训经费按规定列入各级预算，吸引社会资本投入。', '（二十八）支持企业参与乡村人才培养。引导农业企业依托原料基地、产业园区等建设实训基地，推动和培训农民应用新技术。鼓励农业企业依托信息、科技、品牌、资金等优势，带动农民创办家庭农场、农民合作社，打造乡村人才孵化基地。支持农业企业联合科研院所、高等学校建设产学研用协同创新基地，培育科技创新人才。', '（二十九）健全农村工作干部培养锻炼制度。完善县级以上机关年轻干部在农村基层培养锻炼机制，有计划地选派县级以上机关有发展潜力的年轻干部到乡镇任职、挂职，多渠道选派优秀干部到农村干事创业。', '（三十）完善乡村人才培养制度。加大公费师范生培养力度，实行定向培养，明确基层服务年限，推动特岗计划与公费师范生培养相结合。推动职业院校（含技工院校）建设涉农专业或开设特色工艺班，与基层行政事业单位、用工企业精准对接，定向培养乡村人才。支持中央和国家机关有关部门、地方政府、高等学校、职业院校加强合作，按规定为艰苦地区和基层一线“订单式”培养专业人才。', '（三十一）建立各类人才定期服务乡村制度。建立城市医生、教师、科技、文化等人才定期服务乡村制度，支持和鼓励符合条件的事业单位科研人员按照国家有关规定到乡村和涉农企业创新创业，充分保障其在职称评审、工资福利、社会保障等方面的权益。鼓励地方整合各领域外部人才成立乡村振兴顾问团，支持引导退休专家和干部服务乡村振兴。落实中小学教师晋升高级职称原则上要有1年以上农村基层工作服务经历要求。国家建立医疗卫生人员定期到基层和艰苦边远地区从事医疗卫生工作制度。执业医师晋升为副高级技术职称的，应当有累计1年以上在县级以下或者对口支援的医疗卫生机构提供医疗卫生服务的经历。支持专业技术人才通过项目合作、短期工作、专家服务、兼职等多种形式到基层开展服务活动，在基层时间累计超过半年的视为基层工作经历，作为职称评审、岗位聘用的重要参考。对县乡事业单位专业性强的岗位聘用的高层次人才，可采取协议工资、项目工资、年薪制等灵活多样的分配方式，合理确定薪酬待遇。鼓励地方通过建设人才公寓、发放住房补助，允许返乡入乡人员子女在就业创业地接受学前教育、义务教育，解决好返乡入乡人员的居住和子女入学问题。完善社保关系转移接续机制，为返乡入乡人员及其家属按规定参加城镇职工基本养老保险、基本医疗保险提供便捷服务。', '（三十二）健全鼓励人才向艰苦地区和基层一线流动激励制度。适当放宽在基层一线工作的专业技术人才职称评审条件。对长期在基层一线和艰苦边远地区工作的，加大爱岗敬业表现、实际工作业绩及工作年限等评价权重，落实完善工资待遇倾斜政策，激励人才扎根一线建功立业。推广医疗、教育人才“组团式”援疆援藏经验做法，逐步将人才“组团式”帮扶拓展到其他艰苦地区和更多领域。', '（三十三）建立县域专业人才统筹使用制度。积极开展统筹使用基层各类编制资源试点，探索赋予乡镇更加灵活的用人自主权，鼓励从上往下跨层级调剂行政事业编制，推动资源服务管理向基层倾斜。推进义务教育阶段教师“县管校聘”，推广城乡学校共同体、乡村中心校模式。加强县域卫生人才一体化配备和管理，在区域卫生编制总量内统一配备各类卫生人才，强化多劳多得、优绩优酬，鼓励实行“县聘乡用”和“乡聘村用”。', '（三十四）完善乡村高技能人才职业技能等级制度。组织农民参加职业技能鉴定、职业技能等级认定、职业技能竞赛等多种技能评价。探索“以赛代评”、“以项目代评”，符合条件可直接认定相应技能等级。按照有关规定对有突出贡献人才破格评定相应技能等级。', '（三十五）建立健全乡村人才分级分类评价体系。坚持“把论文写在大地上”，完善农业农村领域高级职称评审申报条件，探索推行技术标准、专题报告、发展规划、技术方案、试验报告等视同发表论文的评审方式。对乡村发展急需紧缺人才，可以设置特设岗位，不受常设岗位总量、职称最高等级和结构比例限制。', '（三十六）提高乡村人才服务保障能力。完善乡村人才认定标准，做好乡村人才分类统计，加强乡村人才工作信息化建设，建立健全县乡村三级乡村人才管理网络。加强人才管理服务工作，大力发展乡村人才服务业，引导市场主体为乡村人才提供中介、信息等服务。', '（三十七）加强组织领导。各级党委要将乡村人才振兴作为实施乡村振兴战略的重要任务，建立党委统一领导、组织部门指导、党委农村工作部门统筹协调、相关部门分工负责的乡村人才振兴工作联席会议制度。把乡村人才振兴纳入人才工作目标责任制考核和乡村振兴实绩考核。加强农村工作干部队伍的培养、配备、管理、使用，将干部培养向乡村振兴一线倾斜，选优配强涉农部门领导班子和市县分管乡村振兴的领导干部，注重提拔使用政治过硬、实绩突出的农村工作干部。', '（三十八）强化政策保障。加强乡村人才振兴投入保障，支持涉农企业加大乡村人力资本开发投入。农村集体经营性建设用地和复垦腾退建设用地指标注重支持各类乡村人才发展新产业新业态。推进农村金融产品和服务创新，鼓励证券、保险、担保、基金等金融机构服务乡村振兴，引导工商资本投资乡村事业，带动人才回流乡村。', '（三十九）搭建乡村引才聚才平台。加强现代农业产业园、农业科技园区、农村创业创新园区等平台建设，支持入园企业、科研院所等建设科研创新平台，完善科技成果转化、人才奖补等政策，引进高层次人才和急需紧缺专业人才。加强人才驿站、人才服务站、专家服务基地、青年之家、妇女之家等人才服务平台建设，为乡村人才提供政策咨询、职称申报、项目申报、融资对接等服务。', '（四十）制定乡村人才专项规划。对标实施乡村振兴战略需要，评估乡村人才供求总量和结构，细分乡村人才供求缺口，探索建立乡村人才信息库和需求目录。在摸清乡村人才现状基础上，制定乡村人才振兴规划，明确乡村人才振兴的总体要求、重点任务、政策措施，推动“三农”工作人才队伍建设制度化、规范化、常态化。', '（四十一）营造良好环境。完善扶持乡村产业发展的政策体系，建好农村基础设施和公共服务设施，改善农村发展条件，提高农村生活便利化水平，吸引城乡人才留在农村。通过优秀人才评选、创新创业比赛、职业技能大赛等途径，每年选树一批乡村人才先进典型，按照规定给予表彰和政策扶持，引导乡村人才增强力争上游、务农光荣的思想观念。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>237</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>中共花罐镇委员会关于印发花罐镇违反换届纪律问题联查联办和快查快结工作方案的通知</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/202105/t20210518_1179978.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['中共花罐镇委员会关于印发《花罐镇违反换届纪律问题联查联办和快查快结工作方案》的通知-南部县人民政府', '中共花罐镇委员会关于印发《花罐镇违反换届纪律问题联查联办和快查快结工作方案》的通知', '现将《花罐镇违反换届纪律问题联查联办和快查快结工作方案》印发给你们，请结合实际认真贯彻执行。', '为认真贯彻落实中央和省、市、县委关于严肃换届纪律、加强换届风气监督有关要求，严肃查处换届中的违规违纪违法问题，以最严明的纪律保证我镇换届工作顺利开展、风清气正，现结合我镇实际，对违反换届纪律问题进行联查联办和快查快结工作，制定如下方案。', '（一）公布举报方式。第一时间向社会公布镇办公室举报电话,以及当地换届风气督查组公布的专用举报电话，让干部群众广泛知晓、参与监督。', '（二）及时受理登记。换届期间收到的违反换届纪律问题的举报，纪委工作人员要做到专人受理、专门登记、专设台账。', '（三）确定查核方式。对受理的违反换届纪律问题，镇纪委要进行梳理甄别，对线索具体、有可查性的举报，要立即研究确定查核重点，按照“直查直办”“督查督办”及“协查协办”要求确定查核方式，报经镇领导同志阅批后，进行立项调查、快速转办。', '（四）报告受理信息。严格落实“周报告”“月汇总”制度。换届启动后，对当日举报受理情况及时报告，未受理举报的要进行“零报告”。如发现重要问题、紧急情况和敏感信息要立即报告。', '（一）直查直办。对反映本级党组织管理干部的问题，一般在5个工作日内调查完成。对反映考察对象违反换届纪律问题的举报应在考察任务结束前办结，避免查核不及时影响干部使用。', '（二）督查督办。落实上级督查督办的有关要求，对于上级受理并转办的我镇有关问题举报，应立即组织调查核实，按照要求、时限形成书面查核报告，报上级纪律监督部门。', '（三）协查协办。对需要相关部门提供支持的，联系政法、统战、检察、公安等部门提供支持，协同进行调查核实。', '（一）严肃处理。严格按照“十严禁”纪律要求，对违反换届纪律行为经查属实的，坚决予以处理。做到“一案双查”，既查处当事人，又追究责任人。', '（二）建立失实检举控告澄清工作机制。经调查核实，对受到不实举报造成不良影响的，由镇纪委及时予以澄清，属诬告陷害的严肃追究有关人员责任。', '（三）及时通报。加大对违反换届纪律案件的通报力度，镇纪委对查实的典型案例，要做到查处一起、通报一起，并向上级报告，对重点案例点名道姓曝光，切实发挥警示、震慑、教育作用。', '（一）加强学习。要认真学习换届文件、领导讲话以及有关换届材料，全面了解掌握换届政策、法律法规、纪律要求，保证专项查核工作快速反应,查处及时,处理得当。', '（二）落实责任。专项查核组成员要认真履职尽责，按要求完成调查核实工作任务。落实查核责任制，专项查核组负责人和具体承办人，要对查核报告签字背书，对查核结果负责。', '（三）舆情应对。针对互联网等媒体披露的违反换届纪律问题，按照干部管理权限，要立即进行调查核实，对经查属实的及时公布调查结果，不属实的予以澄清，正确引导舆论，弘扬清风正气。', '（四）严守纪律。要严格遵守政治纪律、组织纪律、廉洁纪律和保密纪律。对查核工作中跑风漏气、通风报信、敷衍塞责、营私舞弊的，严肃追究相关人员的责任。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>237</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>南充市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>中共花罐镇委员会关于印发严肃换届纪律工作方案的通知</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2021-04-15</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.scnanbu.gov.cn/zwgk/zc/xzwj/202104/t20210415_1181281.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['为认真贯彻落实南部县纪委、南部县组织部《关于严肃换届纪律确保换届风清气正的通知》以及省、市、县委有关会议文件精神，结合我镇实际，特制定如下实施方案。', '认真贯彻落实党的十九大和十九届四中、五中全会精神，严格执行中央“十严禁”、省委“四必须”、市委“二十条措施”要求，全面落实严肃换届纪律的各项任务和措施，确保换届风清气正，确保换届任务圆满完成。', '（一）强化换届纪律教育 1.开展一次严守换届纪律专题学习。镇党委理论学习中心组近期将召开一次严肃换届纪律专题学习会；各党支部、各单位要采取多种形式，及时把中央、省委、市委和县委关于严肃换届纪律的有关精神，传达到每一位党员干部，传达到与换届有关的所有人员。镇纪委和镇组织员要组织本部门干部带头学习有关精神，加强对换届工作政策文件、工作流程和具体要求的学习研讨，努力使每一位纪检干部和组工干部成为换届工作的行家里手，确保执行换届标准不走样、严格程序不变通。 2.下发一册学习读本。将县委组织部编印成册的换届纪律要求、典型案例等相关学习资料，下发给镇党政领导、民情直报人员和村“两委”认真学习、自觉遵守、共同监督，坚决抵制各种不正之风。 3.集中一段时间宣传。从现在开始，根据换届进程，依托短信、宣传栏等宣传手段，大力开展换届工作宣传。通过大力宣传，使广大干部群众知晓严肃换届纪律的要求，使党员领导干部带头遵规守纪，不越“红线”，带头抵制不正之风，在全镇上下营造风清气正的换届环境。 （二）强化换届工作监督 1.抓好“四项监督制度”及相关制度的落实。认真抓好干部选拔任用工作四项监督制度特别是《中共共产党基层组织选举工作暂行条例》的贯彻执行。认真落实换届选举的工作流程和各项制度，该对上报告的必须如实报告，该对下把关的必须严格把关。 2.开展严肃换届纪律公开承诺活动。围绕严肃换届纪律、营造风清气正环境这一主题，举行一次严肃换届纪律公开承诺，所有符合提名条件的领导干部，要作出严守换届纪律的的书面承诺，并在党务政务公开栏上向干部群众公布，自觉接受监督。 3.对严肃换届纪律进行全程监督。将严格监督贯穿换届工作的全过程，落实到干部提名推荐、组织考察、任用公示和正式选举等每一个环节。聘请换届监督员和民情直报员，全程监督换届工作。在召开民主推荐会前，将市、县严肃换届纪律的通知送给每一位参加推荐的人员学习，并填写回执。在召开民主推荐大会时，对严肃换届纪律情况进行问卷调查，问卷调查。在下发会议通知时，将换届风气测评表送达每一位代表和委员。换届选举时，请代表和委员对本地换届风气总体情况和是否存在突出问题进行民主测评。 （三）强化违纪行为查处 严肃查处违反换届纪律行为。充分发挥电话、信访等举报平台作用，建立专人值守和专办制度，从快从严从重查处换届中的违纪行为。对上级纪检、组织部门的立项督查件，要在15天内报送查核结果；对反映考察对象问题的，要在考察工作结束前办结；对换届选举期间当场发现的问题，要立即制止、坚决纠正。', '（四）强化对换届的组织领导 1.实行工作责任制。实行严肃换届纪律工作责任制，镇党委书记为镇镇严肃换届纪律工作的第一责任人，与换届相关人员签订换届工作责任书。对责任书中的每一项任务都有具体人负责。对履责不力造成严重后果的，要视情追究相关人员的责任。', '建立协调机制。在镇党委的统一领导下，建立组织、纪检、宣传、政法、统战等部门组成的换届工作沟通协调机制，定期沟通情况，根据需要随时沟通情况，密切配合，在严肃换届纪律上坚持重要问题共同研究、重要工作共同部署，做到齐抓共管，形成合力。', '加强工作督查。换届期间，认真配合上级组织派出的督查组做好督查工作。同时，镇督查组将对各支部换届工作中执行换届政策法规、严肃换届纪律情况进行督查，及时发现和严肃查处违规违纪行为。', '各支部、各有关单位，要认真履行换届工作责任，加大学习、宣传教育工作力度，营造严守换届纪律的浓厚氛围。要根据换届工作进展情况，适时制订落实严守纪律工作计划，把严守纪律要求贯穿于换届工作全过程。要切实加强思想政治工作，引导党员干部正确对待个人进退留转，服从组织安排，自觉维护大局，保证工作扎实有序推进，圆满完成我镇换届工作，为全镇经济和社会事业的全面发展提供坚强的组织保证。']</t>
         </is>
